--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15120" uniqueCount="395">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37148" uniqueCount="400">
   <si>
     <t>CXD</t>
   </si>
@@ -1248,6 +1248,21 @@
   <si>
     <t>6000</t>
   </si>
+  <si>
+    <t>280000</t>
+  </si>
+  <si>
+    <t>560000</t>
+  </si>
+  <si>
+    <t>720000</t>
+  </si>
+  <si>
+    <t>129232</t>
+  </si>
+  <si>
+    <t>320000</t>
+  </si>
 </sst>
 </file>
 
@@ -2560,76 +2575,76 @@
       <c r="J7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="K7" t="s" s="10">
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s" s="10">
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s" s="10">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s" s="10">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s" s="10">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s" s="10">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s" s="10">
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="R7" t="s" s="10">
+      <c r="R7" t="s">
         <v>26</v>
       </c>
-      <c r="S7" t="s" s="10">
+      <c r="S7" t="s">
         <v>26</v>
       </c>
-      <c r="T7" t="s" s="10">
+      <c r="T7" t="s">
         <v>26</v>
       </c>
-      <c r="U7" t="s" s="10">
+      <c r="U7" t="s">
         <v>26</v>
       </c>
-      <c r="V7" t="s" s="10">
+      <c r="V7" t="s">
         <v>27</v>
       </c>
-      <c r="W7" t="s" s="10">
+      <c r="W7" t="s">
         <v>27</v>
       </c>
-      <c r="X7" t="s" s="10">
+      <c r="X7" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" t="s" s="10">
+      <c r="Y7" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" t="s" s="10">
+      <c r="Z7" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" t="s" s="10">
+      <c r="AA7" t="s">
         <v>27</v>
       </c>
-      <c r="AB7" t="s" s="10">
+      <c r="AB7" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" t="s" s="10">
+      <c r="AC7" t="s">
         <v>27</v>
       </c>
-      <c r="AD7" t="s" s="10">
+      <c r="AD7" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" t="s" s="10">
+      <c r="AE7" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" t="s" s="10">
+      <c r="AF7" t="s">
         <v>27</v>
       </c>
-      <c r="AG7" t="s" s="10">
+      <c r="AG7" t="s">
         <v>27</v>
       </c>
-      <c r="AH7" t="s" s="10">
+      <c r="AH7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2640,76 +2655,76 @@
       <c r="J8" t="s" s="10">
         <v>0</v>
       </c>
-      <c r="K8" t="s" s="10">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="10">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="10">
+      <c r="M8" t="s">
         <v>97</v>
       </c>
-      <c r="N8" t="s" s="10">
+      <c r="N8" t="s">
         <v>1</v>
       </c>
-      <c r="O8" t="s" s="10">
+      <c r="O8" t="s">
         <v>98</v>
       </c>
-      <c r="P8" t="s" s="10">
+      <c r="P8" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" t="s" s="10">
+      <c r="Q8" t="s">
         <v>99</v>
       </c>
-      <c r="R8" t="s" s="10">
+      <c r="R8" t="s">
         <v>3</v>
       </c>
-      <c r="S8" t="s" s="10">
+      <c r="S8" t="s">
         <v>100</v>
       </c>
-      <c r="T8" t="s" s="10">
+      <c r="T8" t="s">
         <v>101</v>
       </c>
-      <c r="U8" t="s" s="10">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s" s="10">
+      <c r="V8" t="s">
         <v>94</v>
       </c>
-      <c r="W8" t="s" s="10">
+      <c r="W8" t="s">
         <v>0</v>
       </c>
-      <c r="X8" t="s" s="10">
+      <c r="X8" t="s">
         <v>95</v>
       </c>
-      <c r="Y8" t="s" s="10">
+      <c r="Y8" t="s">
         <v>96</v>
       </c>
-      <c r="Z8" t="s" s="10">
+      <c r="Z8" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" t="s" s="10">
+      <c r="AA8" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" t="s" s="10">
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AC8" t="s" s="10">
+      <c r="AC8" t="s">
         <v>2</v>
       </c>
-      <c r="AD8" t="s" s="10">
+      <c r="AD8" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" t="s" s="10">
+      <c r="AE8" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" t="s" s="10">
+      <c r="AF8" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" t="s" s="10">
+      <c r="AG8" t="s">
         <v>101</v>
       </c>
-      <c r="AH8" t="s" s="10">
+      <c r="AH8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2727,13 +2742,13 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G9" t="s" s="10">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="I9" t="s" s="10">
         <v>268</v>
@@ -2754,13 +2769,13 @@
         <v>234</v>
       </c>
       <c r="O9" t="s" s="10">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="P9" t="s" s="10">
         <v>234</v>
       </c>
       <c r="Q9" t="s" s="10">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="R9" t="s" s="10">
         <v>234</v>
@@ -2843,13 +2858,13 @@
         <v>28</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="G10" t="s" s="10">
-        <v>255</v>
+        <v>261</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>382</v>
+        <v>397</v>
       </c>
       <c r="I10" t="s" s="10">
         <v>268</v>
@@ -2870,13 +2885,13 @@
         <v>234</v>
       </c>
       <c r="O10" t="s" s="10">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="P10" t="s" s="10">
         <v>234</v>
       </c>
       <c r="Q10" t="s" s="10">
-        <v>383</v>
+        <v>398</v>
       </c>
       <c r="R10" t="s" s="10">
         <v>234</v>
@@ -2959,13 +2974,13 @@
         <v>4</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="G11" t="s" s="10">
-        <v>241</v>
+        <v>260</v>
       </c>
       <c r="H11" t="s" s="10">
-        <v>242</v>
+        <v>261</v>
       </c>
       <c r="I11" t="s" s="10">
         <v>234</v>
@@ -2986,13 +3001,13 @@
         <v>234</v>
       </c>
       <c r="O11" t="s" s="10">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="P11" t="s" s="10">
         <v>234</v>
       </c>
       <c r="Q11" t="s" s="10">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="R11" t="s" s="10">
         <v>234</v>
@@ -3191,13 +3206,13 @@
         <v>31</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G13" t="s" s="10">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H13" t="s" s="10">
-        <v>237</v>
+        <v>399</v>
       </c>
       <c r="I13" t="s" s="10">
         <v>234</v>
@@ -3218,13 +3233,13 @@
         <v>234</v>
       </c>
       <c r="O13" t="s" s="10">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="P13" t="s" s="10">
         <v>234</v>
       </c>
       <c r="Q13" t="s" s="10">
-        <v>234</v>
+        <v>389</v>
       </c>
       <c r="R13" t="s" s="10">
         <v>234</v>
@@ -4344,76 +4359,76 @@
       <c r="J24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="K24" t="s" s="10">
+      <c r="K24" t="s">
         <v>26</v>
       </c>
-      <c r="L24" t="s" s="10">
+      <c r="L24" t="s">
         <v>26</v>
       </c>
-      <c r="M24" t="s" s="10">
+      <c r="M24" t="s">
         <v>26</v>
       </c>
-      <c r="N24" t="s" s="10">
+      <c r="N24" t="s">
         <v>26</v>
       </c>
-      <c r="O24" t="s" s="10">
+      <c r="O24" t="s">
         <v>26</v>
       </c>
-      <c r="P24" t="s" s="10">
+      <c r="P24" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" t="s" s="10">
+      <c r="Q24" t="s">
         <v>26</v>
       </c>
-      <c r="R24" t="s" s="10">
+      <c r="R24" t="s">
         <v>26</v>
       </c>
-      <c r="S24" t="s" s="10">
+      <c r="S24" t="s">
         <v>26</v>
       </c>
-      <c r="T24" t="s" s="10">
+      <c r="T24" t="s">
         <v>26</v>
       </c>
-      <c r="U24" t="s" s="10">
+      <c r="U24" t="s">
         <v>26</v>
       </c>
-      <c r="V24" t="s" s="10">
+      <c r="V24" t="s">
         <v>27</v>
       </c>
-      <c r="W24" t="s" s="10">
+      <c r="W24" t="s">
         <v>27</v>
       </c>
-      <c r="X24" t="s" s="10">
+      <c r="X24" t="s">
         <v>27</v>
       </c>
-      <c r="Y24" t="s" s="10">
+      <c r="Y24" t="s">
         <v>27</v>
       </c>
-      <c r="Z24" t="s" s="10">
+      <c r="Z24" t="s">
         <v>27</v>
       </c>
-      <c r="AA24" t="s" s="10">
+      <c r="AA24" t="s">
         <v>27</v>
       </c>
-      <c r="AB24" t="s" s="10">
+      <c r="AB24" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" t="s" s="10">
+      <c r="AC24" t="s">
         <v>27</v>
       </c>
-      <c r="AD24" t="s" s="10">
+      <c r="AD24" t="s">
         <v>27</v>
       </c>
-      <c r="AE24" t="s" s="10">
+      <c r="AE24" t="s">
         <v>27</v>
       </c>
-      <c r="AF24" t="s" s="10">
+      <c r="AF24" t="s">
         <v>27</v>
       </c>
-      <c r="AG24" t="s" s="10">
+      <c r="AG24" t="s">
         <v>27</v>
       </c>
-      <c r="AH24" t="s" s="10">
+      <c r="AH24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4424,76 +4439,76 @@
       <c r="J25" t="s" s="10">
         <v>0</v>
       </c>
-      <c r="K25" t="s" s="10">
+      <c r="K25" t="s">
         <v>95</v>
       </c>
-      <c r="L25" t="s" s="10">
+      <c r="L25" t="s">
         <v>96</v>
       </c>
-      <c r="M25" t="s" s="10">
+      <c r="M25" t="s">
         <v>97</v>
       </c>
-      <c r="N25" t="s" s="10">
+      <c r="N25" t="s">
         <v>1</v>
       </c>
-      <c r="O25" t="s" s="10">
+      <c r="O25" t="s">
         <v>98</v>
       </c>
-      <c r="P25" t="s" s="10">
+      <c r="P25" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" t="s" s="10">
+      <c r="Q25" t="s">
         <v>99</v>
       </c>
-      <c r="R25" t="s" s="10">
+      <c r="R25" t="s">
         <v>3</v>
       </c>
-      <c r="S25" t="s" s="10">
+      <c r="S25" t="s">
         <v>100</v>
       </c>
-      <c r="T25" t="s" s="10">
+      <c r="T25" t="s">
         <v>101</v>
       </c>
-      <c r="U25" t="s" s="10">
+      <c r="U25" t="s">
         <v>102</v>
       </c>
-      <c r="V25" t="s" s="10">
+      <c r="V25" t="s">
         <v>94</v>
       </c>
-      <c r="W25" t="s" s="10">
+      <c r="W25" t="s">
         <v>0</v>
       </c>
-      <c r="X25" t="s" s="10">
+      <c r="X25" t="s">
         <v>95</v>
       </c>
-      <c r="Y25" t="s" s="10">
+      <c r="Y25" t="s">
         <v>96</v>
       </c>
-      <c r="Z25" t="s" s="10">
+      <c r="Z25" t="s">
         <v>97</v>
       </c>
-      <c r="AA25" t="s" s="10">
+      <c r="AA25" t="s">
         <v>1</v>
       </c>
-      <c r="AB25" t="s" s="10">
+      <c r="AB25" t="s">
         <v>98</v>
       </c>
-      <c r="AC25" t="s" s="10">
+      <c r="AC25" t="s">
         <v>2</v>
       </c>
-      <c r="AD25" t="s" s="10">
+      <c r="AD25" t="s">
         <v>99</v>
       </c>
-      <c r="AE25" t="s" s="10">
+      <c r="AE25" t="s">
         <v>3</v>
       </c>
-      <c r="AF25" t="s" s="10">
+      <c r="AF25" t="s">
         <v>100</v>
       </c>
-      <c r="AG25" t="s" s="10">
+      <c r="AG25" t="s">
         <v>101</v>
       </c>
-      <c r="AH25" t="s" s="10">
+      <c r="AH25" t="s">
         <v>102</v>
       </c>
     </row>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37148" uniqueCount="400">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83490" uniqueCount="423">
   <si>
     <t>CXD</t>
   </si>
@@ -1263,6 +1263,75 @@
   <si>
     <t>320000</t>
   </si>
+  <si>
+    <t>380000</t>
+  </si>
+  <si>
+    <t>760000</t>
+  </si>
+  <si>
+    <t>22</t>
+  </si>
+  <si>
+    <t>67</t>
+  </si>
+  <si>
+    <t>45</t>
+  </si>
+  <si>
+    <t>1120000</t>
+  </si>
+  <si>
+    <t>280</t>
+  </si>
+  <si>
+    <t>235</t>
+  </si>
+  <si>
+    <t>640000</t>
+  </si>
+  <si>
+    <t>213</t>
+  </si>
+  <si>
+    <t>76</t>
+  </si>
+  <si>
+    <t>65</t>
+  </si>
+  <si>
+    <t>131</t>
+  </si>
+  <si>
+    <t>120</t>
+  </si>
+  <si>
+    <t>55</t>
+  </si>
+  <si>
+    <t>880000</t>
+  </si>
+  <si>
+    <t>1760000</t>
+  </si>
+  <si>
+    <t>12817</t>
+  </si>
+  <si>
+    <t>420000</t>
+  </si>
+  <si>
+    <t>840000</t>
+  </si>
+  <si>
+    <t>50136</t>
+  </si>
+  <si>
+    <t>50016</t>
+  </si>
+  <si>
+    <t>50005</t>
+  </si>
 </sst>
 </file>
 
@@ -2742,13 +2811,13 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>261</v>
+        <v>396</v>
       </c>
       <c r="G9" t="s" s="10">
-        <v>261</v>
+        <v>396</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="I9" t="s" s="10">
         <v>268</v>
@@ -2763,7 +2832,7 @@
         <v>234</v>
       </c>
       <c r="M9" t="s" s="10">
-        <v>234</v>
+        <v>406</v>
       </c>
       <c r="N9" t="s" s="10">
         <v>234</v>
@@ -2858,13 +2927,13 @@
         <v>28</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>261</v>
+        <v>396</v>
       </c>
       <c r="G10" t="s" s="10">
-        <v>261</v>
+        <v>396</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>397</v>
+        <v>405</v>
       </c>
       <c r="I10" t="s" s="10">
         <v>268</v>
@@ -2879,7 +2948,7 @@
         <v>234</v>
       </c>
       <c r="M10" t="s" s="10">
-        <v>234</v>
+        <v>406</v>
       </c>
       <c r="N10" t="s" s="10">
         <v>234</v>
@@ -2974,13 +3043,13 @@
         <v>4</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="G11" t="s" s="10">
-        <v>260</v>
+        <v>261</v>
       </c>
       <c r="H11" t="s" s="10">
-        <v>261</v>
+        <v>397</v>
       </c>
       <c r="I11" t="s" s="10">
         <v>234</v>
@@ -2995,7 +3064,7 @@
         <v>234</v>
       </c>
       <c r="M11" t="s" s="10">
-        <v>234</v>
+        <v>407</v>
       </c>
       <c r="N11" t="s" s="10">
         <v>234</v>
@@ -3090,13 +3159,13 @@
         <v>30</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G12" t="s" s="10">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H12" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I12" t="s" s="10">
         <v>234</v>
@@ -3111,7 +3180,7 @@
         <v>234</v>
       </c>
       <c r="M12" t="s" s="10">
-        <v>234</v>
+        <v>402</v>
       </c>
       <c r="N12" t="s" s="10">
         <v>234</v>
@@ -3206,13 +3275,13 @@
         <v>31</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>233</v>
+        <v>399</v>
       </c>
       <c r="G13" t="s" s="10">
-        <v>233</v>
+        <v>399</v>
       </c>
       <c r="H13" t="s" s="10">
-        <v>399</v>
+        <v>408</v>
       </c>
       <c r="I13" t="s" s="10">
         <v>234</v>
@@ -3227,7 +3296,7 @@
         <v>234</v>
       </c>
       <c r="M13" t="s" s="10">
-        <v>234</v>
+        <v>409</v>
       </c>
       <c r="N13" t="s" s="10">
         <v>234</v>
@@ -4018,13 +4087,13 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="H20" t="s" s="10">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="I20" t="s" s="10">
         <v>234</v>
@@ -4039,7 +4108,7 @@
         <v>234</v>
       </c>
       <c r="M20" t="s" s="10">
-        <v>234</v>
+        <v>404</v>
       </c>
       <c r="N20" t="s" s="10">
         <v>234</v>
@@ -4134,13 +4203,13 @@
         <v>39</v>
       </c>
       <c r="F21" t="s" s="10">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G21" t="s" s="10">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H21" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I21" t="s" s="10">
         <v>234</v>
@@ -4155,7 +4224,7 @@
         <v>234</v>
       </c>
       <c r="M21" t="s" s="10">
-        <v>234</v>
+        <v>404</v>
       </c>
       <c r="N21" t="s" s="10">
         <v>234</v>
@@ -4526,13 +4595,13 @@
         <v>28</v>
       </c>
       <c r="F26" t="s" s="10">
-        <v>244</v>
+        <v>415</v>
       </c>
       <c r="G26" t="s" s="10">
-        <v>244</v>
+        <v>415</v>
       </c>
       <c r="H26" t="s" s="10">
-        <v>245</v>
+        <v>416</v>
       </c>
       <c r="I26" t="s" s="10">
         <v>234</v>
@@ -4547,7 +4616,7 @@
         <v>234</v>
       </c>
       <c r="M26" t="s" s="10">
-        <v>234</v>
+        <v>420</v>
       </c>
       <c r="N26" t="s" s="10">
         <v>234</v>
@@ -4568,7 +4637,7 @@
         <v>393</v>
       </c>
       <c r="T26" t="s" s="10">
-        <v>273</v>
+        <v>417</v>
       </c>
       <c r="U26" t="s" s="10">
         <v>234</v>
@@ -7890,13 +7959,13 @@
         <v>28</v>
       </c>
       <c r="F55" t="s" s="10">
-        <v>251</v>
+        <v>418</v>
       </c>
       <c r="G55" t="s" s="10">
-        <v>251</v>
+        <v>418</v>
       </c>
       <c r="H55" t="s" s="10">
-        <v>256</v>
+        <v>419</v>
       </c>
       <c r="I55" t="s" s="10">
         <v>234</v>
@@ -7911,7 +7980,7 @@
         <v>234</v>
       </c>
       <c r="M55" t="s" s="10">
-        <v>234</v>
+        <v>420</v>
       </c>
       <c r="N55" t="s" s="10">
         <v>234</v>
@@ -7932,7 +8001,7 @@
         <v>234</v>
       </c>
       <c r="T55" t="s" s="10">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="U55" t="s" s="10">
         <v>234</v>
@@ -9166,13 +9235,13 @@
         <v>59</v>
       </c>
       <c r="F66" t="s" s="10">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="G66" t="s" s="10">
-        <v>260</v>
+        <v>250</v>
       </c>
       <c r="H66" t="s" s="10">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="I66" t="s" s="10">
         <v>234</v>
@@ -9187,7 +9256,7 @@
         <v>234</v>
       </c>
       <c r="M66" t="s" s="10">
-        <v>234</v>
+        <v>421</v>
       </c>
       <c r="N66" t="s" s="10">
         <v>234</v>
@@ -9208,7 +9277,7 @@
         <v>234</v>
       </c>
       <c r="T66" t="s" s="10">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="U66" t="s" s="10">
         <v>234</v>
@@ -9535,7 +9604,7 @@
         <v>234</v>
       </c>
       <c r="M69" t="s" s="10">
-        <v>234</v>
+        <v>259</v>
       </c>
       <c r="N69" t="s" s="10">
         <v>234</v>
@@ -9651,7 +9720,7 @@
         <v>234</v>
       </c>
       <c r="M70" t="s" s="10">
-        <v>234</v>
+        <v>422</v>
       </c>
       <c r="N70" t="s" s="10">
         <v>234</v>
@@ -9862,13 +9931,13 @@
         <v>85</v>
       </c>
       <c r="F72" t="s" s="10">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G72" t="s" s="10">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H72" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I72" t="s" s="10">
         <v>234</v>
@@ -9904,7 +9973,7 @@
         <v>234</v>
       </c>
       <c r="T72" t="s" s="10">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="U72" t="s" s="10">
         <v>234</v>
@@ -10347,7 +10416,7 @@
         <v>234</v>
       </c>
       <c r="M76" t="s" s="10">
-        <v>234</v>
+        <v>413</v>
       </c>
       <c r="N76" t="s" s="10">
         <v>234</v>
@@ -10579,7 +10648,7 @@
         <v>234</v>
       </c>
       <c r="M78" t="s" s="10">
-        <v>234</v>
+        <v>414</v>
       </c>
       <c r="N78" t="s" s="10">
         <v>234</v>
@@ -10695,7 +10764,7 @@
         <v>234</v>
       </c>
       <c r="M79" t="s" s="10">
-        <v>234</v>
+        <v>411</v>
       </c>
       <c r="N79" t="s" s="10">
         <v>234</v>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="83490" uniqueCount="423">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129832" uniqueCount="430">
   <si>
     <t>CXD</t>
   </si>
@@ -1332,6 +1332,27 @@
   <si>
     <t>50005</t>
   </si>
+  <si>
+    <t>600000</t>
+  </si>
+  <si>
+    <t>1200000</t>
+  </si>
+  <si>
+    <t>154232</t>
+  </si>
+  <si>
+    <t>1280000</t>
+  </si>
+  <si>
+    <t>179237</t>
+  </si>
+  <si>
+    <t>28005</t>
+  </si>
+  <si>
+    <t>25005</t>
+  </si>
 </sst>
 </file>
 
@@ -2811,13 +2832,13 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="G9" t="s" s="10">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="I9" t="s" s="10">
         <v>268</v>
@@ -2844,7 +2865,7 @@
         <v>234</v>
       </c>
       <c r="Q9" t="s" s="10">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="R9" t="s" s="10">
         <v>234</v>
@@ -2927,13 +2948,13 @@
         <v>28</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="G10" t="s" s="10">
-        <v>396</v>
+        <v>408</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>405</v>
+        <v>426</v>
       </c>
       <c r="I10" t="s" s="10">
         <v>268</v>
@@ -2960,7 +2981,7 @@
         <v>234</v>
       </c>
       <c r="Q10" t="s" s="10">
-        <v>398</v>
+        <v>427</v>
       </c>
       <c r="R10" t="s" s="10">
         <v>234</v>
@@ -3043,13 +3064,13 @@
         <v>4</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="G11" t="s" s="10">
-        <v>261</v>
+        <v>251</v>
       </c>
       <c r="H11" t="s" s="10">
-        <v>397</v>
+        <v>256</v>
       </c>
       <c r="I11" t="s" s="10">
         <v>234</v>
@@ -3076,7 +3097,7 @@
         <v>234</v>
       </c>
       <c r="Q11" t="s" s="10">
-        <v>389</v>
+        <v>428</v>
       </c>
       <c r="R11" t="s" s="10">
         <v>234</v>
@@ -3159,13 +3180,13 @@
         <v>30</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G12" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H12" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I12" t="s" s="10">
         <v>234</v>
@@ -3192,7 +3213,7 @@
         <v>234</v>
       </c>
       <c r="Q12" t="s" s="10">
-        <v>234</v>
+        <v>429</v>
       </c>
       <c r="R12" t="s" s="10">
         <v>234</v>
@@ -3391,13 +3412,13 @@
         <v>32</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G14" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H14" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I14" t="s" s="10">
         <v>268</v>
@@ -3424,7 +3445,7 @@
         <v>234</v>
       </c>
       <c r="Q14" t="s" s="10">
-        <v>234</v>
+        <v>391</v>
       </c>
       <c r="R14" t="s" s="10">
         <v>234</v>
@@ -3507,13 +3528,13 @@
         <v>33</v>
       </c>
       <c r="F15" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G15" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H15" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I15" t="s" s="10">
         <v>268</v>
@@ -3540,7 +3561,7 @@
         <v>234</v>
       </c>
       <c r="Q15" t="s" s="10">
-        <v>234</v>
+        <v>391</v>
       </c>
       <c r="R15" t="s" s="10">
         <v>234</v>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="129832" uniqueCount="430">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146188" uniqueCount="439">
   <si>
     <t>CXD</t>
   </si>
@@ -1353,6 +1353,33 @@
   <si>
     <t>25005</t>
   </si>
+  <si>
+    <t>700000</t>
+  </si>
+  <si>
+    <t>1400000</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>15000</t>
+  </si>
+  <si>
+    <t>34233</t>
+  </si>
+  <si>
+    <t>10011</t>
+  </si>
+  <si>
+    <t>24222</t>
+  </si>
+  <si>
+    <t>76215</t>
+  </si>
+  <si>
+    <t>51215</t>
+  </si>
 </sst>
 </file>
 
@@ -2832,13 +2859,13 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="G9" t="s" s="10">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="I9" t="s" s="10">
         <v>268</v>
@@ -2868,7 +2895,7 @@
         <v>427</v>
       </c>
       <c r="R9" t="s" s="10">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="S9" t="s" s="10">
         <v>265</v>
@@ -2883,7 +2910,7 @@
         <v>234</v>
       </c>
       <c r="W9" t="s" s="10">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="X9" t="s" s="10">
         <v>377</v>
@@ -2892,7 +2919,7 @@
         <v>234</v>
       </c>
       <c r="Z9" t="s" s="10">
-        <v>234</v>
+        <v>434</v>
       </c>
       <c r="AA9" t="s" s="10">
         <v>234</v>
@@ -2948,13 +2975,13 @@
         <v>28</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="G10" t="s" s="10">
-        <v>408</v>
+        <v>430</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>426</v>
+        <v>431</v>
       </c>
       <c r="I10" t="s" s="10">
         <v>268</v>
@@ -2984,7 +3011,7 @@
         <v>427</v>
       </c>
       <c r="R10" t="s" s="10">
-        <v>234</v>
+        <v>241</v>
       </c>
       <c r="S10" t="s" s="10">
         <v>265</v>
@@ -2999,7 +3026,7 @@
         <v>234</v>
       </c>
       <c r="W10" t="s" s="10">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="X10" t="s" s="10">
         <v>377</v>
@@ -3008,7 +3035,7 @@
         <v>234</v>
       </c>
       <c r="Z10" t="s" s="10">
-        <v>234</v>
+        <v>434</v>
       </c>
       <c r="AA10" t="s" s="10">
         <v>234</v>
@@ -3115,7 +3142,7 @@
         <v>234</v>
       </c>
       <c r="W11" t="s" s="10">
-        <v>385</v>
+        <v>437</v>
       </c>
       <c r="X11" t="s" s="10">
         <v>378</v>
@@ -3124,7 +3151,7 @@
         <v>234</v>
       </c>
       <c r="Z11" t="s" s="10">
-        <v>234</v>
+        <v>435</v>
       </c>
       <c r="AA11" t="s" s="10">
         <v>234</v>
@@ -3240,7 +3267,7 @@
         <v>234</v>
       </c>
       <c r="Z12" t="s" s="10">
-        <v>234</v>
+        <v>435</v>
       </c>
       <c r="AA12" t="s" s="10">
         <v>234</v>
@@ -3347,7 +3374,7 @@
         <v>234</v>
       </c>
       <c r="W13" t="s" s="10">
-        <v>263</v>
+        <v>438</v>
       </c>
       <c r="X13" t="s" s="10">
         <v>318</v>
@@ -3644,13 +3671,13 @@
         <v>34</v>
       </c>
       <c r="F16" t="s" s="10">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="G16" t="s" s="10">
-        <v>237</v>
+        <v>252</v>
       </c>
       <c r="H16" t="s" s="10">
-        <v>233</v>
+        <v>250</v>
       </c>
       <c r="I16" t="s" s="10">
         <v>234</v>
@@ -3680,7 +3707,7 @@
         <v>384</v>
       </c>
       <c r="R16" t="s" s="10">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="S16" t="s" s="10">
         <v>266</v>
@@ -3760,13 +3787,13 @@
         <v>35</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G17" t="s" s="10">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H17" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I17" t="s" s="10">
         <v>234</v>
@@ -3796,7 +3823,7 @@
         <v>234</v>
       </c>
       <c r="R17" t="s" s="10">
-        <v>234</v>
+        <v>432</v>
       </c>
       <c r="S17" t="s" s="10">
         <v>266</v>
@@ -4108,13 +4135,13 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>237</v>
+        <v>242</v>
       </c>
       <c r="H20" t="s" s="10">
-        <v>233</v>
+        <v>255</v>
       </c>
       <c r="I20" t="s" s="10">
         <v>234</v>
@@ -4144,7 +4171,7 @@
         <v>385</v>
       </c>
       <c r="R20" t="s" s="10">
-        <v>234</v>
+        <v>433</v>
       </c>
       <c r="S20" t="s" s="10">
         <v>267</v>
@@ -4168,7 +4195,7 @@
         <v>234</v>
       </c>
       <c r="Z20" t="s" s="10">
-        <v>234</v>
+        <v>436</v>
       </c>
       <c r="AA20" t="s" s="10">
         <v>234</v>
@@ -4224,13 +4251,13 @@
         <v>39</v>
       </c>
       <c r="F21" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G21" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H21" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I21" t="s" s="10">
         <v>234</v>
@@ -4260,7 +4287,7 @@
         <v>234</v>
       </c>
       <c r="R21" t="s" s="10">
-        <v>234</v>
+        <v>433</v>
       </c>
       <c r="S21" t="s" s="10">
         <v>267</v>
@@ -4284,7 +4311,7 @@
         <v>234</v>
       </c>
       <c r="Z21" t="s" s="10">
-        <v>234</v>
+        <v>267</v>
       </c>
       <c r="AA21" t="s" s="10">
         <v>234</v>
@@ -4400,7 +4427,7 @@
         <v>234</v>
       </c>
       <c r="Z22" t="s" s="10">
-        <v>234</v>
+        <v>272</v>
       </c>
       <c r="AA22" t="s" s="10">
         <v>234</v>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="146188" uniqueCount="439">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="159818" uniqueCount="471">
   <si>
     <t>CXD</t>
   </si>
@@ -1380,6 +1380,102 @@
   <si>
     <t>51215</t>
   </si>
+  <si>
+    <t>3260000</t>
+  </si>
+  <si>
+    <t>6520000</t>
+  </si>
+  <si>
+    <t>211</t>
+  </si>
+  <si>
+    <t>460</t>
+  </si>
+  <si>
+    <t>184260</t>
+  </si>
+  <si>
+    <t>223329</t>
+  </si>
+  <si>
+    <t>22444</t>
+  </si>
+  <si>
+    <t>2560000</t>
+  </si>
+  <si>
+    <t>5120000</t>
+  </si>
+  <si>
+    <t>383</t>
+  </si>
+  <si>
+    <t>31028</t>
+  </si>
+  <si>
+    <t>155008</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>40</t>
+  </si>
+  <si>
+    <t>105000</t>
+  </si>
+  <si>
+    <t>3023</t>
+  </si>
+  <si>
+    <t>50008</t>
+  </si>
+  <si>
+    <t>77</t>
+  </si>
+  <si>
+    <t>220000</t>
+  </si>
+  <si>
+    <t>440000</t>
+  </si>
+  <si>
+    <t>53232</t>
+  </si>
+  <si>
+    <t>16321</t>
+  </si>
+  <si>
+    <t>88</t>
+  </si>
+  <si>
+    <t>900000</t>
+  </si>
+  <si>
+    <t>1800000</t>
+  </si>
+  <si>
+    <t>2467</t>
+  </si>
+  <si>
+    <t>10522</t>
+  </si>
+  <si>
+    <t>10048</t>
+  </si>
+  <si>
+    <t>960000</t>
+  </si>
+  <si>
+    <t>9999</t>
+  </si>
+  <si>
+    <t>2444</t>
+  </si>
+  <si>
+    <t>56136</t>
+  </si>
 </sst>
 </file>
 
@@ -2859,19 +2955,19 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="G9" t="s" s="10">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="I9" t="s" s="10">
-        <v>268</v>
+        <v>441</v>
       </c>
       <c r="J9" t="s" s="10">
-        <v>271</v>
+        <v>442</v>
       </c>
       <c r="K9" t="s" s="10">
         <v>234</v>
@@ -2892,16 +2988,16 @@
         <v>234</v>
       </c>
       <c r="Q9" t="s" s="10">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="R9" t="s" s="10">
         <v>241</v>
       </c>
       <c r="S9" t="s" s="10">
-        <v>265</v>
+        <v>444</v>
       </c>
       <c r="T9" t="s" s="10">
-        <v>272</v>
+        <v>445</v>
       </c>
       <c r="U9" t="s" s="10">
         <v>234</v>
@@ -2975,19 +3071,19 @@
         <v>28</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="G10" t="s" s="10">
-        <v>430</v>
+        <v>439</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>431</v>
+        <v>440</v>
       </c>
       <c r="I10" t="s" s="10">
-        <v>268</v>
+        <v>441</v>
       </c>
       <c r="J10" t="s" s="10">
-        <v>271</v>
+        <v>442</v>
       </c>
       <c r="K10" t="s" s="10">
         <v>234</v>
@@ -3008,16 +3104,16 @@
         <v>234</v>
       </c>
       <c r="Q10" t="s" s="10">
-        <v>427</v>
+        <v>443</v>
       </c>
       <c r="R10" t="s" s="10">
         <v>241</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>265</v>
+        <v>444</v>
       </c>
       <c r="T10" t="s" s="10">
-        <v>272</v>
+        <v>445</v>
       </c>
       <c r="U10" t="s" s="10">
         <v>234</v>
@@ -3091,19 +3187,19 @@
         <v>4</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>251</v>
+        <v>446</v>
       </c>
       <c r="G11" t="s" s="10">
-        <v>251</v>
+        <v>446</v>
       </c>
       <c r="H11" t="s" s="10">
-        <v>256</v>
+        <v>447</v>
       </c>
       <c r="I11" t="s" s="10">
         <v>234</v>
       </c>
       <c r="J11" t="s" s="10">
-        <v>271</v>
+        <v>448</v>
       </c>
       <c r="K11" t="s" s="10">
         <v>234</v>
@@ -3124,16 +3220,16 @@
         <v>234</v>
       </c>
       <c r="Q11" t="s" s="10">
-        <v>428</v>
+        <v>449</v>
       </c>
       <c r="R11" t="s" s="10">
         <v>234</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>264</v>
+        <v>450</v>
       </c>
       <c r="T11" t="s" s="10">
-        <v>234</v>
+        <v>451</v>
       </c>
       <c r="U11" t="s" s="10">
         <v>234</v>
@@ -3207,19 +3303,19 @@
         <v>30</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>237</v>
+        <v>426</v>
       </c>
       <c r="G12" t="s" s="10">
-        <v>237</v>
+        <v>426</v>
       </c>
       <c r="H12" t="s" s="10">
-        <v>233</v>
+        <v>446</v>
       </c>
       <c r="I12" t="s" s="10">
         <v>234</v>
       </c>
       <c r="J12" t="s" s="10">
-        <v>234</v>
+        <v>452</v>
       </c>
       <c r="K12" t="s" s="10">
         <v>234</v>
@@ -3240,13 +3336,13 @@
         <v>234</v>
       </c>
       <c r="Q12" t="s" s="10">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="R12" t="s" s="10">
         <v>234</v>
       </c>
       <c r="S12" t="s" s="10">
-        <v>252</v>
+        <v>453</v>
       </c>
       <c r="T12" t="s" s="10">
         <v>234</v>
@@ -3323,13 +3419,13 @@
         <v>31</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="G13" t="s" s="10">
-        <v>399</v>
+        <v>426</v>
       </c>
       <c r="H13" t="s" s="10">
-        <v>408</v>
+        <v>446</v>
       </c>
       <c r="I13" t="s" s="10">
         <v>234</v>
@@ -3356,16 +3452,16 @@
         <v>234</v>
       </c>
       <c r="Q13" t="s" s="10">
-        <v>389</v>
+        <v>454</v>
       </c>
       <c r="R13" t="s" s="10">
         <v>234</v>
       </c>
       <c r="S13" t="s" s="10">
-        <v>263</v>
+        <v>455</v>
       </c>
       <c r="T13" t="s" s="10">
-        <v>234</v>
+        <v>451</v>
       </c>
       <c r="U13" t="s" s="10">
         <v>234</v>
@@ -3439,19 +3535,19 @@
         <v>32</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>237</v>
+        <v>399</v>
       </c>
       <c r="G14" t="s" s="10">
-        <v>237</v>
+        <v>399</v>
       </c>
       <c r="H14" t="s" s="10">
-        <v>233</v>
+        <v>408</v>
       </c>
       <c r="I14" t="s" s="10">
         <v>268</v>
       </c>
       <c r="J14" t="s" s="10">
-        <v>234</v>
+        <v>456</v>
       </c>
       <c r="K14" t="s" s="10">
         <v>234</v>
@@ -3555,19 +3651,19 @@
         <v>33</v>
       </c>
       <c r="F15" t="s" s="10">
-        <v>237</v>
+        <v>399</v>
       </c>
       <c r="G15" t="s" s="10">
-        <v>237</v>
+        <v>399</v>
       </c>
       <c r="H15" t="s" s="10">
-        <v>233</v>
+        <v>408</v>
       </c>
       <c r="I15" t="s" s="10">
         <v>268</v>
       </c>
       <c r="J15" t="s" s="10">
-        <v>234</v>
+        <v>456</v>
       </c>
       <c r="K15" t="s" s="10">
         <v>234</v>
@@ -3671,13 +3767,13 @@
         <v>34</v>
       </c>
       <c r="F16" t="s" s="10">
-        <v>252</v>
+        <v>457</v>
       </c>
       <c r="G16" t="s" s="10">
-        <v>252</v>
+        <v>457</v>
       </c>
       <c r="H16" t="s" s="10">
-        <v>250</v>
+        <v>458</v>
       </c>
       <c r="I16" t="s" s="10">
         <v>234</v>
@@ -3704,13 +3800,13 @@
         <v>234</v>
       </c>
       <c r="Q16" t="s" s="10">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="R16" t="s" s="10">
         <v>432</v>
       </c>
       <c r="S16" t="s" s="10">
-        <v>266</v>
+        <v>460</v>
       </c>
       <c r="T16" t="s" s="10">
         <v>234</v>
@@ -3903,13 +3999,13 @@
         <v>36</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G18" t="s" s="10">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="H18" t="s" s="10">
-        <v>237</v>
+        <v>399</v>
       </c>
       <c r="I18" t="s" s="10">
         <v>234</v>
@@ -3936,13 +4032,13 @@
         <v>234</v>
       </c>
       <c r="Q18" t="s" s="10">
-        <v>384</v>
+        <v>459</v>
       </c>
       <c r="R18" t="s" s="10">
         <v>234</v>
       </c>
       <c r="S18" t="s" s="10">
-        <v>234</v>
+        <v>388</v>
       </c>
       <c r="T18" t="s" s="10">
         <v>234</v>
@@ -4135,16 +4231,16 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>242</v>
+        <v>233</v>
       </c>
       <c r="H20" t="s" s="10">
-        <v>255</v>
+        <v>399</v>
       </c>
       <c r="I20" t="s" s="10">
-        <v>234</v>
+        <v>461</v>
       </c>
       <c r="J20" t="s" s="10">
         <v>234</v>
@@ -4367,16 +4463,16 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="G22" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="H22" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="I22" t="s" s="10">
-        <v>234</v>
+        <v>461</v>
       </c>
       <c r="J22" t="s" s="10">
         <v>234</v>
@@ -4643,19 +4739,19 @@
         <v>28</v>
       </c>
       <c r="F26" t="s" s="10">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="G26" t="s" s="10">
-        <v>415</v>
+        <v>462</v>
       </c>
       <c r="H26" t="s" s="10">
-        <v>416</v>
+        <v>463</v>
       </c>
       <c r="I26" t="s" s="10">
-        <v>234</v>
+        <v>464</v>
       </c>
       <c r="J26" t="s" s="10">
-        <v>234</v>
+        <v>465</v>
       </c>
       <c r="K26" t="s" s="10">
         <v>234</v>
@@ -4664,7 +4760,7 @@
         <v>234</v>
       </c>
       <c r="M26" t="s" s="10">
-        <v>420</v>
+        <v>470</v>
       </c>
       <c r="N26" t="s" s="10">
         <v>234</v>
@@ -4682,7 +4778,7 @@
         <v>392</v>
       </c>
       <c r="S26" t="s" s="10">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="T26" t="s" s="10">
         <v>417</v>
@@ -4759,19 +4855,19 @@
         <v>28</v>
       </c>
       <c r="F27" t="s" s="10">
-        <v>247</v>
+        <v>382</v>
       </c>
       <c r="G27" t="s" s="10">
-        <v>247</v>
+        <v>382</v>
       </c>
       <c r="H27" t="s" s="10">
-        <v>248</v>
+        <v>467</v>
       </c>
       <c r="I27" t="s" s="10">
-        <v>234</v>
+        <v>464</v>
       </c>
       <c r="J27" t="s" s="10">
-        <v>234</v>
+        <v>465</v>
       </c>
       <c r="K27" t="s" s="10">
         <v>234</v>
@@ -4780,7 +4876,7 @@
         <v>234</v>
       </c>
       <c r="M27" t="s" s="10">
-        <v>234</v>
+        <v>394</v>
       </c>
       <c r="N27" t="s" s="10">
         <v>234</v>
@@ -4798,7 +4894,7 @@
         <v>387</v>
       </c>
       <c r="S27" t="s" s="10">
-        <v>393</v>
+        <v>466</v>
       </c>
       <c r="T27" t="s" s="10">
         <v>273</v>
@@ -4875,16 +4971,16 @@
         <v>42</v>
       </c>
       <c r="F28" t="s" s="10">
-        <v>250</v>
+        <v>457</v>
       </c>
       <c r="G28" t="s" s="10">
-        <v>250</v>
+        <v>457</v>
       </c>
       <c r="H28" t="s" s="10">
-        <v>251</v>
+        <v>458</v>
       </c>
       <c r="I28" t="s" s="10">
-        <v>234</v>
+        <v>464</v>
       </c>
       <c r="J28" t="s" s="10">
         <v>234</v>
@@ -4914,7 +5010,7 @@
         <v>387</v>
       </c>
       <c r="S28" t="s" s="10">
-        <v>234</v>
+        <v>468</v>
       </c>
       <c r="T28" t="s" s="10">
         <v>274</v>
@@ -5339,16 +5435,16 @@
         <v>46</v>
       </c>
       <c r="F32" t="s" s="10">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="G32" t="s" s="10">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="H32" t="s" s="10">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="I32" t="s" s="10">
-        <v>234</v>
+        <v>469</v>
       </c>
       <c r="J32" t="s" s="10">
         <v>234</v>
@@ -5842,7 +5938,7 @@
         <v>234</v>
       </c>
       <c r="S36" t="s" s="10">
-        <v>234</v>
+        <v>468</v>
       </c>
       <c r="T36" t="s" s="10">
         <v>234</v>
@@ -6044,7 +6140,7 @@
         <v>236</v>
       </c>
       <c r="I38" t="s" s="10">
-        <v>234</v>
+        <v>318</v>
       </c>
       <c r="J38" t="s" s="10">
         <v>234</v>
@@ -6868,7 +6964,7 @@
         <v>234</v>
       </c>
       <c r="M45" t="s" s="10">
-        <v>234</v>
+        <v>394</v>
       </c>
       <c r="N45" t="s" s="10">
         <v>234</v>
@@ -6984,7 +7080,7 @@
         <v>234</v>
       </c>
       <c r="M46" t="s" s="10">
-        <v>234</v>
+        <v>394</v>
       </c>
       <c r="N46" t="s" s="10">
         <v>234</v>
@@ -7207,7 +7303,7 @@
         <v>234</v>
       </c>
       <c r="J48" t="s" s="10">
-        <v>234</v>
+        <v>465</v>
       </c>
       <c r="K48" t="s" s="10">
         <v>234</v>
@@ -7439,7 +7535,7 @@
         <v>234</v>
       </c>
       <c r="J50" t="s" s="10">
-        <v>234</v>
+        <v>465</v>
       </c>
       <c r="K50" t="s" s="10">
         <v>234</v>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9174" uniqueCount="358">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11900" uniqueCount="369">
   <si>
     <t>CXD</t>
   </si>
@@ -1137,6 +1137,39 @@
   <si>
     <t>26</t>
   </si>
+  <si>
+    <t>322</t>
+  </si>
+  <si>
+    <t>86659</t>
+  </si>
+  <si>
+    <t>24309</t>
+  </si>
+  <si>
+    <t>62350</t>
+  </si>
+  <si>
+    <t>11670</t>
+  </si>
+  <si>
+    <t>11666</t>
+  </si>
+  <si>
+    <t>8333</t>
+  </si>
+  <si>
+    <t>333</t>
+  </si>
+  <si>
+    <t>3000</t>
+  </si>
+  <si>
+    <t>5000</t>
+  </si>
+  <si>
+    <t>3333</t>
+  </si>
 </sst>
 </file>
 
@@ -2468,76 +2501,76 @@
       <c r="J7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="K7" t="s" s="10">
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s" s="10">
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s" s="10">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s" s="10">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s" s="10">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s" s="10">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s" s="10">
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="R7" t="s" s="10">
+      <c r="R7" t="s">
         <v>26</v>
       </c>
-      <c r="S7" t="s" s="10">
+      <c r="S7" t="s">
         <v>26</v>
       </c>
-      <c r="T7" t="s" s="10">
+      <c r="T7" t="s">
         <v>26</v>
       </c>
-      <c r="U7" t="s" s="10">
+      <c r="U7" t="s">
         <v>26</v>
       </c>
-      <c r="V7" t="s" s="10">
+      <c r="V7" t="s">
         <v>27</v>
       </c>
-      <c r="W7" t="s" s="10">
+      <c r="W7" t="s">
         <v>27</v>
       </c>
-      <c r="X7" t="s" s="10">
+      <c r="X7" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" t="s" s="10">
+      <c r="Y7" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" t="s" s="10">
+      <c r="Z7" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" t="s" s="10">
+      <c r="AA7" t="s">
         <v>27</v>
       </c>
-      <c r="AB7" t="s" s="10">
+      <c r="AB7" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" t="s" s="10">
+      <c r="AC7" t="s">
         <v>27</v>
       </c>
-      <c r="AD7" t="s" s="10">
+      <c r="AD7" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" t="s" s="10">
+      <c r="AE7" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" t="s" s="10">
+      <c r="AF7" t="s">
         <v>27</v>
       </c>
-      <c r="AG7" t="s" s="10">
+      <c r="AG7" t="s">
         <v>27</v>
       </c>
-      <c r="AH7" t="s" s="10">
+      <c r="AH7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2548,76 +2581,76 @@
       <c r="J8" t="s" s="10">
         <v>0</v>
       </c>
-      <c r="K8" t="s" s="10">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="10">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="10">
+      <c r="M8" t="s">
         <v>97</v>
       </c>
-      <c r="N8" t="s" s="10">
+      <c r="N8" t="s">
         <v>1</v>
       </c>
-      <c r="O8" t="s" s="10">
+      <c r="O8" t="s">
         <v>98</v>
       </c>
-      <c r="P8" t="s" s="10">
+      <c r="P8" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" t="s" s="10">
+      <c r="Q8" t="s">
         <v>99</v>
       </c>
-      <c r="R8" t="s" s="10">
+      <c r="R8" t="s">
         <v>3</v>
       </c>
-      <c r="S8" t="s" s="10">
+      <c r="S8" t="s">
         <v>100</v>
       </c>
-      <c r="T8" t="s" s="10">
+      <c r="T8" t="s">
         <v>101</v>
       </c>
-      <c r="U8" t="s" s="10">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s" s="10">
+      <c r="V8" t="s">
         <v>94</v>
       </c>
-      <c r="W8" t="s" s="10">
+      <c r="W8" t="s">
         <v>0</v>
       </c>
-      <c r="X8" t="s" s="10">
+      <c r="X8" t="s">
         <v>95</v>
       </c>
-      <c r="Y8" t="s" s="10">
+      <c r="Y8" t="s">
         <v>96</v>
       </c>
-      <c r="Z8" t="s" s="10">
+      <c r="Z8" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" t="s" s="10">
+      <c r="AA8" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" t="s" s="10">
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AC8" t="s" s="10">
+      <c r="AC8" t="s">
         <v>2</v>
       </c>
-      <c r="AD8" t="s" s="10">
+      <c r="AD8" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" t="s" s="10">
+      <c r="AE8" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" t="s" s="10">
+      <c r="AF8" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" t="s" s="10">
+      <c r="AG8" t="s">
         <v>101</v>
       </c>
-      <c r="AH8" t="s" s="10">
+      <c r="AH8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2635,13 +2668,13 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="G9" t="s" s="10">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="I9" t="s" s="10">
         <v>233</v>
@@ -2674,7 +2707,7 @@
         <v>233</v>
       </c>
       <c r="S9" t="s" s="10">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="T9" t="s" s="10">
         <v>233</v>
@@ -2683,13 +2716,13 @@
         <v>233</v>
       </c>
       <c r="V9" t="s" s="10">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="W9" t="s" s="10">
         <v>233</v>
       </c>
       <c r="X9" t="s" s="10">
-        <v>354</v>
+        <v>233</v>
       </c>
       <c r="Y9" t="s" s="10">
         <v>233</v>
@@ -2751,13 +2784,13 @@
         <v>28</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>232</v>
+        <v>358</v>
       </c>
       <c r="G10" t="s" s="10">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>341</v>
+        <v>358</v>
       </c>
       <c r="I10" t="s" s="10">
         <v>233</v>
@@ -2790,7 +2823,7 @@
         <v>233</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="T10" t="s" s="10">
         <v>233</v>
@@ -2799,13 +2832,13 @@
         <v>233</v>
       </c>
       <c r="V10" t="s" s="10">
-        <v>344</v>
+        <v>233</v>
       </c>
       <c r="W10" t="s" s="10">
         <v>233</v>
       </c>
       <c r="X10" t="s" s="10">
-        <v>354</v>
+        <v>233</v>
       </c>
       <c r="Y10" t="s" s="10">
         <v>233</v>
@@ -2867,13 +2900,13 @@
         <v>4</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>235</v>
+        <v>358</v>
       </c>
       <c r="G11" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H11" t="s" s="10">
-        <v>236</v>
+        <v>358</v>
       </c>
       <c r="I11" t="s" s="10">
         <v>233</v>
@@ -2906,7 +2939,7 @@
         <v>233</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>233</v>
+        <v>359</v>
       </c>
       <c r="T11" t="s" s="10">
         <v>233</v>
@@ -2915,7 +2948,7 @@
         <v>233</v>
       </c>
       <c r="V11" t="s" s="10">
-        <v>345</v>
+        <v>233</v>
       </c>
       <c r="W11" t="s" s="10">
         <v>233</v>
@@ -2983,13 +3016,13 @@
         <v>30</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G12" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H12" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I12" t="s" s="10">
         <v>233</v>
@@ -3022,7 +3055,7 @@
         <v>233</v>
       </c>
       <c r="S12" t="s" s="10">
-        <v>233</v>
+        <v>360</v>
       </c>
       <c r="T12" t="s" s="10">
         <v>233</v>
@@ -3099,13 +3132,13 @@
         <v>31</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>237</v>
+        <v>358</v>
       </c>
       <c r="G13" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H13" t="s" s="10">
-        <v>235</v>
+        <v>358</v>
       </c>
       <c r="I13" t="s" s="10">
         <v>233</v>
@@ -3138,7 +3171,7 @@
         <v>233</v>
       </c>
       <c r="S13" t="s" s="10">
-        <v>233</v>
+        <v>361</v>
       </c>
       <c r="T13" t="s" s="10">
         <v>233</v>
@@ -3147,7 +3180,7 @@
         <v>233</v>
       </c>
       <c r="V13" t="s" s="10">
-        <v>345</v>
+        <v>233</v>
       </c>
       <c r="W13" t="s" s="10">
         <v>233</v>
@@ -3215,13 +3248,13 @@
         <v>32</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G14" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H14" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I14" t="s" s="10">
         <v>233</v>
@@ -3331,13 +3364,13 @@
         <v>33</v>
       </c>
       <c r="F15" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G15" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H15" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I15" t="s" s="10">
         <v>233</v>
@@ -3447,13 +3480,13 @@
         <v>34</v>
       </c>
       <c r="F16" t="s" s="10">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="G16" t="s" s="10">
-        <v>240</v>
+        <v>233</v>
       </c>
       <c r="H16" t="s" s="10">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="I16" t="s" s="10">
         <v>233</v>
@@ -3495,13 +3528,13 @@
         <v>233</v>
       </c>
       <c r="V16" t="s" s="10">
-        <v>346</v>
+        <v>233</v>
       </c>
       <c r="W16" t="s" s="10">
         <v>233</v>
       </c>
       <c r="X16" t="s" s="10">
-        <v>355</v>
+        <v>233</v>
       </c>
       <c r="Y16" t="s" s="10">
         <v>233</v>
@@ -3563,13 +3596,13 @@
         <v>35</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G17" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H17" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I17" t="s" s="10">
         <v>233</v>
@@ -3611,13 +3644,13 @@
         <v>233</v>
       </c>
       <c r="V17" t="s" s="10">
-        <v>346</v>
+        <v>233</v>
       </c>
       <c r="W17" t="s" s="10">
         <v>233</v>
       </c>
       <c r="X17" t="s" s="10">
-        <v>254</v>
+        <v>233</v>
       </c>
       <c r="Y17" t="s" s="10">
         <v>233</v>
@@ -3679,13 +3712,13 @@
         <v>36</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G18" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H18" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I18" t="s" s="10">
         <v>233</v>
@@ -3795,13 +3828,13 @@
         <v>37</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G19" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H19" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I19" t="s" s="10">
         <v>233</v>
@@ -3849,7 +3882,7 @@
         <v>233</v>
       </c>
       <c r="X19" t="s" s="10">
-        <v>356</v>
+        <v>233</v>
       </c>
       <c r="Y19" t="s" s="10">
         <v>233</v>
@@ -3911,13 +3944,13 @@
         <v>38</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G20" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H20" t="s" s="10">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I20" t="s" s="10">
         <v>233</v>
@@ -3965,7 +3998,7 @@
         <v>233</v>
       </c>
       <c r="X20" t="s" s="10">
-        <v>357</v>
+        <v>233</v>
       </c>
       <c r="Y20" t="s" s="10">
         <v>233</v>
@@ -4027,13 +4060,13 @@
         <v>39</v>
       </c>
       <c r="F21" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G21" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H21" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I21" t="s" s="10">
         <v>233</v>
@@ -4143,13 +4176,13 @@
         <v>40</v>
       </c>
       <c r="F22" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G22" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H22" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I22" t="s" s="10">
         <v>233</v>
@@ -4197,7 +4230,7 @@
         <v>233</v>
       </c>
       <c r="X22" t="s" s="10">
-        <v>357</v>
+        <v>233</v>
       </c>
       <c r="Y22" t="s" s="10">
         <v>233</v>
@@ -4252,76 +4285,76 @@
       <c r="J24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="K24" t="s" s="10">
+      <c r="K24" t="s">
         <v>26</v>
       </c>
-      <c r="L24" t="s" s="10">
+      <c r="L24" t="s">
         <v>26</v>
       </c>
-      <c r="M24" t="s" s="10">
+      <c r="M24" t="s">
         <v>26</v>
       </c>
-      <c r="N24" t="s" s="10">
+      <c r="N24" t="s">
         <v>26</v>
       </c>
-      <c r="O24" t="s" s="10">
+      <c r="O24" t="s">
         <v>26</v>
       </c>
-      <c r="P24" t="s" s="10">
+      <c r="P24" t="s">
         <v>26</v>
       </c>
-      <c r="Q24" t="s" s="10">
+      <c r="Q24" t="s">
         <v>26</v>
       </c>
-      <c r="R24" t="s" s="10">
+      <c r="R24" t="s">
         <v>26</v>
       </c>
-      <c r="S24" t="s" s="10">
+      <c r="S24" t="s">
         <v>26</v>
       </c>
-      <c r="T24" t="s" s="10">
+      <c r="T24" t="s">
         <v>26</v>
       </c>
-      <c r="U24" t="s" s="10">
+      <c r="U24" t="s">
         <v>26</v>
       </c>
-      <c r="V24" t="s" s="10">
+      <c r="V24" t="s">
         <v>27</v>
       </c>
-      <c r="W24" t="s" s="10">
+      <c r="W24" t="s">
         <v>27</v>
       </c>
-      <c r="X24" t="s" s="10">
+      <c r="X24" t="s">
         <v>27</v>
       </c>
-      <c r="Y24" t="s" s="10">
+      <c r="Y24" t="s">
         <v>27</v>
       </c>
-      <c r="Z24" t="s" s="10">
+      <c r="Z24" t="s">
         <v>27</v>
       </c>
-      <c r="AA24" t="s" s="10">
+      <c r="AA24" t="s">
         <v>27</v>
       </c>
-      <c r="AB24" t="s" s="10">
+      <c r="AB24" t="s">
         <v>27</v>
       </c>
-      <c r="AC24" t="s" s="10">
+      <c r="AC24" t="s">
         <v>27</v>
       </c>
-      <c r="AD24" t="s" s="10">
+      <c r="AD24" t="s">
         <v>27</v>
       </c>
-      <c r="AE24" t="s" s="10">
+      <c r="AE24" t="s">
         <v>27</v>
       </c>
-      <c r="AF24" t="s" s="10">
+      <c r="AF24" t="s">
         <v>27</v>
       </c>
-      <c r="AG24" t="s" s="10">
+      <c r="AG24" t="s">
         <v>27</v>
       </c>
-      <c r="AH24" t="s" s="10">
+      <c r="AH24" t="s">
         <v>27</v>
       </c>
     </row>
@@ -4332,76 +4365,76 @@
       <c r="J25" t="s" s="10">
         <v>0</v>
       </c>
-      <c r="K25" t="s" s="10">
+      <c r="K25" t="s">
         <v>95</v>
       </c>
-      <c r="L25" t="s" s="10">
+      <c r="L25" t="s">
         <v>96</v>
       </c>
-      <c r="M25" t="s" s="10">
+      <c r="M25" t="s">
         <v>97</v>
       </c>
-      <c r="N25" t="s" s="10">
+      <c r="N25" t="s">
         <v>1</v>
       </c>
-      <c r="O25" t="s" s="10">
+      <c r="O25" t="s">
         <v>98</v>
       </c>
-      <c r="P25" t="s" s="10">
+      <c r="P25" t="s">
         <v>2</v>
       </c>
-      <c r="Q25" t="s" s="10">
+      <c r="Q25" t="s">
         <v>99</v>
       </c>
-      <c r="R25" t="s" s="10">
+      <c r="R25" t="s">
         <v>3</v>
       </c>
-      <c r="S25" t="s" s="10">
+      <c r="S25" t="s">
         <v>100</v>
       </c>
-      <c r="T25" t="s" s="10">
+      <c r="T25" t="s">
         <v>101</v>
       </c>
-      <c r="U25" t="s" s="10">
+      <c r="U25" t="s">
         <v>102</v>
       </c>
-      <c r="V25" t="s" s="10">
+      <c r="V25" t="s">
         <v>94</v>
       </c>
-      <c r="W25" t="s" s="10">
+      <c r="W25" t="s">
         <v>0</v>
       </c>
-      <c r="X25" t="s" s="10">
+      <c r="X25" t="s">
         <v>95</v>
       </c>
-      <c r="Y25" t="s" s="10">
+      <c r="Y25" t="s">
         <v>96</v>
       </c>
-      <c r="Z25" t="s" s="10">
+      <c r="Z25" t="s">
         <v>97</v>
       </c>
-      <c r="AA25" t="s" s="10">
+      <c r="AA25" t="s">
         <v>1</v>
       </c>
-      <c r="AB25" t="s" s="10">
+      <c r="AB25" t="s">
         <v>98</v>
       </c>
-      <c r="AC25" t="s" s="10">
+      <c r="AC25" t="s">
         <v>2</v>
       </c>
-      <c r="AD25" t="s" s="10">
+      <c r="AD25" t="s">
         <v>99</v>
       </c>
-      <c r="AE25" t="s" s="10">
+      <c r="AE25" t="s">
         <v>3</v>
       </c>
-      <c r="AF25" t="s" s="10">
+      <c r="AF25" t="s">
         <v>100</v>
       </c>
-      <c r="AG25" t="s" s="10">
+      <c r="AG25" t="s">
         <v>101</v>
       </c>
-      <c r="AH25" t="s" s="10">
+      <c r="AH25" t="s">
         <v>102</v>
       </c>
     </row>
@@ -4419,13 +4452,13 @@
         <v>28</v>
       </c>
       <c r="F26" t="s" s="10">
-        <v>347</v>
+        <v>233</v>
       </c>
       <c r="G26" t="s" s="10">
-        <v>347</v>
+        <v>362</v>
       </c>
       <c r="H26" t="s" s="10">
-        <v>348</v>
+        <v>362</v>
       </c>
       <c r="I26" t="s" s="10">
         <v>233</v>
@@ -4535,13 +4568,13 @@
         <v>28</v>
       </c>
       <c r="F27" t="s" s="10">
-        <v>349</v>
+        <v>233</v>
       </c>
       <c r="G27" t="s" s="10">
-        <v>349</v>
+        <v>363</v>
       </c>
       <c r="H27" t="s" s="10">
-        <v>350</v>
+        <v>363</v>
       </c>
       <c r="I27" t="s" s="10">
         <v>233</v>
@@ -4651,13 +4684,13 @@
         <v>42</v>
       </c>
       <c r="F28" t="s" s="10">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="G28" t="s" s="10">
-        <v>245</v>
+        <v>364</v>
       </c>
       <c r="H28" t="s" s="10">
-        <v>246</v>
+        <v>364</v>
       </c>
       <c r="I28" t="s" s="10">
         <v>233</v>
@@ -4767,13 +4800,13 @@
         <v>43</v>
       </c>
       <c r="F29" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G29" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H29" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I29" t="s" s="10">
         <v>233</v>
@@ -4883,13 +4916,13 @@
         <v>44</v>
       </c>
       <c r="F30" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G30" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H30" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I30" t="s" s="10">
         <v>233</v>
@@ -4999,13 +5032,13 @@
         <v>45</v>
       </c>
       <c r="F31" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G31" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H31" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I31" t="s" s="10">
         <v>233</v>
@@ -5115,13 +5148,13 @@
         <v>46</v>
       </c>
       <c r="F32" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G32" t="s" s="10">
-        <v>237</v>
+        <v>365</v>
       </c>
       <c r="H32" t="s" s="10">
-        <v>235</v>
+        <v>365</v>
       </c>
       <c r="I32" t="s" s="10">
         <v>233</v>
@@ -5231,13 +5264,13 @@
         <v>47</v>
       </c>
       <c r="F33" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G33" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H33" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I33" t="s" s="10">
         <v>233</v>
@@ -5347,13 +5380,13 @@
         <v>48</v>
       </c>
       <c r="F34" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G34" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H34" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I34" t="s" s="10">
         <v>233</v>
@@ -5463,13 +5496,13 @@
         <v>49</v>
       </c>
       <c r="F35" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G35" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H35" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I35" t="s" s="10">
         <v>233</v>
@@ -5579,13 +5612,13 @@
         <v>50</v>
       </c>
       <c r="F36" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G36" t="s" s="10">
-        <v>237</v>
+        <v>366</v>
       </c>
       <c r="H36" t="s" s="10">
-        <v>235</v>
+        <v>366</v>
       </c>
       <c r="I36" t="s" s="10">
         <v>233</v>
@@ -5695,13 +5728,13 @@
         <v>51</v>
       </c>
       <c r="F37" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G37" t="s" s="10">
-        <v>237</v>
+        <v>367</v>
       </c>
       <c r="H37" t="s" s="10">
-        <v>235</v>
+        <v>367</v>
       </c>
       <c r="I37" t="s" s="10">
         <v>233</v>
@@ -5811,13 +5844,13 @@
         <v>52</v>
       </c>
       <c r="F38" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G38" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H38" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I38" t="s" s="10">
         <v>233</v>
@@ -5927,13 +5960,13 @@
         <v>53</v>
       </c>
       <c r="F39" t="s" s="10">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G39" t="s" s="10">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="H39" t="s" s="10">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I39" t="s" s="10">
         <v>233</v>
@@ -6043,13 +6076,13 @@
         <v>54</v>
       </c>
       <c r="F40" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G40" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H40" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I40" t="s" s="10">
         <v>233</v>
@@ -6159,13 +6192,13 @@
         <v>55</v>
       </c>
       <c r="F41" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G41" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H41" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I41" t="s" s="10">
         <v>233</v>
@@ -6275,13 +6308,13 @@
         <v>56</v>
       </c>
       <c r="F42" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G42" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H42" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I42" t="s" s="10">
         <v>233</v>
@@ -6391,13 +6424,13 @@
         <v>57</v>
       </c>
       <c r="F43" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G43" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H43" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I43" t="s" s="10">
         <v>233</v>
@@ -6507,13 +6540,13 @@
         <v>58</v>
       </c>
       <c r="F44" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G44" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H44" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I44" t="s" s="10">
         <v>233</v>
@@ -6623,13 +6656,13 @@
         <v>59</v>
       </c>
       <c r="F45" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="G45" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="H45" t="s" s="10">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="I45" t="s" s="10">
         <v>233</v>
@@ -6739,13 +6772,13 @@
         <v>60</v>
       </c>
       <c r="F46" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G46" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H46" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I46" t="s" s="10">
         <v>233</v>
@@ -6855,13 +6888,13 @@
         <v>61</v>
       </c>
       <c r="F47" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G47" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H47" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I47" t="s" s="10">
         <v>233</v>
@@ -6971,13 +7004,13 @@
         <v>62</v>
       </c>
       <c r="F48" t="s" s="10">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="G48" t="s" s="10">
-        <v>241</v>
+        <v>368</v>
       </c>
       <c r="H48" t="s" s="10">
-        <v>250</v>
+        <v>368</v>
       </c>
       <c r="I48" t="s" s="10">
         <v>233</v>
@@ -7087,13 +7120,13 @@
         <v>63</v>
       </c>
       <c r="F49" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G49" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H49" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I49" t="s" s="10">
         <v>233</v>
@@ -7203,13 +7236,13 @@
         <v>64</v>
       </c>
       <c r="F50" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G50" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H50" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I50" t="s" s="10">
         <v>233</v>
@@ -7319,13 +7352,13 @@
         <v>65</v>
       </c>
       <c r="F51" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G51" t="s" s="10">
-        <v>237</v>
+        <v>368</v>
       </c>
       <c r="H51" t="s" s="10">
-        <v>235</v>
+        <v>368</v>
       </c>
       <c r="I51" t="s" s="10">
         <v>233</v>
@@ -7435,13 +7468,13 @@
         <v>66</v>
       </c>
       <c r="F52" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G52" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H52" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I52" t="s" s="10">
         <v>233</v>
@@ -7551,13 +7584,13 @@
         <v>67</v>
       </c>
       <c r="F53" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G53" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H53" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I53" t="s" s="10">
         <v>233</v>
@@ -7667,13 +7700,13 @@
         <v>68</v>
       </c>
       <c r="F54" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G54" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H54" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I54" t="s" s="10">
         <v>233</v>
@@ -7783,13 +7816,13 @@
         <v>28</v>
       </c>
       <c r="F55" t="s" s="10">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G55" t="s" s="10">
-        <v>246</v>
+        <v>231</v>
       </c>
       <c r="H55" t="s" s="10">
-        <v>351</v>
+        <v>231</v>
       </c>
       <c r="I55" t="s" s="10">
         <v>233</v>
@@ -7899,13 +7932,13 @@
         <v>70</v>
       </c>
       <c r="F56" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G56" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H56" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I56" t="s" s="10">
         <v>233</v>
@@ -8015,13 +8048,13 @@
         <v>71</v>
       </c>
       <c r="F57" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G57" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H57" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I57" t="s" s="10">
         <v>233</v>
@@ -8131,13 +8164,13 @@
         <v>72</v>
       </c>
       <c r="F58" t="s" s="10">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="G58" t="s" s="10">
-        <v>247</v>
+        <v>233</v>
       </c>
       <c r="H58" t="s" s="10">
-        <v>245</v>
+        <v>233</v>
       </c>
       <c r="I58" t="s" s="10">
         <v>233</v>
@@ -8247,13 +8280,13 @@
         <v>73</v>
       </c>
       <c r="F59" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G59" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H59" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I59" t="s" s="10">
         <v>233</v>
@@ -8363,13 +8396,13 @@
         <v>74</v>
       </c>
       <c r="F60" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G60" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H60" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I60" t="s" s="10">
         <v>233</v>
@@ -8479,13 +8512,13 @@
         <v>75</v>
       </c>
       <c r="F61" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G61" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H61" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I61" t="s" s="10">
         <v>233</v>
@@ -8595,13 +8628,13 @@
         <v>76</v>
       </c>
       <c r="F62" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G62" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H62" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I62" t="s" s="10">
         <v>233</v>
@@ -8711,13 +8744,13 @@
         <v>77</v>
       </c>
       <c r="F63" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G63" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H63" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I63" t="s" s="10">
         <v>233</v>
@@ -8827,13 +8860,13 @@
         <v>78</v>
       </c>
       <c r="F64" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G64" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H64" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I64" t="s" s="10">
         <v>233</v>
@@ -8943,13 +8976,13 @@
         <v>79</v>
       </c>
       <c r="F65" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G65" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H65" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I65" t="s" s="10">
         <v>233</v>
@@ -9059,13 +9092,13 @@
         <v>59</v>
       </c>
       <c r="F66" t="s" s="10">
-        <v>352</v>
+        <v>233</v>
       </c>
       <c r="G66" t="s" s="10">
-        <v>352</v>
+        <v>233</v>
       </c>
       <c r="H66" t="s" s="10">
-        <v>353</v>
+        <v>233</v>
       </c>
       <c r="I66" t="s" s="10">
         <v>233</v>
@@ -9175,13 +9208,13 @@
         <v>80</v>
       </c>
       <c r="F67" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G67" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H67" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I67" t="s" s="10">
         <v>233</v>
@@ -9291,13 +9324,13 @@
         <v>81</v>
       </c>
       <c r="F68" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G68" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H68" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I68" t="s" s="10">
         <v>233</v>
@@ -9407,13 +9440,13 @@
         <v>82</v>
       </c>
       <c r="F69" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G69" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H69" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I69" t="s" s="10">
         <v>233</v>
@@ -9523,13 +9556,13 @@
         <v>83</v>
       </c>
       <c r="F70" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G70" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H70" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I70" t="s" s="10">
         <v>233</v>
@@ -9639,13 +9672,13 @@
         <v>84</v>
       </c>
       <c r="F71" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G71" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H71" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I71" t="s" s="10">
         <v>233</v>
@@ -9755,13 +9788,13 @@
         <v>85</v>
       </c>
       <c r="F72" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G72" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H72" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I72" t="s" s="10">
         <v>233</v>
@@ -9871,13 +9904,13 @@
         <v>86</v>
       </c>
       <c r="F73" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G73" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H73" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I73" t="s" s="10">
         <v>233</v>
@@ -9987,13 +10020,13 @@
         <v>87</v>
       </c>
       <c r="F74" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G74" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H74" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I74" t="s" s="10">
         <v>233</v>
@@ -10103,13 +10136,13 @@
         <v>88</v>
       </c>
       <c r="F75" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G75" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H75" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I75" t="s" s="10">
         <v>233</v>
@@ -10219,13 +10252,13 @@
         <v>89</v>
       </c>
       <c r="F76" t="s" s="10">
-        <v>236</v>
+        <v>233</v>
       </c>
       <c r="G76" t="s" s="10">
-        <v>236</v>
+        <v>231</v>
       </c>
       <c r="H76" t="s" s="10">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="I76" t="s" s="10">
         <v>233</v>
@@ -10335,13 +10368,13 @@
         <v>90</v>
       </c>
       <c r="F77" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G77" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H77" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I77" t="s" s="10">
         <v>233</v>
@@ -10451,13 +10484,13 @@
         <v>91</v>
       </c>
       <c r="F78" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G78" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H78" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I78" t="s" s="10">
         <v>233</v>
@@ -10567,13 +10600,13 @@
         <v>92</v>
       </c>
       <c r="F79" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G79" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="H79" t="s" s="10">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="I79" t="s" s="10">
         <v>233</v>
@@ -10683,13 +10716,13 @@
         <v>93</v>
       </c>
       <c r="F80" t="s" s="10">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="G80" t="s" s="10">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="H80" t="s" s="10">
-        <v>235</v>
+        <v>231</v>
       </c>
       <c r="I80" t="s" s="10">
         <v>233</v>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11900" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12274" uniqueCount="369">
   <si>
     <t>CXD</t>
   </si>
@@ -2501,76 +2501,76 @@
       <c r="J7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="K7" t="s">
+      <c r="K7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="L7" t="s">
+      <c r="L7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="M7" t="s">
+      <c r="M7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="N7" t="s">
+      <c r="N7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="O7" t="s">
+      <c r="O7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="P7" t="s">
+      <c r="P7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="Q7" t="s">
+      <c r="Q7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="R7" t="s">
+      <c r="R7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="S7" t="s">
+      <c r="S7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="T7" t="s">
+      <c r="T7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="U7" t="s">
+      <c r="U7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="V7" t="s">
+      <c r="V7" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="W7" t="s">
+      <c r="W7" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="X7" t="s">
+      <c r="X7" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="Y7" t="s">
+      <c r="Y7" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="Z7" t="s">
+      <c r="Z7" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AA7" t="s">
+      <c r="AA7" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AB7" t="s">
+      <c r="AB7" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AC7" t="s">
+      <c r="AC7" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AD7" t="s">
+      <c r="AD7" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AE7" t="s">
+      <c r="AE7" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AF7" t="s">
+      <c r="AF7" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AG7" t="s">
+      <c r="AG7" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AH7" t="s">
+      <c r="AH7" t="s" s="10">
         <v>27</v>
       </c>
     </row>
@@ -2581,76 +2581,76 @@
       <c r="J8" t="s" s="10">
         <v>0</v>
       </c>
-      <c r="K8" t="s">
+      <c r="K8" t="s" s="10">
         <v>95</v>
       </c>
-      <c r="L8" t="s">
+      <c r="L8" t="s" s="10">
         <v>96</v>
       </c>
-      <c r="M8" t="s">
+      <c r="M8" t="s" s="10">
         <v>97</v>
       </c>
-      <c r="N8" t="s">
+      <c r="N8" t="s" s="10">
         <v>1</v>
       </c>
-      <c r="O8" t="s">
+      <c r="O8" t="s" s="10">
         <v>98</v>
       </c>
-      <c r="P8" t="s">
+      <c r="P8" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="Q8" t="s">
+      <c r="Q8" t="s" s="10">
         <v>99</v>
       </c>
-      <c r="R8" t="s">
+      <c r="R8" t="s" s="10">
         <v>3</v>
       </c>
-      <c r="S8" t="s">
+      <c r="S8" t="s" s="10">
         <v>100</v>
       </c>
-      <c r="T8" t="s">
+      <c r="T8" t="s" s="10">
         <v>101</v>
       </c>
-      <c r="U8" t="s">
+      <c r="U8" t="s" s="10">
         <v>102</v>
       </c>
-      <c r="V8" t="s">
+      <c r="V8" t="s" s="10">
         <v>94</v>
       </c>
-      <c r="W8" t="s">
+      <c r="W8" t="s" s="10">
         <v>0</v>
       </c>
-      <c r="X8" t="s">
+      <c r="X8" t="s" s="10">
         <v>95</v>
       </c>
-      <c r="Y8" t="s">
+      <c r="Y8" t="s" s="10">
         <v>96</v>
       </c>
-      <c r="Z8" t="s">
+      <c r="Z8" t="s" s="10">
         <v>97</v>
       </c>
-      <c r="AA8" t="s">
+      <c r="AA8" t="s" s="10">
         <v>1</v>
       </c>
-      <c r="AB8" t="s">
+      <c r="AB8" t="s" s="10">
         <v>98</v>
       </c>
-      <c r="AC8" t="s">
+      <c r="AC8" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="AD8" t="s">
+      <c r="AD8" t="s" s="10">
         <v>99</v>
       </c>
-      <c r="AE8" t="s">
+      <c r="AE8" t="s" s="10">
         <v>3</v>
       </c>
-      <c r="AF8" t="s">
+      <c r="AF8" t="s" s="10">
         <v>100</v>
       </c>
-      <c r="AG8" t="s">
+      <c r="AG8" t="s" s="10">
         <v>101</v>
       </c>
-      <c r="AH8" t="s">
+      <c r="AH8" t="s" s="10">
         <v>102</v>
       </c>
     </row>
@@ -4285,76 +4285,76 @@
       <c r="J24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="K24" t="s">
+      <c r="K24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="L24" t="s">
+      <c r="L24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="M24" t="s">
+      <c r="M24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="N24" t="s">
+      <c r="N24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="O24" t="s">
+      <c r="O24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="P24" t="s">
+      <c r="P24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="Q24" t="s">
+      <c r="Q24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="R24" t="s">
+      <c r="R24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="S24" t="s">
+      <c r="S24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="T24" t="s">
+      <c r="T24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="U24" t="s">
+      <c r="U24" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="V24" t="s">
+      <c r="V24" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="W24" t="s">
+      <c r="W24" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="X24" t="s">
+      <c r="X24" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="Y24" t="s">
+      <c r="Y24" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="Z24" t="s">
+      <c r="Z24" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AA24" t="s">
+      <c r="AA24" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AB24" t="s">
+      <c r="AB24" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AC24" t="s">
+      <c r="AC24" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AD24" t="s">
+      <c r="AD24" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AE24" t="s">
+      <c r="AE24" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AF24" t="s">
+      <c r="AF24" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AG24" t="s">
+      <c r="AG24" t="s" s="10">
         <v>27</v>
       </c>
-      <c r="AH24" t="s">
+      <c r="AH24" t="s" s="10">
         <v>27</v>
       </c>
     </row>
@@ -4365,76 +4365,76 @@
       <c r="J25" t="s" s="10">
         <v>0</v>
       </c>
-      <c r="K25" t="s">
+      <c r="K25" t="s" s="10">
         <v>95</v>
       </c>
-      <c r="L25" t="s">
+      <c r="L25" t="s" s="10">
         <v>96</v>
       </c>
-      <c r="M25" t="s">
+      <c r="M25" t="s" s="10">
         <v>97</v>
       </c>
-      <c r="N25" t="s">
+      <c r="N25" t="s" s="10">
         <v>1</v>
       </c>
-      <c r="O25" t="s">
+      <c r="O25" t="s" s="10">
         <v>98</v>
       </c>
-      <c r="P25" t="s">
+      <c r="P25" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="Q25" t="s">
+      <c r="Q25" t="s" s="10">
         <v>99</v>
       </c>
-      <c r="R25" t="s">
+      <c r="R25" t="s" s="10">
         <v>3</v>
       </c>
-      <c r="S25" t="s">
+      <c r="S25" t="s" s="10">
         <v>100</v>
       </c>
-      <c r="T25" t="s">
+      <c r="T25" t="s" s="10">
         <v>101</v>
       </c>
-      <c r="U25" t="s">
+      <c r="U25" t="s" s="10">
         <v>102</v>
       </c>
-      <c r="V25" t="s">
+      <c r="V25" t="s" s="10">
         <v>94</v>
       </c>
-      <c r="W25" t="s">
+      <c r="W25" t="s" s="10">
         <v>0</v>
       </c>
-      <c r="X25" t="s">
+      <c r="X25" t="s" s="10">
         <v>95</v>
       </c>
-      <c r="Y25" t="s">
+      <c r="Y25" t="s" s="10">
         <v>96</v>
       </c>
-      <c r="Z25" t="s">
+      <c r="Z25" t="s" s="10">
         <v>97</v>
       </c>
-      <c r="AA25" t="s">
+      <c r="AA25" t="s" s="10">
         <v>1</v>
       </c>
-      <c r="AB25" t="s">
+      <c r="AB25" t="s" s="10">
         <v>98</v>
       </c>
-      <c r="AC25" t="s">
+      <c r="AC25" t="s" s="10">
         <v>2</v>
       </c>
-      <c r="AD25" t="s">
+      <c r="AD25" t="s" s="10">
         <v>99</v>
       </c>
-      <c r="AE25" t="s">
+      <c r="AE25" t="s" s="10">
         <v>3</v>
       </c>
-      <c r="AF25" t="s">
+      <c r="AF25" t="s" s="10">
         <v>100</v>
       </c>
-      <c r="AG25" t="s">
+      <c r="AG25" t="s" s="10">
         <v>101</v>
       </c>
-      <c r="AH25" t="s">
+      <c r="AH25" t="s" s="10">
         <v>102</v>
       </c>
     </row>
@@ -11059,8 +11059,8 @@
       <c r="Q9" s="62" t="n">
         <v>0.0</v>
       </c>
-      <c r="R9" s="62" t="s">
-        <v>342</v>
+      <c r="R9" s="62" t="n">
+        <v>0.0</v>
       </c>
       <c r="S9" s="61" t="n">
         <v>0.0</v>
@@ -11081,10 +11081,10 @@
         <v>0.0</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA9" s="22" t="n">
         <v>1.0</v>
@@ -11139,8 +11139,8 @@
       <c r="Q10" s="64" t="n">
         <v>0.0</v>
       </c>
-      <c r="R10" s="64" t="s">
-        <v>342</v>
+      <c r="R10" s="64" t="n">
+        <v>0.0</v>
       </c>
       <c r="S10" s="64" t="n">
         <v>0.0</v>
@@ -11161,10 +11161,10 @@
         <v>0.0</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA10" s="22" t="n">
         <v>0.0</v>
@@ -11219,8 +11219,8 @@
       <c r="Q11" s="23" t="n">
         <v>0.0</v>
       </c>
-      <c r="R11" s="23" t="s">
-        <v>342</v>
+      <c r="R11" s="23" t="n">
+        <v>0.0</v>
       </c>
       <c r="S11" s="23" t="n">
         <v>0.0</v>
@@ -11241,10 +11241,10 @@
         <v>0.0</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA11" s="22" t="n">
         <v>0.0</v>
@@ -11379,8 +11379,8 @@
       <c r="Q13" s="23" t="n">
         <v>0.0</v>
       </c>
-      <c r="R13" s="23" t="s">
-        <v>342</v>
+      <c r="R13" s="23" t="n">
+        <v>0.0</v>
       </c>
       <c r="S13" s="23" t="n">
         <v>0.0</v>
@@ -11401,10 +11401,10 @@
         <v>0.0</v>
       </c>
       <c r="Y13" s="22" t="n">
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z13" s="22" t="n">
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA13" s="22" t="n">
         <v>0.0</v>
@@ -16041,10 +16041,10 @@
         <v>0.0</v>
       </c>
       <c r="Y71" s="22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z71" s="22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA71" s="22" t="n">
         <v>0.0</v>
@@ -16761,10 +16761,10 @@
         <v>0.0</v>
       </c>
       <c r="Y80" s="22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z80" s="22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA80" s="22" t="n">
         <v>0.0</v>
@@ -16921,10 +16921,10 @@
         <v>0.0</v>
       </c>
       <c r="Y82" s="22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z82" s="22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA82" s="22" t="n">
         <v>0.0</v>
@@ -18338,7 +18338,7 @@
       </c>
       <c r="L9" s="122" t="str">
         <f>TEXT(t_thu_xd_theo_n_vu!R10/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="M9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!S10</f>
@@ -18366,11 +18366,11 @@
       </c>
       <c r="S9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!Y10</f>
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="T9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!Z10</f>
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="U9" s="123"/>
       <c r="V9" s="123"/>
@@ -18423,7 +18423,7 @@
       </c>
       <c r="L10" s="73" t="str">
         <f>TEXT(t_thu_xd_theo_n_vu!R11/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="M10" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!S11</f>
@@ -18451,11 +18451,11 @@
       </c>
       <c r="S10" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Y11</f>
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="T10" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z11</f>
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" s="72"/>
       <c r="V10" s="72"/>
@@ -18583,7 +18583,7 @@
       </c>
       <c r="L12" s="73" t="str">
         <f>TEXT(t_thu_xd_theo_n_vu!R13/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="M12" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!S13</f>
@@ -18611,11 +18611,11 @@
       </c>
       <c r="S12" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Y13</f>
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="T12" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z13</f>
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="U12" s="72"/>
       <c r="V12" s="72"/>
@@ -23264,11 +23264,11 @@
       </c>
       <c r="S70" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!Y71</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T70" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!Z71</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="U70" s="123"/>
       <c r="V70" s="123"/>
@@ -23989,11 +23989,11 @@
       </c>
       <c r="S79" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Y80</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T79" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z80</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="U79" s="72"/>
       <c r="V79" s="72"/>
@@ -24149,11 +24149,11 @@
       </c>
       <c r="S81" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Y82</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T81" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z82</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="U81" s="72"/>
       <c r="V81" s="72"/>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12274" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17329" uniqueCount="375">
   <si>
     <t>CXD</t>
   </si>
@@ -1170,6 +1170,24 @@
   <si>
     <t>3333</t>
   </si>
+  <si>
+    <t>50000</t>
+  </si>
+  <si>
+    <t>3409200.000000</t>
+  </si>
+  <si>
+    <t>1288800.000000</t>
+  </si>
+  <si>
+    <t>4698000.000000</t>
+  </si>
+  <si>
+    <t>842400.000000</t>
+  </si>
+  <si>
+    <t>925200.000000</t>
+  </si>
 </sst>
 </file>
 
@@ -2707,7 +2725,7 @@
         <v>233</v>
       </c>
       <c r="S9" t="s" s="10">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="T9" t="s" s="10">
         <v>233</v>
@@ -2823,7 +2841,7 @@
         <v>233</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="T10" t="s" s="10">
         <v>233</v>
@@ -2939,7 +2957,7 @@
         <v>233</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>359</v>
+        <v>369</v>
       </c>
       <c r="T11" t="s" s="10">
         <v>233</v>
@@ -3055,7 +3073,7 @@
         <v>233</v>
       </c>
       <c r="S12" t="s" s="10">
-        <v>360</v>
+        <v>233</v>
       </c>
       <c r="T12" t="s" s="10">
         <v>233</v>
@@ -3171,7 +3189,7 @@
         <v>233</v>
       </c>
       <c r="S13" t="s" s="10">
-        <v>361</v>
+        <v>369</v>
       </c>
       <c r="T13" t="s" s="10">
         <v>233</v>
@@ -11059,8 +11077,8 @@
       <c r="Q9" s="62" t="n">
         <v>0.0</v>
       </c>
-      <c r="R9" s="62" t="n">
-        <v>0.0</v>
+      <c r="R9" s="62" t="s">
+        <v>162</v>
       </c>
       <c r="S9" s="61" t="n">
         <v>0.0</v>
@@ -11081,10 +11099,10 @@
         <v>0.0</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>12.0</v>
+        <v>24.0</v>
       </c>
       <c r="AA9" s="22" t="n">
         <v>1.0</v>
@@ -11139,8 +11157,8 @@
       <c r="Q10" s="64" t="n">
         <v>0.0</v>
       </c>
-      <c r="R10" s="64" t="n">
-        <v>0.0</v>
+      <c r="R10" s="64" t="s">
+        <v>162</v>
       </c>
       <c r="S10" s="64" t="n">
         <v>0.0</v>
@@ -11161,10 +11179,10 @@
         <v>0.0</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA10" s="22" t="n">
         <v>0.0</v>
@@ -11219,8 +11237,8 @@
       <c r="Q11" s="23" t="n">
         <v>0.0</v>
       </c>
-      <c r="R11" s="23" t="n">
-        <v>0.0</v>
+      <c r="R11" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="S11" s="23" t="n">
         <v>0.0</v>
@@ -11241,10 +11259,10 @@
         <v>0.0</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA11" s="22" t="n">
         <v>0.0</v>
@@ -11459,8 +11477,8 @@
       <c r="Q14" s="23" t="n">
         <v>0.0</v>
       </c>
-      <c r="R14" s="23" t="n">
-        <v>0.0</v>
+      <c r="R14" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="S14" s="23" t="n">
         <v>0.0</v>
@@ -11481,10 +11499,10 @@
         <v>0.0</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="AA14" s="22" t="n">
         <v>0.0</v>
@@ -18366,11 +18384,11 @@
       </c>
       <c r="S9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!Y10</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!Z10</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="U9" s="123"/>
       <c r="V9" s="123"/>
@@ -18451,11 +18469,11 @@
       </c>
       <c r="S10" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Y11</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T10" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z11</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="U10" s="72"/>
       <c r="V10" s="72"/>
@@ -18691,11 +18709,11 @@
       </c>
       <c r="S13" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Y14</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="T13" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z14</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="U13" s="72"/>
       <c r="V13" s="72"/>
@@ -25686,40 +25704,40 @@
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>279</v>
+        <v>370</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="I9" s="8" t="n">
-        <v>8168409.0</v>
+        <v>1562874.0</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="M9" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N9" s="8" t="n">
         <v>12.0</v>
       </c>
-      <c r="N9" s="8" t="n">
-        <v>947.0</v>
-      </c>
       <c r="O9" s="8" t="n">
-        <v>959.0</v>
+        <v>12.0</v>
       </c>
       <c r="P9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>959.0</v>
+        <v>12.0</v>
       </c>
       <c r="R9" s="8" t="n">
         <v>1.0</v>
@@ -25748,40 +25766,40 @@
         <v>163</v>
       </c>
       <c r="F10" s="8" t="s">
-        <v>164</v>
+        <v>198</v>
       </c>
       <c r="G10" s="8" t="s">
-        <v>165</v>
+        <v>195</v>
       </c>
       <c r="H10" s="8" t="s">
-        <v>166</v>
+        <v>199</v>
       </c>
       <c r="I10" s="8" t="n">
-        <v>2142855.0</v>
+        <v>285714.0</v>
       </c>
       <c r="J10" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="P10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="R10" s="8" t="n">
         <v>1.0</v>
@@ -25810,16 +25828,16 @@
         <v>167</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="I11" s="8" t="n">
-        <v>1601201.0</v>
+        <v>315488.0</v>
       </c>
       <c r="J11" s="8" t="n">
         <v>0.0</v>
@@ -25872,16 +25890,16 @@
         <v>168</v>
       </c>
       <c r="F12" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="G12" s="8" t="s">
         <v>162</v>
       </c>
       <c r="H12" s="8" t="s">
-        <v>169</v>
+        <v>162</v>
       </c>
       <c r="I12" s="8" t="n">
-        <v>857142.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J12" s="8" t="n">
         <v>0.0</v>
@@ -25934,16 +25952,16 @@
         <v>170</v>
       </c>
       <c r="F13" s="8" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="G13" s="8" t="s">
         <v>162</v>
       </c>
       <c r="H13" s="8" t="s">
-        <v>171</v>
+        <v>221</v>
       </c>
       <c r="I13" s="8" t="n">
-        <v>857142.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J13" s="8" t="n">
         <v>0.0</v>
@@ -25996,16 +26014,16 @@
         <v>172</v>
       </c>
       <c r="F14" s="8" t="s">
-        <v>255</v>
+        <v>162</v>
       </c>
       <c r="G14" s="8" t="s">
-        <v>173</v>
+        <v>162</v>
       </c>
       <c r="H14" s="8" t="s">
-        <v>256</v>
+        <v>162</v>
       </c>
       <c r="I14" s="8" t="n">
-        <v>1187069.0</v>
+        <v>10100.0</v>
       </c>
       <c r="J14" s="8" t="n">
         <v>0.0</v>
@@ -26017,19 +26035,19 @@
         <v>0.0</v>
       </c>
       <c r="M14" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N14" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="O14" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P14" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q14" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="R14" s="8" t="n">
         <v>1.0</v>
@@ -26058,16 +26076,16 @@
         <v>174</v>
       </c>
       <c r="F15" s="8" t="s">
-        <v>257</v>
+        <v>227</v>
       </c>
       <c r="G15" s="8" t="s">
-        <v>258</v>
+        <v>261</v>
       </c>
       <c r="H15" s="8" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
       <c r="I15" s="8" t="n">
-        <v>1523000.0</v>
+        <v>665858.0</v>
       </c>
       <c r="J15" s="8" t="n">
         <v>0.0</v>
@@ -26120,40 +26138,40 @@
         <v>28</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>279</v>
+        <v>370</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>280</v>
+        <v>371</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>281</v>
+        <v>372</v>
       </c>
       <c r="I16" s="8" t="n">
-        <v>8186685.0</v>
+        <v>1572012.0</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="M16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="P16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" s="8" t="n">
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="R16" s="8" t="n">
         <v>0.0</v>
@@ -26165,7 +26183,7 @@
         <v>1.0</v>
       </c>
       <c r="U16" s="8" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="17" spans="2:23" s="74" customFormat="1" x14ac:dyDescent="0.25">
@@ -26182,40 +26200,40 @@
         <v>104</v>
       </c>
       <c r="F17" s="74" t="s">
-        <v>285</v>
+        <v>373</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>286</v>
+        <v>278</v>
       </c>
       <c r="H17" s="74" t="s">
-        <v>287</v>
+        <v>290</v>
       </c>
       <c r="I17" s="74" t="n">
-        <v>2002870.0</v>
+        <v>981346.0</v>
       </c>
       <c r="J17" s="74" t="s">
         <v>162</v>
       </c>
       <c r="K17" s="74" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="L17" s="74" t="s">
-        <v>342</v>
+        <v>162</v>
       </c>
       <c r="M17" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="N17" s="74" t="n">
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="O17" s="74" t="n">
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="P17" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="74" t="n">
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="R17" s="74" t="n">
         <v>0.0</v>
@@ -26255,29 +26273,29 @@
       <c r="I18" s="0" t="n">
         <v>315488.0</v>
       </c>
-      <c r="J18" t="s" s="0">
-        <v>162</v>
-      </c>
-      <c r="K18" t="s" s="0">
-        <v>342</v>
-      </c>
-      <c r="L18" t="s" s="0">
-        <v>342</v>
+      <c r="J18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="K18" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="L18" t="n" s="0">
+        <v>0.0</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>0.0</v>
@@ -26306,40 +26324,40 @@
         <v>105</v>
       </c>
       <c r="F19" t="s" s="0">
-        <v>177</v>
+        <v>162</v>
       </c>
       <c r="G19" t="s" s="0">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H19" t="s" s="0">
-        <v>179</v>
+        <v>162</v>
       </c>
       <c r="I19" s="0" t="n">
-        <v>1021524.0</v>
-      </c>
-      <c r="J19" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J19" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>162</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>0.0</v>
@@ -26424,22 +26442,22 @@
         <v>176</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>107</v>
+        <v>112</v>
       </c>
       <c r="F21" t="s" s="0">
-        <v>180</v>
+        <v>209</v>
       </c>
       <c r="G21" t="s" s="0">
-        <v>263</v>
+        <v>162</v>
       </c>
       <c r="H21" t="s" s="0">
-        <v>264</v>
+        <v>209</v>
       </c>
       <c r="I21" s="0" t="n">
-        <v>1275129.0</v>
+        <v>285714.0</v>
       </c>
       <c r="J21" s="0" t="n">
         <v>0.0</v>
@@ -26475,7 +26493,7 @@
         <v>1.0</v>
       </c>
       <c r="U21" s="0" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="22" spans="2:23" x14ac:dyDescent="0.25">
@@ -26486,22 +26504,22 @@
         <v>176</v>
       </c>
       <c r="D22" t="s" s="0">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E22" t="s" s="0">
-        <v>108</v>
+        <v>114</v>
       </c>
       <c r="F22" t="s" s="0">
-        <v>180</v>
+        <v>194</v>
       </c>
       <c r="G22" t="s" s="0">
-        <v>263</v>
+        <v>195</v>
       </c>
       <c r="H22" t="s" s="0">
-        <v>264</v>
+        <v>196</v>
       </c>
       <c r="I22" s="0" t="n">
-        <v>1275129.0</v>
+        <v>304952.0</v>
       </c>
       <c r="J22" s="0" t="n">
         <v>0.0</v>
@@ -26534,10 +26552,10 @@
         <v>0.0</v>
       </c>
       <c r="T22" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U22" s="0" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="23" spans="2:23" x14ac:dyDescent="0.25">
@@ -26548,22 +26566,22 @@
         <v>176</v>
       </c>
       <c r="D23" t="s" s="0">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E23" t="s" s="0">
-        <v>109</v>
+        <v>116</v>
       </c>
       <c r="F23" t="s" s="0">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G23" t="s" s="0">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H23" t="s" s="0">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="I23" s="0" t="n">
-        <v>571428.0</v>
+        <v>286904.0</v>
       </c>
       <c r="J23" s="0" t="n">
         <v>0.0</v>
@@ -26596,10 +26614,10 @@
         <v>0.0</v>
       </c>
       <c r="T23" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U23" s="0" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="24" spans="2:23" x14ac:dyDescent="0.25">
@@ -26610,22 +26628,22 @@
         <v>176</v>
       </c>
       <c r="D24" t="s" s="0">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E24" t="s" s="0">
-        <v>110</v>
+        <v>115</v>
       </c>
       <c r="F24" t="s" s="0">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G24" t="s" s="0">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H24" t="s" s="0">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="I24" s="0" t="n">
-        <v>285714.0</v>
+        <v>18048.0</v>
       </c>
       <c r="J24" s="0" t="n">
         <v>0.0</v>
@@ -26661,33 +26679,39 @@
         <v>0.0</v>
       </c>
       <c r="U24" s="0" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
+      </c>
+      <c r="V24" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="W24" t="n" s="0">
+        <v>6.0</v>
       </c>
     </row>
     <row r="25" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B25" t="s" s="0">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C25" t="s" s="0">
-        <v>176</v>
+        <v>28</v>
       </c>
       <c r="D25" t="s" s="0">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="E25" t="s" s="0">
-        <v>111</v>
+        <v>28</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>184</v>
+        <v>370</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>185</v>
+        <v>371</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>186</v>
+        <v>372</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>285714.0</v>
+        <v>1572012.0</v>
       </c>
       <c r="J25" s="0" t="n">
         <v>0.0</v>
@@ -26706,7 +26730,7 @@
       </c>
       <c r="O25" t="n" s="0">
         <f>bc_ttnl_theo_kh!M9</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P25" s="0" t="n">
         <v>0.0</v>
@@ -26715,42 +26739,48 @@
         <v>0.0</v>
       </c>
       <c r="R25" s="0" t="n">
-        <v>0.0</v>
+        <v>5527.0</v>
       </c>
       <c r="S25" s="45" t="n">
-        <v>0.0</v>
+        <v>3060.0</v>
       </c>
       <c r="T25" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="U25" s="0" t="n">
-        <v>3.0</v>
+        <v>1.0</v>
+      </c>
+      <c r="V25" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="W25" t="n" s="0">
+        <v>6.0</v>
       </c>
     </row>
     <row r="26" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B26" t="s" s="0">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>112</v>
+        <v>190</v>
       </c>
       <c r="F26" t="s" s="0">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="G26" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H26" t="s" s="0">
-        <v>265</v>
+        <v>162</v>
       </c>
       <c r="I26" s="0" t="n">
-        <v>1247142.0</v>
+        <v>2258.0</v>
       </c>
       <c r="J26" s="0" t="n">
         <v>0.0</v>
@@ -26776,43 +26806,49 @@
       <c r="Q26" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R26" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S26" s="45" t="n">
-        <v>0.0</v>
+      <c r="R26" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S26" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T26" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U26" s="0" t="n">
         <v>1.0</v>
       </c>
-      <c r="U26" s="0" t="n">
-        <v>4.0</v>
+      <c r="V26" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="W26" t="n" s="0">
+        <v>6.0</v>
       </c>
     </row>
     <row r="27" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B27" t="s" s="0">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C27" t="s" s="0">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D27" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E27" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="F27" t="s" s="0">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="G27" t="s" s="0">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H27" t="s" s="0">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="I27" s="0" t="n">
-        <v>1201199.0</v>
+        <v>2258.0</v>
       </c>
       <c r="J27" s="0" t="n">
         <v>0.0</v>
@@ -26838,43 +26874,49 @@
       <c r="Q27" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R27" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S27" s="45" t="n">
-        <v>0.0</v>
+      <c r="R27" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S27" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T27" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U27" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V27" t="n" s="0">
         <v>1.0</v>
       </c>
-      <c r="U27" s="0" t="n">
-        <v>5.0</v>
+      <c r="W27" t="n" s="0">
+        <v>6.0</v>
       </c>
     </row>
     <row r="28" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B28" t="s" s="0">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C28" t="s" s="0">
-        <v>176</v>
+        <v>190</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>332</v>
+        <v>115</v>
       </c>
       <c r="F28" t="s" s="0">
-        <v>187</v>
+        <v>162</v>
       </c>
       <c r="G28" t="s" s="0">
-        <v>178</v>
+        <v>162</v>
       </c>
       <c r="H28" t="s" s="0">
-        <v>188</v>
+        <v>162</v>
       </c>
       <c r="I28" s="0" t="n">
-        <v>1201199.0</v>
+        <v>2258.0</v>
       </c>
       <c r="J28" s="0" t="n">
         <v>0.0</v>
@@ -26900,43 +26942,49 @@
       <c r="Q28" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R28" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="S28" s="45" t="n">
-        <v>0.0</v>
+      <c r="R28" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S28" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T28" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U28" s="0" t="n">
-        <v>5.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="V28" t="n" s="0">
+        <v>0.0</v>
+      </c>
+      <c r="W28" t="n" s="0">
+        <v>6.0</v>
       </c>
     </row>
     <row r="29" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B29" t="s" s="0">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C29" t="s" s="0">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D29" t="s" s="0">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E29" t="s" s="0">
-        <v>114</v>
+        <v>191</v>
       </c>
       <c r="F29" t="s" s="0">
-        <v>181</v>
+        <v>194</v>
       </c>
       <c r="G29" t="s" s="0">
-        <v>182</v>
+        <v>195</v>
       </c>
       <c r="H29" t="s" s="0">
-        <v>183</v>
+        <v>196</v>
       </c>
       <c r="I29" s="0" t="n">
-        <v>1746060.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J29" s="0" t="n">
         <v>0.0</v>
@@ -26963,42 +27011,48 @@
         <v>0.0</v>
       </c>
       <c r="R29" s="0" t="n">
-        <v>0.0</v>
+        <v>5527.0</v>
       </c>
       <c r="S29" s="45" t="n">
-        <v>0.0</v>
+        <v>3060.0</v>
       </c>
       <c r="T29" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U29" s="0" t="n">
         <v>1.0</v>
       </c>
-      <c r="U29" s="0" t="n">
+      <c r="V29" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="W29" t="n" s="0">
         <v>6.0</v>
       </c>
     </row>
     <row r="30" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B30" t="s" s="0">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C30" t="s" s="0">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D30" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E30" t="s" s="0">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F30" t="s" s="0">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G30" t="s" s="0">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H30" t="s" s="0">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="I30" s="0" t="n">
-        <v>869220.0</v>
+        <v>0.0</v>
       </c>
       <c r="J30" s="0" t="n">
         <v>0.0</v>
@@ -27025,42 +27079,48 @@
         <v>0.0</v>
       </c>
       <c r="R30" s="0" t="n">
-        <v>0.0</v>
+        <v>5527.0</v>
       </c>
       <c r="S30" s="45" t="n">
-        <v>0.0</v>
+        <v>3060.0</v>
       </c>
       <c r="T30" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U30" s="0" t="n">
-        <v>6.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="V30" t="n" s="0">
+        <v>1.0</v>
+      </c>
+      <c r="W30" t="n" s="0">
+        <v>1.0</v>
       </c>
     </row>
     <row r="31" spans="2:23" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B31" s="74" t="s">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C31" s="74" t="s">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D31" s="74" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E31" s="74" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F31" s="74" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G31" s="74" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H31" s="74" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="I31" s="74" t="n">
-        <v>876840.0</v>
+        <v>0.0</v>
       </c>
       <c r="J31" s="74" t="n">
         <v>0.0</v>
@@ -27087,45 +27147,45 @@
         <v>0.0</v>
       </c>
       <c r="R31" s="74" t="n">
-        <v>0.0</v>
+        <v>5527.0</v>
       </c>
       <c r="S31" s="75" t="n">
-        <v>0.0</v>
+        <v>3060.0</v>
       </c>
       <c r="T31" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="U31" s="74" t="n">
-        <v>6.0</v>
-      </c>
-      <c r="V31" s="74">
-        <v>1</v>
-      </c>
-      <c r="W31" s="74">
-        <v>7</v>
+        <v>0.0</v>
+      </c>
+      <c r="V31" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W31" s="74" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="32" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B32" t="s" s="0">
-        <v>175</v>
+        <v>189</v>
       </c>
       <c r="C32" t="s" s="0">
-        <v>176</v>
+        <v>191</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>21</v>
+        <v>114</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="I32" s="0" t="n">
         <v>142857.0</v>
@@ -27155,22 +27215,22 @@
         <v>0.0</v>
       </c>
       <c r="R32" s="0" t="n">
-        <v>0.0</v>
+        <v>5527.0</v>
       </c>
       <c r="S32" s="45" t="n">
-        <v>0.0</v>
+        <v>3060.0</v>
       </c>
       <c r="T32" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U32" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V32" s="0" t="n">
         <v>1.0</v>
       </c>
-      <c r="U32" s="0" t="n">
-        <v>7.0</v>
-      </c>
-      <c r="V32" s="0">
-        <v>1</v>
-      </c>
-      <c r="W32" s="0">
-        <v>7</v>
+      <c r="W32" s="0" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="33" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -27178,25 +27238,25 @@
         <v>189</v>
       </c>
       <c r="C33" s="8" t="s">
-        <v>28</v>
+        <v>191</v>
       </c>
       <c r="D33" s="8" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>28</v>
+        <v>116</v>
       </c>
       <c r="F33" s="8" t="s">
-        <v>279</v>
+        <v>194</v>
       </c>
       <c r="G33" s="8" t="s">
-        <v>280</v>
+        <v>195</v>
       </c>
       <c r="H33" s="8" t="s">
-        <v>281</v>
+        <v>196</v>
       </c>
       <c r="I33" s="8" t="n">
-        <v>8186685.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J33" s="8" t="n">
         <v>0.0</v>
@@ -27229,16 +27289,16 @@
         <v>3060.0</v>
       </c>
       <c r="T33" s="8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="U33" s="8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V33" s="8" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W33" s="8" t="n">
-        <v>7.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="34" spans="2:23" s="74" customFormat="1" x14ac:dyDescent="0.25">
@@ -27246,25 +27306,25 @@
         <v>189</v>
       </c>
       <c r="C34" s="74" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D34" s="74" t="s">
         <v>28</v>
       </c>
       <c r="E34" s="74" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="G34" s="74" t="s">
         <v>162</v>
       </c>
       <c r="H34" s="74" t="s">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="I34" s="74" t="n">
-        <v>4516.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J34" s="74" t="n">
         <v>0.0</v>
@@ -27290,11 +27350,11 @@
       <c r="Q34" s="74" t="n">
         <v>0.0</v>
       </c>
-      <c r="R34" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="S34" s="75" t="s">
-        <v>28</v>
+      <c r="R34" s="74" t="n">
+        <v>5527.0</v>
+      </c>
+      <c r="S34" s="75" t="n">
+        <v>3060.0</v>
       </c>
       <c r="T34" s="74" t="n">
         <v>0.0</v>
@@ -27306,7 +27366,7 @@
         <v>1.0</v>
       </c>
       <c r="W34" s="74" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
@@ -27314,13 +27374,13 @@
         <v>189</v>
       </c>
       <c r="C35" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F35" t="s" s="0">
         <v>162</v>
@@ -27332,7 +27392,7 @@
         <v>162</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>4516.0</v>
+        <v>0.0</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0.0</v>
@@ -27358,11 +27418,11 @@
       <c r="Q35" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R35" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S35" s="45" t="s">
-        <v>28</v>
+      <c r="R35" t="n" s="0">
+        <v>5527.0</v>
+      </c>
+      <c r="S35" s="45" t="n">
+        <v>3060.0</v>
       </c>
       <c r="T35" s="0" t="n">
         <v>0.0</v>
@@ -27374,7 +27434,7 @@
         <v>1.0</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="36" spans="2:23" s="74" customFormat="1" x14ac:dyDescent="0.25">
@@ -27382,13 +27442,13 @@
         <v>189</v>
       </c>
       <c r="C36" s="74" t="s">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D36" s="74" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E36" s="74" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="F36" s="74" t="s">
         <v>162</v>
@@ -27400,7 +27460,7 @@
         <v>162</v>
       </c>
       <c r="I36" s="74" t="n">
-        <v>2258.0</v>
+        <v>0.0</v>
       </c>
       <c r="J36" s="74" t="n">
         <v>0.0</v>
@@ -27426,11 +27486,11 @@
       <c r="Q36" s="74" t="n">
         <v>0.0</v>
       </c>
-      <c r="R36" s="74" t="s">
-        <v>28</v>
-      </c>
-      <c r="S36" s="75" t="s">
-        <v>28</v>
+      <c r="R36" s="74" t="n">
+        <v>5527.0</v>
+      </c>
+      <c r="S36" s="75" t="n">
+        <v>3060.0</v>
       </c>
       <c r="T36" s="74" t="n">
         <v>0.0</v>
@@ -27442,7 +27502,7 @@
         <v>0.0</v>
       </c>
       <c r="W36" s="74" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="37" spans="2:23" x14ac:dyDescent="0.25">
@@ -27450,25 +27510,25 @@
         <v>189</v>
       </c>
       <c r="C37" t="s" s="0">
-        <v>190</v>
+        <v>200</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="G37" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>2258.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0.0</v>
@@ -27494,11 +27554,11 @@
       <c r="Q37" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R37" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S37" s="45" t="s">
-        <v>28</v>
+      <c r="R37" t="n" s="0">
+        <v>5527.0</v>
+      </c>
+      <c r="S37" s="45" t="n">
+        <v>3060.0</v>
       </c>
       <c r="T37" s="0" t="n">
         <v>0.0</v>
@@ -27507,10 +27567,10 @@
         <v>0.0</v>
       </c>
       <c r="V37" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W37" s="0" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
@@ -27518,25 +27578,25 @@
         <v>189</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D38" t="s" s="0">
         <v>28</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>192</v>
+        <v>221</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>165</v>
+        <v>288</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>193</v>
+        <v>289</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>1285713.0</v>
+        <v>315488.0</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0.0</v>
@@ -27563,10 +27623,10 @@
         <v>0.0</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>5527.0</v>
+        <v>5034.0</v>
       </c>
       <c r="S38" s="45" t="n">
-        <v>3060.0</v>
+        <v>2368.0</v>
       </c>
       <c r="T38" s="0" t="n">
         <v>0.0</v>
@@ -27578,7 +27638,7 @@
         <v>1.0</v>
       </c>
       <c r="W38" s="0" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="39" spans="2:23" x14ac:dyDescent="0.25">
@@ -27586,7 +27646,7 @@
         <v>189</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D39" t="s" s="0">
         <v>104</v>
@@ -27595,16 +27655,16 @@
         <v>104</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>142857.0</v>
+        <v>315488.0</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0.0</v>
@@ -27631,10 +27691,10 @@
         <v>0.0</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>5527.0</v>
+        <v>5034.0</v>
       </c>
       <c r="S39" s="45" t="n">
-        <v>3060.0</v>
+        <v>2368.0</v>
       </c>
       <c r="T39" s="0" t="n">
         <v>0.0</v>
@@ -27654,25 +27714,25 @@
         <v>189</v>
       </c>
       <c r="C40" t="s" s="0">
-        <v>191</v>
+        <v>202</v>
       </c>
       <c r="D40" t="s" s="0">
         <v>104</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>195</v>
+        <v>288</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>196</v>
+        <v>289</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>142857.0</v>
+        <v>315488.0</v>
       </c>
       <c r="J40" s="0" t="n">
         <v>0.0</v>
@@ -27699,10 +27759,10 @@
         <v>0.0</v>
       </c>
       <c r="R40" s="0" t="n">
-        <v>5527.0</v>
+        <v>5034.0</v>
       </c>
       <c r="S40" s="45" t="n">
-        <v>3060.0</v>
+        <v>2368.0</v>
       </c>
       <c r="T40" s="0" t="n">
         <v>0.0</v>
@@ -27722,25 +27782,25 @@
         <v>189</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>107</v>
+        <v>28</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>107</v>
+        <v>204</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>194</v>
+        <v>373</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>196</v>
+        <v>374</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>142857.0</v>
+        <v>961672.0</v>
       </c>
       <c r="J41" s="0" t="n">
         <v>0.0</v>
@@ -27766,23 +27826,23 @@
       <c r="Q41" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R41" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S41" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R41" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S41" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V41" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="W41" s="0" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
@@ -27790,25 +27850,25 @@
         <v>189</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D42" t="s" s="0">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>108</v>
+        <v>104</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>142857.0</v>
+        <v>665858.0</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0.0</v>
@@ -27834,11 +27894,11 @@
       <c r="Q42" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R42" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S42" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R42" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S42" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T42" s="0" t="n">
         <v>0.0</v>
@@ -27847,10 +27907,10 @@
         <v>0.0</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W42" s="0" t="n">
-        <v>2.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="43" spans="2:23" x14ac:dyDescent="0.25">
@@ -27858,25 +27918,25 @@
         <v>189</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D43" t="s" s="0">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>109</v>
+        <v>260</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>285714.0</v>
+        <v>665858.0</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0.0</v>
@@ -27902,11 +27962,11 @@
       <c r="Q43" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R43" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S43" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R43" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S43" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T43" s="0" t="n">
         <v>0.0</v>
@@ -27915,10 +27975,10 @@
         <v>0.0</v>
       </c>
       <c r="V43" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W43" s="0" t="n">
         <v>1.0</v>
-      </c>
-      <c r="W43" s="0" t="n">
-        <v>3.0</v>
       </c>
     </row>
     <row r="44" spans="2:23" x14ac:dyDescent="0.25">
@@ -27926,22 +27986,22 @@
         <v>189</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="G44" t="s" s="0">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="I44" s="0" t="n">
         <v>142857.0</v>
@@ -27970,11 +28030,11 @@
       <c r="Q44" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R44" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S44" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R44" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S44" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T44" s="0" t="n">
         <v>0.0</v>
@@ -27983,10 +28043,10 @@
         <v>0.0</v>
       </c>
       <c r="V44" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W44" s="0" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -27994,25 +28054,25 @@
         <v>189</v>
       </c>
       <c r="C45" t="s" s="0">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>142857.0</v>
+        <v>152957.0</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0.0</v>
@@ -28038,11 +28098,11 @@
       <c r="Q45" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R45" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S45" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R45" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S45" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T45" s="0" t="n">
         <v>0.0</v>
@@ -28051,10 +28111,10 @@
         <v>0.0</v>
       </c>
       <c r="V45" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W45" s="0" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="46" spans="2:23" x14ac:dyDescent="0.25">
@@ -28062,25 +28122,25 @@
         <v>189</v>
       </c>
       <c r="C46" t="s" s="0">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="G46" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>142857.0</v>
+        <v>10100.0</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0.0</v>
@@ -28106,11 +28166,11 @@
       <c r="Q46" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R46" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S46" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R46" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S46" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T46" s="0" t="n">
         <v>0.0</v>
@@ -28119,10 +28179,10 @@
         <v>0.0</v>
       </c>
       <c r="V46" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W46" s="0" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -28130,25 +28190,25 @@
         <v>189</v>
       </c>
       <c r="C47" t="s" s="0">
-        <v>191</v>
+        <v>204</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>113</v>
+        <v>116</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>285714.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0.0</v>
@@ -28174,11 +28234,11 @@
       <c r="Q47" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R47" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S47" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R47" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S47" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T47" s="0" t="n">
         <v>0.0</v>
@@ -28187,10 +28247,10 @@
         <v>0.0</v>
       </c>
       <c r="V47" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W47" s="0" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -28198,25 +28258,25 @@
         <v>189</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>332</v>
+        <v>211</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>198</v>
+        <v>162</v>
       </c>
       <c r="G48" t="s" s="0">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>199</v>
+        <v>162</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>285714.0</v>
+        <v>1190.0</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0.0</v>
@@ -28242,23 +28302,23 @@
       <c r="Q48" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R48" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S48" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R48" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S48" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T48" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U48" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V48" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W48" s="0" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="49" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -28266,7 +28326,7 @@
         <v>189</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>114</v>
@@ -28275,16 +28335,16 @@
         <v>114</v>
       </c>
       <c r="F49" s="8" t="s">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="G49" s="8" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H49" s="8" t="s">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="I49" s="8" t="n">
-        <v>285714.0</v>
+        <v>1190.0</v>
       </c>
       <c r="J49" s="8" t="n">
         <v>0.0</v>
@@ -28310,11 +28370,11 @@
       <c r="Q49" s="8" t="n">
         <v>0.0</v>
       </c>
-      <c r="R49" s="8" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S49" s="46" t="n">
-        <v>3060.0</v>
+      <c r="R49" s="8" t="s">
+        <v>28</v>
+      </c>
+      <c r="S49" s="46" t="s">
+        <v>28</v>
       </c>
       <c r="T49" s="8" t="n">
         <v>0.0</v>
@@ -28334,7 +28394,7 @@
         <v>189</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>191</v>
+        <v>211</v>
       </c>
       <c r="D50" t="s" s="0">
         <v>114</v>
@@ -28343,16 +28403,16 @@
         <v>115</v>
       </c>
       <c r="F50" t="s" s="0">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G50" t="s" s="0">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H50" t="s" s="0">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>142857.0</v>
+        <v>1190.0</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0.0</v>
@@ -28378,11 +28438,11 @@
       <c r="Q50" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R50" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S50" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R50" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S50" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T50" s="0" t="n">
         <v>0.0</v>
@@ -28402,25 +28462,25 @@
         <v>189</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>191</v>
+        <v>212</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>116</v>
+        <v>212</v>
       </c>
       <c r="F51" t="s" s="0">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G51" t="s" s="0">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H51" t="s" s="0">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>142857.0</v>
+        <v>1650.0</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>0.0</v>
@@ -28446,20 +28506,20 @@
       <c r="Q51" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R51" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S51" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R51" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S51" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T51" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U51" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V51" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W51" s="0" t="n">
         <v>6.0</v>
@@ -28470,25 +28530,25 @@
         <v>189</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>200</v>
+        <v>114</v>
       </c>
       <c r="F52" t="s" s="0">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="G52" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H52" t="s" s="0">
-        <v>201</v>
+        <v>162</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>857142.0</v>
+        <v>1650.0</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>0.0</v>
@@ -28514,17 +28574,17 @@
       <c r="Q52" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R52" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S52" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R52" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S52" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T52" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U52" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V52" s="0" t="n">
         <v>1.0</v>
@@ -28538,25 +28598,25 @@
         <v>189</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>200</v>
+        <v>212</v>
       </c>
       <c r="D53" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F53" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="G53" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H53" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>142857.0</v>
+        <v>1650.0</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>0.0</v>
@@ -28582,11 +28642,11 @@
       <c r="Q53" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R53" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S53" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R53" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S53" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T53" s="0" t="n">
         <v>0.0</v>
@@ -28595,10 +28655,10 @@
         <v>0.0</v>
       </c>
       <c r="V53" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W53" s="0" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="54" spans="2:23" x14ac:dyDescent="0.25">
@@ -28606,25 +28666,25 @@
         <v>189</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>105</v>
+        <v>213</v>
       </c>
       <c r="F54" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="G54" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H54" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="I54" s="0" t="n">
-        <v>142857.0</v>
+        <v>1190.0</v>
       </c>
       <c r="J54" s="0" t="n">
         <v>0.0</v>
@@ -28650,23 +28710,23 @@
       <c r="Q54" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R54" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S54" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R54" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S54" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T54" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U54" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V54" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W54" s="0" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="55" spans="2:23" x14ac:dyDescent="0.25">
@@ -28674,25 +28734,25 @@
         <v>189</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F55" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="G55" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H55" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>142857.0</v>
+        <v>1190.0</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>0.0</v>
@@ -28718,11 +28778,11 @@
       <c r="Q55" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R55" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S55" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R55" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S55" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T55" s="0" t="n">
         <v>0.0</v>
@@ -28734,7 +28794,7 @@
         <v>1.0</v>
       </c>
       <c r="W55" s="0" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="56" spans="2:23" x14ac:dyDescent="0.25">
@@ -28742,25 +28802,25 @@
         <v>189</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>200</v>
+        <v>213</v>
       </c>
       <c r="D56" t="s" s="0">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F56" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="G56" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H56" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>142857.0</v>
+        <v>1190.0</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>0.0</v>
@@ -28786,11 +28846,11 @@
       <c r="Q56" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R56" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S56" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R56" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S56" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T56" s="0" t="n">
         <v>0.0</v>
@@ -28802,7 +28862,7 @@
         <v>0.0</v>
       </c>
       <c r="W56" s="0" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="57" spans="2:23" x14ac:dyDescent="0.25">
@@ -28810,13 +28870,13 @@
         <v>189</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>109</v>
+        <v>214</v>
       </c>
       <c r="F57" t="s" s="0">
         <v>162</v>
@@ -28828,7 +28888,7 @@
         <v>162</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>0.0</v>
+        <v>2850.0</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>0.0</v>
@@ -28854,23 +28914,23 @@
       <c r="Q57" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R57" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S57" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R57" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S57" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T57" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U57" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V57" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="W57" s="0" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="58" spans="2:23" x14ac:dyDescent="0.25">
@@ -28878,13 +28938,13 @@
         <v>189</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>110</v>
+        <v>114</v>
       </c>
       <c r="F58" t="s" s="0">
         <v>162</v>
@@ -28896,7 +28956,7 @@
         <v>162</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>0.0</v>
+        <v>2850.0</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>0.0</v>
@@ -28922,11 +28982,11 @@
       <c r="Q58" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R58" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S58" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R58" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S58" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T58" s="0" t="n">
         <v>0.0</v>
@@ -28935,10 +28995,10 @@
         <v>0.0</v>
       </c>
       <c r="V58" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W58" s="0" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="59" spans="2:23" x14ac:dyDescent="0.25">
@@ -28946,13 +29006,13 @@
         <v>189</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>200</v>
+        <v>214</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>109</v>
+        <v>114</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>111</v>
+        <v>115</v>
       </c>
       <c r="F59" t="s" s="0">
         <v>162</v>
@@ -28964,7 +29024,7 @@
         <v>162</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>0.0</v>
+        <v>2850.0</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>0.0</v>
@@ -28990,11 +29050,11 @@
       <c r="Q59" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R59" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S59" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R59" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S59" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T59" s="0" t="n">
         <v>0.0</v>
@@ -29006,57 +29066,57 @@
         <v>0.0</v>
       </c>
       <c r="W59" s="0" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D60" t="s" s="0">
-        <v>112</v>
+        <v>28</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>112</v>
+        <v>163</v>
       </c>
       <c r="F60" t="s" s="0">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="G60" t="s" s="0">
+        <v>195</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>199</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>285714.0</v>
+      </c>
+      <c r="J60" s="0" t="s">
         <v>162</v>
       </c>
-      <c r="H60" t="s" s="0">
-        <v>197</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>142857.0</v>
-      </c>
-      <c r="J60" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K60" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L60" s="0" t="n">
-        <v>0.0</v>
+      <c r="K60" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="L60" s="0" t="s">
+        <v>162</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N60" s="0" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="O60" s="0" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="P60" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q60" s="0" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="R60" s="0" t="n">
         <v>5527.0</v>
@@ -29068,63 +29128,63 @@
         <v>0.0</v>
       </c>
       <c r="U60" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V60" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="W60" s="0" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="F61" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="G61" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H61" t="s" s="0">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>142857.0</v>
-      </c>
-      <c r="J61" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K61" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L61" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J61" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K61" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="L61" s="0" t="s">
+        <v>162</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N61" s="0" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="O61" s="0" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="P61" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q61" s="0" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="R61" s="0" t="n">
         <v>5527.0</v>
@@ -29142,57 +29202,57 @@
         <v>1.0</v>
       </c>
       <c r="W61" s="0" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="62" spans="2:23" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="74" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C62" s="74" t="s">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D62" s="74" t="s">
-        <v>113</v>
+        <v>104</v>
       </c>
       <c r="E62" s="74" t="s">
-        <v>332</v>
+        <v>105</v>
       </c>
       <c r="F62" s="74" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="G62" s="74" t="s">
         <v>162</v>
       </c>
       <c r="H62" s="74" t="s">
-        <v>197</v>
+        <v>162</v>
       </c>
       <c r="I62" s="74" t="n">
-        <v>142857.0</v>
-      </c>
-      <c r="J62" s="74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K62" s="74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L62" s="74" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J62" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="K62" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="L62" s="74" t="s">
+        <v>162</v>
       </c>
       <c r="M62" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="N62" s="74" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="O62" s="74" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="P62" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="Q62" s="74" t="n">
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="R62" s="74" t="n">
         <v>5527.0</v>
@@ -29210,33 +29270,33 @@
         <v>0.0</v>
       </c>
       <c r="W62" s="74" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B63" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="G63" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>162</v>
+        <v>197</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>285714.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>0.0</v>
@@ -29278,30 +29338,30 @@
         <v>1.0</v>
       </c>
       <c r="W63" s="0" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B64" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C64" t="s" s="0">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D64" t="s" s="0">
         <v>114</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F64" t="s" s="0">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="G64" t="s" s="0">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="H64" t="s" s="0">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="I64" s="0" t="n">
         <v>142857.0</v>
@@ -29343,7 +29403,7 @@
         <v>0.0</v>
       </c>
       <c r="V64" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W64" s="0" t="n">
         <v>6.0</v>
@@ -29351,10 +29411,10 @@
     </row>
     <row r="65" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B65" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C65" t="s" s="0">
-        <v>200</v>
+        <v>163</v>
       </c>
       <c r="D65" t="s" s="0">
         <v>114</v>
@@ -29363,13 +29423,13 @@
         <v>116</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>162</v>
+        <v>194</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>162</v>
+        <v>195</v>
       </c>
       <c r="H65" t="s" s="0">
-        <v>162</v>
+        <v>196</v>
       </c>
       <c r="I65" s="0" t="n">
         <v>142857.0</v>
@@ -29419,28 +29479,28 @@
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B66" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="D66" t="s" s="0">
         <v>28</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="F66" t="s" s="0">
-        <v>282</v>
+        <v>221</v>
       </c>
       <c r="G66" t="s" s="0">
-        <v>283</v>
+        <v>288</v>
       </c>
       <c r="H66" t="s" s="0">
-        <v>284</v>
+        <v>289</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>1601201.0</v>
+        <v>315488.0</v>
       </c>
       <c r="J66" s="0" t="n">
         <v>0.0</v>
@@ -29482,15 +29542,15 @@
         <v>1.0</v>
       </c>
       <c r="W66" s="0" t="n">
-        <v>7.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="67" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B67" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="D67" t="s" s="0">
         <v>104</v>
@@ -29499,16 +29559,16 @@
         <v>104</v>
       </c>
       <c r="F67" t="s" s="0">
-        <v>290</v>
+        <v>221</v>
       </c>
       <c r="G67" t="s" s="0">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="H67" t="s" s="0">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>458345.0</v>
+        <v>315488.0</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>0.0</v>
@@ -29555,10 +29615,10 @@
     </row>
     <row r="68" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B68" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>202</v>
+        <v>167</v>
       </c>
       <c r="D68" t="s" s="0">
         <v>104</v>
@@ -29623,25 +29683,25 @@
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B69" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="E69" t="s" s="0">
-        <v>105</v>
+        <v>168</v>
       </c>
       <c r="F69" t="s" s="0">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H69" t="s" s="0">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>142857.0</v>
@@ -29670,46 +29730,46 @@
       <c r="Q69" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R69" s="0" t="n">
-        <v>5034.0</v>
-      </c>
-      <c r="S69" s="45" t="n">
-        <v>2368.0</v>
+      <c r="R69" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S69" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T69" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U69" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V69" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W69" s="0" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="70" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B70" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="D70" t="s" s="0">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="F70" t="s" s="0">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H70" t="s" s="0">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="I70" s="0" t="n">
         <v>142857.0</v>
@@ -29738,11 +29798,11 @@
       <c r="Q70" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R70" s="0" t="n">
-        <v>5034.0</v>
-      </c>
-      <c r="S70" s="45" t="n">
-        <v>2368.0</v>
+      <c r="R70" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S70" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T70" s="0" t="n">
         <v>0.0</v>
@@ -29754,30 +29814,30 @@
         <v>1.0</v>
       </c>
       <c r="W70" s="0" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="71" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B71" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>202</v>
+        <v>168</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>107</v>
+        <v>114</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>108</v>
+        <v>116</v>
       </c>
       <c r="F71" t="s" s="0">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G71" t="s" s="0">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H71" t="s" s="0">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="I71" s="0" t="n">
         <v>142857.0</v>
@@ -29806,11 +29866,11 @@
       <c r="Q71" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R71" s="0" t="n">
-        <v>5034.0</v>
-      </c>
-      <c r="S71" s="45" t="n">
-        <v>2368.0</v>
+      <c r="R71" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S71" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T71" s="0" t="n">
         <v>0.0</v>
@@ -29822,33 +29882,33 @@
         <v>0.0</v>
       </c>
       <c r="W71" s="0" t="n">
-        <v>2.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B72" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>109</v>
+        <v>170</v>
       </c>
       <c r="F72" t="s" s="0">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="G72" t="s" s="0">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="H72" t="s" s="0">
-        <v>186</v>
+        <v>221</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>285714.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J72" s="0" t="n">
         <v>0.0</v>
@@ -29874,46 +29934,46 @@
       <c r="Q72" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R72" s="0" t="n">
-        <v>5034.0</v>
-      </c>
-      <c r="S72" s="45" t="n">
-        <v>2368.0</v>
+      <c r="R72" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S72" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T72" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U72" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V72" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="W72" s="0" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B73" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>202</v>
+        <v>170</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>194</v>
+        <v>221</v>
       </c>
       <c r="G73" t="s" s="0">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H73" t="s" s="0">
-        <v>196</v>
+        <v>221</v>
       </c>
       <c r="I73" s="0" t="n">
         <v>142857.0</v>
@@ -29942,11 +30002,11 @@
       <c r="Q73" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R73" s="0" t="n">
-        <v>5034.0</v>
-      </c>
-      <c r="S73" s="45" t="n">
-        <v>2368.0</v>
+      <c r="R73" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S73" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T73" s="0" t="n">
         <v>0.0</v>
@@ -29955,36 +30015,36 @@
         <v>0.0</v>
       </c>
       <c r="V73" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W73" s="0" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B74" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>109</v>
+        <v>28</v>
       </c>
       <c r="E74" t="s" s="0">
-        <v>111</v>
+        <v>172</v>
       </c>
       <c r="F74" t="s" s="0">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G74" t="s" s="0">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H74" t="s" s="0">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>142857.0</v>
+        <v>10100.0</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>0.0</v>
@@ -30010,49 +30070,49 @@
       <c r="Q74" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R74" s="0" t="n">
-        <v>5034.0</v>
-      </c>
-      <c r="S74" s="45" t="n">
-        <v>2368.0</v>
+      <c r="R74" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S74" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T74" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U74" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V74" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W74" s="0" t="n">
-        <v>3.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B75" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="F75" t="s" s="0">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="G75" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H75" t="s" s="0">
-        <v>203</v>
+        <v>162</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>142857.0</v>
+        <v>10100.0</v>
       </c>
       <c r="J75" s="0" t="n">
         <v>0.0</v>
@@ -30078,11 +30138,11 @@
       <c r="Q75" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R75" s="0" t="n">
-        <v>5034.0</v>
-      </c>
-      <c r="S75" s="45" t="n">
-        <v>2368.0</v>
+      <c r="R75" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S75" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T75" s="0" t="n">
         <v>0.0</v>
@@ -30094,33 +30154,33 @@
         <v>1.0</v>
       </c>
       <c r="W75" s="0" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="76" spans="2:23" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B76" s="74" t="s">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C76" s="74" t="s">
-        <v>202</v>
+        <v>172</v>
       </c>
       <c r="D76" s="74" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="E76" s="74" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="F76" s="74" t="s">
-        <v>194</v>
+        <v>162</v>
       </c>
       <c r="G76" s="74" t="s">
-        <v>195</v>
+        <v>162</v>
       </c>
       <c r="H76" s="74" t="s">
-        <v>196</v>
+        <v>162</v>
       </c>
       <c r="I76" s="74" t="n">
-        <v>142857.0</v>
+        <v>10100.0</v>
       </c>
       <c r="J76" s="74" t="n">
         <v>0.0</v>
@@ -30146,11 +30206,11 @@
       <c r="Q76" s="74" t="n">
         <v>0.0</v>
       </c>
-      <c r="R76" s="74" t="n">
-        <v>5034.0</v>
-      </c>
-      <c r="S76" s="75" t="n">
-        <v>2368.0</v>
+      <c r="R76" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="S76" s="75" t="s">
+        <v>28</v>
       </c>
       <c r="T76" s="74" t="n">
         <v>0.0</v>
@@ -30159,36 +30219,36 @@
         <v>0.0</v>
       </c>
       <c r="V76" s="74" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W76" s="74" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="77" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B77" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>113</v>
+        <v>28</v>
       </c>
       <c r="E77" t="s" s="0">
-        <v>332</v>
+        <v>174</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="H77" t="s" s="0">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>142857.0</v>
+        <v>665858.0</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>0.0</v>
@@ -30214,49 +30274,49 @@
       <c r="Q77" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R77" s="0" t="n">
-        <v>5034.0</v>
-      </c>
-      <c r="S77" s="45" t="n">
-        <v>2368.0</v>
+      <c r="R77" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S77" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T77" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U77" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V77" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W77" s="0" t="n">
-        <v>5.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B78" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E78" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="F78" t="s" s="0">
-        <v>184</v>
+        <v>227</v>
       </c>
       <c r="G78" t="s" s="0">
-        <v>185</v>
+        <v>261</v>
       </c>
       <c r="H78" t="s" s="0">
-        <v>186</v>
+        <v>262</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>285714.0</v>
+        <v>665858.0</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>0.0</v>
@@ -30282,11 +30342,11 @@
       <c r="Q78" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R78" s="0" t="n">
-        <v>5034.0</v>
-      </c>
-      <c r="S78" s="45" t="n">
-        <v>2368.0</v>
+      <c r="R78" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S78" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T78" s="0" t="n">
         <v>0.0</v>
@@ -30298,33 +30358,33 @@
         <v>1.0</v>
       </c>
       <c r="W78" s="0" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B79" t="s" s="0">
-        <v>189</v>
+        <v>216</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>202</v>
+        <v>174</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>116</v>
+        <v>260</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>194</v>
+        <v>227</v>
       </c>
       <c r="G79" t="s" s="0">
-        <v>195</v>
+        <v>261</v>
       </c>
       <c r="H79" t="s" s="0">
-        <v>196</v>
+        <v>262</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>142857.0</v>
+        <v>665858.0</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>0.0</v>
@@ -30350,11 +30410,11 @@
       <c r="Q79" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R79" s="0" t="n">
-        <v>5034.0</v>
-      </c>
-      <c r="S79" s="45" t="n">
-        <v>2368.0</v>
+      <c r="R79" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S79" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T79" s="0" t="n">
         <v>0.0</v>
@@ -30366,7 +30426,7 @@
         <v>0.0</v>
       </c>
       <c r="W79" s="0" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.25">
@@ -37936,19 +37996,19 @@
       </c>
       <c r="D8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F9/(24*60*60),"[h]:mm")</f>
-        <v>9061:22</v>
+        <v>947:00</v>
       </c>
       <c r="E8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G9/(24*60*60),"[h]:mm")</f>
-        <v>693:35</v>
+        <v>358:00</v>
       </c>
       <c r="F8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H9/(24*60*60),"[h]:mm")</f>
-        <v>9754:57</v>
+        <v>1305:00</v>
       </c>
       <c r="G8" s="20" t="n">
         <f>bc_ttnl_theo_kh!I9</f>
-        <v>8168409.0</v>
+        <v>1562874.0</v>
       </c>
       <c r="H8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J9/(24*60*60),"[h]:mm")</f>
@@ -37956,23 +38016,23 @@
       </c>
       <c r="I8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K9/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="J8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L9/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="K8" s="20" t="n">
         <f>bc_ttnl_theo_kh!M9</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="L8" s="20" t="n">
         <f>bc_ttnl_theo_kh!N9</f>
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="M8" s="20" t="n">
         <f>bc_ttnl_theo_kh!O9</f>
-        <v>959.0</v>
+        <v>12.0</v>
       </c>
       <c r="N8" s="20" t="n">
         <f>bc_ttnl_theo_kh!P9</f>
@@ -37980,7 +38040,7 @@
       </c>
       <c r="O8" s="20" t="n">
         <f>bc_ttnl_theo_kh!Q9</f>
-        <v>959.0</v>
+        <v>12.0</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -38007,19 +38067,19 @@
       </c>
       <c r="D9" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F10/(24*60*60),"[h]:mm")</f>
-        <v>3305:00</v>
+        <v>491:00</v>
       </c>
       <c r="E9" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G10/(24*60*60),"[h]:mm")</f>
-        <v>77:00</v>
+        <v>11:00</v>
       </c>
       <c r="F9" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H10/(24*60*60),"[h]:mm")</f>
-        <v>3382:00</v>
+        <v>502:00</v>
       </c>
       <c r="G9" s="21" t="n">
         <f>bc_ttnl_theo_kh!I10</f>
-        <v>2142855.0</v>
+        <v>285714.0</v>
       </c>
       <c r="H9" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J10/(24*60*60),"[h]:mm")</f>
@@ -38027,11 +38087,11 @@
       </c>
       <c r="I9" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K10/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="J9" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L10/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="K9" s="21" t="n">
         <f>bc_ttnl_theo_kh!M10</f>
@@ -38039,11 +38099,11 @@
       </c>
       <c r="L9" s="21" t="n">
         <f>bc_ttnl_theo_kh!N10</f>
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="M9" s="21" t="n">
         <f>bc_ttnl_theo_kh!O10</f>
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="N9" s="21" t="n">
         <f>bc_ttnl_theo_kh!P10</f>
@@ -38051,7 +38111,7 @@
       </c>
       <c r="O9" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q10</f>
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -38078,19 +38138,19 @@
       </c>
       <c r="D10" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F11/(24*60*60),"[h]:mm")</f>
-        <v>3056:00</v>
+        <v>222:00</v>
       </c>
       <c r="E10" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G11/(24*60*60),"[h]:mm")</f>
-        <v>401:00</v>
+        <v>324:00</v>
       </c>
       <c r="F10" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H11/(24*60*60),"[h]:mm")</f>
-        <v>3457:00</v>
+        <v>546:00</v>
       </c>
       <c r="G10" s="21" t="n">
         <f>bc_ttnl_theo_kh!I11</f>
-        <v>1601201.0</v>
+        <v>315488.0</v>
       </c>
       <c r="H10" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J11/(24*60*60),"[h]:mm")</f>
@@ -38149,7 +38209,7 @@
       </c>
       <c r="D11" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F12/(24*60*60),"[h]:mm")</f>
-        <v>480:00</v>
+        <v>0:00</v>
       </c>
       <c r="E11" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G12/(24*60*60),"[h]:mm")</f>
@@ -38157,11 +38217,11 @@
       </c>
       <c r="F11" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H12/(24*60*60),"[h]:mm")</f>
-        <v>480:00</v>
+        <v>0:00</v>
       </c>
       <c r="G11" s="21" t="n">
         <f>bc_ttnl_theo_kh!I12</f>
-        <v>857142.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H11" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J12/(24*60*60),"[h]:mm")</f>
@@ -38220,7 +38280,7 @@
       </c>
       <c r="D12" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F13/(24*60*60),"[h]:mm")</f>
-        <v>888:00</v>
+        <v>222:00</v>
       </c>
       <c r="E12" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G13/(24*60*60),"[h]:mm")</f>
@@ -38228,11 +38288,11 @@
       </c>
       <c r="F12" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H13/(24*60*60),"[h]:mm")</f>
-        <v>888:00</v>
+        <v>222:00</v>
       </c>
       <c r="G12" s="21" t="n">
         <f>bc_ttnl_theo_kh!I13</f>
-        <v>857142.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H12" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J13/(24*60*60),"[h]:mm")</f>
@@ -38291,19 +38351,19 @@
       </c>
       <c r="D13" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F14/(24*60*60),"[h]:mm")</f>
-        <v>763:22</v>
+        <v>0:00</v>
       </c>
       <c r="E13" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G14/(24*60*60),"[h]:mm")</f>
-        <v>130:35</v>
+        <v>0:00</v>
       </c>
       <c r="F13" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H14/(24*60*60),"[h]:mm")</f>
-        <v>893:57</v>
+        <v>0:00</v>
       </c>
       <c r="G13" s="21" t="n">
         <f>bc_ttnl_theo_kh!I14</f>
-        <v>1187069.0</v>
+        <v>10100.0</v>
       </c>
       <c r="H13" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J14/(24*60*60),"[h]:mm")</f>
@@ -38319,7 +38379,7 @@
       </c>
       <c r="K13" s="21" t="n">
         <f>bc_ttnl_theo_kh!M14</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="L13" s="21" t="n">
         <f>bc_ttnl_theo_kh!N14</f>
@@ -38327,7 +38387,7 @@
       </c>
       <c r="M13" s="21" t="n">
         <f>bc_ttnl_theo_kh!O14</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N13" s="21" t="n">
         <f>bc_ttnl_theo_kh!P14</f>
@@ -38335,7 +38395,7 @@
       </c>
       <c r="O13" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q14</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P13" s="18"/>
       <c r="Q13" s="18"/>
@@ -38362,19 +38422,19 @@
       </c>
       <c r="D14" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F15/(24*60*60),"[h]:mm")</f>
-        <v>569:00</v>
+        <v>12:00</v>
       </c>
       <c r="E14" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G15/(24*60*60),"[h]:mm")</f>
-        <v>85:00</v>
+        <v>23:00</v>
       </c>
       <c r="F14" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H15/(24*60*60),"[h]:mm")</f>
-        <v>654:00</v>
+        <v>35:00</v>
       </c>
       <c r="G14" s="21" t="n">
         <f>bc_ttnl_theo_kh!I15</f>
-        <v>1523000.0</v>
+        <v>665858.0</v>
       </c>
       <c r="H14" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J15/(24*60*60),"[h]:mm")</f>
@@ -38432,19 +38492,19 @@
       </c>
       <c r="D15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F16/(24*60*60),"[h]:mm")</f>
-        <v>9061:22</v>
+        <v>947:00</v>
       </c>
       <c r="E15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G16/(24*60*60),"[h]:mm")</f>
-        <v>693:35</v>
+        <v>358:00</v>
       </c>
       <c r="F15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H16/(24*60*60),"[h]:mm")</f>
-        <v>9754:57</v>
+        <v>1305:00</v>
       </c>
       <c r="G15" s="21" t="n">
         <f>bc_ttnl_theo_kh!I16</f>
-        <v>8186685.0</v>
+        <v>1572012.0</v>
       </c>
       <c r="H15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J16/(24*60*60),"[h]:mm")</f>
@@ -38452,11 +38512,11 @@
       </c>
       <c r="I15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K16/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="J15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L16/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="K15" s="21" t="n">
         <f>bc_ttnl_theo_kh!M16</f>
@@ -38464,11 +38524,11 @@
       </c>
       <c r="L15" s="21" t="n">
         <f>bc_ttnl_theo_kh!N16</f>
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="M15" s="21" t="n">
         <f>bc_ttnl_theo_kh!O16</f>
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="N15" s="21" t="n">
         <f>bc_ttnl_theo_kh!P16</f>
@@ -38476,7 +38536,7 @@
       </c>
       <c r="O15" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q16</f>
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="16"/>
@@ -38502,19 +38562,19 @@
       </c>
       <c r="D16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F17/(24*60*60),"[h]:mm")</f>
-        <v>1636:00</v>
+        <v>234:00</v>
       </c>
       <c r="E16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G17/(24*60*60),"[h]:mm")</f>
-        <v>389:00</v>
+        <v>347:00</v>
       </c>
       <c r="F16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H17/(24*60*60),"[h]:mm")</f>
-        <v>2025:00</v>
+        <v>581:00</v>
       </c>
       <c r="G16" s="21" t="n">
         <f>bc_ttnl_theo_kh!I17</f>
-        <v>2002870.0</v>
+        <v>981346.0</v>
       </c>
       <c r="H16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J17/(24*60*60),"[h]:mm")</f>
@@ -38522,11 +38582,11 @@
       </c>
       <c r="I16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K17/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="J16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L17/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="K16" s="21" t="n">
         <f>bc_ttnl_theo_kh!M17</f>
@@ -38534,11 +38594,11 @@
       </c>
       <c r="L16" s="21" t="n">
         <f>bc_ttnl_theo_kh!N17</f>
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="M16" s="21" t="n">
         <f>bc_ttnl_theo_kh!O17</f>
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="N16" s="21" t="n">
         <f>bc_ttnl_theo_kh!P17</f>
@@ -38546,7 +38606,7 @@
       </c>
       <c r="O16" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q17</f>
-        <v>947.0</v>
+        <v>12.0</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="18"/>
@@ -38592,11 +38652,11 @@
       </c>
       <c r="I17" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K18/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="J17" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L18/(24*60*60),"[h]:mm")</f>
-        <v>0:10</v>
+        <v>0:00</v>
       </c>
       <c r="K17" s="21" t="n">
         <f>bc_ttnl_theo_kh!M18</f>
@@ -38604,11 +38664,11 @@
       </c>
       <c r="L17" s="21" t="n">
         <f>bc_ttnl_theo_kh!N18</f>
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="M17" s="21" t="n">
         <f>bc_ttnl_theo_kh!O18</f>
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="N17" s="21" t="n">
         <f>bc_ttnl_theo_kh!P18</f>
@@ -38616,7 +38676,7 @@
       </c>
       <c r="O17" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q18</f>
-        <v>947.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" s="21"/>
       <c r="Q17" s="18"/>
@@ -38642,19 +38702,19 @@
       </c>
       <c r="D18" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F19/(24*60*60),"[h]:mm")</f>
-        <v>1402:00</v>
+        <v>0:00</v>
       </c>
       <c r="E18" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G19/(24*60*60),"[h]:mm")</f>
-        <v>42:00</v>
+        <v>0:00</v>
       </c>
       <c r="F18" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H19/(24*60*60),"[h]:mm")</f>
-        <v>1444:00</v>
+        <v>0:00</v>
       </c>
       <c r="G18" s="21" t="n">
         <f>bc_ttnl_theo_kh!I19</f>
-        <v>1021524.0</v>
+        <v>0.0</v>
       </c>
       <c r="H18" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J19/(24*60*60),"[h]:mm")</f>
@@ -38674,11 +38734,11 @@
       </c>
       <c r="L18" s="21" t="n">
         <f>bc_ttnl_theo_kh!N19</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="M18" s="21" t="n">
         <f>bc_ttnl_theo_kh!O19</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="N18" s="21" t="n">
         <f>bc_ttnl_theo_kh!P19</f>
@@ -38686,7 +38746,7 @@
       </c>
       <c r="O18" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q19</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="18"/>
@@ -38778,23 +38838,23 @@
       </c>
       <c r="C20" s="18" t="str">
         <f>bc_ttnl_theo_kh!E21</f>
-        <v>Huấn luyện chiến đấu</v>
+        <v>HL nhà trường</v>
       </c>
       <c r="D20" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F21/(24*60*60),"[h]:mm")</f>
-        <v>2170:00</v>
+        <v>354:00</v>
       </c>
       <c r="E20" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G21/(24*60*60),"[h]:mm")</f>
-        <v>174:35</v>
+        <v>0:00</v>
       </c>
       <c r="F20" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H21/(24*60*60),"[h]:mm")</f>
-        <v>2344:35</v>
+        <v>354:00</v>
       </c>
       <c r="G20" s="21" t="n">
         <f>bc_ttnl_theo_kh!I21</f>
-        <v>1275129.0</v>
+        <v>285714.0</v>
       </c>
       <c r="H20" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J21/(24*60*60),"[h]:mm")</f>
@@ -38848,23 +38908,23 @@
       </c>
       <c r="C21" s="18" t="str">
         <f>bc_ttnl_theo_kh!E22</f>
-        <v>HL bay</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D21" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F22/(24*60*60),"[h]:mm")</f>
-        <v>2170:00</v>
+        <v>359:00</v>
       </c>
       <c r="E21" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G22/(24*60*60),"[h]:mm")</f>
-        <v>174:35</v>
+        <v>11:00</v>
       </c>
       <c r="F21" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H22/(24*60*60),"[h]:mm")</f>
-        <v>2344:35</v>
+        <v>370:00</v>
       </c>
       <c r="G21" s="21" t="n">
         <f>bc_ttnl_theo_kh!I22</f>
-        <v>1275129.0</v>
+        <v>304952.0</v>
       </c>
       <c r="H21" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J22/(24*60*60),"[h]:mm")</f>
@@ -38918,23 +38978,23 @@
       </c>
       <c r="C22" s="18" t="str">
         <f>bc_ttnl_theo_kh!E23</f>
-        <v>Bay đề cao</v>
+        <v>HH DTCĐ</v>
       </c>
       <c r="D22" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F23/(24*60*60),"[h]:mm")</f>
-        <v>1436:00</v>
+        <v>359:00</v>
       </c>
       <c r="E22" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G23/(24*60*60),"[h]:mm")</f>
-        <v>44:00</v>
+        <v>11:00</v>
       </c>
       <c r="F22" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H23/(24*60*60),"[h]:mm")</f>
-        <v>1480:00</v>
+        <v>370:00</v>
       </c>
       <c r="G22" s="21" t="n">
         <f>bc_ttnl_theo_kh!I23</f>
-        <v>571428.0</v>
+        <v>286904.0</v>
       </c>
       <c r="H22" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J23/(24*60*60),"[h]:mm")</f>
@@ -38988,23 +39048,23 @@
       </c>
       <c r="C23" s="18" t="str">
         <f>bc_ttnl_theo_kh!E24</f>
-        <v>C.gia bay</v>
+        <v>HH T.Xuyên</v>
       </c>
       <c r="D23" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F24/(24*60*60),"[h]:mm")</f>
-        <v>718:00</v>
+        <v>0:00</v>
       </c>
       <c r="E23" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G24/(24*60*60),"[h]:mm")</f>
-        <v>22:00</v>
+        <v>0:00</v>
       </c>
       <c r="F23" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H24/(24*60*60),"[h]:mm")</f>
-        <v>740:00</v>
+        <v>0:00</v>
       </c>
       <c r="G23" s="21" t="n">
         <f>bc_ttnl_theo_kh!I24</f>
-        <v>285714.0</v>
+        <v>18048.0</v>
       </c>
       <c r="H23" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J24/(24*60*60),"[h]:mm")</f>
@@ -39058,23 +39118,23 @@
       </c>
       <c r="C24" s="18" t="str">
         <f>bc_ttnl_theo_kh!E25</f>
-        <v>VN bay</v>
+        <v/>
       </c>
       <c r="D24" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F25/(24*60*60),"[h]:mm")</f>
-        <v>718:00</v>
+        <v>947:00</v>
       </c>
       <c r="E24" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G25/(24*60*60),"[h]:mm")</f>
-        <v>22:00</v>
+        <v>358:00</v>
       </c>
       <c r="F24" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H25/(24*60*60),"[h]:mm")</f>
-        <v>740:00</v>
+        <v>1305:00</v>
       </c>
       <c r="G24" s="21" t="n">
         <f>bc_ttnl_theo_kh!I25</f>
-        <v>285714.0</v>
+        <v>1572012.0</v>
       </c>
       <c r="H24" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J25/(24*60*60),"[h]:mm")</f>
@@ -39098,7 +39158,7 @@
       </c>
       <c r="M24" s="21" t="n">
         <f>bc_ttnl_theo_kh!O25</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N24" s="21" t="n">
         <f>bc_ttnl_theo_kh!P25</f>
@@ -39128,11 +39188,11 @@
       </c>
       <c r="C25" s="18" t="str">
         <f>bc_ttnl_theo_kh!E26</f>
-        <v>HL nhà trường</v>
+        <v>f Bộ</v>
       </c>
       <c r="D25" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F26/(24*60*60),"[h]:mm")</f>
-        <v>1047:22</v>
+        <v>0:00</v>
       </c>
       <c r="E25" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G26/(24*60*60),"[h]:mm")</f>
@@ -39140,11 +39200,11 @@
       </c>
       <c r="F25" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H26/(24*60*60),"[h]:mm")</f>
-        <v>1047:22</v>
+        <v>0:00</v>
       </c>
       <c r="G25" s="21" t="n">
         <f>bc_ttnl_theo_kh!I26</f>
-        <v>1247142.0</v>
+        <v>2258.0</v>
       </c>
       <c r="H25" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J26/(24*60*60),"[h]:mm")</f>
@@ -39198,23 +39258,23 @@
       </c>
       <c r="C26" s="18" t="str">
         <f>bc_ttnl_theo_kh!E27</f>
-        <v>KT Hàng không</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D26" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F27/(24*60*60),"[h]:mm")</f>
-        <v>1336:00</v>
+        <v>0:00</v>
       </c>
       <c r="E26" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G27/(24*60*60),"[h]:mm")</f>
-        <v>42:00</v>
+        <v>0:00</v>
       </c>
       <c r="F26" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H27/(24*60*60),"[h]:mm")</f>
-        <v>1378:00</v>
+        <v>0:00</v>
       </c>
       <c r="G26" s="21" t="n">
         <f>bc_ttnl_theo_kh!I27</f>
-        <v>1201199.0</v>
+        <v>2258.0</v>
       </c>
       <c r="H26" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J27/(24*60*60),"[h]:mm")</f>
@@ -39268,23 +39328,23 @@
       </c>
       <c r="C27" s="18" t="str">
         <f>bc_ttnl_theo_kh!E28</f>
-        <v>KT_Hàng không</v>
+        <v>HH T.Xuyên</v>
       </c>
       <c r="D27" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F28/(24*60*60),"[h]:mm")</f>
-        <v>1336:00</v>
+        <v>0:00</v>
       </c>
       <c r="E27" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G28/(24*60*60),"[h]:mm")</f>
-        <v>42:00</v>
+        <v>0:00</v>
       </c>
       <c r="F27" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H28/(24*60*60),"[h]:mm")</f>
-        <v>1378:00</v>
+        <v>0:00</v>
       </c>
       <c r="G27" s="21" t="n">
         <f>bc_ttnl_theo_kh!I28</f>
-        <v>1201199.0</v>
+        <v>2258.0</v>
       </c>
       <c r="H27" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J28/(24*60*60),"[h]:mm")</f>
@@ -39338,23 +39398,23 @@
       </c>
       <c r="C28" s="18" t="str">
         <f>bc_ttnl_theo_kh!E29</f>
-        <v>Bù hao hụt</v>
+        <v>e927</v>
       </c>
       <c r="D28" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F29/(24*60*60),"[h]:mm")</f>
-        <v>1436:00</v>
+        <v>359:00</v>
       </c>
       <c r="E28" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G29/(24*60*60),"[h]:mm")</f>
-        <v>44:00</v>
+        <v>11:00</v>
       </c>
       <c r="F28" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H29/(24*60*60),"[h]:mm")</f>
-        <v>1480:00</v>
+        <v>370:00</v>
       </c>
       <c r="G28" s="21" t="n">
         <f>bc_ttnl_theo_kh!I29</f>
-        <v>1746060.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H28" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J29/(24*60*60),"[h]:mm")</f>
@@ -39408,23 +39468,23 @@
       </c>
       <c r="C29" s="18" t="str">
         <f>bc_ttnl_theo_kh!E30</f>
-        <v>HH DTCĐ</v>
+        <v>Tác chiến, A2..</v>
       </c>
       <c r="D29" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F30/(24*60*60),"[h]:mm")</f>
-        <v>718:00</v>
+        <v>0:00</v>
       </c>
       <c r="E29" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G30/(24*60*60),"[h]:mm")</f>
-        <v>22:00</v>
+        <v>0:00</v>
       </c>
       <c r="F29" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H30/(24*60*60),"[h]:mm")</f>
-        <v>740:00</v>
+        <v>0:00</v>
       </c>
       <c r="G29" s="21" t="n">
         <f>bc_ttnl_theo_kh!I30</f>
-        <v>869220.0</v>
+        <v>0.0</v>
       </c>
       <c r="H29" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J30/(24*60*60),"[h]:mm")</f>
@@ -39478,23 +39538,23 @@
       </c>
       <c r="C30" s="18" t="str">
         <f>bc_ttnl_theo_kh!E31</f>
-        <v>HH T.Xuyên</v>
+        <v>Tác chiến cho bay</v>
       </c>
       <c r="D30" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F31/(24*60*60),"[h]:mm")</f>
-        <v>718:00</v>
+        <v>0:00</v>
       </c>
       <c r="E30" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G31/(24*60*60),"[h]:mm")</f>
-        <v>22:00</v>
+        <v>0:00</v>
       </c>
       <c r="F30" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H31/(24*60*60),"[h]:mm")</f>
-        <v>740:00</v>
+        <v>0:00</v>
       </c>
       <c r="G30" s="20" t="n">
         <f>bc_ttnl_theo_kh!I31</f>
-        <v>876840.0</v>
+        <v>0.0</v>
       </c>
       <c r="H30" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J31/(24*60*60),"[h]:mm")</f>
@@ -39534,11 +39594,11 @@
       <c r="S30" s="16"/>
       <c r="T30" s="21" t="n">
         <f>bc_ttnl_theo_kh!R31</f>
-        <v>0.0</v>
+        <v>5527.0</v>
       </c>
       <c r="U30" s="21" t="n">
         <f>bc_ttnl_theo_kh!S31</f>
-        <v>0.0</v>
+        <v>3060.0</v>
       </c>
       <c r="V30" s="16"/>
       <c r="W30" s="16"/>
@@ -39554,19 +39614,19 @@
       </c>
       <c r="C31" s="18" t="str">
         <f>bc_ttnl_theo_kh!E32</f>
-        <v>Tổn thất</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D31" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F32/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>359:00</v>
       </c>
       <c r="E31" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G32/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>11:00</v>
       </c>
       <c r="F31" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H32/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>370:00</v>
       </c>
       <c r="G31" s="20" t="n">
         <f>bc_ttnl_theo_kh!I32</f>
@@ -39610,11 +39670,11 @@
       <c r="S31" s="16"/>
       <c r="T31" s="21" t="n">
         <f>bc_ttnl_theo_kh!R32</f>
-        <v>0.0</v>
+        <v>5527.0</v>
       </c>
       <c r="U31" s="21" t="n">
         <f>bc_ttnl_theo_kh!S32</f>
-        <v>0.0</v>
+        <v>3060.0</v>
       </c>
       <c r="V31" s="16"/>
       <c r="W31" s="16"/>
@@ -39630,23 +39690,23 @@
       </c>
       <c r="C32" s="18" t="str">
         <f>bc_ttnl_theo_kh!E33</f>
-        <v/>
+        <v>HH DTCĐ</v>
       </c>
       <c r="D32" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F33/(24*60*60),"[h]:mm")</f>
-        <v>9061:22</v>
+        <v>359:00</v>
       </c>
       <c r="E32" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G33/(24*60*60),"[h]:mm")</f>
-        <v>693:35</v>
+        <v>11:00</v>
       </c>
       <c r="F32" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H33/(24*60*60),"[h]:mm")</f>
-        <v>9754:57</v>
+        <v>370:00</v>
       </c>
       <c r="G32" s="21" t="n">
         <f>bc_ttnl_theo_kh!I33</f>
-        <v>8186685.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H32" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J33/(24*60*60),"[h]:mm")</f>
@@ -39706,11 +39766,11 @@
       </c>
       <c r="C33" s="18" t="str">
         <f>bc_ttnl_theo_kh!E34</f>
-        <v>f Bộ</v>
+        <v>e923</v>
       </c>
       <c r="D33" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F34/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>132:00</v>
       </c>
       <c r="E33" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G34/(24*60*60),"[h]:mm")</f>
@@ -39718,11 +39778,11 @@
       </c>
       <c r="F33" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H34/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>132:00</v>
       </c>
       <c r="G33" s="21" t="n">
         <f>bc_ttnl_theo_kh!I34</f>
-        <v>4516.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H33" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J34/(24*60*60),"[h]:mm")</f>
@@ -39760,13 +39820,13 @@
       <c r="Q33" s="18"/>
       <c r="R33" s="18"/>
       <c r="S33" s="18"/>
-      <c r="T33" s="21" t="str">
+      <c r="T33" s="21" t="n">
         <f>bc_ttnl_theo_kh!R34</f>
-        <v/>
-      </c>
-      <c r="U33" s="21" t="str">
+        <v>5527.0</v>
+      </c>
+      <c r="U33" s="21" t="n">
         <f>bc_ttnl_theo_kh!S34</f>
-        <v/>
+        <v>3060.0</v>
       </c>
       <c r="V33" s="18"/>
       <c r="W33" s="18"/>
@@ -39780,7 +39840,7 @@
       <c r="B34" s="35"/>
       <c r="C34" s="18" t="str">
         <f>bc_ttnl_theo_kh!E35</f>
-        <v>Bù hao hụt</v>
+        <v>Tác chiến, A2..</v>
       </c>
       <c r="D34" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F35/(24*60*60),"[h]:mm")</f>
@@ -39796,7 +39856,7 @@
       </c>
       <c r="G34" s="21" t="n">
         <f>bc_ttnl_theo_kh!I35</f>
-        <v>4516.0</v>
+        <v>0.0</v>
       </c>
       <c r="H34" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J35/(24*60*60),"[h]:mm")</f>
@@ -39834,13 +39894,13 @@
       <c r="Q34" s="18"/>
       <c r="R34" s="18"/>
       <c r="S34" s="18"/>
-      <c r="T34" s="21" t="str">
+      <c r="T34" s="21" t="n">
         <f>bc_ttnl_theo_kh!R35</f>
-        <v/>
-      </c>
-      <c r="U34" s="21" t="str">
+        <v>5527.0</v>
+      </c>
+      <c r="U34" s="21" t="n">
         <f>bc_ttnl_theo_kh!S35</f>
-        <v/>
+        <v>3060.0</v>
       </c>
       <c r="V34" s="18"/>
       <c r="W34" s="18"/>
@@ -39854,7 +39914,7 @@
       <c r="B35" s="35"/>
       <c r="C35" s="18" t="str">
         <f>bc_ttnl_theo_kh!E36</f>
-        <v>HH T.Xuyên</v>
+        <v>Tác chiến cho bay</v>
       </c>
       <c r="D35" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F36/(24*60*60),"[h]:mm")</f>
@@ -39870,7 +39930,7 @@
       </c>
       <c r="G35" s="20" t="n">
         <f>bc_ttnl_theo_kh!I36</f>
-        <v>2258.0</v>
+        <v>0.0</v>
       </c>
       <c r="H35" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J36/(24*60*60),"[h]:mm")</f>
@@ -39908,13 +39968,13 @@
       <c r="Q35" s="16"/>
       <c r="R35" s="16"/>
       <c r="S35" s="16"/>
-      <c r="T35" s="21" t="str">
+      <c r="T35" s="21" t="n">
         <f>bc_ttnl_theo_kh!R36</f>
-        <v/>
-      </c>
-      <c r="U35" s="21" t="str">
+        <v>5527.0</v>
+      </c>
+      <c r="U35" s="21" t="n">
         <f>bc_ttnl_theo_kh!S36</f>
-        <v/>
+        <v>3060.0</v>
       </c>
       <c r="V35" s="16"/>
       <c r="W35" s="16"/>
@@ -39928,11 +39988,11 @@
       <c r="B36" s="35"/>
       <c r="C36" s="18" t="str">
         <f>bc_ttnl_theo_kh!E37</f>
-        <v>HH DTCĐ</v>
+        <v>HL nhà trường</v>
       </c>
       <c r="D36" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F37/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>132:00</v>
       </c>
       <c r="E36" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G37/(24*60*60),"[h]:mm")</f>
@@ -39940,11 +40000,11 @@
       </c>
       <c r="F36" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H37/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>132:00</v>
       </c>
       <c r="G36" s="21" t="n">
         <f>bc_ttnl_theo_kh!I37</f>
-        <v>2258.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H36" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J37/(24*60*60),"[h]:mm")</f>
@@ -39982,13 +40042,13 @@
       <c r="Q36" s="18"/>
       <c r="R36" s="18"/>
       <c r="S36" s="18"/>
-      <c r="T36" s="21" t="str">
+      <c r="T36" s="21" t="n">
         <f>bc_ttnl_theo_kh!R37</f>
-        <v/>
-      </c>
-      <c r="U36" s="21" t="str">
+        <v>5527.0</v>
+      </c>
+      <c r="U36" s="21" t="n">
         <f>bc_ttnl_theo_kh!S37</f>
-        <v/>
+        <v>3060.0</v>
       </c>
       <c r="V36" s="18"/>
       <c r="W36" s="18"/>
@@ -40002,23 +40062,23 @@
       <c r="B37" s="35"/>
       <c r="C37" s="18" t="str">
         <f>bc_ttnl_theo_kh!E38</f>
-        <v>e927</v>
+        <v>e921</v>
       </c>
       <c r="D37" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F38/(24*60*60),"[h]:mm")</f>
-        <v>2777:00</v>
+        <v>222:00</v>
       </c>
       <c r="E37" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G38/(24*60*60),"[h]:mm")</f>
-        <v>77:00</v>
+        <v>324:00</v>
       </c>
       <c r="F37" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H38/(24*60*60),"[h]:mm")</f>
-        <v>2854:00</v>
+        <v>546:00</v>
       </c>
       <c r="G37" s="21" t="n">
         <f>bc_ttnl_theo_kh!I38</f>
-        <v>1285713.0</v>
+        <v>315488.0</v>
       </c>
       <c r="H37" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J38/(24*60*60),"[h]:mm")</f>
@@ -40058,11 +40118,11 @@
       <c r="S37" s="18"/>
       <c r="T37" s="21" t="n">
         <f>bc_ttnl_theo_kh!R38</f>
-        <v>5527.0</v>
+        <v>5034.0</v>
       </c>
       <c r="U37" s="21" t="n">
         <f>bc_ttnl_theo_kh!S38</f>
-        <v>3060.0</v>
+        <v>2368.0</v>
       </c>
       <c r="V37" s="18"/>
       <c r="W37" s="18"/>
@@ -40080,19 +40140,19 @@
       </c>
       <c r="D38" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F39/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>222:00</v>
       </c>
       <c r="E38" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G39/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>324:00</v>
       </c>
       <c r="F38" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H39/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>546:00</v>
       </c>
       <c r="G38" s="21" t="n">
         <f>bc_ttnl_theo_kh!I39</f>
-        <v>142857.0</v>
+        <v>315488.0</v>
       </c>
       <c r="H38" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J39/(24*60*60),"[h]:mm")</f>
@@ -40132,11 +40192,11 @@
       <c r="S38" s="18"/>
       <c r="T38" s="21" t="n">
         <f>bc_ttnl_theo_kh!R39</f>
-        <v>5527.0</v>
+        <v>5034.0</v>
       </c>
       <c r="U38" s="21" t="n">
         <f>bc_ttnl_theo_kh!S39</f>
-        <v>3060.0</v>
+        <v>2368.0</v>
       </c>
       <c r="V38" s="18"/>
       <c r="W38" s="18"/>
@@ -40150,23 +40210,23 @@
       <c r="B39" s="35"/>
       <c r="C39" s="18" t="str">
         <f>bc_ttnl_theo_kh!E40</f>
-        <v>Tác chiến cho bay</v>
+        <v>Nổ máy sscđ</v>
       </c>
       <c r="D39" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F40/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>222:00</v>
       </c>
       <c r="E39" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G40/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>324:00</v>
       </c>
       <c r="F39" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H40/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>546:00</v>
       </c>
       <c r="G39" s="21" t="n">
         <f>bc_ttnl_theo_kh!I40</f>
-        <v>142857.0</v>
+        <v>315488.0</v>
       </c>
       <c r="H39" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J40/(24*60*60),"[h]:mm")</f>
@@ -40206,11 +40266,11 @@
       <c r="S39" s="18"/>
       <c r="T39" s="21" t="n">
         <f>bc_ttnl_theo_kh!R40</f>
-        <v>5527.0</v>
+        <v>5034.0</v>
       </c>
       <c r="U39" s="21" t="n">
         <f>bc_ttnl_theo_kh!S40</f>
-        <v>3060.0</v>
+        <v>2368.0</v>
       </c>
       <c r="V39" s="18"/>
       <c r="W39" s="18"/>
@@ -40224,23 +40284,23 @@
       <c r="B40" s="35"/>
       <c r="C40" s="18" t="str">
         <f>bc_ttnl_theo_kh!E41</f>
-        <v>Huấn luyện chiến đấu</v>
+        <v>e916</v>
       </c>
       <c r="D40" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F41/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>234:00</v>
       </c>
       <c r="E40" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G41/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>23:00</v>
       </c>
       <c r="F40" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H41/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>257:00</v>
       </c>
       <c r="G40" s="21" t="n">
         <f>bc_ttnl_theo_kh!I41</f>
-        <v>142857.0</v>
+        <v>961672.0</v>
       </c>
       <c r="H40" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J41/(24*60*60),"[h]:mm")</f>
@@ -40278,13 +40338,13 @@
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
       <c r="S40" s="18"/>
-      <c r="T40" s="21" t="n">
+      <c r="T40" s="21" t="str">
         <f>bc_ttnl_theo_kh!R41</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U40" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U40" s="21" t="str">
         <f>bc_ttnl_theo_kh!S41</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V40" s="18"/>
       <c r="W40" s="18"/>
@@ -40298,23 +40358,23 @@
       <c r="B41" s="35"/>
       <c r="C41" s="18" t="str">
         <f>bc_ttnl_theo_kh!E42</f>
-        <v>HL bay</v>
+        <v>Tác chiến, A2..</v>
       </c>
       <c r="D41" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F42/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>12:00</v>
       </c>
       <c r="E41" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G42/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>23:00</v>
       </c>
       <c r="F41" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H42/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>35:00</v>
       </c>
       <c r="G41" s="21" t="n">
         <f>bc_ttnl_theo_kh!I42</f>
-        <v>142857.0</v>
+        <v>665858.0</v>
       </c>
       <c r="H41" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J42/(24*60*60),"[h]:mm")</f>
@@ -40352,13 +40412,13 @@
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
       <c r="S41" s="18"/>
-      <c r="T41" s="21" t="n">
+      <c r="T41" s="21" t="str">
         <f>bc_ttnl_theo_kh!R42</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U41" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U41" s="21" t="str">
         <f>bc_ttnl_theo_kh!S42</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V41" s="18"/>
       <c r="W41" s="18"/>
@@ -40372,23 +40432,23 @@
       <c r="B42" s="35"/>
       <c r="C42" s="18" t="str">
         <f>bc_ttnl_theo_kh!E43</f>
-        <v>Bay đề cao</v>
+        <v>Tác chiến còn lại</v>
       </c>
       <c r="D42" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F43/(24*60*60),"[h]:mm")</f>
-        <v>718:00</v>
+        <v>12:00</v>
       </c>
       <c r="E42" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G43/(24*60*60),"[h]:mm")</f>
-        <v>22:00</v>
+        <v>23:00</v>
       </c>
       <c r="F42" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H43/(24*60*60),"[h]:mm")</f>
-        <v>740:00</v>
+        <v>35:00</v>
       </c>
       <c r="G42" s="21" t="n">
         <f>bc_ttnl_theo_kh!I43</f>
-        <v>285714.0</v>
+        <v>665858.0</v>
       </c>
       <c r="H42" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J43/(24*60*60),"[h]:mm")</f>
@@ -40426,13 +40486,13 @@
       <c r="Q42" s="18"/>
       <c r="R42" s="18"/>
       <c r="S42" s="18"/>
-      <c r="T42" s="21" t="n">
+      <c r="T42" s="21" t="str">
         <f>bc_ttnl_theo_kh!R43</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U42" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U42" s="21" t="str">
         <f>bc_ttnl_theo_kh!S43</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V42" s="18"/>
       <c r="W42" s="18"/>
@@ -40446,19 +40506,19 @@
       <c r="B43" s="35"/>
       <c r="C43" s="18" t="str">
         <f>bc_ttnl_theo_kh!E44</f>
-        <v>VN bay</v>
+        <v>HL nhà trường</v>
       </c>
       <c r="D43" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F44/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>222:00</v>
       </c>
       <c r="E43" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G44/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F43" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H44/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>222:00</v>
       </c>
       <c r="G43" s="21" t="n">
         <f>bc_ttnl_theo_kh!I44</f>
@@ -40500,13 +40560,13 @@
       <c r="Q43" s="18"/>
       <c r="R43" s="18"/>
       <c r="S43" s="18"/>
-      <c r="T43" s="21" t="n">
+      <c r="T43" s="21" t="str">
         <f>bc_ttnl_theo_kh!R44</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U43" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U43" s="21" t="str">
         <f>bc_ttnl_theo_kh!S44</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V43" s="18"/>
       <c r="W43" s="18"/>
@@ -40520,23 +40580,23 @@
       <c r="B44" s="35"/>
       <c r="C44" s="18" t="str">
         <f>bc_ttnl_theo_kh!E45</f>
-        <v>C.gia bay</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D44" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F45/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>0:00</v>
       </c>
       <c r="E44" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G45/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F44" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H45/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>0:00</v>
       </c>
       <c r="G44" s="21" t="n">
         <f>bc_ttnl_theo_kh!I45</f>
-        <v>142857.0</v>
+        <v>152957.0</v>
       </c>
       <c r="H44" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J45/(24*60*60),"[h]:mm")</f>
@@ -40574,13 +40634,13 @@
       <c r="Q44" s="18"/>
       <c r="R44" s="18"/>
       <c r="S44" s="18"/>
-      <c r="T44" s="21" t="n">
+      <c r="T44" s="21" t="str">
         <f>bc_ttnl_theo_kh!R45</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U44" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U44" s="21" t="str">
         <f>bc_ttnl_theo_kh!S45</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V44" s="18"/>
       <c r="W44" s="18"/>
@@ -40594,11 +40654,11 @@
       <c r="B45" s="35"/>
       <c r="C45" s="18" t="str">
         <f>bc_ttnl_theo_kh!E46</f>
-        <v>HL nhà trường</v>
+        <v>HH T.Xuyên</v>
       </c>
       <c r="D45" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F46/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="E45" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G46/(24*60*60),"[h]:mm")</f>
@@ -40606,11 +40666,11 @@
       </c>
       <c r="F45" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H46/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="G45" s="21" t="n">
         <f>bc_ttnl_theo_kh!I46</f>
-        <v>142857.0</v>
+        <v>10100.0</v>
       </c>
       <c r="H45" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J46/(24*60*60),"[h]:mm")</f>
@@ -40648,13 +40708,13 @@
       <c r="Q45" s="18"/>
       <c r="R45" s="18"/>
       <c r="S45" s="18"/>
-      <c r="T45" s="21" t="n">
+      <c r="T45" s="21" t="str">
         <f>bc_ttnl_theo_kh!R46</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U45" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U45" s="21" t="str">
         <f>bc_ttnl_theo_kh!S46</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V45" s="18"/>
       <c r="W45" s="18"/>
@@ -40668,23 +40728,23 @@
       <c r="B46" s="35"/>
       <c r="C46" s="18" t="str">
         <f>bc_ttnl_theo_kh!E47</f>
-        <v>KT Hàng không</v>
+        <v>HH DTCĐ</v>
       </c>
       <c r="D46" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F47/(24*60*60),"[h]:mm")</f>
-        <v>491:00</v>
+        <v>0:00</v>
       </c>
       <c r="E46" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G47/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F46" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H47/(24*60*60),"[h]:mm")</f>
-        <v>502:00</v>
+        <v>0:00</v>
       </c>
       <c r="G46" s="21" t="n">
         <f>bc_ttnl_theo_kh!I47</f>
-        <v>285714.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H46" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J47/(24*60*60),"[h]:mm")</f>
@@ -40722,13 +40782,13 @@
       <c r="Q46" s="18"/>
       <c r="R46" s="18"/>
       <c r="S46" s="18"/>
-      <c r="T46" s="21" t="n">
+      <c r="T46" s="21" t="str">
         <f>bc_ttnl_theo_kh!R47</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U46" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U46" s="21" t="str">
         <f>bc_ttnl_theo_kh!S47</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V46" s="18"/>
       <c r="W46" s="18"/>
@@ -40742,23 +40802,23 @@
       <c r="B47" s="35"/>
       <c r="C47" s="18" t="str">
         <f>bc_ttnl_theo_kh!E48</f>
-        <v>KT_Hàng không</v>
+        <v>d Vinh</v>
       </c>
       <c r="D47" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F48/(24*60*60),"[h]:mm")</f>
-        <v>491:00</v>
+        <v>0:00</v>
       </c>
       <c r="E47" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G48/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F47" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H48/(24*60*60),"[h]:mm")</f>
-        <v>502:00</v>
+        <v>0:00</v>
       </c>
       <c r="G47" s="21" t="n">
         <f>bc_ttnl_theo_kh!I48</f>
-        <v>285714.0</v>
+        <v>1190.0</v>
       </c>
       <c r="H47" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J48/(24*60*60),"[h]:mm")</f>
@@ -40796,13 +40856,13 @@
       <c r="Q47" s="18"/>
       <c r="R47" s="18"/>
       <c r="S47" s="18"/>
-      <c r="T47" s="21" t="n">
+      <c r="T47" s="21" t="str">
         <f>bc_ttnl_theo_kh!R48</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U47" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U47" s="21" t="str">
         <f>bc_ttnl_theo_kh!S48</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V47" s="18"/>
       <c r="W47" s="18"/>
@@ -40820,19 +40880,19 @@
       </c>
       <c r="D48" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F49/(24*60*60),"[h]:mm")</f>
-        <v>718:00</v>
+        <v>0:00</v>
       </c>
       <c r="E48" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G49/(24*60*60),"[h]:mm")</f>
-        <v>22:00</v>
+        <v>0:00</v>
       </c>
       <c r="F48" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H49/(24*60*60),"[h]:mm")</f>
-        <v>740:00</v>
+        <v>0:00</v>
       </c>
       <c r="G48" s="20" t="n">
         <f>bc_ttnl_theo_kh!I49</f>
-        <v>285714.0</v>
+        <v>1190.0</v>
       </c>
       <c r="H48" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J49/(24*60*60),"[h]:mm")</f>
@@ -40870,13 +40930,13 @@
       <c r="Q48" s="16"/>
       <c r="R48" s="16"/>
       <c r="S48" s="16"/>
-      <c r="T48" s="21" t="n">
+      <c r="T48" s="21" t="str">
         <f>bc_ttnl_theo_kh!R49</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U48" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U48" s="21" t="str">
         <f>bc_ttnl_theo_kh!S49</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V48" s="16"/>
       <c r="W48" s="16"/>
@@ -40894,19 +40954,19 @@
       </c>
       <c r="D49" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F50/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>0:00</v>
       </c>
       <c r="E49" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G50/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F49" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H50/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>0:00</v>
       </c>
       <c r="G49" s="21" t="n">
         <f>bc_ttnl_theo_kh!I50</f>
-        <v>142857.0</v>
+        <v>1190.0</v>
       </c>
       <c r="H49" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J50/(24*60*60),"[h]:mm")</f>
@@ -40944,13 +41004,13 @@
       <c r="Q49" s="18"/>
       <c r="R49" s="18"/>
       <c r="S49" s="18"/>
-      <c r="T49" s="21" t="n">
+      <c r="T49" s="21" t="str">
         <f>bc_ttnl_theo_kh!R50</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U49" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U49" s="21" t="str">
         <f>bc_ttnl_theo_kh!S50</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V49" s="18"/>
       <c r="W49" s="18"/>
@@ -40964,23 +41024,23 @@
       <c r="B50" s="35"/>
       <c r="C50" s="18" t="str">
         <f>bc_ttnl_theo_kh!E51</f>
-        <v>HH DTCĐ</v>
+        <v>d Nội Bài</v>
       </c>
       <c r="D50" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F51/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>0:00</v>
       </c>
       <c r="E50" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G51/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F50" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H51/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>0:00</v>
       </c>
       <c r="G50" s="21" t="n">
         <f>bc_ttnl_theo_kh!I51</f>
-        <v>142857.0</v>
+        <v>1650.0</v>
       </c>
       <c r="H50" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J51/(24*60*60),"[h]:mm")</f>
@@ -41018,13 +41078,13 @@
       <c r="Q50" s="18"/>
       <c r="R50" s="18"/>
       <c r="S50" s="18"/>
-      <c r="T50" s="21" t="n">
+      <c r="T50" s="21" t="str">
         <f>bc_ttnl_theo_kh!R51</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U50" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U50" s="21" t="str">
         <f>bc_ttnl_theo_kh!S51</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V50" s="18"/>
       <c r="W50" s="18"/>
@@ -41038,11 +41098,11 @@
       <c r="B51" s="35"/>
       <c r="C51" s="18" t="str">
         <f>bc_ttnl_theo_kh!E52</f>
-        <v>e923</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D51" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F52/(24*60*60),"[h]:mm")</f>
-        <v>528:00</v>
+        <v>0:00</v>
       </c>
       <c r="E51" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G52/(24*60*60),"[h]:mm")</f>
@@ -41050,11 +41110,11 @@
       </c>
       <c r="F51" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H52/(24*60*60),"[h]:mm")</f>
-        <v>528:00</v>
+        <v>0:00</v>
       </c>
       <c r="G51" s="21" t="n">
         <f>bc_ttnl_theo_kh!I52</f>
-        <v>857142.0</v>
+        <v>1650.0</v>
       </c>
       <c r="H51" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J52/(24*60*60),"[h]:mm")</f>
@@ -41092,13 +41152,13 @@
       <c r="Q51" s="18"/>
       <c r="R51" s="18"/>
       <c r="S51" s="18"/>
-      <c r="T51" s="21" t="n">
+      <c r="T51" s="21" t="str">
         <f>bc_ttnl_theo_kh!R52</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U51" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U51" s="21" t="str">
         <f>bc_ttnl_theo_kh!S52</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V51" s="18"/>
       <c r="W51" s="18"/>
@@ -41112,11 +41172,11 @@
       <c r="B52" s="35"/>
       <c r="C52" s="18" t="str">
         <f>bc_ttnl_theo_kh!E53</f>
-        <v>Tác chiến, A2..</v>
+        <v>HH T.Xuyên</v>
       </c>
       <c r="D52" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F53/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="E52" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G53/(24*60*60),"[h]:mm")</f>
@@ -41124,11 +41184,11 @@
       </c>
       <c r="F52" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H53/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="G52" s="21" t="n">
         <f>bc_ttnl_theo_kh!I53</f>
-        <v>142857.0</v>
+        <v>1650.0</v>
       </c>
       <c r="H52" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J53/(24*60*60),"[h]:mm")</f>
@@ -41166,13 +41226,13 @@
       <c r="Q52" s="18"/>
       <c r="R52" s="18"/>
       <c r="S52" s="18"/>
-      <c r="T52" s="21" t="n">
+      <c r="T52" s="21" t="str">
         <f>bc_ttnl_theo_kh!R53</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U52" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U52" s="21" t="str">
         <f>bc_ttnl_theo_kh!S53</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V52" s="18"/>
       <c r="W52" s="18"/>
@@ -41186,11 +41246,11 @@
       <c r="B53" s="35"/>
       <c r="C53" s="18" t="str">
         <f>bc_ttnl_theo_kh!E54</f>
-        <v>Tác chiến cho bay</v>
+        <v>d Nà Sản</v>
       </c>
       <c r="D53" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F54/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="E53" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G54/(24*60*60),"[h]:mm")</f>
@@ -41198,11 +41258,11 @@
       </c>
       <c r="F53" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H54/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="G53" s="21" t="n">
         <f>bc_ttnl_theo_kh!I54</f>
-        <v>142857.0</v>
+        <v>1190.0</v>
       </c>
       <c r="H53" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J54/(24*60*60),"[h]:mm")</f>
@@ -41240,13 +41300,13 @@
       <c r="Q53" s="18"/>
       <c r="R53" s="18"/>
       <c r="S53" s="18"/>
-      <c r="T53" s="21" t="n">
+      <c r="T53" s="21" t="str">
         <f>bc_ttnl_theo_kh!R54</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U53" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U53" s="21" t="str">
         <f>bc_ttnl_theo_kh!S54</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V53" s="18"/>
       <c r="W53" s="18"/>
@@ -41260,11 +41320,11 @@
       <c r="B54" s="35"/>
       <c r="C54" s="18" t="str">
         <f>bc_ttnl_theo_kh!E55</f>
-        <v>Huấn luyện chiến đấu</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D54" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F55/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="E54" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G55/(24*60*60),"[h]:mm")</f>
@@ -41272,11 +41332,11 @@
       </c>
       <c r="F54" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H55/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="G54" s="21" t="n">
         <f>bc_ttnl_theo_kh!I55</f>
-        <v>142857.0</v>
+        <v>1190.0</v>
       </c>
       <c r="H54" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J55/(24*60*60),"[h]:mm")</f>
@@ -41314,13 +41374,13 @@
       <c r="Q54" s="18"/>
       <c r="R54" s="18"/>
       <c r="S54" s="18"/>
-      <c r="T54" s="21" t="n">
+      <c r="T54" s="21" t="str">
         <f>bc_ttnl_theo_kh!R55</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U54" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U54" s="21" t="str">
         <f>bc_ttnl_theo_kh!S55</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V54" s="18"/>
       <c r="W54" s="18"/>
@@ -41334,11 +41394,11 @@
       <c r="B55" s="35"/>
       <c r="C55" s="18" t="str">
         <f>bc_ttnl_theo_kh!E56</f>
-        <v>HL bay</v>
+        <v>HH DTCĐ</v>
       </c>
       <c r="D55" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F56/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="E55" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G56/(24*60*60),"[h]:mm")</f>
@@ -41346,11 +41406,11 @@
       </c>
       <c r="F55" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H56/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="G55" s="21" t="n">
         <f>bc_ttnl_theo_kh!I56</f>
-        <v>142857.0</v>
+        <v>1190.0</v>
       </c>
       <c r="H55" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J56/(24*60*60),"[h]:mm")</f>
@@ -41388,13 +41448,13 @@
       <c r="Q55" s="18"/>
       <c r="R55" s="18"/>
       <c r="S55" s="18"/>
-      <c r="T55" s="21" t="n">
+      <c r="T55" s="21" t="str">
         <f>bc_ttnl_theo_kh!R56</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U55" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U55" s="21" t="str">
         <f>bc_ttnl_theo_kh!S56</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V55" s="18"/>
       <c r="W55" s="18"/>
@@ -41408,7 +41468,7 @@
       <c r="B56" s="35"/>
       <c r="C56" s="18" t="str">
         <f>bc_ttnl_theo_kh!E57</f>
-        <v>Bay đề cao</v>
+        <v>d Kiến An</v>
       </c>
       <c r="D56" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F57/(24*60*60),"[h]:mm")</f>
@@ -41424,7 +41484,7 @@
       </c>
       <c r="G56" s="21" t="n">
         <f>bc_ttnl_theo_kh!I57</f>
-        <v>0.0</v>
+        <v>2850.0</v>
       </c>
       <c r="H56" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J57/(24*60*60),"[h]:mm")</f>
@@ -41462,13 +41522,13 @@
       <c r="Q56" s="18"/>
       <c r="R56" s="18"/>
       <c r="S56" s="18"/>
-      <c r="T56" s="21" t="n">
+      <c r="T56" s="21" t="str">
         <f>bc_ttnl_theo_kh!R57</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U56" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U56" s="21" t="str">
         <f>bc_ttnl_theo_kh!S57</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V56" s="18"/>
       <c r="W56" s="18"/>
@@ -41482,7 +41542,7 @@
       <c r="B57" s="35"/>
       <c r="C57" s="18" t="str">
         <f>bc_ttnl_theo_kh!E58</f>
-        <v>C.gia bay</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D57" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F58/(24*60*60),"[h]:mm")</f>
@@ -41498,7 +41558,7 @@
       </c>
       <c r="G57" s="21" t="n">
         <f>bc_ttnl_theo_kh!I58</f>
-        <v>0.0</v>
+        <v>2850.0</v>
       </c>
       <c r="H57" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J58/(24*60*60),"[h]:mm")</f>
@@ -41536,13 +41596,13 @@
       <c r="Q57" s="18"/>
       <c r="R57" s="18"/>
       <c r="S57" s="18"/>
-      <c r="T57" s="21" t="n">
+      <c r="T57" s="21" t="str">
         <f>bc_ttnl_theo_kh!R58</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U57" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U57" s="21" t="str">
         <f>bc_ttnl_theo_kh!S58</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V57" s="18"/>
       <c r="W57" s="18"/>
@@ -41556,7 +41616,7 @@
       <c r="B58" s="35"/>
       <c r="C58" s="18" t="str">
         <f>bc_ttnl_theo_kh!E59</f>
-        <v>VN bay</v>
+        <v>HH T.Xuyên</v>
       </c>
       <c r="D58" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F59/(24*60*60),"[h]:mm")</f>
@@ -41572,7 +41632,7 @@
       </c>
       <c r="G58" s="21" t="n">
         <f>bc_ttnl_theo_kh!I59</f>
-        <v>0.0</v>
+        <v>2850.0</v>
       </c>
       <c r="H58" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J59/(24*60*60),"[h]:mm")</f>
@@ -41610,13 +41670,13 @@
       <c r="Q58" s="18"/>
       <c r="R58" s="18"/>
       <c r="S58" s="18"/>
-      <c r="T58" s="21" t="n">
+      <c r="T58" s="21" t="str">
         <f>bc_ttnl_theo_kh!R59</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U58" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U58" s="21" t="str">
         <f>bc_ttnl_theo_kh!S59</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V58" s="18"/>
       <c r="W58" s="18"/>
@@ -41630,23 +41690,23 @@
       <c r="B59" s="35"/>
       <c r="C59" s="18" t="str">
         <f>bc_ttnl_theo_kh!E60</f>
-        <v>HL nhà trường</v>
+        <v>SU 30MK-2</v>
       </c>
       <c r="D59" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F60/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>491:00</v>
       </c>
       <c r="E59" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G60/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>11:00</v>
       </c>
       <c r="F59" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H60/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>502:00</v>
       </c>
       <c r="G59" s="21" t="n">
         <f>bc_ttnl_theo_kh!I60</f>
-        <v>142857.0</v>
+        <v>285714.0</v>
       </c>
       <c r="H59" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J60/(24*60*60),"[h]:mm")</f>
@@ -41666,11 +41726,11 @@
       </c>
       <c r="L59" s="21" t="n">
         <f>bc_ttnl_theo_kh!N60</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="M59" s="21" t="n">
         <f>bc_ttnl_theo_kh!O60</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="N59" s="21" t="n">
         <f>bc_ttnl_theo_kh!P60</f>
@@ -41678,7 +41738,7 @@
       </c>
       <c r="O59" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q60</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="P59" s="21"/>
       <c r="Q59" s="18"/>
@@ -41704,11 +41764,11 @@
       <c r="B60" s="35"/>
       <c r="C60" s="18" t="str">
         <f>bc_ttnl_theo_kh!E61</f>
-        <v>KT Hàng không</v>
+        <v>Tác chiến, A2..</v>
       </c>
       <c r="D60" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F61/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="E60" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G61/(24*60*60),"[h]:mm")</f>
@@ -41716,11 +41776,11 @@
       </c>
       <c r="F60" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H61/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="G60" s="21" t="n">
         <f>bc_ttnl_theo_kh!I61</f>
-        <v>142857.0</v>
+        <v>0.0</v>
       </c>
       <c r="H60" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J61/(24*60*60),"[h]:mm")</f>
@@ -41740,11 +41800,11 @@
       </c>
       <c r="L60" s="21" t="n">
         <f>bc_ttnl_theo_kh!N61</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="M60" s="21" t="n">
         <f>bc_ttnl_theo_kh!O61</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="N60" s="21" t="n">
         <f>bc_ttnl_theo_kh!P61</f>
@@ -41752,7 +41812,7 @@
       </c>
       <c r="O60" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q61</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="P60" s="21"/>
       <c r="Q60" s="18"/>
@@ -41778,11 +41838,11 @@
       <c r="B61" s="35"/>
       <c r="C61" s="18" t="str">
         <f>bc_ttnl_theo_kh!E62</f>
-        <v>KT_Hàng không</v>
+        <v>Tác chiến cho bay</v>
       </c>
       <c r="D61" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F62/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="E61" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G62/(24*60*60),"[h]:mm")</f>
@@ -41790,11 +41850,11 @@
       </c>
       <c r="F61" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H62/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="G61" s="20" t="n">
         <f>bc_ttnl_theo_kh!I62</f>
-        <v>142857.0</v>
+        <v>0.0</v>
       </c>
       <c r="H61" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J62/(24*60*60),"[h]:mm")</f>
@@ -41814,11 +41874,11 @@
       </c>
       <c r="L61" s="20" t="n">
         <f>bc_ttnl_theo_kh!N62</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="M61" s="20" t="n">
         <f>bc_ttnl_theo_kh!O62</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="N61" s="20" t="n">
         <f>bc_ttnl_theo_kh!P62</f>
@@ -41826,7 +41886,7 @@
       </c>
       <c r="O61" s="20" t="n">
         <f>bc_ttnl_theo_kh!Q62</f>
-        <v>0.0</v>
+        <v>12.0</v>
       </c>
       <c r="P61" s="21"/>
       <c r="Q61" s="16"/>
@@ -41852,11 +41912,11 @@
       <c r="B62" s="35"/>
       <c r="C62" s="18" t="str">
         <f>bc_ttnl_theo_kh!E63</f>
-        <v>Bù hao hụt</v>
+        <v>HL nhà trường</v>
       </c>
       <c r="D62" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F63/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>132:00</v>
       </c>
       <c r="E62" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G63/(24*60*60),"[h]:mm")</f>
@@ -41864,11 +41924,11 @@
       </c>
       <c r="F62" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H63/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>132:00</v>
       </c>
       <c r="G62" s="21" t="n">
         <f>bc_ttnl_theo_kh!I63</f>
-        <v>285714.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H62" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J63/(24*60*60),"[h]:mm")</f>
@@ -41926,19 +41986,19 @@
       <c r="B63" s="35"/>
       <c r="C63" s="18" t="str">
         <f>bc_ttnl_theo_kh!E64</f>
-        <v>HH T.Xuyên</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D63" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F64/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>359:00</v>
       </c>
       <c r="E63" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G64/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>11:00</v>
       </c>
       <c r="F63" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H64/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>370:00</v>
       </c>
       <c r="G63" s="21" t="n">
         <f>bc_ttnl_theo_kh!I64</f>
@@ -42004,15 +42064,15 @@
       </c>
       <c r="D64" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F65/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>359:00</v>
       </c>
       <c r="E64" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G65/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>11:00</v>
       </c>
       <c r="F64" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H65/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>370:00</v>
       </c>
       <c r="G64" s="21" t="n">
         <f>bc_ttnl_theo_kh!I65</f>
@@ -42074,23 +42134,23 @@
       <c r="B65" s="35"/>
       <c r="C65" s="18" t="str">
         <f>bc_ttnl_theo_kh!E66</f>
-        <v>e921</v>
+        <v>SU 22M3+4</v>
       </c>
       <c r="D65" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F66/(24*60*60),"[h]:mm")</f>
-        <v>3056:00</v>
+        <v>222:00</v>
       </c>
       <c r="E65" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G66/(24*60*60),"[h]:mm")</f>
-        <v>401:00</v>
+        <v>324:00</v>
       </c>
       <c r="F65" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H66/(24*60*60),"[h]:mm")</f>
-        <v>3457:00</v>
+        <v>546:00</v>
       </c>
       <c r="G65" s="21" t="n">
         <f>bc_ttnl_theo_kh!I66</f>
-        <v>1601201.0</v>
+        <v>315488.0</v>
       </c>
       <c r="H65" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J66/(24*60*60),"[h]:mm")</f>
@@ -42152,19 +42212,19 @@
       </c>
       <c r="D66" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F67/(24*60*60),"[h]:mm")</f>
-        <v>581:00</v>
+        <v>222:00</v>
       </c>
       <c r="E66" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G67/(24*60*60),"[h]:mm")</f>
-        <v>335:00</v>
+        <v>324:00</v>
       </c>
       <c r="F66" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H67/(24*60*60),"[h]:mm")</f>
-        <v>916:00</v>
+        <v>546:00</v>
       </c>
       <c r="G66" s="21" t="n">
         <f>bc_ttnl_theo_kh!I67</f>
-        <v>458345.0</v>
+        <v>315488.0</v>
       </c>
       <c r="H66" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J67/(24*60*60),"[h]:mm")</f>
@@ -42296,19 +42356,19 @@
       <c r="B68" s="35"/>
       <c r="C68" s="18" t="str">
         <f>bc_ttnl_theo_kh!E69</f>
-        <v>Tác chiến cho bay</v>
+        <v>Mi-8</v>
       </c>
       <c r="D68" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F69/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>0:00</v>
       </c>
       <c r="E68" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G69/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F68" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H69/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>0:00</v>
       </c>
       <c r="G68" s="21" t="n">
         <f>bc_ttnl_theo_kh!I69</f>
@@ -42350,13 +42410,13 @@
       <c r="Q68" s="18"/>
       <c r="R68" s="18"/>
       <c r="S68" s="18"/>
-      <c r="T68" s="21" t="n">
+      <c r="T68" s="21" t="str">
         <f>bc_ttnl_theo_kh!R69</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U68" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U68" s="21" t="str">
         <f>bc_ttnl_theo_kh!S69</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V68" s="18"/>
       <c r="W68" s="18"/>
@@ -42370,19 +42430,19 @@
       <c r="B69" s="35"/>
       <c r="C69" s="18" t="str">
         <f>bc_ttnl_theo_kh!E70</f>
-        <v>Huấn luyện chiến đấu</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D69" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F70/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>0:00</v>
       </c>
       <c r="E69" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G70/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F69" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H70/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>0:00</v>
       </c>
       <c r="G69" s="21" t="n">
         <f>bc_ttnl_theo_kh!I70</f>
@@ -42424,13 +42484,13 @@
       <c r="Q69" s="18"/>
       <c r="R69" s="18"/>
       <c r="S69" s="18"/>
-      <c r="T69" s="21" t="n">
+      <c r="T69" s="21" t="str">
         <f>bc_ttnl_theo_kh!R70</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U69" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U69" s="21" t="str">
         <f>bc_ttnl_theo_kh!S70</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V69" s="18"/>
       <c r="W69" s="18"/>
@@ -42444,19 +42504,19 @@
       <c r="B70" s="35"/>
       <c r="C70" s="18" t="str">
         <f>bc_ttnl_theo_kh!E71</f>
-        <v>HL bay</v>
+        <v>HH DTCĐ</v>
       </c>
       <c r="D70" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F71/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>0:00</v>
       </c>
       <c r="E70" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G71/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F70" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H71/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>0:00</v>
       </c>
       <c r="G70" s="21" t="n">
         <f>bc_ttnl_theo_kh!I71</f>
@@ -42498,13 +42558,13 @@
       <c r="Q70" s="18"/>
       <c r="R70" s="18"/>
       <c r="S70" s="18"/>
-      <c r="T70" s="21" t="n">
+      <c r="T70" s="21" t="str">
         <f>bc_ttnl_theo_kh!R71</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U70" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U70" s="21" t="str">
         <f>bc_ttnl_theo_kh!S71</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V70" s="18"/>
       <c r="W70" s="18"/>
@@ -42518,23 +42578,23 @@
       <c r="B71" s="35"/>
       <c r="C71" s="18" t="str">
         <f>bc_ttnl_theo_kh!E72</f>
-        <v>Bay đề cao</v>
+        <v>Mi-7</v>
       </c>
       <c r="D71" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F72/(24*60*60),"[h]:mm")</f>
-        <v>718:00</v>
+        <v>222:00</v>
       </c>
       <c r="E71" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G72/(24*60*60),"[h]:mm")</f>
-        <v>22:00</v>
+        <v>0:00</v>
       </c>
       <c r="F71" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H72/(24*60*60),"[h]:mm")</f>
-        <v>740:00</v>
+        <v>222:00</v>
       </c>
       <c r="G71" s="21" t="n">
         <f>bc_ttnl_theo_kh!I72</f>
-        <v>285714.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H71" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J72/(24*60*60),"[h]:mm")</f>
@@ -42572,13 +42632,13 @@
       <c r="Q71" s="18"/>
       <c r="R71" s="18"/>
       <c r="S71" s="18"/>
-      <c r="T71" s="21" t="n">
+      <c r="T71" s="21" t="str">
         <f>bc_ttnl_theo_kh!R72</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U71" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U71" s="21" t="str">
         <f>bc_ttnl_theo_kh!S72</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V71" s="18"/>
       <c r="W71" s="18"/>
@@ -42592,19 +42652,19 @@
       <c r="B72" s="35"/>
       <c r="C72" s="18" t="str">
         <f>bc_ttnl_theo_kh!E73</f>
-        <v>C.gia bay</v>
+        <v>HL nhà trường</v>
       </c>
       <c r="D72" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F73/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>222:00</v>
       </c>
       <c r="E72" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G73/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F72" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H73/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>222:00</v>
       </c>
       <c r="G72" s="21" t="n">
         <f>bc_ttnl_theo_kh!I73</f>
@@ -42646,13 +42706,13 @@
       <c r="Q72" s="18"/>
       <c r="R72" s="18"/>
       <c r="S72" s="18"/>
-      <c r="T72" s="21" t="n">
+      <c r="T72" s="21" t="str">
         <f>bc_ttnl_theo_kh!R73</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U72" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U72" s="21" t="str">
         <f>bc_ttnl_theo_kh!S73</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V72" s="18"/>
       <c r="W72" s="18"/>
@@ -42666,23 +42726,23 @@
       <c r="B73" s="35"/>
       <c r="C73" s="18" t="str">
         <f>bc_ttnl_theo_kh!E74</f>
-        <v>VN bay</v>
+        <v>Mi-172</v>
       </c>
       <c r="D73" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F74/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>0:00</v>
       </c>
       <c r="E73" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G74/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F73" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H74/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>0:00</v>
       </c>
       <c r="G73" s="21" t="n">
         <f>bc_ttnl_theo_kh!I74</f>
-        <v>142857.0</v>
+        <v>10100.0</v>
       </c>
       <c r="H73" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J74/(24*60*60),"[h]:mm")</f>
@@ -42720,13 +42780,13 @@
       <c r="Q73" s="18"/>
       <c r="R73" s="18"/>
       <c r="S73" s="18"/>
-      <c r="T73" s="21" t="n">
+      <c r="T73" s="21" t="str">
         <f>bc_ttnl_theo_kh!R74</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U73" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U73" s="21" t="str">
         <f>bc_ttnl_theo_kh!S74</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V73" s="18"/>
       <c r="W73" s="18"/>
@@ -42740,11 +42800,11 @@
       <c r="B74" s="35"/>
       <c r="C74" s="18" t="str">
         <f>bc_ttnl_theo_kh!E75</f>
-        <v>HL nhà trường</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D74" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F75/(24*60*60),"[h]:mm")</f>
-        <v>321:00</v>
+        <v>0:00</v>
       </c>
       <c r="E74" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G75/(24*60*60),"[h]:mm")</f>
@@ -42752,11 +42812,11 @@
       </c>
       <c r="F74" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H75/(24*60*60),"[h]:mm")</f>
-        <v>321:00</v>
+        <v>0:00</v>
       </c>
       <c r="G74" s="21" t="n">
         <f>bc_ttnl_theo_kh!I75</f>
-        <v>142857.0</v>
+        <v>10100.0</v>
       </c>
       <c r="H74" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J75/(24*60*60),"[h]:mm")</f>
@@ -42794,13 +42854,13 @@
       <c r="Q74" s="18"/>
       <c r="R74" s="18"/>
       <c r="S74" s="18"/>
-      <c r="T74" s="21" t="n">
+      <c r="T74" s="21" t="str">
         <f>bc_ttnl_theo_kh!R75</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U74" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U74" s="21" t="str">
         <f>bc_ttnl_theo_kh!S75</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V74" s="18"/>
       <c r="W74" s="18"/>
@@ -42814,23 +42874,23 @@
       <c r="B75" s="35"/>
       <c r="C75" s="18" t="str">
         <f>bc_ttnl_theo_kh!E76</f>
-        <v>KT Hàng không</v>
+        <v>HH T.Xuyên</v>
       </c>
       <c r="D75" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F76/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>0:00</v>
       </c>
       <c r="E75" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G76/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F75" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H76/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>0:00</v>
       </c>
       <c r="G75" s="20" t="n">
         <f>bc_ttnl_theo_kh!I76</f>
-        <v>142857.0</v>
+        <v>10100.0</v>
       </c>
       <c r="H75" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J76/(24*60*60),"[h]:mm")</f>
@@ -42868,13 +42928,13 @@
       <c r="Q75" s="16"/>
       <c r="R75" s="16"/>
       <c r="S75" s="16"/>
-      <c r="T75" s="21" t="n">
+      <c r="T75" s="21" t="str">
         <f>bc_ttnl_theo_kh!R76</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U75" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U75" s="21" t="str">
         <f>bc_ttnl_theo_kh!S76</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V75" s="16"/>
       <c r="W75" s="16"/>
@@ -42888,23 +42948,23 @@
       <c r="B76" s="35"/>
       <c r="C76" s="18" t="str">
         <f>bc_ttnl_theo_kh!E77</f>
-        <v>KT_Hàng không</v>
+        <v>Mi-171</v>
       </c>
       <c r="D76" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F77/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>12:00</v>
       </c>
       <c r="E76" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G77/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>23:00</v>
       </c>
       <c r="F76" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H77/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>35:00</v>
       </c>
       <c r="G76" s="21" t="n">
         <f>bc_ttnl_theo_kh!I77</f>
-        <v>142857.0</v>
+        <v>665858.0</v>
       </c>
       <c r="H76" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J77/(24*60*60),"[h]:mm")</f>
@@ -42942,13 +43002,13 @@
       <c r="Q76" s="18"/>
       <c r="R76" s="18"/>
       <c r="S76" s="18"/>
-      <c r="T76" s="21" t="n">
+      <c r="T76" s="21" t="str">
         <f>bc_ttnl_theo_kh!R77</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U76" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U76" s="21" t="str">
         <f>bc_ttnl_theo_kh!S77</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V76" s="18"/>
       <c r="W76" s="18"/>
@@ -42962,23 +43022,23 @@
       <c r="B77" s="35"/>
       <c r="C77" s="18" t="str">
         <f>bc_ttnl_theo_kh!E78</f>
-        <v>Bù hao hụt</v>
+        <v>Tác chiến, A2..</v>
       </c>
       <c r="D77" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F78/(24*60*60),"[h]:mm")</f>
-        <v>718:00</v>
+        <v>12:00</v>
       </c>
       <c r="E77" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G78/(24*60*60),"[h]:mm")</f>
-        <v>22:00</v>
+        <v>23:00</v>
       </c>
       <c r="F77" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H78/(24*60*60),"[h]:mm")</f>
-        <v>740:00</v>
+        <v>35:00</v>
       </c>
       <c r="G77" s="21" t="n">
         <f>bc_ttnl_theo_kh!I78</f>
-        <v>285714.0</v>
+        <v>665858.0</v>
       </c>
       <c r="H77" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J78/(24*60*60),"[h]:mm")</f>
@@ -43016,13 +43076,13 @@
       <c r="Q77" s="18"/>
       <c r="R77" s="18"/>
       <c r="S77" s="18"/>
-      <c r="T77" s="21" t="n">
+      <c r="T77" s="21" t="str">
         <f>bc_ttnl_theo_kh!R78</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U77" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U77" s="21" t="str">
         <f>bc_ttnl_theo_kh!S78</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V77" s="18"/>
       <c r="W77" s="18"/>
@@ -43036,23 +43096,23 @@
       <c r="B78" s="35"/>
       <c r="C78" s="18" t="str">
         <f>bc_ttnl_theo_kh!E79</f>
-        <v>HH DTCĐ</v>
+        <v>Tác chiến còn lại</v>
       </c>
       <c r="D78" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F79/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>12:00</v>
       </c>
       <c r="E78" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G79/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>23:00</v>
       </c>
       <c r="F78" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H79/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>35:00</v>
       </c>
       <c r="G78" s="21" t="n">
         <f>bc_ttnl_theo_kh!I79</f>
-        <v>142857.0</v>
+        <v>665858.0</v>
       </c>
       <c r="H78" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J79/(24*60*60),"[h]:mm")</f>
@@ -43090,13 +43150,13 @@
       <c r="Q78" s="18"/>
       <c r="R78" s="18"/>
       <c r="S78" s="18"/>
-      <c r="T78" s="21" t="n">
+      <c r="T78" s="21" t="str">
         <f>bc_ttnl_theo_kh!R79</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U78" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U78" s="21" t="str">
         <f>bc_ttnl_theo_kh!S79</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V78" s="18"/>
       <c r="W78" s="18"/>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17329" uniqueCount="375">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17689" uniqueCount="376">
   <si>
     <t>CXD</t>
   </si>
@@ -1188,6 +1188,9 @@
   <si>
     <t>925200.000000</t>
   </si>
+  <si>
+    <t>1200.000000</t>
+  </si>
 </sst>
 </file>
 
@@ -11068,8 +11071,8 @@
       <c r="N9" s="62" t="n">
         <v>0.0</v>
       </c>
-      <c r="O9" s="62" t="n">
-        <v>0.0</v>
+      <c r="O9" s="62" t="s">
+        <v>375</v>
       </c>
       <c r="P9" s="62" t="n">
         <v>0.0</v>
@@ -11084,10 +11087,10 @@
         <v>0.0</v>
       </c>
       <c r="T9" s="62" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="U9" s="62" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="V9" s="56" t="n">
         <v>0.0</v>
@@ -11102,7 +11105,7 @@
         <v>24.0</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>24.0</v>
+        <v>44.0</v>
       </c>
       <c r="AA9" s="22" t="n">
         <v>1.0</v>
@@ -11148,8 +11151,8 @@
       <c r="N10" s="64" t="n">
         <v>0.0</v>
       </c>
-      <c r="O10" s="64" t="n">
-        <v>0.0</v>
+      <c r="O10" s="64" t="s">
+        <v>375</v>
       </c>
       <c r="P10" s="64" t="n">
         <v>0.0</v>
@@ -11164,10 +11167,10 @@
         <v>0.0</v>
       </c>
       <c r="T10" s="64" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="U10" s="64" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="V10" s="17" t="n">
         <v>0.0</v>
@@ -11182,7 +11185,7 @@
         <v>12.0</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="AA10" s="22" t="n">
         <v>0.0</v>
@@ -12268,8 +12271,8 @@
       <c r="N24" s="23" t="n">
         <v>0.0</v>
       </c>
-      <c r="O24" s="23" t="n">
-        <v>0.0</v>
+      <c r="O24" s="23" t="s">
+        <v>375</v>
       </c>
       <c r="P24" s="23" t="n">
         <v>0.0</v>
@@ -12284,10 +12287,10 @@
         <v>0.0</v>
       </c>
       <c r="T24" s="23" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="U24" s="23" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="V24" s="22" t="n">
         <v>0.0</v>
@@ -12302,7 +12305,7 @@
         <v>0.0</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v>0.0</v>
@@ -12348,8 +12351,8 @@
       <c r="N25" s="23" t="n">
         <v>0.0</v>
       </c>
-      <c r="O25" s="23" t="n">
-        <v>0.0</v>
+      <c r="O25" s="23" t="s">
+        <v>375</v>
       </c>
       <c r="P25" s="23" t="n">
         <v>0.0</v>
@@ -12364,10 +12367,10 @@
         <v>0.0</v>
       </c>
       <c r="T25" s="23" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="U25" s="23" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="V25" s="22" t="n">
         <v>0.0</v>
@@ -12382,7 +12385,7 @@
         <v>0.0</v>
       </c>
       <c r="Z25" s="22" t="n">
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="AA25" s="22" t="n">
         <v>0.0</v>
@@ -18344,7 +18347,7 @@
       </c>
       <c r="I9" s="122" t="str">
         <f>TEXT(t_thu_xd_theo_n_vu!O10/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:20</v>
       </c>
       <c r="J9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!P10</f>
@@ -18364,11 +18367,11 @@
       </c>
       <c r="N9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!T10</f>
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="O9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!U10</f>
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="P9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!V10</f>
@@ -18388,7 +18391,7 @@
       </c>
       <c r="T9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!Z10</f>
-        <v>12.0</v>
+        <v>32.0</v>
       </c>
       <c r="U9" s="123"/>
       <c r="V9" s="123"/>
@@ -19469,7 +19472,7 @@
       </c>
       <c r="I23" s="73" t="str">
         <f>TEXT(t_thu_xd_theo_n_vu!O24/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:20</v>
       </c>
       <c r="J23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!P24</f>
@@ -19489,11 +19492,11 @@
       </c>
       <c r="N23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!T24</f>
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="O23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!U24</f>
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="P23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!V24</f>
@@ -19513,7 +19516,7 @@
       </c>
       <c r="T23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z24</f>
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="U23" s="72"/>
       <c r="V23" s="72"/>
@@ -19549,7 +19552,7 @@
       </c>
       <c r="I24" s="73" t="str">
         <f>TEXT(t_thu_xd_theo_n_vu!O25/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:20</v>
       </c>
       <c r="J24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!P25</f>
@@ -19569,11 +19572,11 @@
       </c>
       <c r="N24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!T25</f>
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="O24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!U25</f>
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="P24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!V25</f>
@@ -19593,7 +19596,7 @@
       </c>
       <c r="T24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z25</f>
-        <v>0.0</v>
+        <v>20.0</v>
       </c>
       <c r="U24" s="72"/>
       <c r="V24" s="72"/>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17689" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19519" uniqueCount="376">
   <si>
     <t>CXD</t>
   </si>
@@ -11071,8 +11071,8 @@
       <c r="N9" s="62" t="n">
         <v>0.0</v>
       </c>
-      <c r="O9" s="62" t="s">
-        <v>375</v>
+      <c r="O9" s="62" t="n">
+        <v>0.0</v>
       </c>
       <c r="P9" s="62" t="n">
         <v>0.0</v>
@@ -11080,17 +11080,17 @@
       <c r="Q9" s="62" t="n">
         <v>0.0</v>
       </c>
-      <c r="R9" s="62" t="s">
-        <v>162</v>
+      <c r="R9" s="62" t="n">
+        <v>0.0</v>
       </c>
       <c r="S9" s="61" t="n">
         <v>0.0</v>
       </c>
       <c r="T9" s="62" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="U9" s="62" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="V9" s="56" t="n">
         <v>0.0</v>
@@ -11102,10 +11102,10 @@
         <v>0.0</v>
       </c>
       <c r="Y9" s="22" t="n">
-        <v>24.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>44.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA9" s="22" t="n">
         <v>1.0</v>
@@ -11151,8 +11151,8 @@
       <c r="N10" s="64" t="n">
         <v>0.0</v>
       </c>
-      <c r="O10" s="64" t="s">
-        <v>375</v>
+      <c r="O10" s="64" t="n">
+        <v>0.0</v>
       </c>
       <c r="P10" s="64" t="n">
         <v>0.0</v>
@@ -11160,17 +11160,17 @@
       <c r="Q10" s="64" t="n">
         <v>0.0</v>
       </c>
-      <c r="R10" s="64" t="s">
-        <v>162</v>
+      <c r="R10" s="64" t="n">
+        <v>0.0</v>
       </c>
       <c r="S10" s="64" t="n">
         <v>0.0</v>
       </c>
       <c r="T10" s="64" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" s="64" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="V10" s="17" t="n">
         <v>0.0</v>
@@ -11182,10 +11182,10 @@
         <v>0.0</v>
       </c>
       <c r="Y10" s="22" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA10" s="22" t="n">
         <v>0.0</v>
@@ -11240,8 +11240,8 @@
       <c r="Q11" s="23" t="n">
         <v>0.0</v>
       </c>
-      <c r="R11" s="23" t="s">
-        <v>162</v>
+      <c r="R11" s="23" t="n">
+        <v>0.0</v>
       </c>
       <c r="S11" s="23" t="n">
         <v>0.0</v>
@@ -11262,10 +11262,10 @@
         <v>0.0</v>
       </c>
       <c r="Y11" s="22" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z11" s="22" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA11" s="22" t="n">
         <v>0.0</v>
@@ -11480,8 +11480,8 @@
       <c r="Q14" s="23" t="n">
         <v>0.0</v>
       </c>
-      <c r="R14" s="23" t="s">
-        <v>162</v>
+      <c r="R14" s="23" t="n">
+        <v>0.0</v>
       </c>
       <c r="S14" s="23" t="n">
         <v>0.0</v>
@@ -11502,10 +11502,10 @@
         <v>0.0</v>
       </c>
       <c r="Y14" s="22" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z14" s="22" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA14" s="22" t="n">
         <v>0.0</v>
@@ -12271,8 +12271,8 @@
       <c r="N24" s="23" t="n">
         <v>0.0</v>
       </c>
-      <c r="O24" s="23" t="s">
-        <v>375</v>
+      <c r="O24" s="23" t="n">
+        <v>0.0</v>
       </c>
       <c r="P24" s="23" t="n">
         <v>0.0</v>
@@ -12287,10 +12287,10 @@
         <v>0.0</v>
       </c>
       <c r="T24" s="23" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="U24" s="23" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="V24" s="22" t="n">
         <v>0.0</v>
@@ -12305,7 +12305,7 @@
         <v>0.0</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v>0.0</v>
@@ -12351,8 +12351,8 @@
       <c r="N25" s="23" t="n">
         <v>0.0</v>
       </c>
-      <c r="O25" s="23" t="s">
-        <v>375</v>
+      <c r="O25" s="23" t="n">
+        <v>0.0</v>
       </c>
       <c r="P25" s="23" t="n">
         <v>0.0</v>
@@ -12367,10 +12367,10 @@
         <v>0.0</v>
       </c>
       <c r="T25" s="23" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="U25" s="23" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="V25" s="22" t="n">
         <v>0.0</v>
@@ -12385,7 +12385,7 @@
         <v>0.0</v>
       </c>
       <c r="Z25" s="22" t="n">
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA25" s="22" t="n">
         <v>0.0</v>
@@ -16062,10 +16062,10 @@
         <v>0.0</v>
       </c>
       <c r="Y71" s="22" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z71" s="22" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA71" s="22" t="n">
         <v>0.0</v>
@@ -16782,10 +16782,10 @@
         <v>0.0</v>
       </c>
       <c r="Y80" s="22" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z80" s="22" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA80" s="22" t="n">
         <v>0.0</v>
@@ -16942,10 +16942,10 @@
         <v>0.0</v>
       </c>
       <c r="Y82" s="22" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="Z82" s="22" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="AA82" s="22" t="n">
         <v>0.0</v>
@@ -18347,7 +18347,7 @@
       </c>
       <c r="I9" s="122" t="str">
         <f>TEXT(t_thu_xd_theo_n_vu!O10/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="J9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!P10</f>
@@ -18367,11 +18367,11 @@
       </c>
       <c r="N9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!T10</f>
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="O9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!U10</f>
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!V10</f>
@@ -18387,11 +18387,11 @@
       </c>
       <c r="S9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!Y10</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="T9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!Z10</f>
-        <v>32.0</v>
+        <v>0.0</v>
       </c>
       <c r="U9" s="123"/>
       <c r="V9" s="123"/>
@@ -18472,11 +18472,11 @@
       </c>
       <c r="S10" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Y11</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="T10" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z11</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="U10" s="72"/>
       <c r="V10" s="72"/>
@@ -18712,11 +18712,11 @@
       </c>
       <c r="S13" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Y14</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="T13" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z14</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="U13" s="72"/>
       <c r="V13" s="72"/>
@@ -19472,7 +19472,7 @@
       </c>
       <c r="I23" s="73" t="str">
         <f>TEXT(t_thu_xd_theo_n_vu!O24/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="J23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!P24</f>
@@ -19492,11 +19492,11 @@
       </c>
       <c r="N23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!T24</f>
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="O23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!U24</f>
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="P23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!V24</f>
@@ -19516,7 +19516,7 @@
       </c>
       <c r="T23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z24</f>
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="U23" s="72"/>
       <c r="V23" s="72"/>
@@ -19552,7 +19552,7 @@
       </c>
       <c r="I24" s="73" t="str">
         <f>TEXT(t_thu_xd_theo_n_vu!O25/(24*60*60),"[h]:mm")</f>
-        <v>0:20</v>
+        <v>0:00</v>
       </c>
       <c r="J24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!P25</f>
@@ -19572,11 +19572,11 @@
       </c>
       <c r="N24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!T25</f>
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="O24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!U25</f>
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="P24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!V25</f>
@@ -19596,7 +19596,7 @@
       </c>
       <c r="T24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z25</f>
-        <v>20.0</v>
+        <v>0.0</v>
       </c>
       <c r="U24" s="72"/>
       <c r="V24" s="72"/>
@@ -23285,11 +23285,11 @@
       </c>
       <c r="S70" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!Y71</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="T70" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!Z71</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="U70" s="123"/>
       <c r="V70" s="123"/>
@@ -24010,11 +24010,11 @@
       </c>
       <c r="S79" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Y80</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="T79" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z80</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="U79" s="72"/>
       <c r="V79" s="72"/>
@@ -24170,11 +24170,11 @@
       </c>
       <c r="S81" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Y82</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="T81" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z82</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="U81" s="72"/>
       <c r="V81" s="72"/>
@@ -25718,29 +25718,29 @@
       <c r="I9" s="8" t="n">
         <v>1562874.0</v>
       </c>
-      <c r="J9" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K9" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L9" s="8" t="s">
-        <v>162</v>
+      <c r="J9" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K9" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L9" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="R9" s="8" t="n">
         <v>1.0</v>
@@ -25780,29 +25780,29 @@
       <c r="I10" s="8" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J10" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K10" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L10" s="8" t="s">
-        <v>162</v>
+      <c r="J10" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K10" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L10" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="R10" s="8" t="n">
         <v>1.0</v>
@@ -26152,29 +26152,29 @@
       <c r="I16" s="8" t="n">
         <v>1572012.0</v>
       </c>
-      <c r="J16" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="K16" s="8" t="s">
-        <v>162</v>
-      </c>
-      <c r="L16" s="8" t="s">
-        <v>162</v>
+      <c r="J16" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K16" s="8" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L16" s="8" t="n">
+        <v>0.0</v>
       </c>
       <c r="M16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" s="8" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="R16" s="8" t="n">
         <v>0.0</v>
@@ -26214,29 +26214,29 @@
       <c r="I17" s="74" t="n">
         <v>981346.0</v>
       </c>
-      <c r="J17" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="K17" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="L17" s="74" t="s">
-        <v>162</v>
+      <c r="J17" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K17" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L17" s="74" t="n">
+        <v>0.0</v>
       </c>
       <c r="M17" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="N17" s="74" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="O17" s="74" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P17" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="74" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="R17" s="74" t="n">
         <v>0.0</v>
@@ -26338,29 +26338,29 @@
       <c r="I19" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="J19" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="K19" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="L19" s="0" t="s">
-        <v>162</v>
+      <c r="J19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K19" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L19" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>0.0</v>
@@ -29097,29 +29097,29 @@
       <c r="I60" s="0" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J60" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="K60" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="L60" s="0" t="s">
-        <v>162</v>
+      <c r="J60" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M60" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N60" s="0" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="O60" s="0" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P60" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q60" s="0" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="R60" s="0" t="n">
         <v>5527.0</v>
@@ -29165,29 +29165,29 @@
       <c r="I61" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="J61" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="K61" s="0" t="s">
-        <v>162</v>
-      </c>
-      <c r="L61" s="0" t="s">
-        <v>162</v>
+      <c r="J61" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K61" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L61" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="M61" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N61" s="0" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="O61" s="0" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P61" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q61" s="0" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="R61" s="0" t="n">
         <v>5527.0</v>
@@ -29233,29 +29233,29 @@
       <c r="I62" s="74" t="n">
         <v>0.0</v>
       </c>
-      <c r="J62" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="K62" s="74" t="s">
-        <v>162</v>
-      </c>
-      <c r="L62" s="74" t="s">
-        <v>162</v>
+      <c r="J62" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K62" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L62" s="74" t="n">
+        <v>0.0</v>
       </c>
       <c r="M62" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="N62" s="74" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="O62" s="74" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P62" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="Q62" s="74" t="n">
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="R62" s="74" t="n">
         <v>5527.0</v>
@@ -38031,11 +38031,11 @@
       </c>
       <c r="L8" s="20" t="n">
         <f>bc_ttnl_theo_kh!N9</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="M8" s="20" t="n">
         <f>bc_ttnl_theo_kh!O9</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N8" s="20" t="n">
         <f>bc_ttnl_theo_kh!P9</f>
@@ -38043,7 +38043,7 @@
       </c>
       <c r="O8" s="20" t="n">
         <f>bc_ttnl_theo_kh!Q9</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -38102,11 +38102,11 @@
       </c>
       <c r="L9" s="21" t="n">
         <f>bc_ttnl_theo_kh!N10</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="M9" s="21" t="n">
         <f>bc_ttnl_theo_kh!O10</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N9" s="21" t="n">
         <f>bc_ttnl_theo_kh!P10</f>
@@ -38114,7 +38114,7 @@
       </c>
       <c r="O9" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q10</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -38527,11 +38527,11 @@
       </c>
       <c r="L15" s="21" t="n">
         <f>bc_ttnl_theo_kh!N16</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="M15" s="21" t="n">
         <f>bc_ttnl_theo_kh!O16</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N15" s="21" t="n">
         <f>bc_ttnl_theo_kh!P16</f>
@@ -38539,7 +38539,7 @@
       </c>
       <c r="O15" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q16</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="16"/>
@@ -38597,11 +38597,11 @@
       </c>
       <c r="L16" s="21" t="n">
         <f>bc_ttnl_theo_kh!N17</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="M16" s="21" t="n">
         <f>bc_ttnl_theo_kh!O17</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N16" s="21" t="n">
         <f>bc_ttnl_theo_kh!P17</f>
@@ -38609,7 +38609,7 @@
       </c>
       <c r="O16" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q17</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="18"/>
@@ -38737,11 +38737,11 @@
       </c>
       <c r="L18" s="21" t="n">
         <f>bc_ttnl_theo_kh!N19</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="M18" s="21" t="n">
         <f>bc_ttnl_theo_kh!O19</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N18" s="21" t="n">
         <f>bc_ttnl_theo_kh!P19</f>
@@ -38749,7 +38749,7 @@
       </c>
       <c r="O18" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q19</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="18"/>
@@ -41729,11 +41729,11 @@
       </c>
       <c r="L59" s="21" t="n">
         <f>bc_ttnl_theo_kh!N60</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="M59" s="21" t="n">
         <f>bc_ttnl_theo_kh!O60</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N59" s="21" t="n">
         <f>bc_ttnl_theo_kh!P60</f>
@@ -41741,7 +41741,7 @@
       </c>
       <c r="O59" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q60</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P59" s="21"/>
       <c r="Q59" s="18"/>
@@ -41803,11 +41803,11 @@
       </c>
       <c r="L60" s="21" t="n">
         <f>bc_ttnl_theo_kh!N61</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="M60" s="21" t="n">
         <f>bc_ttnl_theo_kh!O61</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N60" s="21" t="n">
         <f>bc_ttnl_theo_kh!P61</f>
@@ -41815,7 +41815,7 @@
       </c>
       <c r="O60" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q61</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P60" s="21"/>
       <c r="Q60" s="18"/>
@@ -41877,11 +41877,11 @@
       </c>
       <c r="L61" s="20" t="n">
         <f>bc_ttnl_theo_kh!N62</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="M61" s="20" t="n">
         <f>bc_ttnl_theo_kh!O62</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="N61" s="20" t="n">
         <f>bc_ttnl_theo_kh!P62</f>
@@ -41889,7 +41889,7 @@
       </c>
       <c r="O61" s="20" t="n">
         <f>bc_ttnl_theo_kh!Q62</f>
-        <v>12.0</v>
+        <v>0.0</v>
       </c>
       <c r="P61" s="21"/>
       <c r="Q61" s="16"/>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19519" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20614" uniqueCount="376">
   <si>
     <t>CXD</t>
   </si>
@@ -2677,7 +2677,7 @@
     </row>
     <row r="9">
       <c r="B9" t="s" s="0">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="C9" t="s" s="0">
         <v>28</v>
@@ -2689,94 +2689,94 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>358</v>
+        <v>28</v>
       </c>
       <c r="G9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>358</v>
+        <v>28</v>
       </c>
       <c r="I9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="J9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="K9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="L9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="M9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="N9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="O9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="P9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="Q9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="R9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="S9" t="s" s="10">
-        <v>369</v>
+        <v>28</v>
       </c>
       <c r="T9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="U9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="V9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="W9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="X9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="Y9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="Z9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="AA9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="AB9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="AC9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="AD9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="AE9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="AF9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="AG9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="AH9" t="s" s="10">
-        <v>233</v>
+        <v>28</v>
       </c>
       <c r="AI9" t="s" s="0">
-        <v>231</v>
+        <v>28</v>
       </c>
       <c r="AJ9" t="s" s="0">
         <v>234</v>
@@ -2788,7 +2788,7 @@
         <v>234</v>
       </c>
       <c r="AM9" t="s" s="0">
-        <v>231</v>
+        <v>28</v>
       </c>
     </row>
     <row r="10">
@@ -2908,351 +2908,279 @@
       </c>
     </row>
     <row r="11">
-      <c r="B11" t="s" s="0">
-        <v>234</v>
-      </c>
-      <c r="C11" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D11" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E11" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="F11" t="s" s="10">
-        <v>358</v>
-      </c>
-      <c r="G11" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="H11" t="s" s="10">
-        <v>358</v>
-      </c>
       <c r="I11" t="s" s="10">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="J11" t="s" s="10">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="K11" t="s" s="10">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="L11" t="s" s="10">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="M11" t="s" s="10">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="N11" t="s" s="10">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="O11" t="s" s="10">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="P11" t="s" s="10">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="Q11" t="s" s="10">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="R11" t="s" s="10">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>369</v>
+        <v>26</v>
       </c>
       <c r="T11" t="s" s="10">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="U11" t="s" s="10">
-        <v>233</v>
+        <v>26</v>
       </c>
       <c r="V11" t="s" s="10">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="W11" t="s" s="10">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="X11" t="s" s="10">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="Y11" t="s" s="10">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="Z11" t="s" s="10">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="AA11" t="s" s="10">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="AB11" t="s" s="10">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="AC11" t="s" s="10">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="AD11" t="s" s="10">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="AE11" t="s" s="10">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="AF11" t="s" s="10">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="AG11" t="s" s="10">
-        <v>233</v>
+        <v>27</v>
       </c>
       <c r="AH11" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AI11" t="s" s="0">
-        <v>234</v>
-      </c>
-      <c r="AJ11" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK11" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AL11" t="s" s="0">
-        <v>234</v>
-      </c>
-      <c r="AM11" t="s" s="0">
-        <v>234</v>
+        <v>27</v>
       </c>
     </row>
     <row r="12">
-      <c r="B12" t="s" s="0">
-        <v>234</v>
-      </c>
-      <c r="C12" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D12" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E12" t="s" s="0">
-        <v>30</v>
-      </c>
-      <c r="F12" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="G12" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="H12" t="s" s="10">
-        <v>233</v>
-      </c>
       <c r="I12" t="s" s="10">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="J12" t="s" s="10">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="K12" t="s" s="10">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="L12" t="s" s="10">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="M12" t="s" s="10">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="N12" t="s" s="10">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="O12" t="s" s="10">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="P12" t="s" s="10">
-        <v>233</v>
+        <v>2</v>
       </c>
       <c r="Q12" t="s" s="10">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="R12" t="s" s="10">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="S12" t="s" s="10">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="T12" t="s" s="10">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="U12" t="s" s="10">
-        <v>233</v>
+        <v>102</v>
       </c>
       <c r="V12" t="s" s="10">
-        <v>233</v>
+        <v>94</v>
       </c>
       <c r="W12" t="s" s="10">
-        <v>233</v>
+        <v>0</v>
       </c>
       <c r="X12" t="s" s="10">
-        <v>233</v>
+        <v>95</v>
       </c>
       <c r="Y12" t="s" s="10">
-        <v>233</v>
+        <v>96</v>
       </c>
       <c r="Z12" t="s" s="10">
-        <v>233</v>
+        <v>97</v>
       </c>
       <c r="AA12" t="s" s="10">
-        <v>233</v>
+        <v>1</v>
       </c>
       <c r="AB12" t="s" s="10">
-        <v>233</v>
+        <v>98</v>
       </c>
       <c r="AC12" t="s" s="10">
-        <v>233</v>
+        <v>2</v>
       </c>
       <c r="AD12" t="s" s="10">
-        <v>233</v>
+        <v>99</v>
       </c>
       <c r="AE12" t="s" s="10">
-        <v>233</v>
+        <v>3</v>
       </c>
       <c r="AF12" t="s" s="10">
-        <v>233</v>
+        <v>100</v>
       </c>
       <c r="AG12" t="s" s="10">
-        <v>233</v>
+        <v>101</v>
       </c>
       <c r="AH12" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AI12" t="s" s="0">
-        <v>234</v>
-      </c>
-      <c r="AJ12" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK12" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AL12" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AM12" t="s" s="0">
-        <v>234</v>
+        <v>102</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="C13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="G13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="H13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="I13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="J13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="K13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="L13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="M13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="N13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="O13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="P13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="Q13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="R13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="S13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="T13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="U13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="V13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="W13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="X13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="Y13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="Z13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="AA13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="AB13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="AC13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="AD13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="AE13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="AF13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="AG13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="AH13" t="s" s="10">
+        <v>28</v>
+      </c>
+      <c r="AI13" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="AJ13" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C13" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D13" t="s" s="0">
-        <v>4</v>
-      </c>
-      <c r="E13" t="s" s="0">
-        <v>31</v>
-      </c>
-      <c r="F13" t="s" s="10">
-        <v>358</v>
-      </c>
-      <c r="G13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="H13" t="s" s="10">
-        <v>358</v>
-      </c>
-      <c r="I13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="J13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="K13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="L13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="M13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="N13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="O13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="P13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Q13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="R13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="S13" t="s" s="10">
-        <v>369</v>
-      </c>
-      <c r="T13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="U13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="V13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="W13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="X13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Y13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Z13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AA13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AB13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AC13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AD13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AE13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AF13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AG13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AH13" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AI13" t="s" s="0">
+      <c r="AK13" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="AJ13" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK13" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL13" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AM13" t="s" s="0">
-        <v>234</v>
+        <v>28</v>
       </c>
     </row>
     <row r="14">

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20614" uniqueCount="376">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52758" uniqueCount="413">
   <si>
     <t>CXD</t>
   </si>
@@ -1191,6 +1191,117 @@
   <si>
     <t>1200.000000</t>
   </si>
+  <si>
+    <t>687314</t>
+  </si>
+  <si>
+    <t>90952</t>
+  </si>
+  <si>
+    <t>3747</t>
+  </si>
+  <si>
+    <t>3450</t>
+  </si>
+  <si>
+    <t>3231</t>
+  </si>
+  <si>
+    <t>3999</t>
+  </si>
+  <si>
+    <t>39954</t>
+  </si>
+  <si>
+    <t>642</t>
+  </si>
+  <si>
+    <t>681315</t>
+  </si>
+  <si>
+    <t>5998</t>
+  </si>
+  <si>
+    <t>3105</t>
+  </si>
+  <si>
+    <t>45000</t>
+  </si>
+  <si>
+    <t>685314</t>
+  </si>
+  <si>
+    <t>24642</t>
+  </si>
+  <si>
+    <t>420</t>
+  </si>
+  <si>
+    <t>2300</t>
+  </si>
+  <si>
+    <t>12312</t>
+  </si>
+  <si>
+    <t>222</t>
+  </si>
+  <si>
+    <t>1150</t>
+  </si>
+  <si>
+    <t>1231</t>
+  </si>
+  <si>
+    <t>Xăng A83</t>
+  </si>
+  <si>
+    <t>2000</t>
+  </si>
+  <si>
+    <t>571315</t>
+  </si>
+  <si>
+    <t>1105</t>
+  </si>
+  <si>
+    <t>DM nhờn</t>
+  </si>
+  <si>
+    <t>20020</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>62121</t>
+  </si>
+  <si>
+    <t>12121</t>
+  </si>
+  <si>
+    <t>46645</t>
+  </si>
+  <si>
+    <t>23423</t>
+  </si>
+  <si>
+    <t>23222</t>
+  </si>
+  <si>
+    <t>4000</t>
+  </si>
+  <si>
+    <t>4040</t>
+  </si>
+  <si>
+    <t>67676</t>
+  </si>
+  <si>
+    <t>17676</t>
+  </si>
+  <si>
+    <t>720.000000</t>
+  </si>
 </sst>
 </file>
 
@@ -2447,7 +2558,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B1:AS80"/>
+  <dimension ref="B1:AS82"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A20" sqref="A20:XFD20"/>
@@ -2689,114 +2800,117 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="G9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="I9" t="s" s="10">
-        <v>28</v>
+        <v>408</v>
       </c>
       <c r="J9" t="s" s="10">
-        <v>28</v>
+        <v>409</v>
       </c>
       <c r="K9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="L9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="M9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="N9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="O9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="P9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="Q9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="R9" t="s" s="10">
-        <v>28</v>
+        <v>405</v>
       </c>
       <c r="S9" t="s" s="10">
-        <v>28</v>
+        <v>410</v>
       </c>
       <c r="T9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="U9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="V9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="W9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="X9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="Y9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="Z9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AA9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AB9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AC9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AD9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AE9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AF9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AG9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AH9" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AI9" t="s" s="0">
-        <v>28</v>
+        <v>238</v>
       </c>
       <c r="AJ9" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AK9" t="s" s="0">
-        <v>234</v>
+        <v>243</v>
       </c>
       <c r="AL9" t="s" s="0">
         <v>234</v>
       </c>
       <c r="AM9" t="s" s="0">
-        <v>28</v>
+        <v>234</v>
+      </c>
+      <c r="AN9" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="10">
       <c r="B10" t="s" s="0">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="C10" t="s" s="0">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="D10" t="s" s="0">
         <v>28</v>
@@ -2805,19 +2919,19 @@
         <v>28</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>358</v>
+        <v>233</v>
       </c>
       <c r="G10" t="s" s="10">
         <v>233</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>358</v>
+        <v>233</v>
       </c>
       <c r="I10" t="s" s="10">
-        <v>233</v>
+        <v>408</v>
       </c>
       <c r="J10" t="s" s="10">
-        <v>233</v>
+        <v>409</v>
       </c>
       <c r="K10" t="s" s="10">
         <v>233</v>
@@ -2841,10 +2955,10 @@
         <v>233</v>
       </c>
       <c r="R10" t="s" s="10">
-        <v>233</v>
+        <v>406</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>369</v>
+        <v>410</v>
       </c>
       <c r="T10" t="s" s="10">
         <v>233</v>
@@ -2892,187 +3006,268 @@
         <v>233</v>
       </c>
       <c r="AI10" t="s" s="0">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AJ10" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK10" t="s" s="0">
         <v>234</v>
       </c>
       <c r="AL10" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM10" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="AM10" t="s" s="0">
-        <v>231</v>
+      <c r="AN10" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="11">
+      <c r="B11" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C11" t="s" s="0">
+        <v>32</v>
+      </c>
+      <c r="D11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E11" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F11" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G11" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H11" t="s" s="10">
+        <v>233</v>
+      </c>
       <c r="I11" t="s" s="10">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="J11" t="s" s="10">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="K11" t="s" s="10">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="L11" t="s" s="10">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="M11" t="s" s="10">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="N11" t="s" s="10">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="O11" t="s" s="10">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="P11" t="s" s="10">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="Q11" t="s" s="10">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="R11" t="s" s="10">
-        <v>26</v>
+        <v>407</v>
       </c>
       <c r="S11" t="s" s="10">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="T11" t="s" s="10">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="U11" t="s" s="10">
-        <v>26</v>
+        <v>233</v>
       </c>
       <c r="V11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="W11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="X11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="Y11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="Z11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="AA11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="AB11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="AC11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="AD11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="AE11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="AF11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="AG11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
       </c>
       <c r="AH11" t="s" s="10">
-        <v>27</v>
+        <v>233</v>
+      </c>
+      <c r="AI11" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AJ11" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK11" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AL11" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM11" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AN11" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="12">
+      <c r="B12" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C12" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D12" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E12" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F12" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G12" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H12" t="s" s="10">
+        <v>233</v>
+      </c>
       <c r="I12" t="s" s="10">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="J12" t="s" s="10">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="K12" t="s" s="10">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="L12" t="s" s="10">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="M12" t="s" s="10">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="N12" t="s" s="10">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="O12" t="s" s="10">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="P12" t="s" s="10">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="Q12" t="s" s="10">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="R12" t="s" s="10">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="S12" t="s" s="10">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="T12" t="s" s="10">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="U12" t="s" s="10">
-        <v>102</v>
+        <v>233</v>
       </c>
       <c r="V12" t="s" s="10">
-        <v>94</v>
+        <v>233</v>
       </c>
       <c r="W12" t="s" s="10">
-        <v>0</v>
+        <v>233</v>
       </c>
       <c r="X12" t="s" s="10">
-        <v>95</v>
+        <v>233</v>
       </c>
       <c r="Y12" t="s" s="10">
-        <v>96</v>
+        <v>233</v>
       </c>
       <c r="Z12" t="s" s="10">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="AA12" t="s" s="10">
-        <v>1</v>
+        <v>233</v>
       </c>
       <c r="AB12" t="s" s="10">
-        <v>98</v>
+        <v>233</v>
       </c>
       <c r="AC12" t="s" s="10">
-        <v>2</v>
+        <v>233</v>
       </c>
       <c r="AD12" t="s" s="10">
-        <v>99</v>
+        <v>233</v>
       </c>
       <c r="AE12" t="s" s="10">
-        <v>3</v>
+        <v>233</v>
       </c>
       <c r="AF12" t="s" s="10">
-        <v>100</v>
+        <v>233</v>
       </c>
       <c r="AG12" t="s" s="10">
-        <v>101</v>
+        <v>233</v>
       </c>
       <c r="AH12" t="s" s="10">
-        <v>102</v>
+        <v>233</v>
+      </c>
+      <c r="AI12" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AJ12" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK12" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="AL12" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM12" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AN12" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="13">
       <c r="B13" t="s" s="0">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C13" t="s" s="0">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D13" t="s" s="0">
         <v>28</v>
@@ -3081,352 +3276,361 @@
         <v>28</v>
       </c>
       <c r="F13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="G13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="H13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="I13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="J13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="K13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="L13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="M13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="N13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="O13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="P13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="Q13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="R13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="S13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="T13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="U13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="V13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="W13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="X13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="Y13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="Z13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AA13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AB13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AC13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AD13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AE13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AF13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AG13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AH13" t="s" s="10">
-        <v>28</v>
+        <v>233</v>
       </c>
       <c r="AI13" t="s" s="0">
-        <v>28</v>
+        <v>234</v>
       </c>
       <c r="AJ13" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK13" t="s" s="0">
+        <v>231</v>
+      </c>
+      <c r="AL13" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM13" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="AK13" t="s" s="0">
+      <c r="AN13" t="s" s="0">
         <v>234</v>
-      </c>
-      <c r="AL13" t="s" s="0">
-        <v>234</v>
-      </c>
-      <c r="AM13" t="s" s="0">
-        <v>28</v>
       </c>
     </row>
     <row r="14">
       <c r="B14" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E14" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I14" t="s" s="10">
+        <v>408</v>
+      </c>
+      <c r="J14" t="s" s="10">
+        <v>409</v>
+      </c>
+      <c r="K14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R14" t="s" s="10">
+        <v>405</v>
+      </c>
+      <c r="S14" t="s" s="10">
+        <v>410</v>
+      </c>
+      <c r="T14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH14" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI14" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AJ14" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="C14" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="E14" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="F14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="G14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="H14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="I14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="J14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="K14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="L14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="M14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="N14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="O14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="P14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Q14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="R14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="S14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="T14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="U14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="V14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="W14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="X14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Y14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Z14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AA14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AB14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AC14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AD14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AE14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AF14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AG14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AH14" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AI14" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="AJ14" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AK14" t="s" s="0">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="AL14" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM14" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="AM14" t="s" s="0">
-        <v>238</v>
+      <c r="AN14" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="15">
       <c r="B15" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C15" t="s" s="0">
+        <v>119</v>
+      </c>
+      <c r="D15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="E15" t="s" s="0">
+        <v>4</v>
+      </c>
+      <c r="F15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I15" t="s" s="10">
+        <v>408</v>
+      </c>
+      <c r="J15" t="s" s="10">
+        <v>409</v>
+      </c>
+      <c r="K15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R15" t="s" s="10">
+        <v>406</v>
+      </c>
+      <c r="S15" t="s" s="10">
+        <v>410</v>
+      </c>
+      <c r="T15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH15" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI15" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AJ15" t="s" s="0">
         <v>238</v>
       </c>
-      <c r="C15" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D15" t="s" s="0">
-        <v>32</v>
-      </c>
-      <c r="E15" t="s" s="0">
-        <v>33</v>
-      </c>
-      <c r="F15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="G15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="H15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="I15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="J15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="K15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="L15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="M15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="N15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="O15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="P15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Q15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="R15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="S15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="T15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="U15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="V15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="W15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="X15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Y15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Z15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AA15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AB15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AC15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AD15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AE15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AF15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AG15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AH15" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AI15" t="s" s="0">
-        <v>238</v>
-      </c>
-      <c r="AJ15" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AK15" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL15" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM15" t="s" s="0">
-        <v>238</v>
+        <v>233</v>
+      </c>
+      <c r="AN15" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="16">
       <c r="B16" t="s" s="0">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="C16" t="s" s="0">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="D16" t="s" s="0">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E16" t="s" s="0">
-        <v>34</v>
+        <v>31</v>
       </c>
       <c r="F16" t="s" s="10">
         <v>233</v>
@@ -3465,7 +3669,7 @@
         <v>233</v>
       </c>
       <c r="R16" t="s" s="10">
-        <v>233</v>
+        <v>406</v>
       </c>
       <c r="S16" t="s" s="10">
         <v>233</v>
@@ -3516,33 +3720,36 @@
         <v>233</v>
       </c>
       <c r="AI16" t="s" s="0">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AJ16" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK16" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL16" t="s" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM16" t="s" s="0">
-        <v>239</v>
+        <v>233</v>
+      </c>
+      <c r="AN16" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="17">
       <c r="B17" t="s" s="0">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="C17" t="s" s="0">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="D17" t="s" s="0">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E17" t="s" s="0">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="F17" t="s" s="10">
         <v>233</v>
@@ -3554,10 +3761,10 @@
         <v>233</v>
       </c>
       <c r="I17" t="s" s="10">
-        <v>233</v>
+        <v>408</v>
       </c>
       <c r="J17" t="s" s="10">
-        <v>233</v>
+        <v>409</v>
       </c>
       <c r="K17" t="s" s="10">
         <v>233</v>
@@ -3584,7 +3791,7 @@
         <v>233</v>
       </c>
       <c r="S17" t="s" s="10">
-        <v>233</v>
+        <v>411</v>
       </c>
       <c r="T17" t="s" s="10">
         <v>233</v>
@@ -3632,33 +3839,36 @@
         <v>233</v>
       </c>
       <c r="AI17" t="s" s="0">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AJ17" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK17" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL17" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM17" t="s" s="0">
-        <v>239</v>
+        <v>233</v>
+      </c>
+      <c r="AN17" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="18">
       <c r="B18" t="s" s="0">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="C18" t="s" s="0">
-        <v>29</v>
+        <v>119</v>
       </c>
       <c r="D18" t="s" s="0">
-        <v>34</v>
+        <v>4</v>
       </c>
       <c r="E18" t="s" s="0">
-        <v>36</v>
+        <v>396</v>
       </c>
       <c r="F18" t="s" s="10">
         <v>233</v>
@@ -3700,7 +3910,7 @@
         <v>233</v>
       </c>
       <c r="S18" t="s" s="10">
-        <v>233</v>
+        <v>369</v>
       </c>
       <c r="T18" t="s" s="10">
         <v>233</v>
@@ -3748,33 +3958,36 @@
         <v>233</v>
       </c>
       <c r="AI18" t="s" s="0">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AJ18" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK18" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AL18" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM18" t="s" s="0">
-        <v>239</v>
+        <v>233</v>
+      </c>
+      <c r="AN18" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="19">
       <c r="B19" t="s" s="0">
-        <v>239</v>
+        <v>29</v>
       </c>
       <c r="C19" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D19" t="s" s="0">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="E19" t="s" s="0">
-        <v>37</v>
+        <v>32</v>
       </c>
       <c r="F19" t="s" s="10">
         <v>233</v>
@@ -3813,7 +4026,7 @@
         <v>233</v>
       </c>
       <c r="R19" t="s" s="10">
-        <v>233</v>
+        <v>407</v>
       </c>
       <c r="S19" t="s" s="10">
         <v>233</v>
@@ -3864,33 +4077,36 @@
         <v>233</v>
       </c>
       <c r="AI19" t="s" s="0">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="AJ19" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK19" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AL19" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM19" t="s" s="0">
-        <v>239</v>
+        <v>233</v>
+      </c>
+      <c r="AN19" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="20">
       <c r="B20" t="s" s="0">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="C20" t="s" s="0">
-        <v>29</v>
+        <v>32</v>
       </c>
       <c r="D20" t="s" s="0">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="E20" t="s" s="0">
-        <v>38</v>
+        <v>33</v>
       </c>
       <c r="F20" t="s" s="10">
         <v>233</v>
@@ -3929,7 +4145,7 @@
         <v>233</v>
       </c>
       <c r="R20" t="s" s="10">
-        <v>233</v>
+        <v>407</v>
       </c>
       <c r="S20" t="s" s="10">
         <v>233</v>
@@ -3980,33 +4196,36 @@
         <v>233</v>
       </c>
       <c r="AI20" t="s" s="0">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AJ20" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK20" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AL20" t="s" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM20" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="AN20" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="21">
       <c r="B21" t="s" s="0">
-        <v>231</v>
+        <v>29</v>
       </c>
       <c r="C21" t="s" s="0">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="D21" t="s" s="0">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="E21" t="s" s="0">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="F21" t="s" s="10">
         <v>233</v>
@@ -4096,318 +4315,521 @@
         <v>233</v>
       </c>
       <c r="AI21" t="s" s="0">
-        <v>231</v>
+        <v>234</v>
       </c>
       <c r="AJ21" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK21" t="s" s="0">
-        <v>233</v>
+        <v>239</v>
       </c>
       <c r="AL21" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM21" t="s" s="0">
-        <v>231</v>
+        <v>233</v>
+      </c>
+      <c r="AN21" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="22">
       <c r="B22" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C22" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D22" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E22" t="s" s="0">
+        <v>36</v>
+      </c>
+      <c r="F22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="J22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="K22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="S22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="T22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH22" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI22" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AJ22" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK22" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="AL22" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM22" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AN22" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="B23" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C23" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D23" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E23" t="s" s="0">
+        <v>37</v>
+      </c>
+      <c r="F23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="J23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="K23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="S23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="T23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH23" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI23" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AJ23" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK23" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="AL23" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM23" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AN23" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="B24" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C24" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="D24" t="s" s="0">
+        <v>34</v>
+      </c>
+      <c r="E24" t="s" s="0">
+        <v>35</v>
+      </c>
+      <c r="F24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="J24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="K24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="S24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="T24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH24" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI24" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AJ24" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK24" t="s" s="0">
+        <v>239</v>
+      </c>
+      <c r="AL24" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM24" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AN24" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="B25" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E25" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="F25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="J25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="K25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="S25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="T25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH25" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI25" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AJ25" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK25" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="C22" t="s" s="0">
-        <v>29</v>
-      </c>
-      <c r="D22" t="s" s="0">
-        <v>38</v>
-      </c>
-      <c r="E22" t="s" s="0">
-        <v>40</v>
-      </c>
-      <c r="F22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="G22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="H22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="I22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="J22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="K22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="L22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="M22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="N22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="O22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="P22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Q22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="R22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="S22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="T22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="U22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="V22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="W22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="X22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Y22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Z22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AA22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AB22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AC22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AD22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AE22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AF22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AG22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AH22" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AI22" t="s" s="0">
-        <v>231</v>
-      </c>
-      <c r="AJ22" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK22" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AL22" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AM22" t="s" s="0">
-        <v>231</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="I24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="J24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="K24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="L24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="M24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="N24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="O24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="P24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="Q24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="R24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="S24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="T24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="U24" t="s" s="10">
-        <v>26</v>
-      </c>
-      <c r="V24" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="W24" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="X24" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="Y24" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="Z24" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="AA24" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="AB24" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="AC24" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="AD24" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="AE24" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="AF24" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="AG24" t="s" s="10">
-        <v>27</v>
-      </c>
-      <c r="AH24" t="s" s="10">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="I25" t="s" s="10">
-        <v>94</v>
-      </c>
-      <c r="J25" t="s" s="10">
-        <v>0</v>
-      </c>
-      <c r="K25" t="s" s="10">
-        <v>95</v>
-      </c>
-      <c r="L25" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="M25" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="N25" t="s" s="10">
-        <v>1</v>
-      </c>
-      <c r="O25" t="s" s="10">
-        <v>98</v>
-      </c>
-      <c r="P25" t="s" s="10">
-        <v>2</v>
-      </c>
-      <c r="Q25" t="s" s="10">
-        <v>99</v>
-      </c>
-      <c r="R25" t="s" s="10">
-        <v>3</v>
-      </c>
-      <c r="S25" t="s" s="10">
-        <v>100</v>
-      </c>
-      <c r="T25" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="U25" t="s" s="10">
-        <v>102</v>
-      </c>
-      <c r="V25" t="s" s="10">
-        <v>94</v>
-      </c>
-      <c r="W25" t="s" s="10">
-        <v>0</v>
-      </c>
-      <c r="X25" t="s" s="10">
-        <v>95</v>
-      </c>
-      <c r="Y25" t="s" s="10">
-        <v>96</v>
-      </c>
-      <c r="Z25" t="s" s="10">
-        <v>97</v>
-      </c>
-      <c r="AA25" t="s" s="10">
-        <v>1</v>
-      </c>
-      <c r="AB25" t="s" s="10">
-        <v>98</v>
-      </c>
-      <c r="AC25" t="s" s="10">
-        <v>2</v>
-      </c>
-      <c r="AD25" t="s" s="10">
-        <v>99</v>
-      </c>
-      <c r="AE25" t="s" s="10">
-        <v>3</v>
-      </c>
-      <c r="AF25" t="s" s="10">
-        <v>100</v>
-      </c>
-      <c r="AG25" t="s" s="10">
-        <v>101</v>
-      </c>
-      <c r="AH25" t="s" s="10">
-        <v>102</v>
+      <c r="AL25" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM25" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AN25" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="s" s="0">
-        <v>242</v>
+        <v>29</v>
       </c>
       <c r="C26" t="s" s="0">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="D26" t="s" s="0">
-        <v>28</v>
+        <v>38</v>
       </c>
       <c r="E26" t="s" s="0">
-        <v>28</v>
+        <v>40</v>
       </c>
       <c r="F26" t="s" s="10">
         <v>233</v>
       </c>
       <c r="G26" t="s" s="10">
-        <v>362</v>
+        <v>233</v>
       </c>
       <c r="H26" t="s" s="10">
-        <v>362</v>
+        <v>233</v>
       </c>
       <c r="I26" t="s" s="10">
         <v>233</v>
@@ -4488,158 +4910,164 @@
         <v>233</v>
       </c>
       <c r="AI26" t="s" s="0">
-        <v>243</v>
+        <v>234</v>
       </c>
       <c r="AJ26" t="s" s="0">
-        <v>234</v>
+        <v>238</v>
       </c>
       <c r="AK26" t="s" s="0">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="AL26" t="s" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM26" t="s" s="0">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="AN26" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="27">
       <c r="B27" t="s" s="0">
+        <v>29</v>
+      </c>
+      <c r="C27" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="D27" t="s" s="0">
+        <v>38</v>
+      </c>
+      <c r="E27" t="s" s="0">
+        <v>39</v>
+      </c>
+      <c r="F27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="J27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="K27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="S27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="T27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH27" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI27" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AJ27" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK27" t="s" s="0">
         <v>231</v>
       </c>
-      <c r="C27" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="D27" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="E27" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="F27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="G27" t="s" s="10">
-        <v>363</v>
-      </c>
-      <c r="H27" t="s" s="10">
-        <v>363</v>
-      </c>
-      <c r="I27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="J27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="K27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="L27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="M27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="N27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="O27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="P27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Q27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="R27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="S27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="T27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="U27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="V27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="W27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="X27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Y27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Z27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AA27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AB27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AC27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AD27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AE27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AF27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AG27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AH27" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AI27" t="s" s="0">
-        <v>244</v>
-      </c>
-      <c r="AJ27" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK27" t="s" s="0">
-        <v>234</v>
-      </c>
       <c r="AL27" t="s" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM27" t="s" s="0">
-        <v>244</v>
+        <v>233</v>
+      </c>
+      <c r="AN27" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="28">
       <c r="B28" t="s" s="0">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="C28" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D28" t="s" s="0">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="E28" t="s" s="0">
-        <v>42</v>
+        <v>28</v>
       </c>
       <c r="F28" t="s" s="10">
         <v>233</v>
       </c>
       <c r="G28" t="s" s="10">
-        <v>364</v>
+        <v>233</v>
       </c>
       <c r="H28" t="s" s="10">
-        <v>364</v>
+        <v>233</v>
       </c>
       <c r="I28" t="s" s="10">
         <v>233</v>
@@ -4720,256 +5148,265 @@
         <v>233</v>
       </c>
       <c r="AI28" t="s" s="0">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="AJ28" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK28" t="s" s="0">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="AL28" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM28" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="AM28" t="s" s="0">
-        <v>242</v>
+      <c r="AN28" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="29">
       <c r="B29" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="C29" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D29" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E29" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="J29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="K29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="S29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="T29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH29" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI29" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ29" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK29" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="AL29" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM29" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C29" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="D29" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="E29" t="s" s="0">
-        <v>43</v>
-      </c>
-      <c r="F29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="G29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="H29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="I29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="J29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="K29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="L29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="M29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="N29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="O29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="P29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Q29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="R29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="S29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="T29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="U29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="V29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="W29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="X29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Y29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Z29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AA29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AB29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AC29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AD29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AE29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AF29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AG29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AH29" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AI29" t="s" s="0">
-        <v>242</v>
-      </c>
-      <c r="AJ29" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK29" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AL29" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AM29" t="s" s="0">
-        <v>242</v>
+      <c r="AN29" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="30">
       <c r="B30" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="C30" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="D30" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="E30" t="s" s="0">
+        <v>28</v>
+      </c>
+      <c r="F30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="J30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="K30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="S30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="T30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH30" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI30" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ30" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK30" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="AL30" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM30" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C30" t="s" s="0">
-        <v>41</v>
-      </c>
-      <c r="D30" t="s" s="0">
-        <v>42</v>
-      </c>
-      <c r="E30" t="s" s="0">
-        <v>44</v>
-      </c>
-      <c r="F30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="G30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="H30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="I30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="J30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="K30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="L30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="M30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="N30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="O30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="P30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Q30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="R30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="S30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="T30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="U30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="V30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="W30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="X30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Y30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Z30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AA30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AB30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AC30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AD30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AE30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AF30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AG30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AH30" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AI30" t="s" s="0">
-        <v>242</v>
-      </c>
-      <c r="AJ30" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK30" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AL30" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AM30" t="s" s="0">
-        <v>242</v>
+      <c r="AN30" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="31">
       <c r="B31" t="s" s="0">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="C31" t="s" s="0">
         <v>41</v>
@@ -4978,7 +5415,7 @@
         <v>42</v>
       </c>
       <c r="E31" t="s" s="0">
-        <v>45</v>
+        <v>42</v>
       </c>
       <c r="F31" t="s" s="10">
         <v>233</v>
@@ -5068,24 +5505,27 @@
         <v>233</v>
       </c>
       <c r="AI31" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ31" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK31" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="AJ31" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK31" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL31" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM31" t="s" s="0">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="AN31" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="32">
       <c r="B32" t="s" s="0">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="C32" t="s" s="0">
         <v>41</v>
@@ -5094,16 +5534,16 @@
         <v>42</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>46</v>
+        <v>51</v>
       </c>
       <c r="F32" t="s" s="10">
         <v>233</v>
       </c>
       <c r="G32" t="s" s="10">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="H32" t="s" s="10">
-        <v>365</v>
+        <v>233</v>
       </c>
       <c r="I32" t="s" s="10">
         <v>233</v>
@@ -5184,24 +5624,27 @@
         <v>233</v>
       </c>
       <c r="AI32" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ32" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK32" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="AJ32" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK32" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL32" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM32" t="s" s="0">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="AN32" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="33">
       <c r="B33" t="s" s="0">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="C33" t="s" s="0">
         <v>41</v>
@@ -5210,7 +5653,7 @@
         <v>42</v>
       </c>
       <c r="E33" t="s" s="0">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="F33" t="s" s="10">
         <v>233</v>
@@ -5300,24 +5743,27 @@
         <v>233</v>
       </c>
       <c r="AI33" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ33" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK33" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="AJ33" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK33" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL33" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM33" t="s" s="0">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="AN33" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="34">
       <c r="B34" t="s" s="0">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="C34" t="s" s="0">
         <v>41</v>
@@ -5326,7 +5772,7 @@
         <v>42</v>
       </c>
       <c r="E34" t="s" s="0">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="F34" t="s" s="10">
         <v>233</v>
@@ -5416,24 +5862,27 @@
         <v>233</v>
       </c>
       <c r="AI34" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ34" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK34" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="AJ34" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK34" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL34" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM34" t="s" s="0">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="AN34" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="35">
       <c r="B35" t="s" s="0">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="C35" t="s" s="0">
         <v>41</v>
@@ -5532,24 +5981,27 @@
         <v>233</v>
       </c>
       <c r="AI35" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ35" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK35" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="AJ35" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK35" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL35" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM35" t="s" s="0">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="AN35" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="36">
       <c r="B36" t="s" s="0">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="C36" t="s" s="0">
         <v>41</v>
@@ -5558,16 +6010,16 @@
         <v>42</v>
       </c>
       <c r="E36" t="s" s="0">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F36" t="s" s="10">
         <v>233</v>
       </c>
       <c r="G36" t="s" s="10">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c r="H36" t="s" s="10">
-        <v>366</v>
+        <v>233</v>
       </c>
       <c r="I36" t="s" s="10">
         <v>233</v>
@@ -5648,24 +6100,27 @@
         <v>233</v>
       </c>
       <c r="AI36" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ36" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK36" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="AJ36" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK36" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL36" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM36" t="s" s="0">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="AN36" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="37">
       <c r="B37" t="s" s="0">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="C37" t="s" s="0">
         <v>41</v>
@@ -5674,16 +6129,16 @@
         <v>42</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="F37" t="s" s="10">
         <v>233</v>
       </c>
       <c r="G37" t="s" s="10">
-        <v>367</v>
+        <v>233</v>
       </c>
       <c r="H37" t="s" s="10">
-        <v>367</v>
+        <v>233</v>
       </c>
       <c r="I37" t="s" s="10">
         <v>233</v>
@@ -5764,24 +6219,27 @@
         <v>233</v>
       </c>
       <c r="AI37" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ37" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK37" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="AJ37" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK37" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL37" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM37" t="s" s="0">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="AN37" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="38">
       <c r="B38" t="s" s="0">
-        <v>234</v>
+        <v>400</v>
       </c>
       <c r="C38" t="s" s="0">
         <v>41</v>
@@ -5880,33 +6338,36 @@
         <v>233</v>
       </c>
       <c r="AI38" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ38" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK38" t="s" s="0">
         <v>242</v>
       </c>
-      <c r="AJ38" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK38" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL38" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM38" t="s" s="0">
-        <v>242</v>
+        <v>233</v>
+      </c>
+      <c r="AN38" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="39">
       <c r="B39" t="s" s="0">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="C39" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>53</v>
+        <v>50</v>
       </c>
       <c r="F39" t="s" s="10">
         <v>233</v>
@@ -5996,33 +6457,36 @@
         <v>233</v>
       </c>
       <c r="AI39" t="s" s="0">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AJ39" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK39" t="s" s="0">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AL39" t="s" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM39" t="s" s="0">
-        <v>248</v>
+        <v>233</v>
+      </c>
+      <c r="AN39" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="40">
       <c r="B40" t="s" s="0">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="C40" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>54</v>
+        <v>46</v>
       </c>
       <c r="F40" t="s" s="10">
         <v>233</v>
@@ -6112,33 +6576,36 @@
         <v>233</v>
       </c>
       <c r="AI40" t="s" s="0">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AJ40" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK40" t="s" s="0">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AL40" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM40" t="s" s="0">
-        <v>248</v>
+        <v>233</v>
+      </c>
+      <c r="AN40" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="41">
       <c r="B41" t="s" s="0">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="C41" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="F41" t="s" s="10">
         <v>233</v>
@@ -6228,24 +6695,27 @@
         <v>233</v>
       </c>
       <c r="AI41" t="s" s="0">
-        <v>248</v>
+        <v>238</v>
       </c>
       <c r="AJ41" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK41" t="s" s="0">
-        <v>233</v>
+        <v>242</v>
       </c>
       <c r="AL41" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM41" t="s" s="0">
-        <v>248</v>
+        <v>233</v>
+      </c>
+      <c r="AN41" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="42">
       <c r="B42" t="s" s="0">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="C42" t="s" s="0">
         <v>41</v>
@@ -6254,7 +6724,7 @@
         <v>53</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="F42" t="s" s="10">
         <v>233</v>
@@ -6344,24 +6814,27 @@
         <v>233</v>
       </c>
       <c r="AI42" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ42" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK42" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="AJ42" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK42" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL42" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM42" t="s" s="0">
-        <v>248</v>
+        <v>233</v>
+      </c>
+      <c r="AN42" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="43">
       <c r="B43" t="s" s="0">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="C43" t="s" s="0">
         <v>41</v>
@@ -6370,7 +6843,7 @@
         <v>53</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="F43" t="s" s="10">
         <v>233</v>
@@ -6460,24 +6933,27 @@
         <v>233</v>
       </c>
       <c r="AI43" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ43" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK43" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="AJ43" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK43" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL43" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM43" t="s" s="0">
-        <v>248</v>
+        <v>233</v>
+      </c>
+      <c r="AN43" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="44">
       <c r="B44" t="s" s="0">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="C44" t="s" s="0">
         <v>41</v>
@@ -6486,7 +6962,7 @@
         <v>53</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>58</v>
+        <v>55</v>
       </c>
       <c r="F44" t="s" s="10">
         <v>233</v>
@@ -6576,33 +7052,36 @@
         <v>233</v>
       </c>
       <c r="AI44" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ44" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK44" t="s" s="0">
         <v>248</v>
       </c>
-      <c r="AJ44" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK44" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL44" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM44" t="s" s="0">
-        <v>248</v>
+        <v>233</v>
+      </c>
+      <c r="AN44" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="45">
       <c r="B45" t="s" s="0">
-        <v>239</v>
+        <v>400</v>
       </c>
       <c r="C45" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>59</v>
+        <v>54</v>
       </c>
       <c r="F45" t="s" s="10">
         <v>233</v>
@@ -6692,33 +7171,36 @@
         <v>233</v>
       </c>
       <c r="AI45" t="s" s="0">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="AJ45" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK45" t="s" s="0">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="AL45" t="s" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM45" t="s" s="0">
-        <v>249</v>
+        <v>233</v>
+      </c>
+      <c r="AN45" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="46">
       <c r="B46" t="s" s="0">
-        <v>239</v>
+        <v>400</v>
       </c>
       <c r="C46" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>60</v>
+        <v>56</v>
       </c>
       <c r="F46" t="s" s="10">
         <v>233</v>
@@ -6808,33 +7290,36 @@
         <v>233</v>
       </c>
       <c r="AI46" t="s" s="0">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="AJ46" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK46" t="s" s="0">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="AL46" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM46" t="s" s="0">
-        <v>249</v>
+        <v>233</v>
+      </c>
+      <c r="AN46" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="47">
       <c r="B47" t="s" s="0">
-        <v>239</v>
+        <v>400</v>
       </c>
       <c r="C47" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>59</v>
+        <v>53</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>61</v>
+        <v>57</v>
       </c>
       <c r="F47" t="s" s="10">
         <v>233</v>
@@ -6924,42 +7409,45 @@
         <v>233</v>
       </c>
       <c r="AI47" t="s" s="0">
-        <v>249</v>
+        <v>238</v>
       </c>
       <c r="AJ47" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK47" t="s" s="0">
-        <v>233</v>
+        <v>248</v>
       </c>
       <c r="AL47" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM47" t="s" s="0">
-        <v>249</v>
+        <v>233</v>
+      </c>
+      <c r="AN47" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="48">
       <c r="B48" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C48" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="F48" t="s" s="10">
         <v>233</v>
       </c>
       <c r="G48" t="s" s="10">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c r="H48" t="s" s="10">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c r="I48" t="s" s="10">
         <v>233</v>
@@ -7040,33 +7528,36 @@
         <v>233</v>
       </c>
       <c r="AI48" t="s" s="0">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AJ48" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK48" t="s" s="0">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="AL48" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM48" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AN48" t="s" s="0">
         <v>234</v>
-      </c>
-      <c r="AM48" t="s" s="0">
-        <v>244</v>
       </c>
     </row>
     <row r="49">
       <c r="B49" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C49" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D49" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E49" t="s" s="0">
-        <v>63</v>
+        <v>60</v>
       </c>
       <c r="F49" t="s" s="10">
         <v>233</v>
@@ -7156,33 +7647,36 @@
         <v>233</v>
       </c>
       <c r="AI49" t="s" s="0">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AJ49" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK49" t="s" s="0">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="AL49" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM49" t="s" s="0">
-        <v>244</v>
+        <v>233</v>
+      </c>
+      <c r="AN49" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="50">
       <c r="B50" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C50" t="s" s="0">
         <v>41</v>
       </c>
       <c r="D50" t="s" s="0">
-        <v>62</v>
+        <v>59</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="F50" t="s" s="10">
         <v>233</v>
@@ -7272,24 +7766,27 @@
         <v>233</v>
       </c>
       <c r="AI50" t="s" s="0">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="AJ50" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK50" t="s" s="0">
-        <v>233</v>
+        <v>249</v>
       </c>
       <c r="AL50" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM50" t="s" s="0">
-        <v>244</v>
+        <v>233</v>
+      </c>
+      <c r="AN50" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="51">
       <c r="B51" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C51" t="s" s="0">
         <v>41</v>
@@ -7298,16 +7795,16 @@
         <v>62</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>65</v>
+        <v>62</v>
       </c>
       <c r="F51" t="s" s="10">
         <v>233</v>
       </c>
       <c r="G51" t="s" s="10">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c r="H51" t="s" s="10">
-        <v>368</v>
+        <v>233</v>
       </c>
       <c r="I51" t="s" s="10">
         <v>233</v>
@@ -7388,24 +7885,27 @@
         <v>233</v>
       </c>
       <c r="AI51" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ51" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK51" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="AJ51" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK51" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL51" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM51" t="s" s="0">
-        <v>244</v>
+        <v>233</v>
+      </c>
+      <c r="AN51" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="52">
       <c r="B52" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C52" t="s" s="0">
         <v>41</v>
@@ -7414,7 +7914,7 @@
         <v>62</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>66</v>
+        <v>68</v>
       </c>
       <c r="F52" t="s" s="10">
         <v>233</v>
@@ -7504,24 +8004,27 @@
         <v>233</v>
       </c>
       <c r="AI52" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ52" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK52" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="AJ52" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK52" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL52" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM52" t="s" s="0">
-        <v>244</v>
+        <v>233</v>
+      </c>
+      <c r="AN52" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="53">
       <c r="B53" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C53" t="s" s="0">
         <v>41</v>
@@ -7530,7 +8033,7 @@
         <v>62</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>67</v>
+        <v>64</v>
       </c>
       <c r="F53" t="s" s="10">
         <v>233</v>
@@ -7620,24 +8123,27 @@
         <v>233</v>
       </c>
       <c r="AI53" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ53" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK53" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="AJ53" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK53" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL53" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM53" t="s" s="0">
-        <v>244</v>
+        <v>233</v>
+      </c>
+      <c r="AN53" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="54">
       <c r="B54" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C54" t="s" s="0">
         <v>41</v>
@@ -7646,7 +8152,7 @@
         <v>62</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>68</v>
+        <v>63</v>
       </c>
       <c r="F54" t="s" s="10">
         <v>233</v>
@@ -7736,42 +8242,45 @@
         <v>233</v>
       </c>
       <c r="AI54" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ54" t="s" s="0">
+        <v>234</v>
+      </c>
+      <c r="AK54" t="s" s="0">
         <v>244</v>
       </c>
-      <c r="AJ54" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK54" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL54" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM54" t="s" s="0">
-        <v>244</v>
+        <v>233</v>
+      </c>
+      <c r="AN54" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="55">
       <c r="B55" t="s" s="0">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>28</v>
+        <v>62</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>28</v>
+        <v>65</v>
       </c>
       <c r="F55" t="s" s="10">
         <v>233</v>
       </c>
       <c r="G55" t="s" s="10">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H55" t="s" s="10">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I55" t="s" s="10">
         <v>233</v>
@@ -7852,265 +8361,274 @@
         <v>233</v>
       </c>
       <c r="AI55" t="s" s="0">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AJ55" t="s" s="0">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="AK55" t="s" s="0">
-        <v>234</v>
+        <v>244</v>
       </c>
       <c r="AL55" t="s" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM55" t="s" s="0">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="AN55" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="56">
       <c r="B56" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="C56" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D56" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E56" t="s" s="0">
+        <v>66</v>
+      </c>
+      <c r="F56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="J56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="K56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="S56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="T56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH56" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI56" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ56" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C56" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="D56" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="E56" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="F56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="G56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="H56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="I56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="J56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="K56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="L56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="M56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="N56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="O56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="P56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Q56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="R56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="S56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="T56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="U56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="V56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="W56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="X56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Y56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Z56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AA56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AB56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AC56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AD56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AE56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AF56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AG56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AH56" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AI56" t="s" s="0">
-        <v>251</v>
-      </c>
-      <c r="AJ56" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AK56" t="s" s="0">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="AL56" t="s" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM56" t="s" s="0">
-        <v>251</v>
+        <v>233</v>
+      </c>
+      <c r="AN56" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="57">
       <c r="B57" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="C57" t="s" s="0">
+        <v>41</v>
+      </c>
+      <c r="D57" t="s" s="0">
+        <v>62</v>
+      </c>
+      <c r="E57" t="s" s="0">
+        <v>67</v>
+      </c>
+      <c r="F57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="J57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="K57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="S57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="T57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH57" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI57" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ57" t="s" s="0">
         <v>234</v>
       </c>
-      <c r="C57" t="s" s="0">
-        <v>69</v>
-      </c>
-      <c r="D57" t="s" s="0">
-        <v>70</v>
-      </c>
-      <c r="E57" t="s" s="0">
-        <v>71</v>
-      </c>
-      <c r="F57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="G57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="H57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="I57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="J57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="K57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="L57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="M57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="N57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="O57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="P57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Q57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="R57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="S57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="T57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="U57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="V57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="W57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="X57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Y57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="Z57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AA57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AB57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AC57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AD57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AE57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AF57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AG57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AH57" t="s" s="10">
-        <v>233</v>
-      </c>
-      <c r="AI57" t="s" s="0">
-        <v>251</v>
-      </c>
-      <c r="AJ57" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AK57" t="s" s="0">
-        <v>233</v>
+        <v>244</v>
       </c>
       <c r="AL57" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM57" t="s" s="0">
-        <v>251</v>
+        <v>233</v>
+      </c>
+      <c r="AN57" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="58">
       <c r="B58" t="s" s="0">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="C58" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="F58" t="s" s="10">
         <v>233</v>
@@ -8200,33 +8718,36 @@
         <v>233</v>
       </c>
       <c r="AI58" t="s" s="0">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="AJ58" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK58" t="s" s="0">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="AL58" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM58" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AN58" t="s" s="0">
         <v>234</v>
-      </c>
-      <c r="AM58" t="s" s="0">
-        <v>252</v>
       </c>
     </row>
     <row r="59">
       <c r="B59" t="s" s="0">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="C59" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D59" t="s" s="0">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="F59" t="s" s="10">
         <v>233</v>
@@ -8316,24 +8837,27 @@
         <v>233</v>
       </c>
       <c r="AI59" t="s" s="0">
-        <v>252</v>
+        <v>238</v>
       </c>
       <c r="AJ59" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK59" t="s" s="0">
-        <v>233</v>
+        <v>251</v>
       </c>
       <c r="AL59" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM59" t="s" s="0">
-        <v>252</v>
+        <v>233</v>
+      </c>
+      <c r="AN59" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="60">
       <c r="B60" t="s" s="0">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="C60" t="s" s="0">
         <v>69</v>
@@ -8342,7 +8866,7 @@
         <v>72</v>
       </c>
       <c r="E60" t="s" s="0">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F60" t="s" s="10">
         <v>233</v>
@@ -8432,24 +8956,27 @@
         <v>233</v>
       </c>
       <c r="AI60" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ60" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK60" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="AJ60" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK60" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL60" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM60" t="s" s="0">
-        <v>252</v>
+        <v>233</v>
+      </c>
+      <c r="AN60" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="61">
       <c r="B61" t="s" s="0">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="C61" t="s" s="0">
         <v>69</v>
@@ -8548,24 +9075,27 @@
         <v>233</v>
       </c>
       <c r="AI61" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ61" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK61" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="AJ61" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK61" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL61" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM61" t="s" s="0">
-        <v>252</v>
+        <v>233</v>
+      </c>
+      <c r="AN61" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="62">
       <c r="B62" t="s" s="0">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="C62" t="s" s="0">
         <v>69</v>
@@ -8574,7 +9104,7 @@
         <v>72</v>
       </c>
       <c r="E62" t="s" s="0">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="F62" t="s" s="10">
         <v>233</v>
@@ -8664,24 +9194,27 @@
         <v>233</v>
       </c>
       <c r="AI62" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ62" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK62" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="AJ62" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK62" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL62" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM62" t="s" s="0">
-        <v>252</v>
+        <v>233</v>
+      </c>
+      <c r="AN62" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="63">
       <c r="B63" t="s" s="0">
-        <v>238</v>
+        <v>400</v>
       </c>
       <c r="C63" t="s" s="0">
         <v>69</v>
@@ -8690,7 +9223,7 @@
         <v>72</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F63" t="s" s="10">
         <v>233</v>
@@ -8780,33 +9313,36 @@
         <v>233</v>
       </c>
       <c r="AI63" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ63" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK63" t="s" s="0">
         <v>252</v>
       </c>
-      <c r="AJ63" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK63" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL63" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM63" t="s" s="0">
-        <v>252</v>
+        <v>233</v>
+      </c>
+      <c r="AN63" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="64">
       <c r="B64" t="s" s="0">
-        <v>239</v>
+        <v>400</v>
       </c>
       <c r="C64" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="F64" t="s" s="10">
         <v>233</v>
@@ -8896,33 +9432,36 @@
         <v>233</v>
       </c>
       <c r="AI64" t="s" s="0">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="AJ64" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK64" t="s" s="0">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="AL64" t="s" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM64" t="s" s="0">
-        <v>253</v>
+        <v>233</v>
+      </c>
+      <c r="AN64" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="65">
       <c r="B65" t="s" s="0">
-        <v>239</v>
+        <v>400</v>
       </c>
       <c r="C65" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>78</v>
+        <v>72</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="F65" t="s" s="10">
         <v>233</v>
@@ -9012,33 +9551,36 @@
         <v>233</v>
       </c>
       <c r="AI65" t="s" s="0">
-        <v>253</v>
+        <v>238</v>
       </c>
       <c r="AJ65" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK65" t="s" s="0">
-        <v>233</v>
+        <v>252</v>
       </c>
       <c r="AL65" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM65" t="s" s="0">
-        <v>253</v>
+        <v>233</v>
+      </c>
+      <c r="AN65" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="66">
       <c r="B66" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C66" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="F66" t="s" s="10">
         <v>233</v>
@@ -9128,33 +9670,36 @@
         <v>233</v>
       </c>
       <c r="AI66" t="s" s="0">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="AJ66" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK66" t="s" s="0">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="AL66" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM66" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AN66" t="s" s="0">
         <v>234</v>
-      </c>
-      <c r="AM66" t="s" s="0">
-        <v>254</v>
       </c>
     </row>
     <row r="67">
       <c r="B67" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C67" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D67" t="s" s="0">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="F67" t="s" s="10">
         <v>233</v>
@@ -9244,24 +9789,27 @@
         <v>233</v>
       </c>
       <c r="AI67" t="s" s="0">
-        <v>254</v>
+        <v>238</v>
       </c>
       <c r="AJ67" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK67" t="s" s="0">
-        <v>233</v>
+        <v>253</v>
       </c>
       <c r="AL67" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM67" t="s" s="0">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="AN67" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="68">
       <c r="B68" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C68" t="s" s="0">
         <v>69</v>
@@ -9270,7 +9818,7 @@
         <v>59</v>
       </c>
       <c r="E68" t="s" s="0">
-        <v>81</v>
+        <v>59</v>
       </c>
       <c r="F68" t="s" s="10">
         <v>233</v>
@@ -9360,24 +9908,27 @@
         <v>233</v>
       </c>
       <c r="AI68" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ68" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK68" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="AJ68" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK68" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL68" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM68" t="s" s="0">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="AN68" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="69">
       <c r="B69" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C69" t="s" s="0">
         <v>69</v>
@@ -9386,7 +9937,7 @@
         <v>59</v>
       </c>
       <c r="E69" t="s" s="0">
-        <v>82</v>
+        <v>87</v>
       </c>
       <c r="F69" t="s" s="10">
         <v>233</v>
@@ -9476,24 +10027,27 @@
         <v>233</v>
       </c>
       <c r="AI69" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ69" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK69" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="AJ69" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK69" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL69" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM69" t="s" s="0">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="AN69" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="70">
       <c r="B70" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C70" t="s" s="0">
         <v>69</v>
@@ -9502,7 +10056,7 @@
         <v>59</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>83</v>
+        <v>82</v>
       </c>
       <c r="F70" t="s" s="10">
         <v>233</v>
@@ -9592,24 +10146,27 @@
         <v>233</v>
       </c>
       <c r="AI70" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ70" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK70" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="AJ70" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK70" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL70" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM70" t="s" s="0">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="AN70" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="71">
       <c r="B71" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C71" t="s" s="0">
         <v>69</v>
@@ -9708,24 +10265,27 @@
         <v>233</v>
       </c>
       <c r="AI71" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ71" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK71" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="AJ71" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK71" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL71" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM71" t="s" s="0">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="AN71" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="72">
       <c r="B72" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C72" t="s" s="0">
         <v>69</v>
@@ -9734,7 +10294,7 @@
         <v>59</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F72" t="s" s="10">
         <v>233</v>
@@ -9824,24 +10384,27 @@
         <v>233</v>
       </c>
       <c r="AI72" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ72" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK72" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="AJ72" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK72" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL72" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM72" t="s" s="0">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="AN72" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="73">
       <c r="B73" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C73" t="s" s="0">
         <v>69</v>
@@ -9850,7 +10413,7 @@
         <v>59</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F73" t="s" s="10">
         <v>233</v>
@@ -9940,24 +10503,27 @@
         <v>233</v>
       </c>
       <c r="AI73" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ73" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK73" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="AJ73" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK73" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL73" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM73" t="s" s="0">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="AN73" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="74">
       <c r="B74" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C74" t="s" s="0">
         <v>69</v>
@@ -9966,7 +10532,7 @@
         <v>59</v>
       </c>
       <c r="E74" t="s" s="0">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="F74" t="s" s="10">
         <v>233</v>
@@ -10056,24 +10622,27 @@
         <v>233</v>
       </c>
       <c r="AI74" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ74" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK74" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="AJ74" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK74" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL74" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM74" t="s" s="0">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="AN74" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="75">
       <c r="B75" t="s" s="0">
-        <v>231</v>
+        <v>400</v>
       </c>
       <c r="C75" t="s" s="0">
         <v>69</v>
@@ -10082,7 +10651,7 @@
         <v>59</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>88</v>
+        <v>80</v>
       </c>
       <c r="F75" t="s" s="10">
         <v>233</v>
@@ -10172,42 +10741,45 @@
         <v>233</v>
       </c>
       <c r="AI75" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ75" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK75" t="s" s="0">
         <v>254</v>
       </c>
-      <c r="AJ75" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK75" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL75" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM75" t="s" s="0">
-        <v>254</v>
+        <v>233</v>
+      </c>
+      <c r="AN75" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="76">
       <c r="B76" t="s" s="0">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="C76" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D76" t="s" s="0">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E76" t="s" s="0">
-        <v>89</v>
+        <v>81</v>
       </c>
       <c r="F76" t="s" s="10">
         <v>233</v>
       </c>
       <c r="G76" t="s" s="10">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H76" t="s" s="10">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I76" t="s" s="10">
         <v>233</v>
@@ -10288,33 +10860,36 @@
         <v>233</v>
       </c>
       <c r="AI76" t="s" s="0">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AJ76" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK76" t="s" s="0">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="AL76" t="s" s="0">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="AM76" t="s" s="0">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="AN76" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="77">
       <c r="B77" t="s" s="0">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="C77" t="s" s="0">
         <v>69</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>89</v>
+        <v>59</v>
       </c>
       <c r="E77" t="s" s="0">
-        <v>90</v>
+        <v>85</v>
       </c>
       <c r="F77" t="s" s="10">
         <v>233</v>
@@ -10404,24 +10979,27 @@
         <v>233</v>
       </c>
       <c r="AI77" t="s" s="0">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="AJ77" t="s" s="0">
-        <v>233</v>
+        <v>238</v>
       </c>
       <c r="AK77" t="s" s="0">
-        <v>233</v>
+        <v>254</v>
       </c>
       <c r="AL77" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM77" t="s" s="0">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="AN77" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="78">
       <c r="B78" t="s" s="0">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="C78" t="s" s="0">
         <v>69</v>
@@ -10430,7 +11008,7 @@
         <v>89</v>
       </c>
       <c r="E78" t="s" s="0">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F78" t="s" s="10">
         <v>233</v>
@@ -10520,24 +11098,27 @@
         <v>233</v>
       </c>
       <c r="AI78" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ78" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK78" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="AJ78" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK78" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL78" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM78" t="s" s="0">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="AN78" t="s" s="0">
+        <v>234</v>
       </c>
     </row>
     <row r="79">
       <c r="B79" t="s" s="0">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="C79" t="s" s="0">
         <v>69</v>
@@ -10636,24 +11217,27 @@
         <v>233</v>
       </c>
       <c r="AI79" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ79" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK79" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="AJ79" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK79" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL79" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM79" t="s" s="0">
-        <v>243</v>
+        <v>233</v>
+      </c>
+      <c r="AN79" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
     <row r="80">
       <c r="B80" t="s" s="0">
-        <v>242</v>
+        <v>400</v>
       </c>
       <c r="C80" t="s" s="0">
         <v>69</v>
@@ -10668,10 +11252,10 @@
         <v>233</v>
       </c>
       <c r="G80" t="s" s="10">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="H80" t="s" s="10">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="I80" t="s" s="10">
         <v>233</v>
@@ -10752,19 +11336,260 @@
         <v>233</v>
       </c>
       <c r="AI80" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ80" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK80" t="s" s="0">
         <v>243</v>
       </c>
-      <c r="AJ80" t="s" s="0">
-        <v>233</v>
-      </c>
-      <c r="AK80" t="s" s="0">
-        <v>233</v>
-      </c>
       <c r="AL80" t="s" s="0">
         <v>233</v>
       </c>
       <c r="AM80" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AN80" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="B81" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="C81" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D81" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E81" t="s" s="0">
+        <v>90</v>
+      </c>
+      <c r="F81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="J81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="K81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="S81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="T81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH81" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI81" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ81" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK81" t="s" s="0">
         <v>243</v>
+      </c>
+      <c r="AL81" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM81" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AN81" t="s" s="0">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="B82" t="s" s="0">
+        <v>400</v>
+      </c>
+      <c r="C82" t="s" s="0">
+        <v>69</v>
+      </c>
+      <c r="D82" t="s" s="0">
+        <v>89</v>
+      </c>
+      <c r="E82" t="s" s="0">
+        <v>91</v>
+      </c>
+      <c r="F82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="G82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="H82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="I82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="J82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="K82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="L82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="M82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="N82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="O82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="P82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Q82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="R82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="S82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="T82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="U82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="V82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="W82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="X82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Y82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="Z82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AA82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AB82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AC82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AD82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AE82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AF82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AG82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AH82" t="s" s="10">
+        <v>233</v>
+      </c>
+      <c r="AI82" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AJ82" t="s" s="0">
+        <v>238</v>
+      </c>
+      <c r="AK82" t="s" s="0">
+        <v>243</v>
+      </c>
+      <c r="AL82" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AM82" t="s" s="0">
+        <v>233</v>
+      </c>
+      <c r="AN82" t="s" s="0">
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -10985,22 +11810,22 @@
         <v>28</v>
       </c>
       <c r="J9" s="63" t="n">
-        <v>1283088.0</v>
+        <v>1274349.0</v>
       </c>
       <c r="K9" s="62" t="n">
-        <v>1936774.0</v>
+        <v>1918735.0</v>
       </c>
       <c r="L9" s="62" t="n">
         <v>8784174.0</v>
       </c>
       <c r="M9" s="62" t="n">
-        <v>1.2004036E7</v>
+        <v>1.1977258E7</v>
       </c>
       <c r="N9" s="62" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O9" s="62" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
+      </c>
+      <c r="O9" s="62" t="s">
+        <v>162</v>
       </c>
       <c r="P9" s="62" t="n">
         <v>0.0</v>
@@ -11012,13 +11837,13 @@
         <v>0.0</v>
       </c>
       <c r="S9" s="61" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="T9" s="62" t="n">
         <v>0.0</v>
       </c>
       <c r="U9" s="62" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="V9" s="56" t="n">
         <v>0.0</v>
@@ -11033,7 +11858,7 @@
         <v>0.0</v>
       </c>
       <c r="Z9" s="22" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="AA9" s="22" t="n">
         <v>1.0</v>
@@ -11077,10 +11902,10 @@
         <v>9917772.0</v>
       </c>
       <c r="N10" s="64" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O10" s="64" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
+      </c>
+      <c r="O10" s="64" t="s">
+        <v>162</v>
       </c>
       <c r="P10" s="64" t="n">
         <v>0.0</v>
@@ -11092,13 +11917,13 @@
         <v>0.0</v>
       </c>
       <c r="S10" s="64" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="T10" s="64" t="n">
         <v>0.0</v>
       </c>
       <c r="U10" s="64" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="V10" s="17" t="n">
         <v>0.0</v>
@@ -11113,7 +11938,7 @@
         <v>0.0</v>
       </c>
       <c r="Z10" s="22" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="AA10" s="22" t="n">
         <v>0.0</v>
@@ -12197,10 +13022,10 @@
         <v>24646.0</v>
       </c>
       <c r="N24" s="23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O24" s="23" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
+      </c>
+      <c r="O24" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="P24" s="23" t="n">
         <v>0.0</v>
@@ -12212,13 +13037,13 @@
         <v>0.0</v>
       </c>
       <c r="S24" s="23" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="T24" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="U24" s="23" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="V24" s="22" t="n">
         <v>0.0</v>
@@ -12233,7 +13058,7 @@
         <v>0.0</v>
       </c>
       <c r="Z24" s="22" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="AA24" s="22" t="n">
         <v>0.0</v>
@@ -12277,10 +13102,10 @@
         <v>24646.0</v>
       </c>
       <c r="N25" s="23" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O25" s="23" t="n">
-        <v>0.0</v>
+        <v>200.0</v>
+      </c>
+      <c r="O25" s="23" t="s">
+        <v>162</v>
       </c>
       <c r="P25" s="23" t="n">
         <v>0.0</v>
@@ -12292,13 +13117,13 @@
         <v>0.0</v>
       </c>
       <c r="S25" s="23" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="T25" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="U25" s="23" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="V25" s="22" t="n">
         <v>0.0</v>
@@ -12313,7 +13138,7 @@
         <v>0.0</v>
       </c>
       <c r="Z25" s="22" t="n">
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="AA25" s="22" t="n">
         <v>0.0</v>
@@ -14905,16 +15730,16 @@
         <v>319</v>
       </c>
       <c r="J58" s="30" t="n">
-        <v>34970.0</v>
+        <v>26231.0</v>
       </c>
       <c r="K58" s="23" t="n">
-        <v>64091.0</v>
+        <v>46052.0</v>
       </c>
       <c r="L58" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="M58" s="23" t="n">
-        <v>99061.0</v>
+        <v>72283.0</v>
       </c>
       <c r="N58" s="23" t="n">
         <v>0.0</v>
@@ -14985,16 +15810,16 @@
         <v>320</v>
       </c>
       <c r="J59" s="30" t="n">
-        <v>9850.0</v>
+        <v>1111.0</v>
       </c>
       <c r="K59" s="23" t="n">
-        <v>19150.0</v>
+        <v>1111.0</v>
       </c>
       <c r="L59" s="23" t="n">
         <v>0.0</v>
       </c>
       <c r="M59" s="23" t="n">
-        <v>29000.0</v>
+        <v>2222.0</v>
       </c>
       <c r="N59" s="23" t="n">
         <v>0.0</v>
@@ -15065,16 +15890,16 @@
         <v>320</v>
       </c>
       <c r="J60" s="65" t="n">
-        <v>9850.0</v>
+        <v>1111.0</v>
       </c>
       <c r="K60" s="64" t="n">
-        <v>19150.0</v>
+        <v>1111.0</v>
       </c>
       <c r="L60" s="64" t="n">
         <v>0.0</v>
       </c>
       <c r="M60" s="64" t="n">
-        <v>29000.0</v>
+        <v>2222.0</v>
       </c>
       <c r="N60" s="64" t="n">
         <v>0.0</v>
@@ -18271,7 +19096,7 @@
       </c>
       <c r="H9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!N10</f>
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="I9" s="122" t="str">
         <f>TEXT(t_thu_xd_theo_n_vu!O10/(24*60*60),"[h]:mm")</f>
@@ -18291,7 +19116,7 @@
       </c>
       <c r="M9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!S10</f>
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="N9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!T10</f>
@@ -18299,7 +19124,7 @@
       </c>
       <c r="O9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!U10</f>
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="P9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!V10</f>
@@ -18319,7 +19144,7 @@
       </c>
       <c r="T9" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!Z10</f>
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="U9" s="123"/>
       <c r="V9" s="123"/>
@@ -19396,7 +20221,7 @@
       </c>
       <c r="H23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!N24</f>
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="I23" s="73" t="str">
         <f>TEXT(t_thu_xd_theo_n_vu!O24/(24*60*60),"[h]:mm")</f>
@@ -19416,7 +20241,7 @@
       </c>
       <c r="M23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!S24</f>
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="N23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!T24</f>
@@ -19424,7 +20249,7 @@
       </c>
       <c r="O23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!U24</f>
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="P23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!V24</f>
@@ -19444,7 +20269,7 @@
       </c>
       <c r="T23" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z24</f>
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="U23" s="72"/>
       <c r="V23" s="72"/>
@@ -19476,7 +20301,7 @@
       </c>
       <c r="H24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!N25</f>
-        <v>0.0</v>
+        <v>200.0</v>
       </c>
       <c r="I24" s="73" t="str">
         <f>TEXT(t_thu_xd_theo_n_vu!O25/(24*60*60),"[h]:mm")</f>
@@ -19496,7 +20321,7 @@
       </c>
       <c r="M24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!S25</f>
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="N24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!T25</f>
@@ -19504,7 +20329,7 @@
       </c>
       <c r="O24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!U25</f>
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="P24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!V25</f>
@@ -19524,7 +20349,7 @@
       </c>
       <c r="T24" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!Z25</f>
-        <v>0.0</v>
+        <v>68.0</v>
       </c>
       <c r="U24" s="72"/>
       <c r="V24" s="72"/>
@@ -22107,11 +22932,11 @@
       </c>
       <c r="D57" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!J58</f>
-        <v>34970.0</v>
+        <v>26231.0</v>
       </c>
       <c r="E57" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!K58</f>
-        <v>64091.0</v>
+        <v>46052.0</v>
       </c>
       <c r="F57" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!L58</f>
@@ -22119,7 +22944,7 @@
       </c>
       <c r="G57" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!M58</f>
-        <v>99061.0</v>
+        <v>72283.0</v>
       </c>
       <c r="H57" s="122" t="n">
         <f>t_thu_xd_theo_n_vu!N58</f>
@@ -22192,11 +23017,11 @@
       </c>
       <c r="D58" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!J59</f>
-        <v>9850.0</v>
+        <v>1111.0</v>
       </c>
       <c r="E58" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!K59</f>
-        <v>19150.0</v>
+        <v>1111.0</v>
       </c>
       <c r="F58" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!L59</f>
@@ -22204,7 +23029,7 @@
       </c>
       <c r="G58" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!M59</f>
-        <v>29000.0</v>
+        <v>2222.0</v>
       </c>
       <c r="H58" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!N59</f>
@@ -22272,11 +23097,11 @@
       </c>
       <c r="D59" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!J60</f>
-        <v>9850.0</v>
+        <v>1111.0</v>
       </c>
       <c r="E59" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!K60</f>
-        <v>19150.0</v>
+        <v>1111.0</v>
       </c>
       <c r="F59" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!L60</f>
@@ -22284,7 +23109,7 @@
       </c>
       <c r="G59" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!M60</f>
-        <v>29000.0</v>
+        <v>2222.0</v>
       </c>
       <c r="H59" s="73" t="n">
         <f>t_thu_xd_theo_n_vu!N60</f>
@@ -25646,29 +26471,29 @@
       <c r="I9" s="8" t="n">
         <v>1562874.0</v>
       </c>
-      <c r="J9" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K9" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L9" s="8" t="n">
-        <v>0.0</v>
+      <c r="J9" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K9" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="L9" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="M9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="P9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="R9" s="8" t="n">
         <v>1.0</v>
@@ -25708,29 +26533,29 @@
       <c r="I10" s="8" t="n">
         <v>285714.0</v>
       </c>
-      <c r="J10" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K10" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L10" s="8" t="n">
-        <v>0.0</v>
+      <c r="J10" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K10" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="L10" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="P10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="R10" s="8" t="n">
         <v>1.0</v>
@@ -26080,29 +26905,29 @@
       <c r="I16" s="8" t="n">
         <v>1572012.0</v>
       </c>
-      <c r="J16" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K16" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L16" s="8" t="n">
-        <v>0.0</v>
+      <c r="J16" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K16" s="8" t="s">
+        <v>412</v>
+      </c>
+      <c r="L16" s="8" t="s">
+        <v>412</v>
       </c>
       <c r="M16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="P16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" s="8" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="R16" s="8" t="n">
         <v>0.0</v>
@@ -26142,29 +26967,29 @@
       <c r="I17" s="74" t="n">
         <v>981346.0</v>
       </c>
-      <c r="J17" s="74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K17" s="74" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L17" s="74" t="n">
-        <v>0.0</v>
+      <c r="J17" s="74" t="s">
+        <v>162</v>
+      </c>
+      <c r="K17" s="74" t="s">
+        <v>412</v>
+      </c>
+      <c r="L17" s="74" t="s">
+        <v>412</v>
       </c>
       <c r="M17" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="N17" s="74" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="O17" s="74" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="P17" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="74" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="R17" s="74" t="n">
         <v>0.0</v>
@@ -26204,29 +27029,29 @@
       <c r="I18" s="0" t="n">
         <v>315488.0</v>
       </c>
-      <c r="J18" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="K18" t="n" s="0">
-        <v>0.0</v>
-      </c>
-      <c r="L18" t="n" s="0">
-        <v>0.0</v>
+      <c r="J18" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="K18" t="s" s="0">
+        <v>412</v>
+      </c>
+      <c r="L18" t="s" s="0">
+        <v>412</v>
       </c>
       <c r="M18" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N18" s="0" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="O18" s="0" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="P18" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q18" s="0" t="n">
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="R18" s="0" t="n">
         <v>0.0</v>
@@ -37947,11 +38772,11 @@
       </c>
       <c r="I8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K9/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:12</v>
       </c>
       <c r="J8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L9/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:12</v>
       </c>
       <c r="K8" s="20" t="n">
         <f>bc_ttnl_theo_kh!M9</f>
@@ -37959,11 +38784,11 @@
       </c>
       <c r="L8" s="20" t="n">
         <f>bc_ttnl_theo_kh!N9</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="M8" s="20" t="n">
         <f>bc_ttnl_theo_kh!O9</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="N8" s="20" t="n">
         <f>bc_ttnl_theo_kh!P9</f>
@@ -37971,7 +38796,7 @@
       </c>
       <c r="O8" s="20" t="n">
         <f>bc_ttnl_theo_kh!Q9</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -38018,11 +38843,11 @@
       </c>
       <c r="I9" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K10/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:12</v>
       </c>
       <c r="J9" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L10/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:12</v>
       </c>
       <c r="K9" s="21" t="n">
         <f>bc_ttnl_theo_kh!M10</f>
@@ -38030,11 +38855,11 @@
       </c>
       <c r="L9" s="21" t="n">
         <f>bc_ttnl_theo_kh!N10</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="M9" s="21" t="n">
         <f>bc_ttnl_theo_kh!O10</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="N9" s="21" t="n">
         <f>bc_ttnl_theo_kh!P10</f>
@@ -38042,7 +38867,7 @@
       </c>
       <c r="O9" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q10</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -38443,11 +39268,11 @@
       </c>
       <c r="I15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K16/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:12</v>
       </c>
       <c r="J15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L16/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:12</v>
       </c>
       <c r="K15" s="21" t="n">
         <f>bc_ttnl_theo_kh!M16</f>
@@ -38455,11 +39280,11 @@
       </c>
       <c r="L15" s="21" t="n">
         <f>bc_ttnl_theo_kh!N16</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="M15" s="21" t="n">
         <f>bc_ttnl_theo_kh!O16</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="N15" s="21" t="n">
         <f>bc_ttnl_theo_kh!P16</f>
@@ -38467,7 +39292,7 @@
       </c>
       <c r="O15" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q16</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="16"/>
@@ -38513,11 +39338,11 @@
       </c>
       <c r="I16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K17/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:12</v>
       </c>
       <c r="J16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L17/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:12</v>
       </c>
       <c r="K16" s="21" t="n">
         <f>bc_ttnl_theo_kh!M17</f>
@@ -38525,11 +39350,11 @@
       </c>
       <c r="L16" s="21" t="n">
         <f>bc_ttnl_theo_kh!N17</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="M16" s="21" t="n">
         <f>bc_ttnl_theo_kh!O17</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="N16" s="21" t="n">
         <f>bc_ttnl_theo_kh!P17</f>
@@ -38537,7 +39362,7 @@
       </c>
       <c r="O16" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q17</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="18"/>
@@ -38583,11 +39408,11 @@
       </c>
       <c r="I17" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K18/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:12</v>
       </c>
       <c r="J17" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L18/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:12</v>
       </c>
       <c r="K17" s="21" t="n">
         <f>bc_ttnl_theo_kh!M18</f>
@@ -38595,11 +39420,11 @@
       </c>
       <c r="L17" s="21" t="n">
         <f>bc_ttnl_theo_kh!N18</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="M17" s="21" t="n">
         <f>bc_ttnl_theo_kh!O18</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="N17" s="21" t="n">
         <f>bc_ttnl_theo_kh!P18</f>
@@ -38607,7 +39432,7 @@
       </c>
       <c r="O17" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q18</f>
-        <v>0.0</v>
+        <v>1105.0</v>
       </c>
       <c r="P17" s="21"/>
       <c r="Q17" s="18"/>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31963" uniqueCount="368">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57379" uniqueCount="393">
   <si>
     <t>CXD</t>
   </si>
@@ -1167,6 +1167,81 @@
   <si>
     <t>18500</t>
   </si>
+  <si>
+    <t>51501</t>
+  </si>
+  <si>
+    <t>71676</t>
+  </si>
+  <si>
+    <t>44501</t>
+  </si>
+  <si>
+    <t>69676</t>
+  </si>
+  <si>
+    <t>46501</t>
+  </si>
+  <si>
+    <t>52000</t>
+  </si>
+  <si>
+    <t>53585</t>
+  </si>
+  <si>
+    <t>44597</t>
+  </si>
+  <si>
+    <t>46597</t>
+  </si>
+  <si>
+    <t>30096</t>
+  </si>
+  <si>
+    <t>6988</t>
+  </si>
+  <si>
+    <t>1988</t>
+  </si>
+  <si>
+    <t>74676</t>
+  </si>
+  <si>
+    <t>72676</t>
+  </si>
+  <si>
+    <t>1500</t>
+  </si>
+  <si>
+    <t>3240.000000</t>
+  </si>
+  <si>
+    <t>1920.000000</t>
+  </si>
+  <si>
+    <t>3960.000000</t>
+  </si>
+  <si>
+    <t>5799</t>
+  </si>
+  <si>
+    <t>5731</t>
+  </si>
+  <si>
+    <t>2600</t>
+  </si>
+  <si>
+    <t>3131</t>
+  </si>
+  <si>
+    <t>2610000.000000</t>
+  </si>
+  <si>
+    <t>122400.000000</t>
+  </si>
+  <si>
+    <t>2732400.000000</t>
+  </si>
 </sst>
 </file>
 
@@ -2699,10 +2774,10 @@
         <v>220</v>
       </c>
       <c r="Q9" t="s" s="10">
-        <v>220</v>
+        <v>374</v>
       </c>
       <c r="R9" t="s" s="10">
-        <v>354</v>
+        <v>323</v>
       </c>
       <c r="S9" t="s" s="10">
         <v>355</v>
@@ -2720,13 +2795,13 @@
         <v>220</v>
       </c>
       <c r="X9" t="s" s="10">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="Y9" t="s" s="10">
         <v>220</v>
       </c>
       <c r="Z9" t="s" s="10">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="AA9" t="s" s="10">
         <v>220</v>
@@ -2738,10 +2813,10 @@
         <v>220</v>
       </c>
       <c r="AD9" t="s" s="10">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="AE9" t="s" s="10">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="AF9" t="s" s="10">
         <v>220</v>
@@ -2818,10 +2893,10 @@
         <v>220</v>
       </c>
       <c r="Q10" t="s" s="10">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="R10" t="s" s="10">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="S10" t="s" s="10">
         <v>359</v>
@@ -2845,7 +2920,7 @@
         <v>220</v>
       </c>
       <c r="Z10" t="s" s="10">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="AA10" t="s" s="10">
         <v>220</v>
@@ -2857,10 +2932,10 @@
         <v>220</v>
       </c>
       <c r="AD10" t="s" s="10">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="AE10" t="s" s="10">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="AF10" t="s" s="10">
         <v>220</v>
@@ -3056,10 +3131,10 @@
         <v>220</v>
       </c>
       <c r="Q12" t="s" s="10">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="R12" t="s" s="10">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="S12" t="s" s="10">
         <v>334</v>
@@ -3077,7 +3152,7 @@
         <v>220</v>
       </c>
       <c r="X12" t="s" s="10">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="Y12" t="s" s="10">
         <v>220</v>
@@ -3095,10 +3170,10 @@
         <v>220</v>
       </c>
       <c r="AD12" t="s" s="10">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="AE12" t="s" s="10">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="AF12" t="s" s="10">
         <v>220</v>
@@ -3294,10 +3369,10 @@
         <v>220</v>
       </c>
       <c r="Q14" t="s" s="10">
-        <v>220</v>
+        <v>376</v>
       </c>
       <c r="R14" t="s" s="10">
-        <v>362</v>
+        <v>323</v>
       </c>
       <c r="S14" t="s" s="10">
         <v>355</v>
@@ -3315,13 +3390,13 @@
         <v>220</v>
       </c>
       <c r="X14" t="s" s="10">
-        <v>356</v>
+        <v>386</v>
       </c>
       <c r="Y14" t="s" s="10">
         <v>220</v>
       </c>
       <c r="Z14" t="s" s="10">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="AA14" t="s" s="10">
         <v>220</v>
@@ -3333,10 +3408,10 @@
         <v>220</v>
       </c>
       <c r="AD14" t="s" s="10">
-        <v>342</v>
+        <v>380</v>
       </c>
       <c r="AE14" t="s" s="10">
-        <v>357</v>
+        <v>220</v>
       </c>
       <c r="AF14" t="s" s="10">
         <v>220</v>
@@ -3413,10 +3488,10 @@
         <v>220</v>
       </c>
       <c r="Q15" t="s" s="10">
-        <v>220</v>
+        <v>375</v>
       </c>
       <c r="R15" t="s" s="10">
-        <v>358</v>
+        <v>324</v>
       </c>
       <c r="S15" t="s" s="10">
         <v>359</v>
@@ -3440,7 +3515,7 @@
         <v>220</v>
       </c>
       <c r="Z15" t="s" s="10">
-        <v>220</v>
+        <v>311</v>
       </c>
       <c r="AA15" t="s" s="10">
         <v>220</v>
@@ -3452,10 +3527,10 @@
         <v>220</v>
       </c>
       <c r="AD15" t="s" s="10">
-        <v>342</v>
+        <v>381</v>
       </c>
       <c r="AE15" t="s" s="10">
-        <v>361</v>
+        <v>220</v>
       </c>
       <c r="AF15" t="s" s="10">
         <v>220</v>
@@ -3651,10 +3726,10 @@
         <v>220</v>
       </c>
       <c r="Q17" t="s" s="10">
-        <v>220</v>
+        <v>377</v>
       </c>
       <c r="R17" t="s" s="10">
-        <v>364</v>
+        <v>220</v>
       </c>
       <c r="S17" t="s" s="10">
         <v>365</v>
@@ -3678,7 +3753,7 @@
         <v>220</v>
       </c>
       <c r="Z17" t="s" s="10">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="AA17" t="s" s="10">
         <v>220</v>
@@ -3690,10 +3765,10 @@
         <v>220</v>
       </c>
       <c r="AD17" t="s" s="10">
-        <v>220</v>
+        <v>365</v>
       </c>
       <c r="AE17" t="s" s="10">
-        <v>329</v>
+        <v>220</v>
       </c>
       <c r="AF17" t="s" s="10">
         <v>220</v>
@@ -3770,10 +3845,10 @@
         <v>220</v>
       </c>
       <c r="Q18" t="s" s="10">
-        <v>220</v>
+        <v>366</v>
       </c>
       <c r="R18" t="s" s="10">
-        <v>366</v>
+        <v>220</v>
       </c>
       <c r="S18" t="s" s="10">
         <v>313</v>
@@ -3797,7 +3872,7 @@
         <v>220</v>
       </c>
       <c r="Z18" t="s" s="10">
-        <v>220</v>
+        <v>382</v>
       </c>
       <c r="AA18" t="s" s="10">
         <v>220</v>
@@ -3809,10 +3884,10 @@
         <v>220</v>
       </c>
       <c r="AD18" t="s" s="10">
-        <v>342</v>
+        <v>373</v>
       </c>
       <c r="AE18" t="s" s="10">
-        <v>367</v>
+        <v>220</v>
       </c>
       <c r="AF18" t="s" s="10">
         <v>220</v>
@@ -4127,10 +4202,10 @@
         <v>220</v>
       </c>
       <c r="Q21" t="s" s="10">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="R21" t="s" s="10">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="S21" t="s" s="10">
         <v>334</v>
@@ -4148,7 +4223,7 @@
         <v>220</v>
       </c>
       <c r="X21" t="s" s="10">
-        <v>321</v>
+        <v>387</v>
       </c>
       <c r="Y21" t="s" s="10">
         <v>220</v>
@@ -4166,10 +4241,10 @@
         <v>220</v>
       </c>
       <c r="AD21" t="s" s="10">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="AE21" t="s" s="10">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="AF21" t="s" s="10">
         <v>220</v>
@@ -4267,7 +4342,7 @@
         <v>220</v>
       </c>
       <c r="X22" t="s" s="10">
-        <v>220</v>
+        <v>388</v>
       </c>
       <c r="Y22" t="s" s="10">
         <v>220</v>
@@ -4386,7 +4461,7 @@
         <v>220</v>
       </c>
       <c r="X23" t="s" s="10">
-        <v>321</v>
+        <v>389</v>
       </c>
       <c r="Y23" t="s" s="10">
         <v>220</v>
@@ -4484,49 +4559,49 @@
         <v>220</v>
       </c>
       <c r="Q24" t="s" s="10">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="R24" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="S24" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="T24" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="U24" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="V24" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="W24" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="X24" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="Y24" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="Z24" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="AA24" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="AB24" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="AC24" t="s" s="10">
+        <v>220</v>
+      </c>
+      <c r="AD24" t="s" s="10">
         <v>320</v>
       </c>
-      <c r="S24" t="s" s="10">
-        <v>220</v>
-      </c>
-      <c r="T24" t="s" s="10">
-        <v>220</v>
-      </c>
-      <c r="U24" t="s" s="10">
-        <v>220</v>
-      </c>
-      <c r="V24" t="s" s="10">
-        <v>220</v>
-      </c>
-      <c r="W24" t="s" s="10">
-        <v>220</v>
-      </c>
-      <c r="X24" t="s" s="10">
-        <v>220</v>
-      </c>
-      <c r="Y24" t="s" s="10">
-        <v>220</v>
-      </c>
-      <c r="Z24" t="s" s="10">
-        <v>220</v>
-      </c>
-      <c r="AA24" t="s" s="10">
-        <v>220</v>
-      </c>
-      <c r="AB24" t="s" s="10">
-        <v>220</v>
-      </c>
-      <c r="AC24" t="s" s="10">
-        <v>220</v>
-      </c>
-      <c r="AD24" t="s" s="10">
-        <v>220</v>
-      </c>
       <c r="AE24" t="s" s="10">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="AF24" t="s" s="10">
         <v>220</v>
@@ -4960,10 +5035,10 @@
         <v>220</v>
       </c>
       <c r="Q28" t="s" s="10">
-        <v>220</v>
+        <v>378</v>
       </c>
       <c r="R28" t="s" s="10">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="S28" t="s" s="10">
         <v>220</v>
@@ -5198,10 +5273,10 @@
         <v>220</v>
       </c>
       <c r="Q30" t="s" s="10">
-        <v>220</v>
+        <v>378</v>
       </c>
       <c r="R30" t="s" s="10">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="S30" t="s" s="10">
         <v>220</v>
@@ -5317,10 +5392,10 @@
         <v>220</v>
       </c>
       <c r="Q31" t="s" s="10">
-        <v>220</v>
+        <v>378</v>
       </c>
       <c r="R31" t="s" s="10">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="S31" t="s" s="10">
         <v>220</v>
@@ -5793,10 +5868,10 @@
         <v>220</v>
       </c>
       <c r="Q35" t="s" s="10">
-        <v>220</v>
+        <v>312</v>
       </c>
       <c r="R35" t="s" s="10">
-        <v>312</v>
+        <v>220</v>
       </c>
       <c r="S35" t="s" s="10">
         <v>220</v>
@@ -6150,7 +6225,7 @@
         <v>220</v>
       </c>
       <c r="Q38" t="s" s="10">
-        <v>220</v>
+        <v>379</v>
       </c>
       <c r="R38" t="s" s="10">
         <v>220</v>
@@ -26326,40 +26401,40 @@
         <v>28</v>
       </c>
       <c r="F9" s="8" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="G9" s="8" t="s">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="H9" s="8" t="s">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="I9" s="8" t="n">
-        <v>1562874.0</v>
+        <v>1247386.0</v>
       </c>
       <c r="J9" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K9" s="8" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="L9" s="8" t="s">
-        <v>330</v>
+        <v>383</v>
       </c>
       <c r="M9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N9" s="8" t="n">
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="O9" s="8" t="n">
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="P9" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q9" s="8" t="n">
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="R9" s="8" t="n">
         <v>1.0</v>
@@ -26403,25 +26478,25 @@
         <v>162</v>
       </c>
       <c r="K10" s="8" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="L10" s="8" t="s">
-        <v>330</v>
+        <v>250</v>
       </c>
       <c r="M10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N10" s="8" t="n">
-        <v>1105.0</v>
+        <v>3131.0</v>
       </c>
       <c r="O10" s="8" t="n">
-        <v>1105.0</v>
+        <v>3131.0</v>
       </c>
       <c r="P10" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q10" s="8" t="n">
-        <v>1105.0</v>
+        <v>3131.0</v>
       </c>
       <c r="R10" s="8" t="n">
         <v>1.0</v>
@@ -26450,40 +26525,40 @@
         <v>167</v>
       </c>
       <c r="F11" s="8" t="s">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G11" s="8" t="s">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="H11" s="8" t="s">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="I11" s="8" t="n">
-        <v>315488.0</v>
-      </c>
-      <c r="J11" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K11" s="8" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L11" s="8" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J11" s="8" t="s">
+        <v>162</v>
+      </c>
+      <c r="K11" s="8" t="s">
+        <v>384</v>
+      </c>
+      <c r="L11" s="8" t="s">
+        <v>384</v>
       </c>
       <c r="M11" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N11" s="8" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O11" s="8" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P11" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q11" s="8" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="R11" s="8" t="n">
         <v>1.0</v>
@@ -26760,40 +26835,40 @@
         <v>28</v>
       </c>
       <c r="F16" s="8" t="s">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="G16" s="8" t="s">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="H16" s="8" t="s">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="I16" s="8" t="n">
-        <v>1572012.0</v>
+        <v>1256524.0</v>
       </c>
       <c r="J16" s="8" t="s">
         <v>162</v>
       </c>
       <c r="K16" s="8" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="L16" s="8" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="M16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="N16" s="8" t="n">
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="O16" s="8" t="n">
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="P16" s="8" t="n">
         <v>0.0</v>
       </c>
       <c r="Q16" s="8" t="n">
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="R16" s="8" t="n">
         <v>0.0</v>
@@ -26822,40 +26897,40 @@
         <v>104</v>
       </c>
       <c r="F17" s="74" t="s">
-        <v>317</v>
+        <v>215</v>
       </c>
       <c r="G17" s="74" t="s">
-        <v>253</v>
+        <v>239</v>
       </c>
       <c r="H17" s="74" t="s">
-        <v>259</v>
+        <v>240</v>
       </c>
       <c r="I17" s="74" t="n">
-        <v>981346.0</v>
+        <v>665858.0</v>
       </c>
       <c r="J17" s="74" t="s">
         <v>162</v>
       </c>
       <c r="K17" s="74" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="L17" s="74" t="s">
-        <v>330</v>
+        <v>385</v>
       </c>
       <c r="M17" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="N17" s="74" t="n">
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="O17" s="74" t="n">
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="P17" s="74" t="n">
         <v>0.0</v>
       </c>
       <c r="Q17" s="74" t="n">
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="R17" s="74" t="n">
         <v>0.0</v>
@@ -26884,16 +26959,16 @@
         <v>106</v>
       </c>
       <c r="F18" t="s" s="0">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G18" t="s" s="0">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="H18" t="s" s="0">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="I18" s="0" t="n">
-        <v>315488.0</v>
+        <v>0.0</v>
       </c>
       <c r="J18" t="s" s="0">
         <v>162</v>
@@ -26957,29 +27032,29 @@
       <c r="I19" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="J19" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K19" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L19" s="0" t="n">
-        <v>0.0</v>
+      <c r="J19" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K19" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="L19" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="M19" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N19" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="O19" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P19" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q19" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="R19" s="0" t="n">
         <v>0.0</v>
@@ -27019,29 +27094,29 @@
       <c r="I20" s="0" t="n">
         <v>665858.0</v>
       </c>
-      <c r="J20" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K20" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L20" s="0" t="n">
-        <v>0.0</v>
+      <c r="J20" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K20" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="L20" s="0" t="s">
+        <v>384</v>
       </c>
       <c r="M20" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N20" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O20" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P20" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q20" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="R20" s="0" t="n">
         <v>0.0</v>
@@ -27324,31 +27399,31 @@
         <v>28</v>
       </c>
       <c r="F25" t="s" s="0">
-        <v>314</v>
+        <v>390</v>
       </c>
       <c r="G25" t="s" s="0">
-        <v>315</v>
+        <v>391</v>
       </c>
       <c r="H25" t="s" s="0">
-        <v>316</v>
+        <v>392</v>
       </c>
       <c r="I25" s="0" t="n">
-        <v>1572012.0</v>
-      </c>
-      <c r="J25" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K25" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L25" s="0" t="n">
-        <v>0.0</v>
+        <v>1256524.0</v>
+      </c>
+      <c r="J25" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K25" s="0" t="s">
+        <v>383</v>
+      </c>
+      <c r="L25" s="0" t="s">
+        <v>383</v>
       </c>
       <c r="M25" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N25" s="0" t="n">
-        <v>0.0</v>
+        <v>4626.0</v>
       </c>
       <c r="O25" t="n" s="0">
         <f>bc_ttnl_theo_kh!M9</f>
@@ -27358,7 +27433,7 @@
         <v>0.0</v>
       </c>
       <c r="Q25" s="0" t="n">
-        <v>0.0</v>
+        <v>4626.0</v>
       </c>
       <c r="R25" s="0" t="n">
         <v>5527.0</v>
@@ -27608,29 +27683,29 @@
       <c r="I29" s="0" t="n">
         <v>142857.0</v>
       </c>
-      <c r="J29" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K29" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L29" s="0" t="n">
-        <v>0.0</v>
+      <c r="J29" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K29" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="L29" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="M29" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N29" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="O29" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P29" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q29" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="R29" s="0" t="n">
         <v>5527.0</v>
@@ -27676,29 +27751,29 @@
       <c r="I30" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="J30" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K30" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L30" s="0" t="n">
-        <v>0.0</v>
+      <c r="J30" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K30" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="L30" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="M30" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N30" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="O30" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P30" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q30" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="R30" s="0" t="n">
         <v>5527.0</v>
@@ -27730,7 +27805,7 @@
         <v>104</v>
       </c>
       <c r="E31" s="74" t="s">
-        <v>105</v>
+        <v>238</v>
       </c>
       <c r="F31" s="74" t="s">
         <v>162</v>
@@ -27795,46 +27870,46 @@
         <v>182</v>
       </c>
       <c r="D32" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E32" t="s" s="0">
-        <v>114</v>
+        <v>105</v>
       </c>
       <c r="F32" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="G32" t="s" s="0">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="H32" t="s" s="0">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="I32" s="0" t="n">
-        <v>142857.0</v>
-      </c>
-      <c r="J32" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K32" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L32" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J32" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K32" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="L32" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="M32" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N32" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="O32" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P32" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q32" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="R32" s="0" t="n">
         <v>5527.0</v>
@@ -27849,10 +27924,10 @@
         <v>0.0</v>
       </c>
       <c r="V32" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W32" s="0" t="n">
         <v>1.0</v>
-      </c>
-      <c r="W32" s="0" t="n">
-        <v>6.0</v>
       </c>
     </row>
     <row r="33" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -27866,7 +27941,7 @@
         <v>114</v>
       </c>
       <c r="E33" s="8" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F33" s="8" t="s">
         <v>183</v>
@@ -27917,7 +27992,7 @@
         <v>0.0</v>
       </c>
       <c r="V33" s="8" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W33" s="8" t="n">
         <v>6.0</v>
@@ -27928,22 +28003,22 @@
         <v>180</v>
       </c>
       <c r="C34" s="74" t="s">
-        <v>189</v>
+        <v>182</v>
       </c>
       <c r="D34" s="74" t="s">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E34" s="74" t="s">
-        <v>189</v>
+        <v>116</v>
       </c>
       <c r="F34" s="74" t="s">
-        <v>186</v>
+        <v>183</v>
       </c>
       <c r="G34" s="74" t="s">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="H34" s="74" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="I34" s="74" t="n">
         <v>142857.0</v>
@@ -27982,13 +28057,13 @@
         <v>0.0</v>
       </c>
       <c r="U34" s="74" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V34" s="74" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W34" s="74" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="35" spans="2:23" x14ac:dyDescent="0.25">
@@ -27999,22 +28074,22 @@
         <v>189</v>
       </c>
       <c r="D35" t="s" s="0">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="E35" t="s" s="0">
-        <v>104</v>
+        <v>189</v>
       </c>
       <c r="F35" t="s" s="0">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="G35" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H35" t="s" s="0">
-        <v>162</v>
+        <v>186</v>
       </c>
       <c r="I35" s="0" t="n">
-        <v>0.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J35" s="0" t="n">
         <v>0.0</v>
@@ -28050,13 +28125,13 @@
         <v>0.0</v>
       </c>
       <c r="U35" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V35" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="W35" s="0" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="36" spans="2:23" s="74" customFormat="1" x14ac:dyDescent="0.25">
@@ -28070,7 +28145,7 @@
         <v>104</v>
       </c>
       <c r="E36" s="74" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F36" s="74" t="s">
         <v>162</v>
@@ -28121,7 +28196,7 @@
         <v>0.0</v>
       </c>
       <c r="V36" s="74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W36" s="74" t="n">
         <v>1.0</v>
@@ -28135,22 +28210,22 @@
         <v>189</v>
       </c>
       <c r="D37" t="s" s="0">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E37" t="s" s="0">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F37" t="s" s="0">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="G37" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H37" t="s" s="0">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="I37" s="0" t="n">
-        <v>142857.0</v>
+        <v>0.0</v>
       </c>
       <c r="J37" s="0" t="n">
         <v>0.0</v>
@@ -28189,10 +28264,10 @@
         <v>0.0</v>
       </c>
       <c r="V37" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W37" s="0" t="n">
         <v>1.0</v>
-      </c>
-      <c r="W37" s="0" t="n">
-        <v>4.0</v>
       </c>
     </row>
     <row r="38" spans="2:23" x14ac:dyDescent="0.25">
@@ -28200,25 +28275,25 @@
         <v>180</v>
       </c>
       <c r="C38" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D38" t="s" s="0">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="E38" t="s" s="0">
-        <v>190</v>
+        <v>238</v>
       </c>
       <c r="F38" t="s" s="0">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G38" t="s" s="0">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="H38" t="s" s="0">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="I38" s="0" t="n">
-        <v>315488.0</v>
+        <v>0.0</v>
       </c>
       <c r="J38" s="0" t="n">
         <v>0.0</v>
@@ -28245,19 +28320,19 @@
         <v>0.0</v>
       </c>
       <c r="R38" s="0" t="n">
-        <v>5034.0</v>
+        <v>5527.0</v>
       </c>
       <c r="S38" s="45" t="n">
-        <v>2368.0</v>
+        <v>3060.0</v>
       </c>
       <c r="T38" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U38" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V38" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W38" s="0" t="n">
         <v>1.0</v>
@@ -28268,25 +28343,25 @@
         <v>180</v>
       </c>
       <c r="C39" t="s" s="0">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="D39" t="s" s="0">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E39" t="s" s="0">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s" s="0">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="G39" t="s" s="0">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="H39" t="s" s="0">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="I39" s="0" t="n">
-        <v>315488.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J39" s="0" t="n">
         <v>0.0</v>
@@ -28313,10 +28388,10 @@
         <v>0.0</v>
       </c>
       <c r="R39" s="0" t="n">
-        <v>5034.0</v>
+        <v>5527.0</v>
       </c>
       <c r="S39" s="45" t="n">
-        <v>2368.0</v>
+        <v>3060.0</v>
       </c>
       <c r="T39" s="0" t="n">
         <v>0.0</v>
@@ -28328,7 +28403,7 @@
         <v>1.0</v>
       </c>
       <c r="W39" s="0" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="40" spans="2:23" x14ac:dyDescent="0.25">
@@ -28339,46 +28414,46 @@
         <v>190</v>
       </c>
       <c r="D40" t="s" s="0">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="E40" t="s" s="0">
-        <v>106</v>
+        <v>190</v>
       </c>
       <c r="F40" t="s" s="0">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G40" t="s" s="0">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="H40" t="s" s="0">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="I40" s="0" t="n">
-        <v>315488.0</v>
-      </c>
-      <c r="J40" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K40" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L40" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J40" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K40" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="L40" s="0" t="s">
+        <v>384</v>
       </c>
       <c r="M40" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N40" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O40" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P40" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q40" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="R40" s="0" t="n">
         <v>5034.0</v>
@@ -28390,10 +28465,10 @@
         <v>0.0</v>
       </c>
       <c r="U40" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V40" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W40" s="0" t="n">
         <v>1.0</v>
@@ -28404,67 +28479,67 @@
         <v>180</v>
       </c>
       <c r="C41" t="s" s="0">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D41" t="s" s="0">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="E41" t="s" s="0">
-        <v>192</v>
+        <v>104</v>
       </c>
       <c r="F41" t="s" s="0">
-        <v>317</v>
+        <v>162</v>
       </c>
       <c r="G41" t="s" s="0">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="H41" t="s" s="0">
-        <v>318</v>
+        <v>162</v>
       </c>
       <c r="I41" s="0" t="n">
-        <v>961672.0</v>
-      </c>
-      <c r="J41" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K41" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L41" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J41" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K41" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="L41" s="0" t="s">
+        <v>384</v>
       </c>
       <c r="M41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N41" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O41" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q41" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R41" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S41" s="45" t="s">
-        <v>28</v>
+        <v>2600.0</v>
+      </c>
+      <c r="R41" t="n" s="0">
+        <v>5034.0</v>
+      </c>
+      <c r="S41" s="45" t="n">
+        <v>2368.0</v>
       </c>
       <c r="T41" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U41" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V41" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="W41" s="0" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="42" spans="2:23" x14ac:dyDescent="0.25">
@@ -28472,25 +28547,25 @@
         <v>180</v>
       </c>
       <c r="C42" t="s" s="0">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D42" t="s" s="0">
         <v>104</v>
       </c>
       <c r="E42" t="s" s="0">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="F42" t="s" s="0">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="G42" t="s" s="0">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="H42" t="s" s="0">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="I42" s="0" t="n">
-        <v>665858.0</v>
+        <v>0.0</v>
       </c>
       <c r="J42" s="0" t="n">
         <v>0.0</v>
@@ -28516,11 +28591,11 @@
       <c r="Q42" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R42" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S42" s="45" t="s">
-        <v>28</v>
+      <c r="R42" t="n" s="0">
+        <v>5034.0</v>
+      </c>
+      <c r="S42" s="45" t="n">
+        <v>2368.0</v>
       </c>
       <c r="T42" s="0" t="n">
         <v>0.0</v>
@@ -28529,7 +28604,7 @@
         <v>0.0</v>
       </c>
       <c r="V42" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W42" s="0" t="n">
         <v>1.0</v>
@@ -28540,25 +28615,25 @@
         <v>180</v>
       </c>
       <c r="C43" t="s" s="0">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D43" t="s" s="0">
         <v>104</v>
       </c>
       <c r="E43" t="s" s="0">
-        <v>238</v>
+        <v>106</v>
       </c>
       <c r="F43" t="s" s="0">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="G43" t="s" s="0">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="H43" t="s" s="0">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="I43" s="0" t="n">
-        <v>665858.0</v>
+        <v>0.0</v>
       </c>
       <c r="J43" s="0" t="n">
         <v>0.0</v>
@@ -28584,11 +28659,11 @@
       <c r="Q43" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R43" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S43" s="45" t="s">
-        <v>28</v>
+      <c r="R43" t="n" s="0">
+        <v>5034.0</v>
+      </c>
+      <c r="S43" s="45" t="n">
+        <v>2368.0</v>
       </c>
       <c r="T43" s="0" t="n">
         <v>0.0</v>
@@ -28608,55 +28683,55 @@
         <v>180</v>
       </c>
       <c r="C44" t="s" s="0">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D44" t="s" s="0">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E44" t="s" s="0">
-        <v>112</v>
+        <v>238</v>
       </c>
       <c r="F44" t="s" s="0">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G44" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H44" t="s" s="0">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="I44" s="0" t="n">
-        <v>142857.0</v>
-      </c>
-      <c r="J44" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K44" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L44" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J44" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K44" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="L44" s="0" t="s">
+        <v>384</v>
       </c>
       <c r="M44" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N44" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O44" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P44" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q44" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R44" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S44" s="45" t="s">
-        <v>28</v>
+        <v>2600.0</v>
+      </c>
+      <c r="R44" t="n" s="0">
+        <v>5034.0</v>
+      </c>
+      <c r="S44" s="45" t="n">
+        <v>2368.0</v>
       </c>
       <c r="T44" s="0" t="n">
         <v>0.0</v>
@@ -28665,10 +28740,10 @@
         <v>0.0</v>
       </c>
       <c r="V44" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W44" s="0" t="n">
         <v>1.0</v>
-      </c>
-      <c r="W44" s="0" t="n">
-        <v>4.0</v>
       </c>
     </row>
     <row r="45" spans="2:23" x14ac:dyDescent="0.25">
@@ -28679,22 +28754,22 @@
         <v>192</v>
       </c>
       <c r="D45" t="s" s="0">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E45" t="s" s="0">
-        <v>114</v>
+        <v>192</v>
       </c>
       <c r="F45" t="s" s="0">
-        <v>162</v>
+        <v>317</v>
       </c>
       <c r="G45" t="s" s="0">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="H45" t="s" s="0">
-        <v>162</v>
+        <v>318</v>
       </c>
       <c r="I45" s="0" t="n">
-        <v>152957.0</v>
+        <v>961672.0</v>
       </c>
       <c r="J45" s="0" t="n">
         <v>0.0</v>
@@ -28730,7 +28805,7 @@
         <v>0.0</v>
       </c>
       <c r="U45" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V45" s="0" t="n">
         <v>1.0</v>
@@ -28747,22 +28822,22 @@
         <v>192</v>
       </c>
       <c r="D46" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E46" t="s" s="0">
-        <v>115</v>
+        <v>104</v>
       </c>
       <c r="F46" t="s" s="0">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="G46" t="s" s="0">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="H46" t="s" s="0">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="I46" s="0" t="n">
-        <v>10100.0</v>
+        <v>665858.0</v>
       </c>
       <c r="J46" s="0" t="n">
         <v>0.0</v>
@@ -28801,10 +28876,10 @@
         <v>0.0</v>
       </c>
       <c r="V46" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W46" s="0" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="47" spans="2:23" x14ac:dyDescent="0.25">
@@ -28815,22 +28890,22 @@
         <v>192</v>
       </c>
       <c r="D47" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E47" t="s" s="0">
-        <v>116</v>
+        <v>238</v>
       </c>
       <c r="F47" t="s" s="0">
-        <v>162</v>
+        <v>215</v>
       </c>
       <c r="G47" t="s" s="0">
-        <v>162</v>
+        <v>239</v>
       </c>
       <c r="H47" t="s" s="0">
-        <v>162</v>
+        <v>240</v>
       </c>
       <c r="I47" s="0" t="n">
-        <v>142857.0</v>
+        <v>665858.0</v>
       </c>
       <c r="J47" s="0" t="n">
         <v>0.0</v>
@@ -28872,7 +28947,7 @@
         <v>0.0</v>
       </c>
       <c r="W47" s="0" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="48" spans="2:23" x14ac:dyDescent="0.25">
@@ -28880,25 +28955,25 @@
         <v>180</v>
       </c>
       <c r="C48" t="s" s="0">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D48" t="s" s="0">
-        <v>28</v>
+        <v>112</v>
       </c>
       <c r="E48" t="s" s="0">
-        <v>199</v>
+        <v>112</v>
       </c>
       <c r="F48" t="s" s="0">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="G48" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H48" t="s" s="0">
-        <v>162</v>
+        <v>209</v>
       </c>
       <c r="I48" s="0" t="n">
-        <v>1190.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J48" s="0" t="n">
         <v>0.0</v>
@@ -28934,13 +29009,13 @@
         <v>0.0</v>
       </c>
       <c r="U48" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V48" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="W48" s="0" t="n">
-        <v>6.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="49" spans="2:23" s="8" customFormat="1" x14ac:dyDescent="0.25">
@@ -28948,7 +29023,7 @@
         <v>180</v>
       </c>
       <c r="C49" s="8" t="s">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D49" s="8" t="s">
         <v>114</v>
@@ -28966,7 +29041,7 @@
         <v>162</v>
       </c>
       <c r="I49" s="8" t="n">
-        <v>1190.0</v>
+        <v>152957.0</v>
       </c>
       <c r="J49" s="8" t="n">
         <v>0.0</v>
@@ -29016,13 +29091,13 @@
         <v>180</v>
       </c>
       <c r="C50" t="s" s="0">
-        <v>199</v>
+        <v>192</v>
       </c>
       <c r="D50" t="s" s="0">
         <v>114</v>
       </c>
       <c r="E50" t="s" s="0">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="F50" t="s" s="0">
         <v>162</v>
@@ -29034,7 +29109,7 @@
         <v>162</v>
       </c>
       <c r="I50" s="0" t="n">
-        <v>1190.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J50" s="0" t="n">
         <v>0.0</v>
@@ -29084,13 +29159,13 @@
         <v>180</v>
       </c>
       <c r="C51" t="s" s="0">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="D51" t="s" s="0">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E51" t="s" s="0">
-        <v>200</v>
+        <v>115</v>
       </c>
       <c r="F51" t="s" s="0">
         <v>162</v>
@@ -29102,7 +29177,7 @@
         <v>162</v>
       </c>
       <c r="I51" s="0" t="n">
-        <v>1650.0</v>
+        <v>10100.0</v>
       </c>
       <c r="J51" s="0" t="n">
         <v>0.0</v>
@@ -29138,10 +29213,10 @@
         <v>0.0</v>
       </c>
       <c r="U51" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V51" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W51" s="0" t="n">
         <v>6.0</v>
@@ -29152,13 +29227,13 @@
         <v>180</v>
       </c>
       <c r="C52" t="s" s="0">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D52" t="s" s="0">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E52" t="s" s="0">
-        <v>114</v>
+        <v>199</v>
       </c>
       <c r="F52" t="s" s="0">
         <v>162</v>
@@ -29170,7 +29245,7 @@
         <v>162</v>
       </c>
       <c r="I52" s="0" t="n">
-        <v>1650.0</v>
+        <v>1190.0</v>
       </c>
       <c r="J52" s="0" t="n">
         <v>0.0</v>
@@ -29206,7 +29281,7 @@
         <v>0.0</v>
       </c>
       <c r="U52" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V52" s="0" t="n">
         <v>1.0</v>
@@ -29220,13 +29295,13 @@
         <v>180</v>
       </c>
       <c r="C53" t="s" s="0">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="D53" t="s" s="0">
         <v>114</v>
       </c>
       <c r="E53" t="s" s="0">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F53" t="s" s="0">
         <v>162</v>
@@ -29238,7 +29313,7 @@
         <v>162</v>
       </c>
       <c r="I53" s="0" t="n">
-        <v>1650.0</v>
+        <v>1190.0</v>
       </c>
       <c r="J53" s="0" t="n">
         <v>0.0</v>
@@ -29277,7 +29352,7 @@
         <v>0.0</v>
       </c>
       <c r="V53" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W53" s="0" t="n">
         <v>6.0</v>
@@ -29288,13 +29363,13 @@
         <v>180</v>
       </c>
       <c r="C54" t="s" s="0">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="D54" t="s" s="0">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E54" t="s" s="0">
-        <v>201</v>
+        <v>115</v>
       </c>
       <c r="F54" t="s" s="0">
         <v>162</v>
@@ -29342,10 +29417,10 @@
         <v>0.0</v>
       </c>
       <c r="U54" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V54" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W54" s="0" t="n">
         <v>6.0</v>
@@ -29356,13 +29431,13 @@
         <v>180</v>
       </c>
       <c r="C55" t="s" s="0">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D55" t="s" s="0">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E55" t="s" s="0">
-        <v>114</v>
+        <v>200</v>
       </c>
       <c r="F55" t="s" s="0">
         <v>162</v>
@@ -29374,7 +29449,7 @@
         <v>162</v>
       </c>
       <c r="I55" s="0" t="n">
-        <v>1190.0</v>
+        <v>1650.0</v>
       </c>
       <c r="J55" s="0" t="n">
         <v>0.0</v>
@@ -29410,7 +29485,7 @@
         <v>0.0</v>
       </c>
       <c r="U55" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V55" s="0" t="n">
         <v>1.0</v>
@@ -29424,13 +29499,13 @@
         <v>180</v>
       </c>
       <c r="C56" t="s" s="0">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="D56" t="s" s="0">
         <v>114</v>
       </c>
       <c r="E56" t="s" s="0">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="F56" t="s" s="0">
         <v>162</v>
@@ -29442,7 +29517,7 @@
         <v>162</v>
       </c>
       <c r="I56" s="0" t="n">
-        <v>1190.0</v>
+        <v>1650.0</v>
       </c>
       <c r="J56" s="0" t="n">
         <v>0.0</v>
@@ -29481,7 +29556,7 @@
         <v>0.0</v>
       </c>
       <c r="V56" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W56" s="0" t="n">
         <v>6.0</v>
@@ -29492,13 +29567,13 @@
         <v>180</v>
       </c>
       <c r="C57" t="s" s="0">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="D57" t="s" s="0">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E57" t="s" s="0">
-        <v>202</v>
+        <v>115</v>
       </c>
       <c r="F57" t="s" s="0">
         <v>162</v>
@@ -29510,7 +29585,7 @@
         <v>162</v>
       </c>
       <c r="I57" s="0" t="n">
-        <v>2850.0</v>
+        <v>1650.0</v>
       </c>
       <c r="J57" s="0" t="n">
         <v>0.0</v>
@@ -29546,10 +29621,10 @@
         <v>0.0</v>
       </c>
       <c r="U57" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V57" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W57" s="0" t="n">
         <v>6.0</v>
@@ -29560,13 +29635,13 @@
         <v>180</v>
       </c>
       <c r="C58" t="s" s="0">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D58" t="s" s="0">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E58" t="s" s="0">
-        <v>114</v>
+        <v>201</v>
       </c>
       <c r="F58" t="s" s="0">
         <v>162</v>
@@ -29578,7 +29653,7 @@
         <v>162</v>
       </c>
       <c r="I58" s="0" t="n">
-        <v>2850.0</v>
+        <v>1190.0</v>
       </c>
       <c r="J58" s="0" t="n">
         <v>0.0</v>
@@ -29614,7 +29689,7 @@
         <v>0.0</v>
       </c>
       <c r="U58" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V58" s="0" t="n">
         <v>1.0</v>
@@ -29628,13 +29703,13 @@
         <v>180</v>
       </c>
       <c r="C59" t="s" s="0">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="D59" t="s" s="0">
         <v>114</v>
       </c>
       <c r="E59" t="s" s="0">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="F59" t="s" s="0">
         <v>162</v>
@@ -29646,7 +29721,7 @@
         <v>162</v>
       </c>
       <c r="I59" s="0" t="n">
-        <v>2850.0</v>
+        <v>1190.0</v>
       </c>
       <c r="J59" s="0" t="n">
         <v>0.0</v>
@@ -29685,7 +29760,7 @@
         <v>0.0</v>
       </c>
       <c r="V59" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W59" s="0" t="n">
         <v>6.0</v>
@@ -29693,67 +29768,67 @@
     </row>
     <row r="60" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B60" t="s" s="0">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C60" t="s" s="0">
-        <v>163</v>
+        <v>201</v>
       </c>
       <c r="D60" t="s" s="0">
+        <v>114</v>
+      </c>
+      <c r="E60" t="s" s="0">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="G60" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="H60" t="s" s="0">
+        <v>162</v>
+      </c>
+      <c r="I60" s="0" t="n">
+        <v>1190.0</v>
+      </c>
+      <c r="J60" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K60" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L60" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M60" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N60" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O60" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P60" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q60" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R60" s="0" t="s">
         <v>28</v>
       </c>
-      <c r="E60" t="s" s="0">
-        <v>163</v>
-      </c>
-      <c r="F60" t="s" s="0">
-        <v>187</v>
-      </c>
-      <c r="G60" t="s" s="0">
-        <v>184</v>
-      </c>
-      <c r="H60" t="s" s="0">
-        <v>188</v>
-      </c>
-      <c r="I60" s="0" t="n">
-        <v>285714.0</v>
-      </c>
-      <c r="J60" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K60" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L60" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="M60" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="N60" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="O60" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="P60" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="Q60" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R60" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S60" s="45" t="n">
-        <v>3060.0</v>
+      <c r="S60" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T60" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U60" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V60" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W60" s="0" t="n">
         <v>6.0</v>
@@ -29761,16 +29836,16 @@
     </row>
     <row r="61" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B61" t="s" s="0">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C61" t="s" s="0">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="D61" t="s" s="0">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="E61" t="s" s="0">
-        <v>104</v>
+        <v>202</v>
       </c>
       <c r="F61" t="s" s="0">
         <v>162</v>
@@ -29782,7 +29857,7 @@
         <v>162</v>
       </c>
       <c r="I61" s="0" t="n">
-        <v>0.0</v>
+        <v>2850.0</v>
       </c>
       <c r="J61" s="0" t="n">
         <v>0.0</v>
@@ -29808,37 +29883,37 @@
       <c r="Q61" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R61" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S61" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R61" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S61" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T61" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U61" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V61" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="W61" s="0" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="62" spans="2:23" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B62" s="74" t="s">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C62" s="74" t="s">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="D62" s="74" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E62" s="74" t="s">
-        <v>105</v>
+        <v>114</v>
       </c>
       <c r="F62" s="74" t="s">
         <v>162</v>
@@ -29850,7 +29925,7 @@
         <v>162</v>
       </c>
       <c r="I62" s="74" t="n">
-        <v>0.0</v>
+        <v>2850.0</v>
       </c>
       <c r="J62" s="74" t="n">
         <v>0.0</v>
@@ -29876,11 +29951,11 @@
       <c r="Q62" s="74" t="n">
         <v>0.0</v>
       </c>
-      <c r="R62" s="74" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S62" s="75" t="n">
-        <v>3060.0</v>
+      <c r="R62" s="74" t="s">
+        <v>28</v>
+      </c>
+      <c r="S62" s="75" t="s">
+        <v>28</v>
       </c>
       <c r="T62" s="74" t="n">
         <v>0.0</v>
@@ -29889,36 +29964,36 @@
         <v>0.0</v>
       </c>
       <c r="V62" s="74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W62" s="74" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="63" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B63" t="s" s="0">
-        <v>204</v>
+        <v>180</v>
       </c>
       <c r="C63" t="s" s="0">
-        <v>163</v>
+        <v>202</v>
       </c>
       <c r="D63" t="s" s="0">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="E63" t="s" s="0">
-        <v>112</v>
+        <v>115</v>
       </c>
       <c r="F63" t="s" s="0">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="G63" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H63" t="s" s="0">
-        <v>186</v>
+        <v>162</v>
       </c>
       <c r="I63" s="0" t="n">
-        <v>142857.0</v>
+        <v>2850.0</v>
       </c>
       <c r="J63" s="0" t="n">
         <v>0.0</v>
@@ -29944,11 +30019,11 @@
       <c r="Q63" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R63" s="0" t="n">
-        <v>5527.0</v>
-      </c>
-      <c r="S63" s="45" t="n">
-        <v>3060.0</v>
+      <c r="R63" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S63" s="45" t="s">
+        <v>28</v>
       </c>
       <c r="T63" s="0" t="n">
         <v>0.0</v>
@@ -29957,10 +30032,10 @@
         <v>0.0</v>
       </c>
       <c r="V63" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W63" s="0" t="n">
-        <v>4.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="64" spans="2:23" x14ac:dyDescent="0.25">
@@ -29971,46 +30046,46 @@
         <v>163</v>
       </c>
       <c r="D64" t="s" s="0">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E64" t="s" s="0">
-        <v>114</v>
+        <v>163</v>
       </c>
       <c r="F64" t="s" s="0">
-        <v>183</v>
+        <v>187</v>
       </c>
       <c r="G64" t="s" s="0">
         <v>184</v>
       </c>
       <c r="H64" t="s" s="0">
-        <v>185</v>
+        <v>188</v>
       </c>
       <c r="I64" s="0" t="n">
-        <v>142857.0</v>
-      </c>
-      <c r="J64" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K64" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L64" s="0" t="n">
-        <v>0.0</v>
+        <v>285714.0</v>
+      </c>
+      <c r="J64" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K64" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="L64" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="M64" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N64" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="O64" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P64" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q64" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="R64" s="0" t="n">
         <v>5527.0</v>
@@ -30022,7 +30097,7 @@
         <v>0.0</v>
       </c>
       <c r="U64" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V64" s="0" t="n">
         <v>1.0</v>
@@ -30039,46 +30114,46 @@
         <v>163</v>
       </c>
       <c r="D65" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E65" t="s" s="0">
-        <v>116</v>
+        <v>104</v>
       </c>
       <c r="F65" t="s" s="0">
-        <v>183</v>
+        <v>162</v>
       </c>
       <c r="G65" t="s" s="0">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="H65" t="s" s="0">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="I65" s="0" t="n">
-        <v>142857.0</v>
-      </c>
-      <c r="J65" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K65" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L65" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J65" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K65" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="L65" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="M65" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N65" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="O65" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P65" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q65" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="R65" s="0" t="n">
         <v>5527.0</v>
@@ -30093,10 +30168,10 @@
         <v>0.0</v>
       </c>
       <c r="V65" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W65" s="0" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="66" spans="2:23" x14ac:dyDescent="0.25">
@@ -30104,64 +30179,64 @@
         <v>204</v>
       </c>
       <c r="C66" t="s" s="0">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D66" t="s" s="0">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="E66" t="s" s="0">
-        <v>167</v>
+        <v>105</v>
       </c>
       <c r="F66" t="s" s="0">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G66" t="s" s="0">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="H66" t="s" s="0">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="I66" s="0" t="n">
-        <v>315488.0</v>
-      </c>
-      <c r="J66" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K66" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L66" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J66" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K66" s="0" t="s">
+        <v>250</v>
+      </c>
+      <c r="L66" s="0" t="s">
+        <v>250</v>
       </c>
       <c r="M66" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N66" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="O66" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P66" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q66" s="0" t="n">
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="R66" s="0" t="n">
-        <v>5034.0</v>
+        <v>5527.0</v>
       </c>
       <c r="S66" s="45" t="n">
-        <v>2368.0</v>
+        <v>3060.0</v>
       </c>
       <c r="T66" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U66" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V66" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W66" s="0" t="n">
         <v>1.0</v>
@@ -30172,25 +30247,25 @@
         <v>204</v>
       </c>
       <c r="C67" t="s" s="0">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D67" t="s" s="0">
         <v>104</v>
       </c>
       <c r="E67" t="s" s="0">
-        <v>104</v>
+        <v>238</v>
       </c>
       <c r="F67" t="s" s="0">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G67" t="s" s="0">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="H67" t="s" s="0">
-        <v>258</v>
+        <v>162</v>
       </c>
       <c r="I67" s="0" t="n">
-        <v>315488.0</v>
+        <v>0.0</v>
       </c>
       <c r="J67" s="0" t="n">
         <v>0.0</v>
@@ -30217,10 +30292,10 @@
         <v>0.0</v>
       </c>
       <c r="R67" s="0" t="n">
-        <v>5034.0</v>
+        <v>5527.0</v>
       </c>
       <c r="S67" s="45" t="n">
-        <v>2368.0</v>
+        <v>3060.0</v>
       </c>
       <c r="T67" s="0" t="n">
         <v>0.0</v>
@@ -30229,7 +30304,7 @@
         <v>0.0</v>
       </c>
       <c r="V67" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W67" s="0" t="n">
         <v>1.0</v>
@@ -30240,25 +30315,25 @@
         <v>204</v>
       </c>
       <c r="C68" t="s" s="0">
-        <v>167</v>
+        <v>163</v>
       </c>
       <c r="D68" t="s" s="0">
-        <v>104</v>
+        <v>112</v>
       </c>
       <c r="E68" t="s" s="0">
-        <v>106</v>
+        <v>112</v>
       </c>
       <c r="F68" t="s" s="0">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="G68" t="s" s="0">
-        <v>257</v>
+        <v>162</v>
       </c>
       <c r="H68" t="s" s="0">
-        <v>258</v>
+        <v>186</v>
       </c>
       <c r="I68" s="0" t="n">
-        <v>315488.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J68" s="0" t="n">
         <v>0.0</v>
@@ -30285,10 +30360,10 @@
         <v>0.0</v>
       </c>
       <c r="R68" s="0" t="n">
-        <v>5034.0</v>
+        <v>5527.0</v>
       </c>
       <c r="S68" s="45" t="n">
-        <v>2368.0</v>
+        <v>3060.0</v>
       </c>
       <c r="T68" s="0" t="n">
         <v>0.0</v>
@@ -30297,10 +30372,10 @@
         <v>0.0</v>
       </c>
       <c r="V68" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W68" s="0" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="69" spans="2:23" x14ac:dyDescent="0.25">
@@ -30308,22 +30383,22 @@
         <v>204</v>
       </c>
       <c r="C69" t="s" s="0">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D69" t="s" s="0">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E69" t="s" s="0">
-        <v>168</v>
+        <v>114</v>
       </c>
       <c r="F69" t="s" s="0">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="G69" t="s" s="0">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="H69" t="s" s="0">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="I69" s="0" t="n">
         <v>142857.0</v>
@@ -30352,17 +30427,17 @@
       <c r="Q69" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R69" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S69" s="45" t="s">
-        <v>28</v>
+      <c r="R69" t="n" s="0">
+        <v>5527.0</v>
+      </c>
+      <c r="S69" s="45" t="n">
+        <v>3060.0</v>
       </c>
       <c r="T69" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U69" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V69" s="0" t="n">
         <v>1.0</v>
@@ -30376,22 +30451,22 @@
         <v>204</v>
       </c>
       <c r="C70" t="s" s="0">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="D70" t="s" s="0">
         <v>114</v>
       </c>
       <c r="E70" t="s" s="0">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="F70" t="s" s="0">
-        <v>162</v>
+        <v>183</v>
       </c>
       <c r="G70" t="s" s="0">
-        <v>162</v>
+        <v>184</v>
       </c>
       <c r="H70" t="s" s="0">
-        <v>162</v>
+        <v>185</v>
       </c>
       <c r="I70" s="0" t="n">
         <v>142857.0</v>
@@ -30420,11 +30495,11 @@
       <c r="Q70" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R70" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S70" s="45" t="s">
-        <v>28</v>
+      <c r="R70" t="n" s="0">
+        <v>5527.0</v>
+      </c>
+      <c r="S70" s="45" t="n">
+        <v>3060.0</v>
       </c>
       <c r="T70" s="0" t="n">
         <v>0.0</v>
@@ -30433,7 +30508,7 @@
         <v>0.0</v>
       </c>
       <c r="V70" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W70" s="0" t="n">
         <v>6.0</v>
@@ -30444,13 +30519,13 @@
         <v>204</v>
       </c>
       <c r="C71" t="s" s="0">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D71" t="s" s="0">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E71" t="s" s="0">
-        <v>116</v>
+        <v>167</v>
       </c>
       <c r="F71" t="s" s="0">
         <v>162</v>
@@ -30462,49 +30537,49 @@
         <v>162</v>
       </c>
       <c r="I71" s="0" t="n">
-        <v>142857.0</v>
-      </c>
-      <c r="J71" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K71" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L71" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J71" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K71" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="L71" s="0" t="s">
+        <v>384</v>
       </c>
       <c r="M71" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N71" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O71" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P71" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q71" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R71" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S71" s="45" t="s">
-        <v>28</v>
+        <v>2600.0</v>
+      </c>
+      <c r="R71" t="n" s="0">
+        <v>5034.0</v>
+      </c>
+      <c r="S71" s="45" t="n">
+        <v>2368.0</v>
       </c>
       <c r="T71" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U71" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V71" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W71" s="0" t="n">
-        <v>6.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="72" spans="2:23" x14ac:dyDescent="0.25">
@@ -30512,67 +30587,67 @@
         <v>204</v>
       </c>
       <c r="C72" t="s" s="0">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D72" t="s" s="0">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="E72" t="s" s="0">
-        <v>170</v>
+        <v>104</v>
       </c>
       <c r="F72" t="s" s="0">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G72" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H72" t="s" s="0">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="I72" s="0" t="n">
-        <v>142857.0</v>
-      </c>
-      <c r="J72" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K72" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L72" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J72" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K72" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="L72" s="0" t="s">
+        <v>384</v>
       </c>
       <c r="M72" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N72" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O72" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P72" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q72" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R72" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S72" s="45" t="s">
-        <v>28</v>
+        <v>2600.0</v>
+      </c>
+      <c r="R72" t="n" s="0">
+        <v>5034.0</v>
+      </c>
+      <c r="S72" s="45" t="n">
+        <v>2368.0</v>
       </c>
       <c r="T72" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U72" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V72" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="W72" s="0" t="n">
-        <v>4.0</v>
+        <v>1.0</v>
       </c>
     </row>
     <row r="73" spans="2:23" x14ac:dyDescent="0.25">
@@ -30580,25 +30655,25 @@
         <v>204</v>
       </c>
       <c r="C73" t="s" s="0">
-        <v>170</v>
+        <v>167</v>
       </c>
       <c r="D73" t="s" s="0">
-        <v>112</v>
+        <v>104</v>
       </c>
       <c r="E73" t="s" s="0">
-        <v>112</v>
+        <v>105</v>
       </c>
       <c r="F73" t="s" s="0">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="G73" t="s" s="0">
         <v>162</v>
       </c>
       <c r="H73" t="s" s="0">
-        <v>209</v>
+        <v>162</v>
       </c>
       <c r="I73" s="0" t="n">
-        <v>142857.0</v>
+        <v>0.0</v>
       </c>
       <c r="J73" s="0" t="n">
         <v>0.0</v>
@@ -30624,11 +30699,11 @@
       <c r="Q73" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R73" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S73" s="45" t="s">
-        <v>28</v>
+      <c r="R73" t="n" s="0">
+        <v>5034.0</v>
+      </c>
+      <c r="S73" s="45" t="n">
+        <v>2368.0</v>
       </c>
       <c r="T73" s="0" t="n">
         <v>0.0</v>
@@ -30637,10 +30712,10 @@
         <v>0.0</v>
       </c>
       <c r="V73" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W73" s="0" t="n">
         <v>1.0</v>
-      </c>
-      <c r="W73" s="0" t="n">
-        <v>4.0</v>
       </c>
     </row>
     <row r="74" spans="2:23" x14ac:dyDescent="0.25">
@@ -30648,13 +30723,13 @@
         <v>204</v>
       </c>
       <c r="C74" t="s" s="0">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D74" t="s" s="0">
-        <v>28</v>
+        <v>104</v>
       </c>
       <c r="E74" t="s" s="0">
-        <v>172</v>
+        <v>106</v>
       </c>
       <c r="F74" t="s" s="0">
         <v>162</v>
@@ -30666,7 +30741,7 @@
         <v>162</v>
       </c>
       <c r="I74" s="0" t="n">
-        <v>10100.0</v>
+        <v>0.0</v>
       </c>
       <c r="J74" s="0" t="n">
         <v>0.0</v>
@@ -30692,23 +30767,23 @@
       <c r="Q74" s="0" t="n">
         <v>0.0</v>
       </c>
-      <c r="R74" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S74" s="45" t="s">
-        <v>28</v>
+      <c r="R74" t="n" s="0">
+        <v>5034.0</v>
+      </c>
+      <c r="S74" s="45" t="n">
+        <v>2368.0</v>
       </c>
       <c r="T74" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="U74" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V74" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W74" s="0" t="n">
         <v>1.0</v>
-      </c>
-      <c r="V74" s="0" t="n">
-        <v>1.0</v>
-      </c>
-      <c r="W74" s="0" t="n">
-        <v>6.0</v>
       </c>
     </row>
     <row r="75" spans="2:23" x14ac:dyDescent="0.25">
@@ -30716,13 +30791,13 @@
         <v>204</v>
       </c>
       <c r="C75" t="s" s="0">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="D75" t="s" s="0">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="E75" t="s" s="0">
-        <v>114</v>
+        <v>238</v>
       </c>
       <c r="F75" t="s" s="0">
         <v>162</v>
@@ -30734,37 +30809,37 @@
         <v>162</v>
       </c>
       <c r="I75" s="0" t="n">
-        <v>10100.0</v>
-      </c>
-      <c r="J75" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="K75" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="L75" s="0" t="n">
-        <v>0.0</v>
+        <v>0.0</v>
+      </c>
+      <c r="J75" s="0" t="s">
+        <v>162</v>
+      </c>
+      <c r="K75" s="0" t="s">
+        <v>384</v>
+      </c>
+      <c r="L75" s="0" t="s">
+        <v>384</v>
       </c>
       <c r="M75" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="N75" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="O75" s="0" t="n">
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P75" s="0" t="n">
         <v>0.0</v>
       </c>
       <c r="Q75" s="0" t="n">
-        <v>0.0</v>
-      </c>
-      <c r="R75" t="s" s="0">
-        <v>28</v>
-      </c>
-      <c r="S75" s="45" t="s">
-        <v>28</v>
+        <v>2600.0</v>
+      </c>
+      <c r="R75" t="n" s="0">
+        <v>5034.0</v>
+      </c>
+      <c r="S75" s="45" t="n">
+        <v>2368.0</v>
       </c>
       <c r="T75" s="0" t="n">
         <v>0.0</v>
@@ -30773,10 +30848,10 @@
         <v>0.0</v>
       </c>
       <c r="V75" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W75" s="0" t="n">
         <v>1.0</v>
-      </c>
-      <c r="W75" s="0" t="n">
-        <v>6.0</v>
       </c>
     </row>
     <row r="76" spans="2:23" s="74" customFormat="1" x14ac:dyDescent="0.25">
@@ -30784,13 +30859,13 @@
         <v>204</v>
       </c>
       <c r="C76" s="74" t="s">
-        <v>172</v>
+        <v>168</v>
       </c>
       <c r="D76" s="74" t="s">
-        <v>114</v>
+        <v>28</v>
       </c>
       <c r="E76" s="74" t="s">
-        <v>115</v>
+        <v>168</v>
       </c>
       <c r="F76" s="74" t="s">
         <v>162</v>
@@ -30802,7 +30877,7 @@
         <v>162</v>
       </c>
       <c r="I76" s="74" t="n">
-        <v>10100.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J76" s="74" t="n">
         <v>0.0</v>
@@ -30838,10 +30913,10 @@
         <v>0.0</v>
       </c>
       <c r="U76" s="74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V76" s="74" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W76" s="74" t="n">
         <v>6.0</v>
@@ -30852,25 +30927,25 @@
         <v>204</v>
       </c>
       <c r="C77" t="s" s="0">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D77" t="s" s="0">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E77" t="s" s="0">
-        <v>174</v>
+        <v>114</v>
       </c>
       <c r="F77" t="s" s="0">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="G77" t="s" s="0">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="H77" t="s" s="0">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="I77" s="0" t="n">
-        <v>665858.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J77" s="0" t="n">
         <v>0.0</v>
@@ -30906,13 +30981,13 @@
         <v>0.0</v>
       </c>
       <c r="U77" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="V77" s="0" t="n">
         <v>1.0</v>
       </c>
       <c r="W77" s="0" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="78" spans="2:23" x14ac:dyDescent="0.25">
@@ -30920,25 +30995,25 @@
         <v>204</v>
       </c>
       <c r="C78" t="s" s="0">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="D78" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E78" t="s" s="0">
-        <v>104</v>
+        <v>116</v>
       </c>
       <c r="F78" t="s" s="0">
-        <v>215</v>
+        <v>162</v>
       </c>
       <c r="G78" t="s" s="0">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="H78" t="s" s="0">
-        <v>240</v>
+        <v>162</v>
       </c>
       <c r="I78" s="0" t="n">
-        <v>665858.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J78" s="0" t="n">
         <v>0.0</v>
@@ -30977,10 +31052,10 @@
         <v>0.0</v>
       </c>
       <c r="V78" s="0" t="n">
-        <v>1.0</v>
+        <v>0.0</v>
       </c>
       <c r="W78" s="0" t="n">
-        <v>1.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="79" spans="2:23" x14ac:dyDescent="0.25">
@@ -30988,25 +31063,25 @@
         <v>204</v>
       </c>
       <c r="C79" t="s" s="0">
-        <v>174</v>
+        <v>170</v>
       </c>
       <c r="D79" t="s" s="0">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="E79" t="s" s="0">
-        <v>238</v>
+        <v>170</v>
       </c>
       <c r="F79" t="s" s="0">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="G79" t="s" s="0">
-        <v>239</v>
+        <v>162</v>
       </c>
       <c r="H79" t="s" s="0">
-        <v>240</v>
+        <v>209</v>
       </c>
       <c r="I79" s="0" t="n">
-        <v>665858.0</v>
+        <v>142857.0</v>
       </c>
       <c r="J79" s="0" t="n">
         <v>0.0</v>
@@ -31042,95 +31117,95 @@
         <v>0.0</v>
       </c>
       <c r="U79" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="V79" s="0" t="n">
-        <v>0.0</v>
+        <v>1.0</v>
       </c>
       <c r="W79" s="0" t="n">
-        <v>1.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="80" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B80" t="s" s="0">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C80" t="s" s="0">
-        <v>190</v>
+        <v>170</v>
       </c>
       <c r="D80" t="s" s="0">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E80" t="s" s="0">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="F80" t="s" s="0">
-        <v>183</v>
+        <v>209</v>
       </c>
       <c r="G80" t="s" s="0">
-        <v>184</v>
+        <v>162</v>
       </c>
       <c r="H80" t="s" s="0">
-        <v>185</v>
-      </c>
-      <c r="I80" s="0">
-        <v>142857</v>
-      </c>
-      <c r="J80" s="0">
-        <v>0</v>
-      </c>
-      <c r="K80" s="0">
-        <v>0</v>
-      </c>
-      <c r="L80" s="0">
-        <v>0</v>
-      </c>
-      <c r="M80" s="0">
-        <v>0</v>
-      </c>
-      <c r="N80" s="0">
-        <v>0</v>
-      </c>
-      <c r="O80" s="0">
-        <v>0</v>
-      </c>
-      <c r="P80" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q80" s="0">
-        <v>0</v>
-      </c>
-      <c r="R80" s="0">
-        <v>5034</v>
-      </c>
-      <c r="S80" s="45">
-        <v>2368</v>
-      </c>
-      <c r="T80" s="0">
-        <v>0</v>
-      </c>
-      <c r="U80" s="0">
-        <v>0</v>
-      </c>
-      <c r="V80" s="0">
-        <v>0</v>
-      </c>
-      <c r="W80" s="0">
-        <v>6</v>
+        <v>209</v>
+      </c>
+      <c r="I80" s="0" t="n">
+        <v>142857.0</v>
+      </c>
+      <c r="J80" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K80" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L80" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M80" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N80" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O80" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P80" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q80" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R80" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S80" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="T80" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U80" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V80" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W80" s="0" t="n">
+        <v>4.0</v>
       </c>
     </row>
     <row r="81" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B81" t="s" s="0">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C81" t="s" s="0">
-        <v>190</v>
+        <v>172</v>
       </c>
       <c r="D81" t="s" s="0">
-        <v>21</v>
+        <v>28</v>
       </c>
       <c r="E81" t="s" s="0">
-        <v>21</v>
+        <v>172</v>
       </c>
       <c r="F81" t="s" s="0">
         <v>162</v>
@@ -31141,100 +31216,100 @@
       <c r="H81" t="s" s="0">
         <v>162</v>
       </c>
-      <c r="I81" s="0">
-        <v>142857</v>
-      </c>
-      <c r="J81" s="0">
-        <v>0</v>
-      </c>
-      <c r="K81" s="0">
-        <v>0</v>
-      </c>
-      <c r="L81" s="0">
-        <v>0</v>
-      </c>
-      <c r="M81" s="0">
-        <v>0</v>
-      </c>
-      <c r="N81" s="0">
-        <v>0</v>
-      </c>
-      <c r="O81" s="0">
-        <v>0</v>
-      </c>
-      <c r="P81" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q81" s="0">
-        <v>0</v>
-      </c>
-      <c r="R81" s="0">
-        <v>5034</v>
-      </c>
-      <c r="S81" s="45">
-        <v>2368</v>
-      </c>
-      <c r="T81" s="0">
-        <v>0</v>
-      </c>
-      <c r="U81" s="0">
-        <v>0</v>
-      </c>
-      <c r="V81" s="0">
-        <v>1</v>
-      </c>
-      <c r="W81" s="0">
-        <v>7</v>
+      <c r="I81" s="0" t="n">
+        <v>10100.0</v>
+      </c>
+      <c r="J81" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K81" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L81" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M81" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N81" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O81" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P81" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q81" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="R81" s="0" t="s">
+        <v>28</v>
+      </c>
+      <c r="S81" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="T81" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U81" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V81" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W81" s="0" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="82" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B82" t="s" s="0">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C82" t="s" s="0">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D82" t="s" s="0">
-        <v>28</v>
+        <v>114</v>
       </c>
       <c r="E82" t="s" s="0">
-        <v>192</v>
+        <v>114</v>
       </c>
       <c r="F82" t="s" s="0">
-        <v>241</v>
+        <v>162</v>
       </c>
       <c r="G82" t="s" s="0">
-        <v>242</v>
+        <v>162</v>
       </c>
       <c r="H82" t="s" s="0">
-        <v>243</v>
-      </c>
-      <c r="I82" s="0">
-        <v>4424353</v>
-      </c>
-      <c r="J82" s="0">
-        <v>0</v>
-      </c>
-      <c r="K82" s="0">
-        <v>0</v>
-      </c>
-      <c r="L82" s="0">
-        <v>0</v>
-      </c>
-      <c r="M82" s="0">
-        <v>0</v>
-      </c>
-      <c r="N82" s="0">
-        <v>0</v>
-      </c>
-      <c r="O82" s="0">
-        <v>0</v>
-      </c>
-      <c r="P82" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q82" s="0">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="I82" s="0" t="n">
+        <v>10100.0</v>
+      </c>
+      <c r="J82" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K82" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L82" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M82" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N82" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O82" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P82" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q82" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="R82" t="s" s="0">
         <v>28</v>
@@ -31242,67 +31317,67 @@
       <c r="S82" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="T82" s="0">
-        <v>0</v>
-      </c>
-      <c r="U82" s="0">
-        <v>1</v>
-      </c>
-      <c r="V82" s="0">
-        <v>1</v>
-      </c>
-      <c r="W82" s="0">
-        <v>6</v>
+      <c r="T82" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U82" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V82" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W82" s="0" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="83" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B83" t="s" s="0">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C83" t="s" s="0">
-        <v>192</v>
+        <v>172</v>
       </c>
       <c r="D83" t="s" s="0">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="E83" t="s" s="0">
-        <v>104</v>
+        <v>115</v>
       </c>
       <c r="F83" t="s" s="0">
-        <v>244</v>
+        <v>162</v>
       </c>
       <c r="G83" t="s" s="0">
-        <v>245</v>
+        <v>162</v>
       </c>
       <c r="H83" t="s" s="0">
-        <v>246</v>
-      </c>
-      <c r="I83" s="0">
-        <v>1258811</v>
-      </c>
-      <c r="J83" s="0">
-        <v>0</v>
-      </c>
-      <c r="K83" s="0">
-        <v>0</v>
-      </c>
-      <c r="L83" s="0">
-        <v>0</v>
-      </c>
-      <c r="M83" s="0">
-        <v>0</v>
-      </c>
-      <c r="N83" s="0">
-        <v>0</v>
-      </c>
-      <c r="O83" s="0">
-        <v>0</v>
-      </c>
-      <c r="P83" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q83" s="0">
-        <v>0</v>
+        <v>162</v>
+      </c>
+      <c r="I83" s="0" t="n">
+        <v>10100.0</v>
+      </c>
+      <c r="J83" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K83" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L83" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M83" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N83" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O83" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P83" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q83" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="R83" t="s" s="0">
         <v>28</v>
@@ -31310,31 +31385,31 @@
       <c r="S83" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="T83" s="0">
-        <v>0</v>
-      </c>
-      <c r="U83" s="0">
-        <v>0</v>
-      </c>
-      <c r="V83" s="0">
-        <v>1</v>
-      </c>
-      <c r="W83" s="0">
-        <v>1</v>
+      <c r="T83" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U83" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V83" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W83" s="0" t="n">
+        <v>6.0</v>
       </c>
     </row>
     <row r="84" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B84" t="s" s="0">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C84" t="s" s="0">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D84" t="s" s="0">
-        <v>104</v>
+        <v>28</v>
       </c>
       <c r="E84" t="s" s="0">
-        <v>238</v>
+        <v>174</v>
       </c>
       <c r="F84" t="s" s="0">
         <v>215</v>
@@ -31345,32 +31420,32 @@
       <c r="H84" t="s" s="0">
         <v>240</v>
       </c>
-      <c r="I84" s="0">
-        <v>665858</v>
-      </c>
-      <c r="J84" s="0">
-        <v>0</v>
-      </c>
-      <c r="K84" s="0">
-        <v>0</v>
-      </c>
-      <c r="L84" s="0">
-        <v>0</v>
-      </c>
-      <c r="M84" s="0">
-        <v>0</v>
-      </c>
-      <c r="N84" s="0">
-        <v>0</v>
-      </c>
-      <c r="O84" s="0">
-        <v>0</v>
-      </c>
-      <c r="P84" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q84" s="0">
-        <v>0</v>
+      <c r="I84" s="0" t="n">
+        <v>665858.0</v>
+      </c>
+      <c r="J84" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K84" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L84" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M84" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N84" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O84" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P84" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q84" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="R84" t="s" s="0">
         <v>28</v>
@@ -31378,67 +31453,67 @@
       <c r="S84" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="T84" s="0">
-        <v>0</v>
-      </c>
-      <c r="U84" s="0">
-        <v>0</v>
-      </c>
-      <c r="V84" s="0">
-        <v>0</v>
-      </c>
-      <c r="W84" s="0">
-        <v>1</v>
+      <c r="T84" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U84" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="V84" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W84" s="0" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="85" spans="2:23" x14ac:dyDescent="0.25">
       <c r="B85" t="s" s="0">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C85" t="s" s="0">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D85" t="s" s="0">
         <v>104</v>
       </c>
       <c r="E85" t="s" s="0">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="F85" t="s" s="0">
-        <v>193</v>
+        <v>215</v>
       </c>
       <c r="G85" t="s" s="0">
-        <v>194</v>
+        <v>239</v>
       </c>
       <c r="H85" t="s" s="0">
-        <v>195</v>
-      </c>
-      <c r="I85" s="0">
-        <v>592953</v>
-      </c>
-      <c r="J85" s="0">
-        <v>0</v>
-      </c>
-      <c r="K85" s="0">
-        <v>0</v>
-      </c>
-      <c r="L85" s="0">
-        <v>0</v>
-      </c>
-      <c r="M85" s="0">
-        <v>0</v>
-      </c>
-      <c r="N85" s="0">
-        <v>0</v>
-      </c>
-      <c r="O85" s="0">
-        <v>0</v>
-      </c>
-      <c r="P85" s="0">
-        <v>0</v>
-      </c>
-      <c r="Q85" s="0">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="I85" s="0" t="n">
+        <v>665858.0</v>
+      </c>
+      <c r="J85" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K85" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L85" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M85" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N85" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O85" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P85" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q85" s="0" t="n">
+        <v>0.0</v>
       </c>
       <c r="R85" t="s" s="0">
         <v>28</v>
@@ -31446,67 +31521,67 @@
       <c r="S85" s="45" t="s">
         <v>28</v>
       </c>
-      <c r="T85" s="0">
-        <v>0</v>
-      </c>
-      <c r="U85" s="0">
-        <v>0</v>
-      </c>
-      <c r="V85" s="0">
-        <v>0</v>
-      </c>
-      <c r="W85" s="0">
-        <v>1</v>
+      <c r="T85" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U85" s="0" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V85" s="0" t="n">
+        <v>1.0</v>
+      </c>
+      <c r="W85" s="0" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="86" spans="2:23" s="74" customFormat="1" x14ac:dyDescent="0.25">
       <c r="B86" s="74" t="s">
-        <v>180</v>
+        <v>204</v>
       </c>
       <c r="C86" s="74" t="s">
-        <v>192</v>
+        <v>174</v>
       </c>
       <c r="D86" s="74" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="E86" s="74" t="s">
-        <v>107</v>
+        <v>238</v>
       </c>
       <c r="F86" s="74" t="s">
-        <v>196</v>
+        <v>215</v>
       </c>
       <c r="G86" s="74" t="s">
-        <v>247</v>
+        <v>239</v>
       </c>
       <c r="H86" s="74" t="s">
-        <v>248</v>
-      </c>
-      <c r="I86" s="74">
-        <v>846558</v>
-      </c>
-      <c r="J86" s="74">
-        <v>0</v>
-      </c>
-      <c r="K86" s="74">
-        <v>0</v>
-      </c>
-      <c r="L86" s="74">
-        <v>0</v>
-      </c>
-      <c r="M86" s="74">
-        <v>0</v>
-      </c>
-      <c r="N86" s="74">
-        <v>0</v>
-      </c>
-      <c r="O86" s="74">
-        <v>0</v>
-      </c>
-      <c r="P86" s="74">
-        <v>0</v>
-      </c>
-      <c r="Q86" s="74">
-        <v>0</v>
+        <v>240</v>
+      </c>
+      <c r="I86" s="74" t="n">
+        <v>665858.0</v>
+      </c>
+      <c r="J86" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="K86" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="L86" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="M86" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="N86" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="O86" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="P86" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="Q86" s="74" t="n">
+        <v>0.0</v>
       </c>
       <c r="R86" s="74" t="s">
         <v>28</v>
@@ -31514,17 +31589,17 @@
       <c r="S86" s="75" t="s">
         <v>28</v>
       </c>
-      <c r="T86" s="74">
-        <v>0</v>
-      </c>
-      <c r="U86" s="74">
-        <v>0</v>
-      </c>
-      <c r="V86" s="74">
-        <v>1</v>
-      </c>
-      <c r="W86" s="74">
-        <v>2</v>
+      <c r="T86" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="U86" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="V86" s="74" t="n">
+        <v>0.0</v>
+      </c>
+      <c r="W86" s="74" t="n">
+        <v>1.0</v>
       </c>
     </row>
     <row r="87" spans="2:23" x14ac:dyDescent="0.25">
@@ -38618,19 +38693,19 @@
       </c>
       <c r="D8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F9/(24*60*60),"[h]:mm")</f>
-        <v>947:00</v>
+        <v>725:00</v>
       </c>
       <c r="E8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G9/(24*60*60),"[h]:mm")</f>
-        <v>358:00</v>
+        <v>34:00</v>
       </c>
       <c r="F8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H9/(24*60*60),"[h]:mm")</f>
-        <v>1305:00</v>
+        <v>759:00</v>
       </c>
       <c r="G8" s="20" t="n">
         <f>bc_ttnl_theo_kh!I9</f>
-        <v>1562874.0</v>
+        <v>1247386.0</v>
       </c>
       <c r="H8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J9/(24*60*60),"[h]:mm")</f>
@@ -38638,11 +38713,11 @@
       </c>
       <c r="I8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K9/(24*60*60),"[h]:mm")</f>
-        <v>0:12</v>
+        <v>0:54</v>
       </c>
       <c r="J8" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L9/(24*60*60),"[h]:mm")</f>
-        <v>0:12</v>
+        <v>0:54</v>
       </c>
       <c r="K8" s="20" t="n">
         <f>bc_ttnl_theo_kh!M9</f>
@@ -38650,11 +38725,11 @@
       </c>
       <c r="L8" s="20" t="n">
         <f>bc_ttnl_theo_kh!N9</f>
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="M8" s="20" t="n">
         <f>bc_ttnl_theo_kh!O9</f>
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="N8" s="20" t="n">
         <f>bc_ttnl_theo_kh!P9</f>
@@ -38662,7 +38737,7 @@
       </c>
       <c r="O8" s="20" t="n">
         <f>bc_ttnl_theo_kh!Q9</f>
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="P8" s="16"/>
       <c r="Q8" s="16"/>
@@ -38709,11 +38784,11 @@
       </c>
       <c r="I9" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K10/(24*60*60),"[h]:mm")</f>
-        <v>0:12</v>
+        <v>0:22</v>
       </c>
       <c r="J9" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L10/(24*60*60),"[h]:mm")</f>
-        <v>0:12</v>
+        <v>0:22</v>
       </c>
       <c r="K9" s="21" t="n">
         <f>bc_ttnl_theo_kh!M10</f>
@@ -38721,11 +38796,11 @@
       </c>
       <c r="L9" s="21" t="n">
         <f>bc_ttnl_theo_kh!N10</f>
-        <v>1105.0</v>
+        <v>3131.0</v>
       </c>
       <c r="M9" s="21" t="n">
         <f>bc_ttnl_theo_kh!O10</f>
-        <v>1105.0</v>
+        <v>3131.0</v>
       </c>
       <c r="N9" s="21" t="n">
         <f>bc_ttnl_theo_kh!P10</f>
@@ -38733,7 +38808,7 @@
       </c>
       <c r="O9" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q10</f>
-        <v>1105.0</v>
+        <v>3131.0</v>
       </c>
       <c r="P9" s="18"/>
       <c r="Q9" s="18"/>
@@ -38760,19 +38835,19 @@
       </c>
       <c r="D10" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F11/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>0:00</v>
       </c>
       <c r="E10" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G11/(24*60*60),"[h]:mm")</f>
-        <v>324:00</v>
+        <v>0:00</v>
       </c>
       <c r="F10" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H11/(24*60*60),"[h]:mm")</f>
-        <v>546:00</v>
+        <v>0:00</v>
       </c>
       <c r="G10" s="21" t="n">
         <f>bc_ttnl_theo_kh!I11</f>
-        <v>315488.0</v>
+        <v>0.0</v>
       </c>
       <c r="H10" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J11/(24*60*60),"[h]:mm")</f>
@@ -38780,11 +38855,11 @@
       </c>
       <c r="I10" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K11/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="J10" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L11/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="K10" s="21" t="n">
         <f>bc_ttnl_theo_kh!M11</f>
@@ -38792,11 +38867,11 @@
       </c>
       <c r="L10" s="21" t="n">
         <f>bc_ttnl_theo_kh!N11</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="M10" s="21" t="n">
         <f>bc_ttnl_theo_kh!O11</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="N10" s="21" t="n">
         <f>bc_ttnl_theo_kh!P11</f>
@@ -38804,7 +38879,7 @@
       </c>
       <c r="O10" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q11</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P10" s="18"/>
       <c r="Q10" s="18"/>
@@ -39114,19 +39189,19 @@
       </c>
       <c r="D15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F16/(24*60*60),"[h]:mm")</f>
-        <v>947:00</v>
+        <v>725:00</v>
       </c>
       <c r="E15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G16/(24*60*60),"[h]:mm")</f>
-        <v>358:00</v>
+        <v>34:00</v>
       </c>
       <c r="F15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H16/(24*60*60),"[h]:mm")</f>
-        <v>1305:00</v>
+        <v>759:00</v>
       </c>
       <c r="G15" s="21" t="n">
         <f>bc_ttnl_theo_kh!I16</f>
-        <v>1572012.0</v>
+        <v>1256524.0</v>
       </c>
       <c r="H15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J16/(24*60*60),"[h]:mm")</f>
@@ -39134,11 +39209,11 @@
       </c>
       <c r="I15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K16/(24*60*60),"[h]:mm")</f>
-        <v>0:12</v>
+        <v>1:06</v>
       </c>
       <c r="J15" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L16/(24*60*60),"[h]:mm")</f>
-        <v>0:12</v>
+        <v>1:06</v>
       </c>
       <c r="K15" s="21" t="n">
         <f>bc_ttnl_theo_kh!M16</f>
@@ -39146,11 +39221,11 @@
       </c>
       <c r="L15" s="21" t="n">
         <f>bc_ttnl_theo_kh!N16</f>
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="M15" s="21" t="n">
         <f>bc_ttnl_theo_kh!O16</f>
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="N15" s="21" t="n">
         <f>bc_ttnl_theo_kh!P16</f>
@@ -39158,7 +39233,7 @@
       </c>
       <c r="O15" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q16</f>
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="P15" s="21"/>
       <c r="Q15" s="16"/>
@@ -39184,19 +39259,19 @@
       </c>
       <c r="D16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F17/(24*60*60),"[h]:mm")</f>
-        <v>234:00</v>
+        <v>12:00</v>
       </c>
       <c r="E16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G17/(24*60*60),"[h]:mm")</f>
-        <v>347:00</v>
+        <v>23:00</v>
       </c>
       <c r="F16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H17/(24*60*60),"[h]:mm")</f>
-        <v>581:00</v>
+        <v>35:00</v>
       </c>
       <c r="G16" s="21" t="n">
         <f>bc_ttnl_theo_kh!I17</f>
-        <v>981346.0</v>
+        <v>665858.0</v>
       </c>
       <c r="H16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J17/(24*60*60),"[h]:mm")</f>
@@ -39204,11 +39279,11 @@
       </c>
       <c r="I16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K17/(24*60*60),"[h]:mm")</f>
-        <v>0:12</v>
+        <v>1:06</v>
       </c>
       <c r="J16" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L17/(24*60*60),"[h]:mm")</f>
-        <v>0:12</v>
+        <v>1:06</v>
       </c>
       <c r="K16" s="21" t="n">
         <f>bc_ttnl_theo_kh!M17</f>
@@ -39216,11 +39291,11 @@
       </c>
       <c r="L16" s="21" t="n">
         <f>bc_ttnl_theo_kh!N17</f>
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="M16" s="21" t="n">
         <f>bc_ttnl_theo_kh!O17</f>
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="N16" s="21" t="n">
         <f>bc_ttnl_theo_kh!P17</f>
@@ -39228,7 +39303,7 @@
       </c>
       <c r="O16" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q17</f>
-        <v>1105.0</v>
+        <v>5731.0</v>
       </c>
       <c r="P16" s="21"/>
       <c r="Q16" s="18"/>
@@ -39254,19 +39329,19 @@
       </c>
       <c r="D17" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F18/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>0:00</v>
       </c>
       <c r="E17" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G18/(24*60*60),"[h]:mm")</f>
-        <v>324:00</v>
+        <v>0:00</v>
       </c>
       <c r="F17" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H18/(24*60*60),"[h]:mm")</f>
-        <v>546:00</v>
+        <v>0:00</v>
       </c>
       <c r="G17" s="21" t="n">
         <f>bc_ttnl_theo_kh!I18</f>
-        <v>315488.0</v>
+        <v>0.0</v>
       </c>
       <c r="H17" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J18/(24*60*60),"[h]:mm")</f>
@@ -39344,11 +39419,11 @@
       </c>
       <c r="I18" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K19/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="J18" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L19/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="K18" s="21" t="n">
         <f>bc_ttnl_theo_kh!M19</f>
@@ -39356,11 +39431,11 @@
       </c>
       <c r="L18" s="21" t="n">
         <f>bc_ttnl_theo_kh!N19</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="M18" s="21" t="n">
         <f>bc_ttnl_theo_kh!O19</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="N18" s="21" t="n">
         <f>bc_ttnl_theo_kh!P19</f>
@@ -39368,7 +39443,7 @@
       </c>
       <c r="O18" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q19</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P18" s="21"/>
       <c r="Q18" s="18"/>
@@ -39414,11 +39489,11 @@
       </c>
       <c r="I19" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K20/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="J19" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L20/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="K19" s="21" t="n">
         <f>bc_ttnl_theo_kh!M20</f>
@@ -39426,11 +39501,11 @@
       </c>
       <c r="L19" s="21" t="n">
         <f>bc_ttnl_theo_kh!N20</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="M19" s="21" t="n">
         <f>bc_ttnl_theo_kh!O20</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="N19" s="21" t="n">
         <f>bc_ttnl_theo_kh!P20</f>
@@ -39438,7 +39513,7 @@
       </c>
       <c r="O19" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q20</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P19" s="21"/>
       <c r="Q19" s="18"/>
@@ -39744,19 +39819,19 @@
       </c>
       <c r="D24" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F25/(24*60*60),"[h]:mm")</f>
-        <v>947:00</v>
+        <v>725:00</v>
       </c>
       <c r="E24" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G25/(24*60*60),"[h]:mm")</f>
-        <v>358:00</v>
+        <v>34:00</v>
       </c>
       <c r="F24" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H25/(24*60*60),"[h]:mm")</f>
-        <v>1305:00</v>
+        <v>759:00</v>
       </c>
       <c r="G24" s="21" t="n">
         <f>bc_ttnl_theo_kh!I25</f>
-        <v>1572012.0</v>
+        <v>1256524.0</v>
       </c>
       <c r="H24" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J25/(24*60*60),"[h]:mm")</f>
@@ -39764,11 +39839,11 @@
       </c>
       <c r="I24" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K25/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:54</v>
       </c>
       <c r="J24" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L25/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:54</v>
       </c>
       <c r="K24" s="21" t="n">
         <f>bc_ttnl_theo_kh!M25</f>
@@ -39776,7 +39851,7 @@
       </c>
       <c r="L24" s="21" t="n">
         <f>bc_ttnl_theo_kh!N25</f>
-        <v>0.0</v>
+        <v>4626.0</v>
       </c>
       <c r="M24" s="21" t="n">
         <f>bc_ttnl_theo_kh!O25</f>
@@ -39788,7 +39863,7 @@
       </c>
       <c r="O24" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q25</f>
-        <v>0.0</v>
+        <v>4626.0</v>
       </c>
       <c r="P24" s="21"/>
       <c r="Q24" s="18"/>
@@ -40044,11 +40119,11 @@
       </c>
       <c r="I28" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K29/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="J28" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L29/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="K28" s="21" t="n">
         <f>bc_ttnl_theo_kh!M29</f>
@@ -40056,11 +40131,11 @@
       </c>
       <c r="L28" s="21" t="n">
         <f>bc_ttnl_theo_kh!N29</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="M28" s="21" t="n">
         <f>bc_ttnl_theo_kh!O29</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="N28" s="21" t="n">
         <f>bc_ttnl_theo_kh!P29</f>
@@ -40068,7 +40143,7 @@
       </c>
       <c r="O28" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q29</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P28" s="21"/>
       <c r="Q28" s="18"/>
@@ -40114,11 +40189,11 @@
       </c>
       <c r="I29" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K30/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="J29" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L30/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="K29" s="21" t="n">
         <f>bc_ttnl_theo_kh!M30</f>
@@ -40126,11 +40201,11 @@
       </c>
       <c r="L29" s="21" t="n">
         <f>bc_ttnl_theo_kh!N30</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="M29" s="21" t="n">
         <f>bc_ttnl_theo_kh!O30</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="N29" s="21" t="n">
         <f>bc_ttnl_theo_kh!P30</f>
@@ -40138,7 +40213,7 @@
       </c>
       <c r="O29" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q30</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P29" s="21"/>
       <c r="Q29" s="18"/>
@@ -40160,7 +40235,7 @@
       </c>
       <c r="C30" s="18" t="str">
         <f>bc_ttnl_theo_kh!E31</f>
-        <v>Tác chiến cho bay</v>
+        <v>Tác chiến còn lại</v>
       </c>
       <c r="D30" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F31/(24*60*60),"[h]:mm")</f>
@@ -40236,23 +40311,23 @@
       </c>
       <c r="C31" s="18" t="str">
         <f>bc_ttnl_theo_kh!E32</f>
-        <v>Bù hao hụt</v>
+        <v>Tác chiến cho bay</v>
       </c>
       <c r="D31" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F32/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>0:00</v>
       </c>
       <c r="E31" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G32/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F31" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H32/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>0:00</v>
       </c>
       <c r="G31" s="20" t="n">
         <f>bc_ttnl_theo_kh!I32</f>
-        <v>142857.0</v>
+        <v>0.0</v>
       </c>
       <c r="H31" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J32/(24*60*60),"[h]:mm")</f>
@@ -40260,11 +40335,11 @@
       </c>
       <c r="I31" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K32/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="J31" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L32/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="K31" s="20" t="n">
         <f>bc_ttnl_theo_kh!M32</f>
@@ -40272,11 +40347,11 @@
       </c>
       <c r="L31" s="20" t="n">
         <f>bc_ttnl_theo_kh!N32</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="M31" s="20" t="n">
         <f>bc_ttnl_theo_kh!O32</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="N31" s="20" t="n">
         <f>bc_ttnl_theo_kh!P32</f>
@@ -40284,7 +40359,7 @@
       </c>
       <c r="O31" s="20" t="n">
         <f>bc_ttnl_theo_kh!Q32</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P31" s="21"/>
       <c r="Q31" s="16"/>
@@ -40312,7 +40387,7 @@
       </c>
       <c r="C32" s="18" t="str">
         <f>bc_ttnl_theo_kh!E33</f>
-        <v>HH DTCĐ</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D32" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F33/(24*60*60),"[h]:mm")</f>
@@ -40388,19 +40463,19 @@
       </c>
       <c r="C33" s="18" t="str">
         <f>bc_ttnl_theo_kh!E34</f>
-        <v>e923</v>
+        <v>HH DTCĐ</v>
       </c>
       <c r="D33" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F34/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>359:00</v>
       </c>
       <c r="E33" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G34/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>11:00</v>
       </c>
       <c r="F33" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H34/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>370:00</v>
       </c>
       <c r="G33" s="21" t="n">
         <f>bc_ttnl_theo_kh!I34</f>
@@ -40462,11 +40537,11 @@
       <c r="B34" s="35"/>
       <c r="C34" s="18" t="str">
         <f>bc_ttnl_theo_kh!E35</f>
-        <v>Tác chiến, A2..</v>
+        <v>e923</v>
       </c>
       <c r="D34" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F35/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>132:00</v>
       </c>
       <c r="E34" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G35/(24*60*60),"[h]:mm")</f>
@@ -40474,11 +40549,11 @@
       </c>
       <c r="F34" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H35/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>132:00</v>
       </c>
       <c r="G34" s="21" t="n">
         <f>bc_ttnl_theo_kh!I35</f>
-        <v>0.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H34" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J35/(24*60*60),"[h]:mm")</f>
@@ -40536,7 +40611,7 @@
       <c r="B35" s="35"/>
       <c r="C35" s="18" t="str">
         <f>bc_ttnl_theo_kh!E36</f>
-        <v>Tác chiến cho bay</v>
+        <v>Tác chiến, A2..</v>
       </c>
       <c r="D35" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F36/(24*60*60),"[h]:mm")</f>
@@ -40610,11 +40685,11 @@
       <c r="B36" s="35"/>
       <c r="C36" s="18" t="str">
         <f>bc_ttnl_theo_kh!E37</f>
-        <v>HL nhà trường</v>
+        <v>Tác chiến cho bay</v>
       </c>
       <c r="D36" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F37/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="E36" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G37/(24*60*60),"[h]:mm")</f>
@@ -40622,11 +40697,11 @@
       </c>
       <c r="F36" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H37/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="G36" s="21" t="n">
         <f>bc_ttnl_theo_kh!I37</f>
-        <v>142857.0</v>
+        <v>0.0</v>
       </c>
       <c r="H36" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J37/(24*60*60),"[h]:mm")</f>
@@ -40684,23 +40759,23 @@
       <c r="B37" s="35"/>
       <c r="C37" s="18" t="str">
         <f>bc_ttnl_theo_kh!E38</f>
-        <v>e921</v>
+        <v>Tác chiến còn lại</v>
       </c>
       <c r="D37" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F38/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>0:00</v>
       </c>
       <c r="E37" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G38/(24*60*60),"[h]:mm")</f>
-        <v>324:00</v>
+        <v>0:00</v>
       </c>
       <c r="F37" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H38/(24*60*60),"[h]:mm")</f>
-        <v>546:00</v>
+        <v>0:00</v>
       </c>
       <c r="G37" s="21" t="n">
         <f>bc_ttnl_theo_kh!I38</f>
-        <v>315488.0</v>
+        <v>0.0</v>
       </c>
       <c r="H37" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J38/(24*60*60),"[h]:mm")</f>
@@ -40740,11 +40815,11 @@
       <c r="S37" s="18"/>
       <c r="T37" s="21" t="n">
         <f>bc_ttnl_theo_kh!R38</f>
-        <v>5034.0</v>
+        <v>5527.0</v>
       </c>
       <c r="U37" s="21" t="n">
         <f>bc_ttnl_theo_kh!S38</f>
-        <v>2368.0</v>
+        <v>3060.0</v>
       </c>
       <c r="V37" s="18"/>
       <c r="W37" s="18"/>
@@ -40758,23 +40833,23 @@
       <c r="B38" s="35"/>
       <c r="C38" s="18" t="str">
         <f>bc_ttnl_theo_kh!E39</f>
-        <v>Tác chiến, A2..</v>
+        <v>HL nhà trường</v>
       </c>
       <c r="D38" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F39/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>132:00</v>
       </c>
       <c r="E38" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G39/(24*60*60),"[h]:mm")</f>
-        <v>324:00</v>
+        <v>0:00</v>
       </c>
       <c r="F38" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H39/(24*60*60),"[h]:mm")</f>
-        <v>546:00</v>
+        <v>132:00</v>
       </c>
       <c r="G38" s="21" t="n">
         <f>bc_ttnl_theo_kh!I39</f>
-        <v>315488.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H38" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J39/(24*60*60),"[h]:mm")</f>
@@ -40814,11 +40889,11 @@
       <c r="S38" s="18"/>
       <c r="T38" s="21" t="n">
         <f>bc_ttnl_theo_kh!R39</f>
-        <v>5034.0</v>
+        <v>5527.0</v>
       </c>
       <c r="U38" s="21" t="n">
         <f>bc_ttnl_theo_kh!S39</f>
-        <v>2368.0</v>
+        <v>3060.0</v>
       </c>
       <c r="V38" s="18"/>
       <c r="W38" s="18"/>
@@ -40832,23 +40907,23 @@
       <c r="B39" s="35"/>
       <c r="C39" s="18" t="str">
         <f>bc_ttnl_theo_kh!E40</f>
-        <v>Nổ máy sscđ</v>
+        <v>e921</v>
       </c>
       <c r="D39" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F40/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>0:00</v>
       </c>
       <c r="E39" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G40/(24*60*60),"[h]:mm")</f>
-        <v>324:00</v>
+        <v>0:00</v>
       </c>
       <c r="F39" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H40/(24*60*60),"[h]:mm")</f>
-        <v>546:00</v>
+        <v>0:00</v>
       </c>
       <c r="G39" s="21" t="n">
         <f>bc_ttnl_theo_kh!I40</f>
-        <v>315488.0</v>
+        <v>0.0</v>
       </c>
       <c r="H39" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J40/(24*60*60),"[h]:mm")</f>
@@ -40856,11 +40931,11 @@
       </c>
       <c r="I39" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K40/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="J39" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L40/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="K39" s="21" t="n">
         <f>bc_ttnl_theo_kh!M40</f>
@@ -40868,11 +40943,11 @@
       </c>
       <c r="L39" s="21" t="n">
         <f>bc_ttnl_theo_kh!N40</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="M39" s="21" t="n">
         <f>bc_ttnl_theo_kh!O40</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="N39" s="21" t="n">
         <f>bc_ttnl_theo_kh!P40</f>
@@ -40880,7 +40955,7 @@
       </c>
       <c r="O39" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q40</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P39" s="21"/>
       <c r="Q39" s="18"/>
@@ -40906,23 +40981,23 @@
       <c r="B40" s="35"/>
       <c r="C40" s="18" t="str">
         <f>bc_ttnl_theo_kh!E41</f>
-        <v>e916</v>
+        <v>Tác chiến, A2..</v>
       </c>
       <c r="D40" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F41/(24*60*60),"[h]:mm")</f>
-        <v>234:00</v>
+        <v>0:00</v>
       </c>
       <c r="E40" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G41/(24*60*60),"[h]:mm")</f>
-        <v>23:00</v>
+        <v>0:00</v>
       </c>
       <c r="F40" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H41/(24*60*60),"[h]:mm")</f>
-        <v>257:00</v>
+        <v>0:00</v>
       </c>
       <c r="G40" s="21" t="n">
         <f>bc_ttnl_theo_kh!I41</f>
-        <v>961672.0</v>
+        <v>0.0</v>
       </c>
       <c r="H40" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J41/(24*60*60),"[h]:mm")</f>
@@ -40930,11 +41005,11 @@
       </c>
       <c r="I40" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K41/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="J40" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L41/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="K40" s="21" t="n">
         <f>bc_ttnl_theo_kh!M41</f>
@@ -40942,11 +41017,11 @@
       </c>
       <c r="L40" s="21" t="n">
         <f>bc_ttnl_theo_kh!N41</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="M40" s="21" t="n">
         <f>bc_ttnl_theo_kh!O41</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="N40" s="21" t="n">
         <f>bc_ttnl_theo_kh!P41</f>
@@ -40954,19 +41029,19 @@
       </c>
       <c r="O40" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q41</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P40" s="21"/>
       <c r="Q40" s="18"/>
       <c r="R40" s="18"/>
       <c r="S40" s="18"/>
-      <c r="T40" s="21" t="str">
+      <c r="T40" s="21" t="n">
         <f>bc_ttnl_theo_kh!R41</f>
-        <v/>
-      </c>
-      <c r="U40" s="21" t="str">
+        <v>5034.0</v>
+      </c>
+      <c r="U40" s="21" t="n">
         <f>bc_ttnl_theo_kh!S41</f>
-        <v/>
+        <v>2368.0</v>
       </c>
       <c r="V40" s="18"/>
       <c r="W40" s="18"/>
@@ -40980,23 +41055,23 @@
       <c r="B41" s="35"/>
       <c r="C41" s="18" t="str">
         <f>bc_ttnl_theo_kh!E42</f>
-        <v>Tác chiến, A2..</v>
+        <v>Tác chiến cho bay</v>
       </c>
       <c r="D41" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F42/(24*60*60),"[h]:mm")</f>
-        <v>12:00</v>
+        <v>0:00</v>
       </c>
       <c r="E41" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G42/(24*60*60),"[h]:mm")</f>
-        <v>23:00</v>
+        <v>0:00</v>
       </c>
       <c r="F41" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H42/(24*60*60),"[h]:mm")</f>
-        <v>35:00</v>
+        <v>0:00</v>
       </c>
       <c r="G41" s="21" t="n">
         <f>bc_ttnl_theo_kh!I42</f>
-        <v>665858.0</v>
+        <v>0.0</v>
       </c>
       <c r="H41" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J42/(24*60*60),"[h]:mm")</f>
@@ -41034,13 +41109,13 @@
       <c r="Q41" s="18"/>
       <c r="R41" s="18"/>
       <c r="S41" s="18"/>
-      <c r="T41" s="21" t="str">
+      <c r="T41" s="21" t="n">
         <f>bc_ttnl_theo_kh!R42</f>
-        <v/>
-      </c>
-      <c r="U41" s="21" t="str">
+        <v>5034.0</v>
+      </c>
+      <c r="U41" s="21" t="n">
         <f>bc_ttnl_theo_kh!S42</f>
-        <v/>
+        <v>2368.0</v>
       </c>
       <c r="V41" s="18"/>
       <c r="W41" s="18"/>
@@ -41054,23 +41129,23 @@
       <c r="B42" s="35"/>
       <c r="C42" s="18" t="str">
         <f>bc_ttnl_theo_kh!E43</f>
-        <v>Tác chiến còn lại</v>
+        <v>Nổ máy sscđ</v>
       </c>
       <c r="D42" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F43/(24*60*60),"[h]:mm")</f>
-        <v>12:00</v>
+        <v>0:00</v>
       </c>
       <c r="E42" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G43/(24*60*60),"[h]:mm")</f>
-        <v>23:00</v>
+        <v>0:00</v>
       </c>
       <c r="F42" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H43/(24*60*60),"[h]:mm")</f>
-        <v>35:00</v>
+        <v>0:00</v>
       </c>
       <c r="G42" s="21" t="n">
         <f>bc_ttnl_theo_kh!I43</f>
-        <v>665858.0</v>
+        <v>0.0</v>
       </c>
       <c r="H42" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J43/(24*60*60),"[h]:mm")</f>
@@ -41108,13 +41183,13 @@
       <c r="Q42" s="18"/>
       <c r="R42" s="18"/>
       <c r="S42" s="18"/>
-      <c r="T42" s="21" t="str">
+      <c r="T42" s="21" t="n">
         <f>bc_ttnl_theo_kh!R43</f>
-        <v/>
-      </c>
-      <c r="U42" s="21" t="str">
+        <v>5034.0</v>
+      </c>
+      <c r="U42" s="21" t="n">
         <f>bc_ttnl_theo_kh!S43</f>
-        <v/>
+        <v>2368.0</v>
       </c>
       <c r="V42" s="18"/>
       <c r="W42" s="18"/>
@@ -41128,11 +41203,11 @@
       <c r="B43" s="35"/>
       <c r="C43" s="18" t="str">
         <f>bc_ttnl_theo_kh!E44</f>
-        <v>HL nhà trường</v>
+        <v>Tác chiến còn lại</v>
       </c>
       <c r="D43" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F44/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>0:00</v>
       </c>
       <c r="E43" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G44/(24*60*60),"[h]:mm")</f>
@@ -41140,11 +41215,11 @@
       </c>
       <c r="F43" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H44/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>0:00</v>
       </c>
       <c r="G43" s="21" t="n">
         <f>bc_ttnl_theo_kh!I44</f>
-        <v>142857.0</v>
+        <v>0.0</v>
       </c>
       <c r="H43" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J44/(24*60*60),"[h]:mm")</f>
@@ -41152,11 +41227,11 @@
       </c>
       <c r="I43" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K44/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="J43" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L44/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="K43" s="21" t="n">
         <f>bc_ttnl_theo_kh!M44</f>
@@ -41164,11 +41239,11 @@
       </c>
       <c r="L43" s="21" t="n">
         <f>bc_ttnl_theo_kh!N44</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="M43" s="21" t="n">
         <f>bc_ttnl_theo_kh!O44</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="N43" s="21" t="n">
         <f>bc_ttnl_theo_kh!P44</f>
@@ -41176,19 +41251,19 @@
       </c>
       <c r="O43" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q44</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P43" s="21"/>
       <c r="Q43" s="18"/>
       <c r="R43" s="18"/>
       <c r="S43" s="18"/>
-      <c r="T43" s="21" t="str">
+      <c r="T43" s="21" t="n">
         <f>bc_ttnl_theo_kh!R44</f>
-        <v/>
-      </c>
-      <c r="U43" s="21" t="str">
+        <v>5034.0</v>
+      </c>
+      <c r="U43" s="21" t="n">
         <f>bc_ttnl_theo_kh!S44</f>
-        <v/>
+        <v>2368.0</v>
       </c>
       <c r="V43" s="18"/>
       <c r="W43" s="18"/>
@@ -41202,23 +41277,23 @@
       <c r="B44" s="35"/>
       <c r="C44" s="18" t="str">
         <f>bc_ttnl_theo_kh!E45</f>
-        <v>Bù hao hụt</v>
+        <v>e916</v>
       </c>
       <c r="D44" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F45/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>234:00</v>
       </c>
       <c r="E44" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G45/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>23:00</v>
       </c>
       <c r="F44" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H45/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>257:00</v>
       </c>
       <c r="G44" s="21" t="n">
         <f>bc_ttnl_theo_kh!I45</f>
-        <v>152957.0</v>
+        <v>961672.0</v>
       </c>
       <c r="H44" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J45/(24*60*60),"[h]:mm")</f>
@@ -41276,23 +41351,23 @@
       <c r="B45" s="35"/>
       <c r="C45" s="18" t="str">
         <f>bc_ttnl_theo_kh!E46</f>
-        <v>HH T.Xuyên</v>
+        <v>Tác chiến, A2..</v>
       </c>
       <c r="D45" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F46/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>12:00</v>
       </c>
       <c r="E45" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G46/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>23:00</v>
       </c>
       <c r="F45" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H46/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>35:00</v>
       </c>
       <c r="G45" s="21" t="n">
         <f>bc_ttnl_theo_kh!I46</f>
-        <v>10100.0</v>
+        <v>665858.0</v>
       </c>
       <c r="H45" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J46/(24*60*60),"[h]:mm")</f>
@@ -41350,23 +41425,23 @@
       <c r="B46" s="35"/>
       <c r="C46" s="18" t="str">
         <f>bc_ttnl_theo_kh!E47</f>
-        <v>HH DTCĐ</v>
+        <v>Tác chiến còn lại</v>
       </c>
       <c r="D46" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F47/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>12:00</v>
       </c>
       <c r="E46" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G47/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>23:00</v>
       </c>
       <c r="F46" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H47/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>35:00</v>
       </c>
       <c r="G46" s="21" t="n">
         <f>bc_ttnl_theo_kh!I47</f>
-        <v>142857.0</v>
+        <v>665858.0</v>
       </c>
       <c r="H46" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J47/(24*60*60),"[h]:mm")</f>
@@ -41424,11 +41499,11 @@
       <c r="B47" s="35"/>
       <c r="C47" s="18" t="str">
         <f>bc_ttnl_theo_kh!E48</f>
-        <v>d Vinh</v>
+        <v>HL nhà trường</v>
       </c>
       <c r="D47" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F48/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>222:00</v>
       </c>
       <c r="E47" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G48/(24*60*60),"[h]:mm")</f>
@@ -41436,11 +41511,11 @@
       </c>
       <c r="F47" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H48/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>222:00</v>
       </c>
       <c r="G47" s="21" t="n">
         <f>bc_ttnl_theo_kh!I48</f>
-        <v>1190.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H47" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J48/(24*60*60),"[h]:mm")</f>
@@ -41514,7 +41589,7 @@
       </c>
       <c r="G48" s="20" t="n">
         <f>bc_ttnl_theo_kh!I49</f>
-        <v>1190.0</v>
+        <v>152957.0</v>
       </c>
       <c r="H48" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J49/(24*60*60),"[h]:mm")</f>
@@ -41572,7 +41647,7 @@
       <c r="B49" s="35"/>
       <c r="C49" s="18" t="str">
         <f>bc_ttnl_theo_kh!E50</f>
-        <v>HH T.Xuyên</v>
+        <v>HH DTCĐ</v>
       </c>
       <c r="D49" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F50/(24*60*60),"[h]:mm")</f>
@@ -41588,7 +41663,7 @@
       </c>
       <c r="G49" s="21" t="n">
         <f>bc_ttnl_theo_kh!I50</f>
-        <v>1190.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H49" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J50/(24*60*60),"[h]:mm")</f>
@@ -41646,7 +41721,7 @@
       <c r="B50" s="35"/>
       <c r="C50" s="18" t="str">
         <f>bc_ttnl_theo_kh!E51</f>
-        <v>d Nội Bài</v>
+        <v>HH T.Xuyên</v>
       </c>
       <c r="D50" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F51/(24*60*60),"[h]:mm")</f>
@@ -41662,7 +41737,7 @@
       </c>
       <c r="G50" s="21" t="n">
         <f>bc_ttnl_theo_kh!I51</f>
-        <v>1650.0</v>
+        <v>10100.0</v>
       </c>
       <c r="H50" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J51/(24*60*60),"[h]:mm")</f>
@@ -41720,7 +41795,7 @@
       <c r="B51" s="35"/>
       <c r="C51" s="18" t="str">
         <f>bc_ttnl_theo_kh!E52</f>
-        <v>Bù hao hụt</v>
+        <v>d Vinh</v>
       </c>
       <c r="D51" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F52/(24*60*60),"[h]:mm")</f>
@@ -41736,7 +41811,7 @@
       </c>
       <c r="G51" s="21" t="n">
         <f>bc_ttnl_theo_kh!I52</f>
-        <v>1650.0</v>
+        <v>1190.0</v>
       </c>
       <c r="H51" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J52/(24*60*60),"[h]:mm")</f>
@@ -41794,7 +41869,7 @@
       <c r="B52" s="35"/>
       <c r="C52" s="18" t="str">
         <f>bc_ttnl_theo_kh!E53</f>
-        <v>HH T.Xuyên</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D52" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F53/(24*60*60),"[h]:mm")</f>
@@ -41810,7 +41885,7 @@
       </c>
       <c r="G52" s="21" t="n">
         <f>bc_ttnl_theo_kh!I53</f>
-        <v>1650.0</v>
+        <v>1190.0</v>
       </c>
       <c r="H52" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J53/(24*60*60),"[h]:mm")</f>
@@ -41868,7 +41943,7 @@
       <c r="B53" s="35"/>
       <c r="C53" s="18" t="str">
         <f>bc_ttnl_theo_kh!E54</f>
-        <v>d Nà Sản</v>
+        <v>HH T.Xuyên</v>
       </c>
       <c r="D53" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F54/(24*60*60),"[h]:mm")</f>
@@ -41942,7 +42017,7 @@
       <c r="B54" s="35"/>
       <c r="C54" s="18" t="str">
         <f>bc_ttnl_theo_kh!E55</f>
-        <v>Bù hao hụt</v>
+        <v>d Nội Bài</v>
       </c>
       <c r="D54" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F55/(24*60*60),"[h]:mm")</f>
@@ -41958,7 +42033,7 @@
       </c>
       <c r="G54" s="21" t="n">
         <f>bc_ttnl_theo_kh!I55</f>
-        <v>1190.0</v>
+        <v>1650.0</v>
       </c>
       <c r="H54" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J55/(24*60*60),"[h]:mm")</f>
@@ -42016,7 +42091,7 @@
       <c r="B55" s="35"/>
       <c r="C55" s="18" t="str">
         <f>bc_ttnl_theo_kh!E56</f>
-        <v>HH DTCĐ</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D55" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F56/(24*60*60),"[h]:mm")</f>
@@ -42032,7 +42107,7 @@
       </c>
       <c r="G55" s="21" t="n">
         <f>bc_ttnl_theo_kh!I56</f>
-        <v>1190.0</v>
+        <v>1650.0</v>
       </c>
       <c r="H55" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J56/(24*60*60),"[h]:mm")</f>
@@ -42090,7 +42165,7 @@
       <c r="B56" s="35"/>
       <c r="C56" s="18" t="str">
         <f>bc_ttnl_theo_kh!E57</f>
-        <v>d Kiến An</v>
+        <v>HH T.Xuyên</v>
       </c>
       <c r="D56" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F57/(24*60*60),"[h]:mm")</f>
@@ -42106,7 +42181,7 @@
       </c>
       <c r="G56" s="21" t="n">
         <f>bc_ttnl_theo_kh!I57</f>
-        <v>2850.0</v>
+        <v>1650.0</v>
       </c>
       <c r="H56" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J57/(24*60*60),"[h]:mm")</f>
@@ -42164,7 +42239,7 @@
       <c r="B57" s="35"/>
       <c r="C57" s="18" t="str">
         <f>bc_ttnl_theo_kh!E58</f>
-        <v>Bù hao hụt</v>
+        <v>d Nà Sản</v>
       </c>
       <c r="D57" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F58/(24*60*60),"[h]:mm")</f>
@@ -42180,7 +42255,7 @@
       </c>
       <c r="G57" s="21" t="n">
         <f>bc_ttnl_theo_kh!I58</f>
-        <v>2850.0</v>
+        <v>1190.0</v>
       </c>
       <c r="H57" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J58/(24*60*60),"[h]:mm")</f>
@@ -42238,7 +42313,7 @@
       <c r="B58" s="35"/>
       <c r="C58" s="18" t="str">
         <f>bc_ttnl_theo_kh!E59</f>
-        <v>HH T.Xuyên</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D58" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F59/(24*60*60),"[h]:mm")</f>
@@ -42254,7 +42329,7 @@
       </c>
       <c r="G58" s="21" t="n">
         <f>bc_ttnl_theo_kh!I59</f>
-        <v>2850.0</v>
+        <v>1190.0</v>
       </c>
       <c r="H58" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J59/(24*60*60),"[h]:mm")</f>
@@ -42312,23 +42387,23 @@
       <c r="B59" s="35"/>
       <c r="C59" s="18" t="str">
         <f>bc_ttnl_theo_kh!E60</f>
-        <v>SU 30MK-2</v>
+        <v>HH DTCĐ</v>
       </c>
       <c r="D59" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F60/(24*60*60),"[h]:mm")</f>
-        <v>491:00</v>
+        <v>0:00</v>
       </c>
       <c r="E59" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G60/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F59" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H60/(24*60*60),"[h]:mm")</f>
-        <v>502:00</v>
+        <v>0:00</v>
       </c>
       <c r="G59" s="21" t="n">
         <f>bc_ttnl_theo_kh!I60</f>
-        <v>285714.0</v>
+        <v>1190.0</v>
       </c>
       <c r="H59" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J60/(24*60*60),"[h]:mm")</f>
@@ -42366,13 +42441,13 @@
       <c r="Q59" s="18"/>
       <c r="R59" s="18"/>
       <c r="S59" s="18"/>
-      <c r="T59" s="21" t="n">
+      <c r="T59" s="21" t="str">
         <f>bc_ttnl_theo_kh!R60</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U59" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U59" s="21" t="str">
         <f>bc_ttnl_theo_kh!S60</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V59" s="18"/>
       <c r="W59" s="18"/>
@@ -42386,7 +42461,7 @@
       <c r="B60" s="35"/>
       <c r="C60" s="18" t="str">
         <f>bc_ttnl_theo_kh!E61</f>
-        <v>Tác chiến, A2..</v>
+        <v>d Kiến An</v>
       </c>
       <c r="D60" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F61/(24*60*60),"[h]:mm")</f>
@@ -42402,7 +42477,7 @@
       </c>
       <c r="G60" s="21" t="n">
         <f>bc_ttnl_theo_kh!I61</f>
-        <v>0.0</v>
+        <v>2850.0</v>
       </c>
       <c r="H60" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J61/(24*60*60),"[h]:mm")</f>
@@ -42440,13 +42515,13 @@
       <c r="Q60" s="18"/>
       <c r="R60" s="18"/>
       <c r="S60" s="18"/>
-      <c r="T60" s="21" t="n">
+      <c r="T60" s="21" t="str">
         <f>bc_ttnl_theo_kh!R61</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U60" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U60" s="21" t="str">
         <f>bc_ttnl_theo_kh!S61</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V60" s="18"/>
       <c r="W60" s="18"/>
@@ -42460,7 +42535,7 @@
       <c r="B61" s="35"/>
       <c r="C61" s="18" t="str">
         <f>bc_ttnl_theo_kh!E62</f>
-        <v>Tác chiến cho bay</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D61" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F62/(24*60*60),"[h]:mm")</f>
@@ -42476,7 +42551,7 @@
       </c>
       <c r="G61" s="20" t="n">
         <f>bc_ttnl_theo_kh!I62</f>
-        <v>0.0</v>
+        <v>2850.0</v>
       </c>
       <c r="H61" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J62/(24*60*60),"[h]:mm")</f>
@@ -42514,13 +42589,13 @@
       <c r="Q61" s="16"/>
       <c r="R61" s="16"/>
       <c r="S61" s="16"/>
-      <c r="T61" s="21" t="n">
+      <c r="T61" s="21" t="str">
         <f>bc_ttnl_theo_kh!R62</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U61" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U61" s="21" t="str">
         <f>bc_ttnl_theo_kh!S62</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V61" s="16"/>
       <c r="W61" s="16"/>
@@ -42534,11 +42609,11 @@
       <c r="B62" s="35"/>
       <c r="C62" s="18" t="str">
         <f>bc_ttnl_theo_kh!E63</f>
-        <v>HL nhà trường</v>
+        <v>HH T.Xuyên</v>
       </c>
       <c r="D62" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F63/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="E62" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G63/(24*60*60),"[h]:mm")</f>
@@ -42546,11 +42621,11 @@
       </c>
       <c r="F62" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H63/(24*60*60),"[h]:mm")</f>
-        <v>132:00</v>
+        <v>0:00</v>
       </c>
       <c r="G62" s="21" t="n">
         <f>bc_ttnl_theo_kh!I63</f>
-        <v>142857.0</v>
+        <v>2850.0</v>
       </c>
       <c r="H62" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J63/(24*60*60),"[h]:mm")</f>
@@ -42588,13 +42663,13 @@
       <c r="Q62" s="18"/>
       <c r="R62" s="18"/>
       <c r="S62" s="18"/>
-      <c r="T62" s="21" t="n">
+      <c r="T62" s="21" t="str">
         <f>bc_ttnl_theo_kh!R63</f>
-        <v>5527.0</v>
-      </c>
-      <c r="U62" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U62" s="21" t="str">
         <f>bc_ttnl_theo_kh!S63</f>
-        <v>3060.0</v>
+        <v/>
       </c>
       <c r="V62" s="18"/>
       <c r="W62" s="18"/>
@@ -42608,11 +42683,11 @@
       <c r="B63" s="35"/>
       <c r="C63" s="18" t="str">
         <f>bc_ttnl_theo_kh!E64</f>
-        <v>Bù hao hụt</v>
+        <v>SU 30MK-2</v>
       </c>
       <c r="D63" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F64/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>491:00</v>
       </c>
       <c r="E63" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G64/(24*60*60),"[h]:mm")</f>
@@ -42620,11 +42695,11 @@
       </c>
       <c r="F63" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H64/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>502:00</v>
       </c>
       <c r="G63" s="21" t="n">
         <f>bc_ttnl_theo_kh!I64</f>
-        <v>142857.0</v>
+        <v>285714.0</v>
       </c>
       <c r="H63" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J64/(24*60*60),"[h]:mm")</f>
@@ -42632,11 +42707,11 @@
       </c>
       <c r="I63" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K64/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="J63" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L64/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="K63" s="21" t="n">
         <f>bc_ttnl_theo_kh!M64</f>
@@ -42644,11 +42719,11 @@
       </c>
       <c r="L63" s="21" t="n">
         <f>bc_ttnl_theo_kh!N64</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="M63" s="21" t="n">
         <f>bc_ttnl_theo_kh!O64</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="N63" s="21" t="n">
         <f>bc_ttnl_theo_kh!P64</f>
@@ -42656,7 +42731,7 @@
       </c>
       <c r="O63" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q64</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P63" s="21"/>
       <c r="Q63" s="18"/>
@@ -42682,23 +42757,23 @@
       <c r="B64" s="35"/>
       <c r="C64" s="18" t="str">
         <f>bc_ttnl_theo_kh!E65</f>
-        <v>HH DTCĐ</v>
+        <v>Tác chiến, A2..</v>
       </c>
       <c r="D64" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F65/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>0:00</v>
       </c>
       <c r="E64" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G65/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F64" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H65/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>0:00</v>
       </c>
       <c r="G64" s="21" t="n">
         <f>bc_ttnl_theo_kh!I65</f>
-        <v>142857.0</v>
+        <v>0.0</v>
       </c>
       <c r="H64" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J65/(24*60*60),"[h]:mm")</f>
@@ -42706,11 +42781,11 @@
       </c>
       <c r="I64" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K65/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="J64" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L65/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="K64" s="21" t="n">
         <f>bc_ttnl_theo_kh!M65</f>
@@ -42718,11 +42793,11 @@
       </c>
       <c r="L64" s="21" t="n">
         <f>bc_ttnl_theo_kh!N65</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="M64" s="21" t="n">
         <f>bc_ttnl_theo_kh!O65</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="N64" s="21" t="n">
         <f>bc_ttnl_theo_kh!P65</f>
@@ -42730,7 +42805,7 @@
       </c>
       <c r="O64" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q65</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P64" s="21"/>
       <c r="Q64" s="18"/>
@@ -42756,23 +42831,23 @@
       <c r="B65" s="35"/>
       <c r="C65" s="18" t="str">
         <f>bc_ttnl_theo_kh!E66</f>
-        <v>SU 22M3+4</v>
+        <v>Tác chiến cho bay</v>
       </c>
       <c r="D65" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F66/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>0:00</v>
       </c>
       <c r="E65" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G66/(24*60*60),"[h]:mm")</f>
-        <v>324:00</v>
+        <v>0:00</v>
       </c>
       <c r="F65" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H66/(24*60*60),"[h]:mm")</f>
-        <v>546:00</v>
+        <v>0:00</v>
       </c>
       <c r="G65" s="21" t="n">
         <f>bc_ttnl_theo_kh!I66</f>
-        <v>315488.0</v>
+        <v>0.0</v>
       </c>
       <c r="H65" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J66/(24*60*60),"[h]:mm")</f>
@@ -42780,11 +42855,11 @@
       </c>
       <c r="I65" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K66/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="J65" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L66/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:22</v>
       </c>
       <c r="K65" s="21" t="n">
         <f>bc_ttnl_theo_kh!M66</f>
@@ -42792,11 +42867,11 @@
       </c>
       <c r="L65" s="21" t="n">
         <f>bc_ttnl_theo_kh!N66</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="M65" s="21" t="n">
         <f>bc_ttnl_theo_kh!O66</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="N65" s="21" t="n">
         <f>bc_ttnl_theo_kh!P66</f>
@@ -42804,7 +42879,7 @@
       </c>
       <c r="O65" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q66</f>
-        <v>0.0</v>
+        <v>2026.0</v>
       </c>
       <c r="P65" s="21"/>
       <c r="Q65" s="18"/>
@@ -42812,11 +42887,11 @@
       <c r="S65" s="18"/>
       <c r="T65" s="21" t="n">
         <f>bc_ttnl_theo_kh!R66</f>
-        <v>5034.0</v>
+        <v>5527.0</v>
       </c>
       <c r="U65" s="21" t="n">
         <f>bc_ttnl_theo_kh!S66</f>
-        <v>2368.0</v>
+        <v>3060.0</v>
       </c>
       <c r="V65" s="18"/>
       <c r="W65" s="18"/>
@@ -42830,23 +42905,23 @@
       <c r="B66" s="35"/>
       <c r="C66" s="18" t="str">
         <f>bc_ttnl_theo_kh!E67</f>
-        <v>Tác chiến, A2..</v>
+        <v>Tác chiến còn lại</v>
       </c>
       <c r="D66" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F67/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>0:00</v>
       </c>
       <c r="E66" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G67/(24*60*60),"[h]:mm")</f>
-        <v>324:00</v>
+        <v>0:00</v>
       </c>
       <c r="F66" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H67/(24*60*60),"[h]:mm")</f>
-        <v>546:00</v>
+        <v>0:00</v>
       </c>
       <c r="G66" s="21" t="n">
         <f>bc_ttnl_theo_kh!I67</f>
-        <v>315488.0</v>
+        <v>0.0</v>
       </c>
       <c r="H66" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J67/(24*60*60),"[h]:mm")</f>
@@ -42886,11 +42961,11 @@
       <c r="S66" s="18"/>
       <c r="T66" s="21" t="n">
         <f>bc_ttnl_theo_kh!R67</f>
-        <v>5034.0</v>
+        <v>5527.0</v>
       </c>
       <c r="U66" s="21" t="n">
         <f>bc_ttnl_theo_kh!S67</f>
-        <v>2368.0</v>
+        <v>3060.0</v>
       </c>
       <c r="V66" s="18"/>
       <c r="W66" s="18"/>
@@ -42904,23 +42979,23 @@
       <c r="B67" s="35"/>
       <c r="C67" s="18" t="str">
         <f>bc_ttnl_theo_kh!E68</f>
-        <v>Nổ máy sscđ</v>
+        <v>HL nhà trường</v>
       </c>
       <c r="D67" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F68/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>132:00</v>
       </c>
       <c r="E67" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G68/(24*60*60),"[h]:mm")</f>
-        <v>324:00</v>
+        <v>0:00</v>
       </c>
       <c r="F67" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H68/(24*60*60),"[h]:mm")</f>
-        <v>546:00</v>
+        <v>132:00</v>
       </c>
       <c r="G67" s="21" t="n">
         <f>bc_ttnl_theo_kh!I68</f>
-        <v>315488.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H67" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J68/(24*60*60),"[h]:mm")</f>
@@ -42960,11 +43035,11 @@
       <c r="S67" s="18"/>
       <c r="T67" s="21" t="n">
         <f>bc_ttnl_theo_kh!R68</f>
-        <v>5034.0</v>
+        <v>5527.0</v>
       </c>
       <c r="U67" s="21" t="n">
         <f>bc_ttnl_theo_kh!S68</f>
-        <v>2368.0</v>
+        <v>3060.0</v>
       </c>
       <c r="V67" s="18"/>
       <c r="W67" s="18"/>
@@ -42978,19 +43053,19 @@
       <c r="B68" s="35"/>
       <c r="C68" s="18" t="str">
         <f>bc_ttnl_theo_kh!E69</f>
-        <v>Mi-8</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D68" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F69/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>359:00</v>
       </c>
       <c r="E68" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G69/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>11:00</v>
       </c>
       <c r="F68" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H69/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>370:00</v>
       </c>
       <c r="G68" s="21" t="n">
         <f>bc_ttnl_theo_kh!I69</f>
@@ -43032,13 +43107,13 @@
       <c r="Q68" s="18"/>
       <c r="R68" s="18"/>
       <c r="S68" s="18"/>
-      <c r="T68" s="21" t="str">
+      <c r="T68" s="21" t="n">
         <f>bc_ttnl_theo_kh!R69</f>
-        <v/>
-      </c>
-      <c r="U68" s="21" t="str">
+        <v>5527.0</v>
+      </c>
+      <c r="U68" s="21" t="n">
         <f>bc_ttnl_theo_kh!S69</f>
-        <v/>
+        <v>3060.0</v>
       </c>
       <c r="V68" s="18"/>
       <c r="W68" s="18"/>
@@ -43052,19 +43127,19 @@
       <c r="B69" s="35"/>
       <c r="C69" s="18" t="str">
         <f>bc_ttnl_theo_kh!E70</f>
-        <v>Bù hao hụt</v>
+        <v>HH DTCĐ</v>
       </c>
       <c r="D69" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F70/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>359:00</v>
       </c>
       <c r="E69" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G70/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>11:00</v>
       </c>
       <c r="F69" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H70/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>370:00</v>
       </c>
       <c r="G69" s="21" t="n">
         <f>bc_ttnl_theo_kh!I70</f>
@@ -43106,13 +43181,13 @@
       <c r="Q69" s="18"/>
       <c r="R69" s="18"/>
       <c r="S69" s="18"/>
-      <c r="T69" s="21" t="str">
+      <c r="T69" s="21" t="n">
         <f>bc_ttnl_theo_kh!R70</f>
-        <v/>
-      </c>
-      <c r="U69" s="21" t="str">
+        <v>5527.0</v>
+      </c>
+      <c r="U69" s="21" t="n">
         <f>bc_ttnl_theo_kh!S70</f>
-        <v/>
+        <v>3060.0</v>
       </c>
       <c r="V69" s="18"/>
       <c r="W69" s="18"/>
@@ -43126,7 +43201,7 @@
       <c r="B70" s="35"/>
       <c r="C70" s="18" t="str">
         <f>bc_ttnl_theo_kh!E71</f>
-        <v>HH DTCĐ</v>
+        <v>SU 22M3+4</v>
       </c>
       <c r="D70" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F71/(24*60*60),"[h]:mm")</f>
@@ -43142,7 +43217,7 @@
       </c>
       <c r="G70" s="21" t="n">
         <f>bc_ttnl_theo_kh!I71</f>
-        <v>142857.0</v>
+        <v>0.0</v>
       </c>
       <c r="H70" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J71/(24*60*60),"[h]:mm")</f>
@@ -43150,11 +43225,11 @@
       </c>
       <c r="I70" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K71/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="J70" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L71/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="K70" s="21" t="n">
         <f>bc_ttnl_theo_kh!M71</f>
@@ -43162,11 +43237,11 @@
       </c>
       <c r="L70" s="21" t="n">
         <f>bc_ttnl_theo_kh!N71</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="M70" s="21" t="n">
         <f>bc_ttnl_theo_kh!O71</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="N70" s="21" t="n">
         <f>bc_ttnl_theo_kh!P71</f>
@@ -43174,19 +43249,19 @@
       </c>
       <c r="O70" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q71</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P70" s="21"/>
       <c r="Q70" s="18"/>
       <c r="R70" s="18"/>
       <c r="S70" s="18"/>
-      <c r="T70" s="21" t="str">
+      <c r="T70" s="21" t="n">
         <f>bc_ttnl_theo_kh!R71</f>
-        <v/>
-      </c>
-      <c r="U70" s="21" t="str">
+        <v>5034.0</v>
+      </c>
+      <c r="U70" s="21" t="n">
         <f>bc_ttnl_theo_kh!S71</f>
-        <v/>
+        <v>2368.0</v>
       </c>
       <c r="V70" s="18"/>
       <c r="W70" s="18"/>
@@ -43200,11 +43275,11 @@
       <c r="B71" s="35"/>
       <c r="C71" s="18" t="str">
         <f>bc_ttnl_theo_kh!E72</f>
-        <v>Mi-7</v>
+        <v>Tác chiến, A2..</v>
       </c>
       <c r="D71" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F72/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>0:00</v>
       </c>
       <c r="E71" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G72/(24*60*60),"[h]:mm")</f>
@@ -43212,11 +43287,11 @@
       </c>
       <c r="F71" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H72/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>0:00</v>
       </c>
       <c r="G71" s="21" t="n">
         <f>bc_ttnl_theo_kh!I72</f>
-        <v>142857.0</v>
+        <v>0.0</v>
       </c>
       <c r="H71" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J72/(24*60*60),"[h]:mm")</f>
@@ -43224,11 +43299,11 @@
       </c>
       <c r="I71" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K72/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="J71" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L72/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="K71" s="21" t="n">
         <f>bc_ttnl_theo_kh!M72</f>
@@ -43236,11 +43311,11 @@
       </c>
       <c r="L71" s="21" t="n">
         <f>bc_ttnl_theo_kh!N72</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="M71" s="21" t="n">
         <f>bc_ttnl_theo_kh!O72</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="N71" s="21" t="n">
         <f>bc_ttnl_theo_kh!P72</f>
@@ -43248,19 +43323,19 @@
       </c>
       <c r="O71" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q72</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P71" s="21"/>
       <c r="Q71" s="18"/>
       <c r="R71" s="18"/>
       <c r="S71" s="18"/>
-      <c r="T71" s="21" t="str">
+      <c r="T71" s="21" t="n">
         <f>bc_ttnl_theo_kh!R72</f>
-        <v/>
-      </c>
-      <c r="U71" s="21" t="str">
+        <v>5034.0</v>
+      </c>
+      <c r="U71" s="21" t="n">
         <f>bc_ttnl_theo_kh!S72</f>
-        <v/>
+        <v>2368.0</v>
       </c>
       <c r="V71" s="18"/>
       <c r="W71" s="18"/>
@@ -43274,11 +43349,11 @@
       <c r="B72" s="35"/>
       <c r="C72" s="18" t="str">
         <f>bc_ttnl_theo_kh!E73</f>
-        <v>HL nhà trường</v>
+        <v>Tác chiến cho bay</v>
       </c>
       <c r="D72" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F73/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>0:00</v>
       </c>
       <c r="E72" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G73/(24*60*60),"[h]:mm")</f>
@@ -43286,11 +43361,11 @@
       </c>
       <c r="F72" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H73/(24*60*60),"[h]:mm")</f>
-        <v>222:00</v>
+        <v>0:00</v>
       </c>
       <c r="G72" s="21" t="n">
         <f>bc_ttnl_theo_kh!I73</f>
-        <v>142857.0</v>
+        <v>0.0</v>
       </c>
       <c r="H72" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J73/(24*60*60),"[h]:mm")</f>
@@ -43328,13 +43403,13 @@
       <c r="Q72" s="18"/>
       <c r="R72" s="18"/>
       <c r="S72" s="18"/>
-      <c r="T72" s="21" t="str">
+      <c r="T72" s="21" t="n">
         <f>bc_ttnl_theo_kh!R73</f>
-        <v/>
-      </c>
-      <c r="U72" s="21" t="str">
+        <v>5034.0</v>
+      </c>
+      <c r="U72" s="21" t="n">
         <f>bc_ttnl_theo_kh!S73</f>
-        <v/>
+        <v>2368.0</v>
       </c>
       <c r="V72" s="18"/>
       <c r="W72" s="18"/>
@@ -43348,7 +43423,7 @@
       <c r="B73" s="35"/>
       <c r="C73" s="18" t="str">
         <f>bc_ttnl_theo_kh!E74</f>
-        <v>Mi-172</v>
+        <v>Nổ máy sscđ</v>
       </c>
       <c r="D73" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F74/(24*60*60),"[h]:mm")</f>
@@ -43364,7 +43439,7 @@
       </c>
       <c r="G73" s="21" t="n">
         <f>bc_ttnl_theo_kh!I74</f>
-        <v>10100.0</v>
+        <v>0.0</v>
       </c>
       <c r="H73" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J74/(24*60*60),"[h]:mm")</f>
@@ -43402,13 +43477,13 @@
       <c r="Q73" s="18"/>
       <c r="R73" s="18"/>
       <c r="S73" s="18"/>
-      <c r="T73" s="21" t="str">
+      <c r="T73" s="21" t="n">
         <f>bc_ttnl_theo_kh!R74</f>
-        <v/>
-      </c>
-      <c r="U73" s="21" t="str">
+        <v>5034.0</v>
+      </c>
+      <c r="U73" s="21" t="n">
         <f>bc_ttnl_theo_kh!S74</f>
-        <v/>
+        <v>2368.0</v>
       </c>
       <c r="V73" s="18"/>
       <c r="W73" s="18"/>
@@ -43422,7 +43497,7 @@
       <c r="B74" s="35"/>
       <c r="C74" s="18" t="str">
         <f>bc_ttnl_theo_kh!E75</f>
-        <v>Bù hao hụt</v>
+        <v>Tác chiến còn lại</v>
       </c>
       <c r="D74" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F75/(24*60*60),"[h]:mm")</f>
@@ -43438,7 +43513,7 @@
       </c>
       <c r="G74" s="21" t="n">
         <f>bc_ttnl_theo_kh!I75</f>
-        <v>10100.0</v>
+        <v>0.0</v>
       </c>
       <c r="H74" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J75/(24*60*60),"[h]:mm")</f>
@@ -43446,11 +43521,11 @@
       </c>
       <c r="I74" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!K75/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="J74" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!L75/(24*60*60),"[h]:mm")</f>
-        <v>0:00</v>
+        <v>0:32</v>
       </c>
       <c r="K74" s="21" t="n">
         <f>bc_ttnl_theo_kh!M75</f>
@@ -43458,11 +43533,11 @@
       </c>
       <c r="L74" s="21" t="n">
         <f>bc_ttnl_theo_kh!N75</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="M74" s="21" t="n">
         <f>bc_ttnl_theo_kh!O75</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="N74" s="21" t="n">
         <f>bc_ttnl_theo_kh!P75</f>
@@ -43470,19 +43545,19 @@
       </c>
       <c r="O74" s="21" t="n">
         <f>bc_ttnl_theo_kh!Q75</f>
-        <v>0.0</v>
+        <v>2600.0</v>
       </c>
       <c r="P74" s="21"/>
       <c r="Q74" s="18"/>
       <c r="R74" s="18"/>
       <c r="S74" s="18"/>
-      <c r="T74" s="21" t="str">
+      <c r="T74" s="21" t="n">
         <f>bc_ttnl_theo_kh!R75</f>
-        <v/>
-      </c>
-      <c r="U74" s="21" t="str">
+        <v>5034.0</v>
+      </c>
+      <c r="U74" s="21" t="n">
         <f>bc_ttnl_theo_kh!S75</f>
-        <v/>
+        <v>2368.0</v>
       </c>
       <c r="V74" s="18"/>
       <c r="W74" s="18"/>
@@ -43496,7 +43571,7 @@
       <c r="B75" s="35"/>
       <c r="C75" s="18" t="str">
         <f>bc_ttnl_theo_kh!E76</f>
-        <v>HH T.Xuyên</v>
+        <v>Mi-8</v>
       </c>
       <c r="D75" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F76/(24*60*60),"[h]:mm")</f>
@@ -43512,7 +43587,7 @@
       </c>
       <c r="G75" s="20" t="n">
         <f>bc_ttnl_theo_kh!I76</f>
-        <v>10100.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H75" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J76/(24*60*60),"[h]:mm")</f>
@@ -43570,23 +43645,23 @@
       <c r="B76" s="35"/>
       <c r="C76" s="18" t="str">
         <f>bc_ttnl_theo_kh!E77</f>
-        <v>Mi-171</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D76" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F77/(24*60*60),"[h]:mm")</f>
-        <v>12:00</v>
+        <v>0:00</v>
       </c>
       <c r="E76" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G77/(24*60*60),"[h]:mm")</f>
-        <v>23:00</v>
+        <v>0:00</v>
       </c>
       <c r="F76" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H77/(24*60*60),"[h]:mm")</f>
-        <v>35:00</v>
+        <v>0:00</v>
       </c>
       <c r="G76" s="21" t="n">
         <f>bc_ttnl_theo_kh!I77</f>
-        <v>665858.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H76" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J77/(24*60*60),"[h]:mm")</f>
@@ -43644,23 +43719,23 @@
       <c r="B77" s="35"/>
       <c r="C77" s="18" t="str">
         <f>bc_ttnl_theo_kh!E78</f>
-        <v>Tác chiến, A2..</v>
+        <v>HH DTCĐ</v>
       </c>
       <c r="D77" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F78/(24*60*60),"[h]:mm")</f>
-        <v>12:00</v>
+        <v>0:00</v>
       </c>
       <c r="E77" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G78/(24*60*60),"[h]:mm")</f>
-        <v>23:00</v>
+        <v>0:00</v>
       </c>
       <c r="F77" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H78/(24*60*60),"[h]:mm")</f>
-        <v>35:00</v>
+        <v>0:00</v>
       </c>
       <c r="G77" s="21" t="n">
         <f>bc_ttnl_theo_kh!I78</f>
-        <v>665858.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H77" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J78/(24*60*60),"[h]:mm")</f>
@@ -43718,23 +43793,23 @@
       <c r="B78" s="35"/>
       <c r="C78" s="18" t="str">
         <f>bc_ttnl_theo_kh!E79</f>
-        <v>Tác chiến còn lại</v>
+        <v>Mi-7</v>
       </c>
       <c r="D78" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F79/(24*60*60),"[h]:mm")</f>
-        <v>12:00</v>
+        <v>222:00</v>
       </c>
       <c r="E78" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G79/(24*60*60),"[h]:mm")</f>
-        <v>23:00</v>
+        <v>0:00</v>
       </c>
       <c r="F78" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H79/(24*60*60),"[h]:mm")</f>
-        <v>35:00</v>
+        <v>222:00</v>
       </c>
       <c r="G78" s="21" t="n">
         <f>bc_ttnl_theo_kh!I79</f>
-        <v>665858.0</v>
+        <v>142857.0</v>
       </c>
       <c r="H78" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J79/(24*60*60),"[h]:mm")</f>
@@ -43792,19 +43867,19 @@
       <c r="B79" s="35"/>
       <c r="C79" s="18" t="str">
         <f>bc_ttnl_theo_kh!E80</f>
-        <v>HH T.Xuyên</v>
+        <v>HL nhà trường</v>
       </c>
       <c r="D79" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F80/(24*60*60),"[h]:mm")</f>
-        <v>359:00</v>
+        <v>222:00</v>
       </c>
       <c r="E79" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G80/(24*60*60),"[h]:mm")</f>
-        <v>11:00</v>
+        <v>0:00</v>
       </c>
       <c r="F79" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H80/(24*60*60),"[h]:mm")</f>
-        <v>370:00</v>
+        <v>222:00</v>
       </c>
       <c r="G79" s="21" t="n">
         <f>bc_ttnl_theo_kh!I80</f>
@@ -43846,13 +43921,13 @@
       <c r="Q79" s="18"/>
       <c r="R79" s="18"/>
       <c r="S79" s="18"/>
-      <c r="T79" s="21" t="n">
+      <c r="T79" s="21" t="str">
         <f>bc_ttnl_theo_kh!R80</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U79" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U79" s="21" t="str">
         <f>bc_ttnl_theo_kh!S80</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V79" s="18"/>
       <c r="W79" s="18"/>
@@ -43866,7 +43941,7 @@
       <c r="B80" s="35"/>
       <c r="C80" s="18" t="str">
         <f>bc_ttnl_theo_kh!E81</f>
-        <v>Tổn thất</v>
+        <v>Mi-172</v>
       </c>
       <c r="D80" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F81/(24*60*60),"[h]:mm")</f>
@@ -43882,7 +43957,7 @@
       </c>
       <c r="G80" s="21" t="n">
         <f>bc_ttnl_theo_kh!I81</f>
-        <v>142857.0</v>
+        <v>10100.0</v>
       </c>
       <c r="H80" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J81/(24*60*60),"[h]:mm")</f>
@@ -43920,13 +43995,13 @@
       <c r="Q80" s="18"/>
       <c r="R80" s="18"/>
       <c r="S80" s="18"/>
-      <c r="T80" s="21" t="n">
+      <c r="T80" s="21" t="str">
         <f>bc_ttnl_theo_kh!R81</f>
-        <v>5034.0</v>
-      </c>
-      <c r="U80" s="21" t="n">
+        <v/>
+      </c>
+      <c r="U80" s="21" t="str">
         <f>bc_ttnl_theo_kh!S81</f>
-        <v>2368.0</v>
+        <v/>
       </c>
       <c r="V80" s="18"/>
       <c r="W80" s="18"/>
@@ -43940,23 +44015,23 @@
       <c r="B81" s="35"/>
       <c r="C81" s="18" t="str">
         <f>bc_ttnl_theo_kh!E82</f>
-        <v>e916</v>
+        <v>Bù hao hụt</v>
       </c>
       <c r="D81" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F82/(24*60*60),"[h]:mm")</f>
-        <v>2700:22</v>
+        <v>0:00</v>
       </c>
       <c r="E81" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G82/(24*60*60),"[h]:mm")</f>
-        <v>215:35</v>
+        <v>0:00</v>
       </c>
       <c r="F81" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H82/(24*60*60),"[h]:mm")</f>
-        <v>2915:57</v>
+        <v>0:00</v>
       </c>
       <c r="G81" s="21" t="n">
         <f>bc_ttnl_theo_kh!I82</f>
-        <v>4424353.0</v>
+        <v>10100.0</v>
       </c>
       <c r="H81" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J82/(24*60*60),"[h]:mm")</f>
@@ -44014,23 +44089,23 @@
       <c r="B82" s="35"/>
       <c r="C82" s="18" t="str">
         <f>bc_ttnl_theo_kh!E83</f>
-        <v>Tác chiến, A2..</v>
+        <v>HH T.Xuyên</v>
       </c>
       <c r="D82" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F83/(24*60*60),"[h]:mm")</f>
-        <v>564:00</v>
+        <v>0:00</v>
       </c>
       <c r="E82" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G83/(24*60*60),"[h]:mm")</f>
-        <v>43:00</v>
+        <v>0:00</v>
       </c>
       <c r="F82" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H83/(24*60*60),"[h]:mm")</f>
-        <v>607:00</v>
+        <v>0:00</v>
       </c>
       <c r="G82" s="21" t="n">
         <f>bc_ttnl_theo_kh!I83</f>
-        <v>1258811.0</v>
+        <v>10100.0</v>
       </c>
       <c r="H82" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J83/(24*60*60),"[h]:mm")</f>
@@ -44088,7 +44163,7 @@
       <c r="B83" s="35"/>
       <c r="C83" s="18" t="str">
         <f>bc_ttnl_theo_kh!E84</f>
-        <v>Tác chiến còn lại</v>
+        <v>Mi-171</v>
       </c>
       <c r="D83" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F84/(24*60*60),"[h]:mm")</f>
@@ -44162,23 +44237,23 @@
       <c r="B84" s="35"/>
       <c r="C84" s="18" t="str">
         <f>bc_ttnl_theo_kh!E85</f>
-        <v>Tác chiến cho bay</v>
+        <v>Tác chiến, A2..</v>
       </c>
       <c r="D84" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F85/(24*60*60),"[h]:mm")</f>
-        <v>552:00</v>
+        <v>12:00</v>
       </c>
       <c r="E84" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G85/(24*60*60),"[h]:mm")</f>
-        <v>20:00</v>
+        <v>23:00</v>
       </c>
       <c r="F84" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H85/(24*60*60),"[h]:mm")</f>
-        <v>572:00</v>
+        <v>35:00</v>
       </c>
       <c r="G84" s="21" t="n">
         <f>bc_ttnl_theo_kh!I85</f>
-        <v>592953.0</v>
+        <v>665858.0</v>
       </c>
       <c r="H84" s="18" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J85/(24*60*60),"[h]:mm")</f>
@@ -44236,23 +44311,23 @@
       <c r="B85" s="35"/>
       <c r="C85" s="18" t="str">
         <f>bc_ttnl_theo_kh!E86</f>
-        <v>Huấn luyện chiến đấu</v>
+        <v>Tác chiến còn lại</v>
       </c>
       <c r="D85" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!F86/(24*60*60),"[h]:mm")</f>
-        <v>1320:00</v>
+        <v>12:00</v>
       </c>
       <c r="E85" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!G86/(24*60*60),"[h]:mm")</f>
-        <v>152:35</v>
+        <v>23:00</v>
       </c>
       <c r="F85" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!H86/(24*60*60),"[h]:mm")</f>
-        <v>1472:35</v>
+        <v>35:00</v>
       </c>
       <c r="G85" s="20" t="n">
         <f>bc_ttnl_theo_kh!I86</f>
-        <v>846558.0</v>
+        <v>665858.0</v>
       </c>
       <c r="H85" s="16" t="str">
         <f>TEXT(bc_ttnl_theo_kh!J86/(24*60*60),"[h]:mm")</f>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57379" uniqueCount="393">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66193" uniqueCount="401">
   <si>
     <t>CXD</t>
   </si>
@@ -1242,6 +1242,30 @@
   <si>
     <t>2732400.000000</t>
   </si>
+  <si>
+    <t>137170</t>
+  </si>
+  <si>
+    <t>4626</t>
+  </si>
+  <si>
+    <t>95051</t>
+  </si>
+  <si>
+    <t>18897</t>
+  </si>
+  <si>
+    <t>21628</t>
+  </si>
+  <si>
+    <t>2026</t>
+  </si>
+  <si>
+    <t>106000</t>
+  </si>
+  <si>
+    <t>103000</t>
+  </si>
 </sst>
 </file>
 
@@ -2741,19 +2765,19 @@
         <v>28</v>
       </c>
       <c r="F9" t="s" s="10">
-        <v>220</v>
+        <v>393</v>
       </c>
       <c r="G9" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H9" t="s" s="10">
-        <v>220</v>
+        <v>393</v>
       </c>
       <c r="I9" t="s" s="10">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="J9" t="s" s="10">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="K9" t="s" s="10">
         <v>220</v>
@@ -2777,10 +2801,10 @@
         <v>374</v>
       </c>
       <c r="R9" t="s" s="10">
-        <v>323</v>
+        <v>220</v>
       </c>
       <c r="S9" t="s" s="10">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="T9" t="s" s="10">
         <v>220</v>
@@ -2795,7 +2819,7 @@
         <v>220</v>
       </c>
       <c r="X9" t="s" s="10">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Y9" t="s" s="10">
         <v>220</v>
@@ -2860,19 +2884,19 @@
         <v>28</v>
       </c>
       <c r="F10" t="s" s="10">
-        <v>220</v>
+        <v>395</v>
       </c>
       <c r="G10" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H10" t="s" s="10">
-        <v>220</v>
+        <v>395</v>
       </c>
       <c r="I10" t="s" s="10">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="J10" t="s" s="10">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="K10" t="s" s="10">
         <v>220</v>
@@ -2896,10 +2920,10 @@
         <v>375</v>
       </c>
       <c r="R10" t="s" s="10">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="T10" t="s" s="10">
         <v>220</v>
@@ -2914,7 +2938,7 @@
         <v>220</v>
       </c>
       <c r="X10" t="s" s="10">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="Y10" t="s" s="10">
         <v>220</v>
@@ -2979,13 +3003,13 @@
         <v>28</v>
       </c>
       <c r="F11" t="s" s="10">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="G11" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H11" t="s" s="10">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="I11" t="s" s="10">
         <v>220</v>
@@ -3015,7 +3039,7 @@
         <v>220</v>
       </c>
       <c r="R11" t="s" s="10">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="S11" t="s" s="10">
         <v>220</v>
@@ -3098,13 +3122,13 @@
         <v>28</v>
       </c>
       <c r="F12" t="s" s="10">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="G12" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H12" t="s" s="10">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="I12" t="s" s="10">
         <v>220</v>
@@ -3137,7 +3161,7 @@
         <v>220</v>
       </c>
       <c r="S12" t="s" s="10">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="T12" t="s" s="10">
         <v>220</v>
@@ -3152,7 +3176,7 @@
         <v>220</v>
       </c>
       <c r="X12" t="s" s="10">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Y12" t="s" s="10">
         <v>220</v>
@@ -3336,19 +3360,19 @@
         <v>28</v>
       </c>
       <c r="F14" t="s" s="10">
-        <v>220</v>
+        <v>393</v>
       </c>
       <c r="G14" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H14" t="s" s="10">
-        <v>220</v>
+        <v>393</v>
       </c>
       <c r="I14" t="s" s="10">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="J14" t="s" s="10">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="K14" t="s" s="10">
         <v>220</v>
@@ -3372,10 +3396,10 @@
         <v>376</v>
       </c>
       <c r="R14" t="s" s="10">
-        <v>323</v>
+        <v>220</v>
       </c>
       <c r="S14" t="s" s="10">
-        <v>355</v>
+        <v>399</v>
       </c>
       <c r="T14" t="s" s="10">
         <v>220</v>
@@ -3390,7 +3414,7 @@
         <v>220</v>
       </c>
       <c r="X14" t="s" s="10">
-        <v>386</v>
+        <v>394</v>
       </c>
       <c r="Y14" t="s" s="10">
         <v>220</v>
@@ -3455,19 +3479,19 @@
         <v>4</v>
       </c>
       <c r="F15" t="s" s="10">
-        <v>220</v>
+        <v>395</v>
       </c>
       <c r="G15" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H15" t="s" s="10">
-        <v>220</v>
+        <v>395</v>
       </c>
       <c r="I15" t="s" s="10">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="J15" t="s" s="10">
-        <v>353</v>
+        <v>313</v>
       </c>
       <c r="K15" t="s" s="10">
         <v>220</v>
@@ -3491,10 +3515,10 @@
         <v>375</v>
       </c>
       <c r="R15" t="s" s="10">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="S15" t="s" s="10">
-        <v>359</v>
+        <v>400</v>
       </c>
       <c r="T15" t="s" s="10">
         <v>220</v>
@@ -3509,7 +3533,7 @@
         <v>220</v>
       </c>
       <c r="X15" t="s" s="10">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="Y15" t="s" s="10">
         <v>220</v>
@@ -3574,13 +3598,13 @@
         <v>31</v>
       </c>
       <c r="F16" t="s" s="10">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="G16" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H16" t="s" s="10">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="I16" t="s" s="10">
         <v>220</v>
@@ -3610,7 +3634,7 @@
         <v>220</v>
       </c>
       <c r="R16" t="s" s="10">
-        <v>324</v>
+        <v>220</v>
       </c>
       <c r="S16" t="s" s="10">
         <v>220</v>
@@ -3693,19 +3717,19 @@
         <v>30</v>
       </c>
       <c r="F17" t="s" s="10">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="G17" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H17" t="s" s="10">
-        <v>220</v>
+        <v>397</v>
       </c>
       <c r="I17" t="s" s="10">
-        <v>320</v>
+        <v>220</v>
       </c>
       <c r="J17" t="s" s="10">
-        <v>363</v>
+        <v>220</v>
       </c>
       <c r="K17" t="s" s="10">
         <v>220</v>
@@ -3732,7 +3756,7 @@
         <v>220</v>
       </c>
       <c r="S17" t="s" s="10">
-        <v>365</v>
+        <v>400</v>
       </c>
       <c r="T17" t="s" s="10">
         <v>220</v>
@@ -3747,7 +3771,7 @@
         <v>220</v>
       </c>
       <c r="X17" t="s" s="10">
-        <v>360</v>
+        <v>220</v>
       </c>
       <c r="Y17" t="s" s="10">
         <v>220</v>
@@ -3812,13 +3836,13 @@
         <v>319</v>
       </c>
       <c r="F18" t="s" s="10">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="G18" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H18" t="s" s="10">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="I18" t="s" s="10">
         <v>220</v>
@@ -3851,7 +3875,7 @@
         <v>220</v>
       </c>
       <c r="S18" t="s" s="10">
-        <v>313</v>
+        <v>220</v>
       </c>
       <c r="T18" t="s" s="10">
         <v>220</v>
@@ -3931,13 +3955,13 @@
         <v>32</v>
       </c>
       <c r="F19" t="s" s="10">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="G19" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H19" t="s" s="10">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="I19" t="s" s="10">
         <v>220</v>
@@ -3967,7 +3991,7 @@
         <v>220</v>
       </c>
       <c r="R19" t="s" s="10">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="S19" t="s" s="10">
         <v>220</v>
@@ -4050,13 +4074,13 @@
         <v>33</v>
       </c>
       <c r="F20" t="s" s="10">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="G20" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H20" t="s" s="10">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="I20" t="s" s="10">
         <v>220</v>
@@ -4086,7 +4110,7 @@
         <v>220</v>
       </c>
       <c r="R20" t="s" s="10">
-        <v>325</v>
+        <v>220</v>
       </c>
       <c r="S20" t="s" s="10">
         <v>220</v>
@@ -4169,13 +4193,13 @@
         <v>34</v>
       </c>
       <c r="F21" t="s" s="10">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="G21" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H21" t="s" s="10">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="I21" t="s" s="10">
         <v>220</v>
@@ -4208,7 +4232,7 @@
         <v>220</v>
       </c>
       <c r="S21" t="s" s="10">
-        <v>334</v>
+        <v>311</v>
       </c>
       <c r="T21" t="s" s="10">
         <v>220</v>
@@ -4223,7 +4247,7 @@
         <v>220</v>
       </c>
       <c r="X21" t="s" s="10">
-        <v>387</v>
+        <v>394</v>
       </c>
       <c r="Y21" t="s" s="10">
         <v>220</v>
@@ -4407,13 +4431,13 @@
         <v>37</v>
       </c>
       <c r="F23" t="s" s="10">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="G23" t="s" s="10">
         <v>220</v>
       </c>
       <c r="H23" t="s" s="10">
-        <v>220</v>
+        <v>396</v>
       </c>
       <c r="I23" t="s" s="10">
         <v>220</v>
@@ -4446,7 +4470,7 @@
         <v>220</v>
       </c>
       <c r="S23" t="s" s="10">
-        <v>335</v>
+        <v>220</v>
       </c>
       <c r="T23" t="s" s="10">
         <v>220</v>
@@ -4461,7 +4485,7 @@
         <v>220</v>
       </c>
       <c r="X23" t="s" s="10">
-        <v>389</v>
+        <v>398</v>
       </c>
       <c r="Y23" t="s" s="10">
         <v>220</v>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66193" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69131" uniqueCount="401">
   <si>
     <t>CXD</t>
   </si>

--- a/xlsx_template/data.xlsx
+++ b/xlsx_template/data.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="69131" uniqueCount="401">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77945" uniqueCount="404">
   <si>
     <t>CXD</t>
   </si>
@@ -1266,6 +1266,15 @@
   <si>
     <t>103000</t>
   </si>
+  <si>
+    <t>193678</t>
+  </si>
+  <si>
+    <t>170676</t>
+  </si>
+  <si>
+    <t>120676</t>
+  </si>
 </sst>
 </file>
 
@@ -2598,76 +2607,76 @@
       <c r="J7" t="s" s="10">
         <v>26</v>
       </c>
-      <c r="K7" t="s" s="10">
+      <c r="K7" t="s">
         <v>26</v>
       </c>
-      <c r="L7" t="s" s="10">
+      <c r="L7" t="s">
         <v>26</v>
       </c>
-      <c r="M7" t="s" s="10">
+      <c r="M7" t="s">
         <v>26</v>
       </c>
-      <c r="N7" t="s" s="10">
+      <c r="N7" t="s">
         <v>26</v>
       </c>
-      <c r="O7" t="s" s="10">
+      <c r="O7" t="s">
         <v>26</v>
       </c>
-      <c r="P7" t="s" s="10">
+      <c r="P7" t="s">
         <v>26</v>
       </c>
-      <c r="Q7" t="s" s="10">
+      <c r="Q7" t="s">
         <v>26</v>
       </c>
-      <c r="R7" t="s" s="10">
+      <c r="R7" t="s">
         <v>26</v>
       </c>
-      <c r="S7" t="s" s="10">
+      <c r="S7" t="s">
         <v>26</v>
       </c>
-      <c r="T7" t="s" s="10">
+      <c r="T7" t="s">
         <v>26</v>
       </c>
-      <c r="U7" t="s" s="10">
+      <c r="U7" t="s">
         <v>26</v>
       </c>
-      <c r="V7" t="s" s="10">
+      <c r="V7" t="s">
         <v>27</v>
       </c>
-      <c r="W7" t="s" s="10">
+      <c r="W7" t="s">
         <v>27</v>
       </c>
-      <c r="X7" t="s" s="10">
+      <c r="X7" t="s">
         <v>27</v>
       </c>
-      <c r="Y7" t="s" s="10">
+      <c r="Y7" t="s">
         <v>27</v>
       </c>
-      <c r="Z7" t="s" s="10">
+      <c r="Z7" t="s">
         <v>27</v>
       </c>
-      <c r="AA7" t="s" s="10">
+      <c r="AA7" t="s">
         <v>27</v>
       </c>
-      <c r="AB7" t="s" s="10">
+      <c r="AB7" t="s">
         <v>27</v>
       </c>
-      <c r="AC7" t="s" s="10">
+      <c r="AC7" t="s">
         <v>27</v>
       </c>
-      <c r="AD7" t="s" s="10">
+      <c r="AD7" t="s">
         <v>27</v>
       </c>
-      <c r="AE7" t="s" s="10">
+      <c r="AE7" t="s">
         <v>27</v>
       </c>
-      <c r="AF7" t="s" s="10">
+      <c r="AF7" t="s">
         <v>27</v>
       </c>
-      <c r="AG7" t="s" s="10">
+      <c r="AG7" t="s">
         <v>27</v>
       </c>
-      <c r="AH7" t="s" s="10">
+      <c r="AH7" t="s">
         <v>27</v>
       </c>
     </row>
@@ -2678,76 +2687,76 @@
       <c r="J8" t="s" s="10">
         <v>0</v>
       </c>
-      <c r="K8" t="s" s="10">
+      <c r="K8" t="s">
         <v>95</v>
       </c>
-      <c r="L8" t="s" s="10">
+      <c r="L8" t="s">
         <v>96</v>
       </c>
-      <c r="M8" t="s" s="10">
+      <c r="M8" t="s">
         <v>97</v>
       </c>
-      <c r="N8" t="s" s="10">
+      <c r="N8" t="s">
         <v>1</v>
       </c>
-      <c r="O8" t="s" s="10">
+      <c r="O8" t="s">
         <v>98</v>
       </c>
-      <c r="P8" t="s" s="10">
+      <c r="P8" t="s">
         <v>2</v>
       </c>
-      <c r="Q8" t="s" s="10">
+      <c r="Q8" t="s">
         <v>99</v>
       </c>
-      <c r="R8" t="s" s="10">
+      <c r="R8" t="s">
         <v>3</v>
       </c>
-      <c r="S8" t="s" s="10">
+      <c r="S8" t="s">
         <v>100</v>
       </c>
-      <c r="T8" t="s" s="10">
+      <c r="T8" t="s">
         <v>101</v>
       </c>
-      <c r="U8" t="s" s="10">
+      <c r="U8" t="s">
         <v>102</v>
       </c>
-      <c r="V8" t="s" s="10">
+      <c r="V8" t="s">
         <v>94</v>
       </c>
-      <c r="W8" t="s" s="10">
-        <v>0</v>
-      </c>
-      <c r="X8" t="s" s="10">
+      <c r="W8" t="s">
+        <v>0</v>
+      </c>
+      <c r="X8" t="s">
         <v>95</v>
       </c>
-      <c r="Y8" t="s" s="10">
+      <c r="Y8" t="s">
         <v>96</v>
       </c>
-      <c r="Z8" t="s" s="10">
+      <c r="Z8" t="s">
         <v>97</v>
       </c>
-      <c r="AA8" t="s" s="10">
+      <c r="AA8" t="s">
         <v>1</v>
       </c>
-      <c r="AB8" t="s" s="10">
+      <c r="AB8" t="s">
         <v>98</v>
       </c>
-      <c r="AC8" t="s" s="10">
+      <c r="AC8" t="s">
         <v>2</v>
       </c>
-      <c r="AD8" t="s" s="10">
+      <c r="AD8" t="s">
         <v>99</v>
       </c>
-      <c r="AE8" t="s" s="10">
+      <c r="AE8" t="s">
         <v>3</v>
       </c>
-      <c r="AF8" t="s" s="10">
+      <c r="AF8" t="s">
         <v>100</v>
       </c>
-      <c r="AG8" t="s" s="10">
+      <c r="AG8" t="s">
         <v>101</v>
       </c>
-      <c r="AH8" t="s" s="10">
+      <c r="AH8" t="s">
         <v>102</v>
       </c>
     </row>
@@ -2774,10 +2783,10 @@
         <v>393</v>
       </c>
       <c r="I9" t="s" s="10">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="J9" t="s" s="10">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="K9" t="s" s="10">
         <v>220</v>
@@ -2801,10 +2810,10 @@
         <v>374</v>
       </c>
       <c r="R9" t="s" s="10">
-        <v>220</v>
+        <v>323</v>
       </c>
       <c r="S9" t="s" s="10">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="T9" t="s" s="10">
         <v>220</v>
@@ -2819,7 +2828,7 @@
         <v>220</v>
       </c>
       <c r="X9" t="s" s="10">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Y9" t="s" s="10">
         <v>220</v>
@@ -2893,10 +2902,10 @@
         <v>395</v>
       </c>
       <c r="I10" t="s" s="10">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="J10" t="s" s="10">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="K10" t="s" s="10">
         <v>220</v>
@@ -2920,10 +2929,10 @@
         <v>375</v>
       </c>
       <c r="R10" t="s" s="10">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="S10" t="s" s="10">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="T10" t="s" s="10">
         <v>220</v>
@@ -2938,7 +2947,7 @@
         <v>220</v>
       </c>
       <c r="X10" t="s" s="10">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="Y10" t="s" s="10">
         <v>220</v>
@@ -3039,7 +3048,7 @@
         <v>220</v>
       </c>
       <c r="R11" t="s" s="10">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="S11" t="s" s="10">
         <v>220</v>
@@ -3161,7 +3170,7 @@
         <v>220</v>
       </c>
       <c r="S12" t="s" s="10">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="T12" t="s" s="10">
         <v>220</v>
@@ -3176,7 +3185,7 @@
         <v>220</v>
       </c>
       <c r="X12" t="s" s="10">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Y12" t="s" s="10">
         <v>220</v>
@@ -3369,10 +3378,10 @@
         <v>393</v>
       </c>
       <c r="I14" t="s" s="10">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="J14" t="s" s="10">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="K14" t="s" s="10">
         <v>220</v>
@@ -3396,10 +3405,10 @@
         <v>376</v>
       </c>
       <c r="R14" t="s" s="10">
-        <v>220</v>
+        <v>323</v>
       </c>
       <c r="S14" t="s" s="10">
-        <v>399</v>
+        <v>401</v>
       </c>
       <c r="T14" t="s" s="10">
         <v>220</v>
@@ -3414,7 +3423,7 @@
         <v>220</v>
       </c>
       <c r="X14" t="s" s="10">
-        <v>394</v>
+        <v>386</v>
       </c>
       <c r="Y14" t="s" s="10">
         <v>220</v>
@@ -3488,10 +3497,10 @@
         <v>395</v>
       </c>
       <c r="I15" t="s" s="10">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="J15" t="s" s="10">
-        <v>313</v>
+        <v>353</v>
       </c>
       <c r="K15" t="s" s="10">
         <v>220</v>
@@ -3515,10 +3524,10 @@
         <v>375</v>
       </c>
       <c r="R15" t="s" s="10">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="S15" t="s" s="10">
-        <v>400</v>
+        <v>402</v>
       </c>
       <c r="T15" t="s" s="10">
         <v>220</v>
@@ -3533,7 +3542,7 @@
         <v>220</v>
       </c>
       <c r="X15" t="s" s="10">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="Y15" t="s" s="10">
         <v>220</v>
@@ -3634,7 +3643,7 @@
         <v>220</v>
       </c>
       <c r="R16" t="s" s="10">
-        <v>220</v>
+        <v>324</v>
       </c>
       <c r="S16" t="s" s="10">
         <v>220</v>
@@ -3726,10 +3735,10 @@
         <v>397</v>
       </c>
       <c r="I17" t="s" s="10">
-        <v>220</v>
+        <v>320</v>
       </c>
       <c r="J17" t="s" s="10">
-        <v>220</v>
+        <v>363</v>
       </c>
       <c r="K17" t="s" s="10">
         <v>220</v>
@@ -3756,7 +3765,7 @@
         <v>220</v>
       </c>
       <c r="S17" t="s" s="10">
-        <v>400</v>
+        <v>403</v>
       </c>
       <c r="T17" t="s" s="10">
         <v>220</v>
@@ -3771,7 +3780,7 @@
         <v>220</v>
       </c>
       <c r="X17" t="s" s="10">
-        <v>220</v>
+        <v>360</v>
       </c>
       <c r="Y17" t="s" s="10">
         <v>220</v>
@@ -3875,7 +3884,7 @@
         <v>220</v>
       </c>
       <c r="S18" t="s" s="10">
-        <v>220</v>
+        <v>313</v>
       </c>
       <c r="T18" t="s" s="10">
         <v>220</v>
@@ -3991,7 +4000,7 @@
         <v>220</v>
       </c>
       <c r="R19" t="s" s="10">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="S19" t="s" s="10">
         <v>220</v>
@@ -4110,7 +4119,7 @@
         <v>220</v>
       </c>
       <c r="R20" t="s" s="10">
-        <v>220</v>
+        <v>325</v>
       </c>
       <c r="S20" t="s" s="10">
         <v>220</v>
@@ -4232,7 +4241,7 @@
         <v>220</v>
       </c>
       <c r="S21" t="s" s="10">
-        <v>311</v>
+        <v>334</v>
       </c>
       <c r="T21" t="s" s="10">
         <v>220</v>
@@ -4247,7 +4256,7 @@
         <v>220</v>
       </c>
       <c r="X21" t="s" s="10">
-        <v>394</v>
+        <v>387</v>
       </c>
       <c r="Y21" t="s" s="10">
         <v>220</v>
@@ -4470,7 +4479,7 @@
         <v>220</v>
       </c>
       <c r="S23" t="s" s="10">
-        <v>220</v>
+        <v>335</v>
       </c>
       <c r="T23" t="s" s="10">
         <v>220</v>
@@ -4485,7 +4494,7 @@
         <v>220</v>
       </c>
       <c r="X23" t="s" s="10">
-        <v>398</v>
+        <v>389</v>
       </c>
       <c r="Y23" t="s" s="10">
         <v>220</v>
